--- a/기사데이터/토스/엑셀파일/news(토스, 2022.12.01~2022.12.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.12.01~2022.12.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2022.12.12.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>니콘내콘, '알뜰 소비' 더욱 간편하게 누려요! … 토스페이 연동결제 도입</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000877107?sid=101</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>'토스페이' 간편결제 도입 … 결제 인프라 확장 스타트업 더블엔씨(대표 박진희)의 기프티콘 거래 플랫폼 '니콘내콘'이 간편 결제 인프라 확장을 위해 토스페이를 활용한 간편결제 서비스를 시작했다.더블엔씨는 스마트폰 간편결제 서비스 이용이 급증하는 가운데, 니콘내콘 유저들이 빠르고 편리하게 이용할 수 있는 결제 환경을 제공하기 위해 대표적 간편결제 서비스인 토스페이를 도입했다. 이로써 니콘내콘에서는 토스페이를 포함해 선불 충전 후 사용할 수 있는 니콘머니와 카드 일반 결제, 니콘내콘 전용 간편결제 서비스 니콘페이까지 총 4가지 결제 서비스를 이용할 수 있게 되었다.토스 모바일 애플리케이션(앱)을 쓰고 있는 니콘내콘 유저라면 누구나 간단한 인증만으로도 간편하게 토스페이 결제가 가능하다. 니콘내콘 내 원하는 상품을 고른 후 결제방식에서 토스페이를 선택, 결제 비밀번호를 입력하면 된다.니콘내콘은 서비스 오픈을 기념해 12월 31일까지 토스페이 생애 첫 결제 고객을 대상으로 이벤트를 진행한다. 니콘내콘에서 토스페이로 생애 첫 결제 시 결제금액의 100%를 최대 3천원까지 캐시백을 제공할 예정이다. 이벤트 관련 상세 내용은 니콘내콘 모바일 앱 결제화면을 통해 확인할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2022.12.14.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>"불황기 투자가 호황기 대비 수익률 10%포인트 더 높다"</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000041793?sid=105</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>불황기 위기가 오기 3일 전(T-3)부터 2년 후까지 투자 수익률 추이(빨간선). 호황기 2년 투자 수익률 대비 9.6%포인트 높다.(자료=아주IB투자)불황기에 집행하는 투자의 수익률이 호황기에 견줘 약 10%포인트 더 높다는 분석이 나왔다. 투자대상 회사의 수익성이 불경기 영향으로 낮아진 경우 향후 추가적인 가치창출 여지가 많기 때문이다.정대석 아주IB투자 투자전략본부장은 13일 여신금융협회가 '3고 경제시대의 여전업 전망과 대응방향'을 주제로 개최한 여신금융포럼에서 "불황기 투자는 호황기보다 우월한 효과를 시현할 수 있고 저렴한 가격으로 좋은 기업에 투자할 수 있는 최적의 시기"라며 보스턴컨설팅그룹의 자료를 인용해 이 같이 밝혔다.업력 48년에 운용펀드규모(AUM)만 2조257억 규모에 달하는 중견사인 아주IB투자가 이러한 '역발상 투자'를 주장한 점에서 주목된다. 아주IB투자는 사모투자펀드 전문운용사로 벤처캐피탈(VC)과 사모투자(PE) 사업을 영위한다. 38개 펀드를 청산해 내부수익률(IRR) 15.5%, 멀티플 기준 1.5배 회수 실적을 기록했다.지난해까지만 해도 VC·펀드 비즈니스는 '자본시장의 제2 르네상스'로 불릴 정도였다. 지난해 VC 투자조합과 기관전용 PEF의 신규 결성금액은 각각 17조7000억원, 23조4000억원으로 2017년 대비 각각 2.8배, 2.4배 증가했다. 같은 기간 신기술투자조합과 벤처투자조합의 VC, PE 투자 집행실적은 15조9000억원, 27조3000억원으로 3.9배, 2.2배 늘었다.올해 들어 상황이 급변했다. 기준금리 지속 인상과 이에 따른 자금경색 영향으로 VC·PE 투자시장은 급속 냉각됐다. 이에 하늘높이 치솟던 유니콘(기업가치 1억달러 이상 비상장기업)들도 지상으로 하강했다. 서울거래 비상장에 따르면 지난달 29일 기준 비바리퍼블리카(토스) 기업가치는 7조1325억원, 두나무(업비트)의 경우 4조8364억원으로 최고가 대비 하락폭이 75.9%, 74.4%에 달했다.투자자산 기업가치의 하락으로 회수시장이 침체하자 운용사의 수익악화 가능성이 고조되고 있다. 이로써 '투자-회수-재투자'의 선순환 구조 및 자본시장 붕괴 가능성이 거론된다. 트랙레코드(운용실적)가 부족한 중소형 운용사는 존속이 위협받아 승자독식 구조가 심화되는 국면이다. 정 본부장은 "고금리, 고물가, 고환율 3고로 인해 3년간 커졌던 수준이 일거에 없어지고 있는 상황"이라며 "출자를 확약했던 우리 출자자들도 출자금 집행을 머뭇거리고 있다"고 전했다.(자료=아주IB투자)그럼에도 아주IB투자는 악순환이 선순환으로 바뀌는 '긍정론'을 견지하고 있다. 불황기에는 인수 대상회사의 평가가치가 낮아지므로 인수 후 프리미엄 확보가 상대적으로 수월하며, M&amp;A 추진회사의 경우 호황기 대비 신중한 의사결정과 재무적으로 건전한 피인수 회사를 선정할 가능성이 높다고 보고 있다.투자심리 위축을 최소화하는 정책적 수단이 필요하다고도 주장했다. 정 본부장은 "경기침체 시장충격 완화를 위한 재정출자 확대가 필요하다. 현 시점에서 재정출자 축소는 민간 투자심리 위축을 배가한다"며 "민간 기업의 적극적인 출자 유도를 위한 추가적인 세제 지원도 필요하다"고 제언했다.정 본부장은 구체적으로 투자에 적합한 기업을 선정하는 기준에 대해서는 "싼 물건, 따로 좋은 물건은 없다. 기술력과 풍부한 경험을 가졌음에도 투자를 못 받아서 성장의 기회를 놓칠 수 있는 기업들을 발굴하겠다는 게 저희의 투자 철학"이라며 "이런 불안기에 밸류에이션의 조정을 너무 두렵게만 받아들이지 말아야 한다"고 역설했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2022.12.13.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>예·적금 금리 인상에 11월 국내 금융 앱 설치수 증가세</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000036213?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>[빅데이터로 보는 경제 동향]KB국민은행 스타뱅킹 설치증가율 1.8% 증가     스마트폰 이용 모습. [AP=연합뉴스]     빅데이터 전문기업 TDI가 자사 플랫폼 데이터드래곤으로 11월 안드로이드 사용자 기준 국내 금융 앱을 분석한 결과 은행·결제·자금 관리 등을 포함한 모든 금융 앱들 중 설치수가 많은 앱은 토스(1951만대), 카카오뱅크(1714만대), 페이북·ISP(1509만대), NH스마트뱅킹(1323만대), KB국민은행 스타뱅킹(1317만대) 순으로 집계 됐다.           10월에도 설치수 상위 5개 금융 앱은 토스(1947만대), 카카오뱅크(1698만대), 페이북·ISP(1502만대), NH스마트뱅킹(1309만대), KB국민은행 스타뱅킹(1294만대) 순이었다. 10월 대비 11월에 설치수가 모두 늘어난 것이다    10월 대비 11월 설치수 증감률은 토스 0.2%, 카카오뱅크 0.9%, 페이북·ISP 0.5%, NH스마트뱅킹 1.1%, KB국민은행 스타뱅킹 1.8%으로 파악됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2022.12.11.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>130년간 발레계 스테디셀러…‘호두까기인형’의 계절이 왔다</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002076596?sid=103</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>국립발레단, 17~25일 예술의전당와이즈발레간, 16~18일 마포아트센터유니버설발레단, 22~31일 세종문화회관국립발레단 ‘호두까기인형’ [국립발레단 제공][헤럴드경제=고승희 기자] ‘호두까기 인형’의 시즌이 돌아왔다. 독일 작가 E.T.A 호프만의 ‘호두까기 인형과 생쥐왕’을 프랑스 대문화 알렉상드르 뒤마가 각색하고, 안무가 마리우스 프티파가 발레 대본으로 만들어 차이콥스키의 아름다운 음악이 입힌 ‘발레의 세계’다.‘호두까기인형’은 19세기 러시아 발레의 중심지였던 상트페테르부르크 마린스키 극장에서 1892년 초연된 이후 130년간 전 세계에서 연말 ‘단골 레퍼토리’로 자리했다. 오랜 역사와 전통의 공연인 만큼 국내 유수 발레단이 올해에도 송년 공연으로 ‘호두까기인형’을 선택했다. 저마다 매진 행렬을 기록 중인 스테디셀러 공연으로, 각 단체마다 특색도 다르고 관전 포인트도 다르다. 국립발레단 ‘호두까기인형’[국립발레단 제공]국립발레단은 예술의전당과 공동 기획, ‘러시아의 살아있는 전설’로 불리는 안무가 유리 그리고로비치 버전의 ‘호두까기인형’으로 다시 돌아온다. 오는 17~25일까지 예술의전당 오페라극장에서 국립심포니오케스트라의 연주로 선보인다. 이 무대는 2000년 처음 선보인 이후 연말 공연계의 ‘베스트셀러’로 사랑받았다. 올해 공연도 이미 매진됐다.‘호두까기인형’은 주인공 소녀 ‘마리’가 크리스마스 이브 날 밤, 꿈속에서 호두 왕자를 만나 크리스마스 랜드를 여행하는 스토리를 그린다. 국립발레단과 예술의전당의 ‘호두까기인형’엔 다른 버전과의 차별점이 있다. ‘호두까기인형’을 목각인형이 아닌 어린 무용수가 직접 연기한다는 점이다. 국립발레단은 “‘호두까기인형’의 역할은 매해 국립발레단 부설 발레아카데미 학생들이 공정한 오디션을 거쳐 선발된다”고 귀띔했다.국립발레단 ‘호두까기인형’ [국립발레단 제공]또 극 초반부터 등장해 극을 이끄는 화자 역할을 하는 ‘드로셀마이어’ 역시 유리 그리고로비치 버전에서만 볼 수 있는 특별한 해석이다. 다른 버전에선 ‘드로셀마이어’가 마리의 대부로 평면적으로 묘사된다.장면 장면 눈을 뗄 수 없는 아름다운 안무도 관전 포인트다. 24명의 무용수가 하늘에서 떨어지는 눈꽃송이를 표현하는 1막의 피날레 눈송이 춤, 세계 5개국(스페인, 중국, 러시아, 프랑스, 인도)의 민속춤을 가미한 인형들의 디베르티스망(줄거리와 상관없이 펼치는 춤의 향연), 32명의 무용수가 만들어내는 화려하면서도 질서 있는 꽃의 왈츠, 극의 대미를 장식하는 마리와 왕자의 2인무 (그랑 파드되)는 눈여겨 봐야할 대목이다.공연에선 국립발레단의 간판 수석무용수 박슬기, 박예은, 김기완, 이재우, 허서명, 박종석을 비롯해 총 7쌍의 마리와 왕자를 만날 수 있다. 이번 ‘호두까기인형’에선 올해 ‘해설이 있는 전막발레 해적’에서 해설자 ‘마젠토스 왕’으로 관객과 만난 구현모가 ‘왕자’로 데뷔한다.와이즈발레단 ‘호두까기인형’ [마포문화재단 제공]마포문화재단은 와이즈발레단과 함께 오는 16~18일까지 마포아트센터에서 ‘호두까기인형’을 올린다 안무가 마리우스 프티파의 원작을 와이즈발레단의 김수연 부단장이 총연출, 홍성욱 예술감독이 재안무했다. 와이즈발레단의 ‘호두까기인형’은 프티파 안무의 원형은 유지한 채 브레이크 댄스, 팝핑, 비보잉 등 스트릿 댄스를 더했다는 특이점이 있다. 생쥐로 변신한 비보이 댄서와 호두까기 왕자의 다이내믹한 춤 배틀, 발레리나와 스트릿 댄서들이 선보이는 2막의 중국춤은 와이즈발레단의 호두까기 인형에서만 볼 수 있는 장면이다. 클라라의 크리스마스 파티에 초대된 마법사 드로셀마이어의 마술로 할리퀸, 콜롬바인, 팬더 등 인형들이 살아 움직이며 시작된 공연은 고난도의 테크닉의 군무도 관전 포인트다.공연은 1회차 김민영박종희, 2회차 윤해지백무라토브 살라맛(Bekmuratov Salamat), 3회차 김민영윤별, 4회차 강윤정멘드바야르 남스라이(Mendbayar Namsrai), 5회차 김유진백인규 캐스팅으로 꾸며진다. 비보잉에는 국내 최정상 비보이 크루 올마이티 후즈가 출연한다.유니버설발레단 ‘호두까기인형’ [유니버설발레단 제공]유니버설발레단은 세종문화회관과 공동기획한 ‘호두까기인형’으로 돌아온다. 오는 22~31일까지 세종문화회관 대극장에서 코리아콥오케스트라의 연주로 관객과 만난다.유니유니버설발레단의 ‘호두까기인형’은 차이콥스키의 음악을 가장 잘 살려냈다는 평을 받는 러시아 마린스키발레단의 바실리 바이노넨(Vasily Vainonen, 1901~1964) 버전으로 선보인다. 1986년 시작, 올해로 벌써 36번째 시즌을 맞는 스테디셀러다.러시아 황실 발레의 세련미, 정교함, 화려함을 특징으로 하는 ‘마린스키 스타일’은 고도의 테크닉과 스토리텔링이 잘 어우러진다. ‘호두까기인형’은 신비롭고 환상적인 무대, 원작의 스토리가 생생하게 살아 숨 쉬는 연출과 정통 클래식의 정제된 안무에 이해하기 쉬운 마임들이 적절하게 구성돼있다. 유니버서발레단은 “남녀노소 누구나 즐길 수 있는 발레 입문작으로도 좋다”고 귀띔했다.발레의 1막은 스토리를 중심으로 크리스마스 판타지를 서정적이며 역동적으로 그려낸다. 반면 2막은 발레 테크닉이 집중 배치돼 있다. 특히 1막 ‘눈송이 왈츠’와 2막 ‘로즈 왈츠’는 유니버설발레단의 장기인 군무의 매력을 만날 수 있다. ‘로즈 왈츠’에선 남녀 군무의 쉴 새 없이 이어지는 리프트와 점프와 빠른 대형 변화로 우아하면서도 화려한 앙상블을 선보인다. 뿐만 아니라 과자의 나라에서 펼쳐지는 스페인(초콜릿), 아라비아(커피콩), 중국(차), 러시아(막대사탕) 등 과자를 의인화시킨 각국의 민속춤으로 이뤄진 디베르티스망도 관전 포인트다.유니버설발레단의 ‘호두까기인형’에는 강미선 - 콘스탄틴 노보셀로프, 엘리자베타 체프라소바 – 이동탁, 홍향기 - 드미트리 디아츠코프, 손유희 – 이현준, 한상이 – 강민우, 서혜원 - 이고르 콘타레프, 김수민 - 간토지 오콤비얀바, 박상원 - 이승민 등 총 여덟 커플이 출연한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2022.12.08.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>브랜드엑스, 자회사 이루다마케팅 35억 투자 유치</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003064464?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>브랜드엑스코퍼레이션은 온라인 마케팅 자회사 이루다마케팅이 최근 35억원 규모의 신규 투자를 유치하며 기업가치 300억원을 인정받았다고 8일 밝혔다.이번 투자는 중소벤처기업 투자 전문회사인 오엔벤처투자가 조성한 두 곳의 투자조합을 통해 이뤄졌으며 이루다마케팅의 지분 12%를 취득했다.이루다마케팅은 2011년 패션브랜드를 전문으로 하는 퍼포먼스 마케팅 회사로 현재 누적 3000여개의 고객사를 보유하고 있다.메타, 구글, 네이버, 카카오, 토스 등 국내외 40여개 매체에 대한 공식 대행권을 갖고 있으며, 퍼포먼스 마케팅, 미디어 광고, 통합마케팅커뮤니케이션(IMC), 브랜딩 등 경계없는 마케팅 서비스를 제공하는 디지털 종합 광고대행사로서 입지를 다지고 있다.내년부터는 B2B 및 오프라인 마케팅(BTL) 등 신규 사업 발굴에 주력하면서 매출 성장세와 함께 영업이익 80억원을 목표로 두고 있다. 특히 자체 콘텐츠 확대를 통해 기업 브랜딩과 시장 내 입지를 공고히 할 예정이다.이루다마케팅 관계자는 “이루다마케팅의 성장 가능성을 인정받아 프리IPO 차원의 투자를 받게 됐다”며 “기존 사업 강화와 신규 사업을 위한 핵심인력 보강 및 내재화 등을 통해 미래 성장동력을 마련해 나갈 계획”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2022.12.12.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>우체국 새마을금고에서도 '개인정보노출자' 등록 신청 가능</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004940977?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>개인정보 유출시 추가피해 예방..은행 없는 지역 주민에 혜택  [파이낸셜뉴스]  사진=연합뉴스 앞으로는 시중 은행 뿐만 아니라 전국 우체국과 새마을금고 지점에서도 '개인정보노출자' 등록 신청을 할 수 있게 된다.   금융감독원은 우정사업본부, 새마을금고, 주요 간편결제 사업자와 개인정보노출자 사고예방시스템 연계기관 확대를 위한 협약을 맺었다고 12일 밝혔다. 금감원은 개인정보가 노출될 경우 동 정보가 보이스피싱이나 금융사기 등에 연루될 위험이 높아 이를 신속하게 차단할 필요가 있다고 협약 배경을 설명했다.   이에 따라 내년 1·4분기 이후 은행 영업점 외에 전국 3373개 우체국 및 3260개 새마을금고 지점에서도 개인정보노출자 등록 및 해제 신청이 가능해진다. 또한 간편결제 및 송금·이체거래 서비스를 제공하는 네이버파이낸셜, 카카오페이, 비바리퍼블리카(토스) 등 주요 전자금융업자에도 개인정보 노출 사실이 실시간으로 공유된다.   개인정보 노출자 사고예방시스템은 명의도용에 따른 금융거래사고를 예방하기 위해 도입된 제도다.   현재 금감원 금융소비자포털 '파인'이나 은행 영업점에서 개인정보노출자 등록 및 해제를 신청할 수 있다.   개인정보노출자로 등록되면 관련 정보가 금융회사에 전파되며 해당 명의자 업무 취급 시 영업점 단말기에 '본인확인 주의' 문구가 표시된다.   이복현 금융감독원장은 이날 금감원에서 열린 협약식에서 "전국적 지점망을 갖춘 우체국과 새마을금고에서도 개인정보 노출 사실을 등록·해제할 수 있게 되어 금융회사 지점이 적은 지역 주민의 금융사고 예방에 기여할 것으로 기대한다"고 말했다.   올해 개인정보노출자 등록 건수는 11월까지 22만7000건으로 지난해(20만9000건) 등록 건수를 이미 넘어섰다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2022.12.07.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>토스 "사기 예방활동으로 반년간 송금 피해 15만건 방지"</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013628148?sid=102</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>토스 "사기 예방활동으로 반년간 송금 피해 15만건 방지"[비바리퍼블리카 제공. 재판매 및 DB 금지](서울=연합뉴스) 오규진 기자 = 모바일 금융 플랫폼 '토스'를 운영하는 비바리퍼블리카는 사기 예방 활동으로 반년간 송금 피해 15만 건을 막았다고 7일 밝혔다.    비바리퍼블리카 이상거래탐지시스템(FDS)팀은 사용자 기기 정보, 접속 위치, 환경, 거래 패턴 등을 머신러닝으로 분석해 의심스러운 송금을 차단하고 있다.    웹 스크래핑 기술로 포털사이트 간편결제 페이지로 위장한 범죄 사이트에 기재된 계좌번호를 수집하고 있으며, 이용자 신고로 수집된 계좌번호, 경찰청 사이버안전지킴이, 더치트에 등록된 계좌번호도 송금 과정에서 자동으로 확인한다.    비바리퍼블리카는 송금 피해에 선제적으로 대응하면서 지난 6개월 동안 이용자 5만1천500여 명, 금액으로는 약 160억 원을 보호했다고 설명했다.    이광현 비바리퍼블리카 FDS 담당자는 "앞으로도 토스의 모든 송금이 안전할 수 있도록 적극적인 고객 보호 정책을 펼치겠다"고 말했다.     acdc@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2022.12.06.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>한화손보, ‘모바일 전자증명서 제출 서비스’ 오픈</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000860167?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>한화손해보험이 행정안전부의 정부 전자문서지갑을 연계해 ‘모바일 전자증명서 제출 서비스’ 시스템을 구축했다고 6일 밝혔다.한화손해보험 제공        앞으로 고객은 주민등록등본, 가족관계증명서 등 보험업무에 필요한 종이 민원증명서를 디지털 기반의 모바일 전자증명서로 대체해 제출할 수 있다.민원증명서 제출이 필요한 고객은 모바일앱에서 전자문서지갑을 통해 바로 한화손해보험으로 전송을 요청하면 된다. 행정기관 방문, 서류발급, 보험사 제출과 같은 번거로운 과정이 디지털화되고 문서출력도 줄어드는 환경·사회·지배구조(ESG) 차원의 개선이 이뤄졌다.한화손보는 이 서비스를 현재 의료수급권자 할인신청, 지정대리청구인 지정과 같은 장기보험계약 변경업무에 적용 중이다. 향후엔 장기보험업무 전반 외에도 일반·자동차보험 관련 업무로 확대할 계획이다.전자문서지갑이란 행정·공공기관에서 발급하는 종이 민원증명서를 암호화된 전자문서 형태로 발급받아 보관할 수 있는 클라우드 기반의 개인 저장소다. ‘정부24′ 등 공공 앱이나 네이버, 카카오, 페이코, 토스 등에서 만들 수 있다.한화손보 관계자는 “모바일을 연계한 디지털 트렌드 변화에 선제적으로 대응하고자 이번 서비스를 개발했다”며 “앞으로도 디지털 기반의 계약관리 서비스를 다양화 함으로써 고객 편익에 앞장설 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2022.12.07.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>다올투자證, 다올인베 매각 추진에 '강세'</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011579355?sid=101</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>기사내용 요약다올투자증권, 자회사 다올인베 매각 추진 [서울=뉴시스]다올투자증권 본사 전경[서울=뉴시스] 류병화 기자 = 다올투자증권이 자회사인 다올인베스트먼트 매각 추진 소식에 강세를 보이고 있다.7일 한국거래소에 따르면 이날 오전 9시25분 현재 다올투자증권은 전 거래일 대비 350원(10.61%) 오른 3650원에 거래되고 있다. 다올인베스트먼트는 22.60% 상승한 3770원에 거래 중이다.다올투자증권은 다올인베스트먼트 매각을 위해 삼일PwC를 주관사로 선정하고 인수 후보자들을 상대로 인수 의사를 살피고 있다.다올투자증권은 보유하고 있는 다올인베스트먼트의 지분 52%에 대해 2000억원 이상 파는 조건으로 협의가 진행 중이다.다올투자증권이 벤처캐피털(VC) 자회사를 매물로 내놓는 것은 유동성 위기를 극복하고 시장의 우려를 불식시키기 위해서다. 1981년 설립된 다올인베스트먼트의 전신은 KTB네트워크다. 국내에선 '1세대 VC'란 평가를 받고 있다. 배달의민족(우아한형제들)과 토스(비바리퍼블리카) 등 유니콘에 투자하며 인지도를 높였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2022.12.07.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>박람회서 업계 최고금리보다 더주는 예금특판… 사은품도 챙기세요</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003733037?sid=101</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>지난 2019년 12월 서울 대치동 세텍에서 열린 '2020 대한민국 재테크 박람회'에서 방문객들이 부스를 둘러보고 있다. 같은 곳에서 3년 만에 오프라인으로 열리는 '2023 대한민국 재테크 박람회'에서도 은행, 보험, 증권사 등 30여 사가 참여해 부스를 마련한다. /김연정 객원기자										12월 16~17일 이틀동안 서울 대치동 세텍(SETEC)에서 열리는 ‘2023 대한민국 재테크 박람회’에서는 은행과 보험·증권사 등 대형 금융사들은 물론 인터넷뱅크·핀테크·헬스케어·공공기관 등 30여곳의 다양한 회사들이 참여해 다채로운 이벤트를 선보인다.‘트렌드 재테크관’이라는 주제로 차려질 제 2전시실에는 케이뱅크·카카오뱅크·토스뱅크 등 인터넷전문은행 3사와 핀테크사, 저축은행, 가상화폐 거래소, 헬스케어업체 등을 만날 수 있다. 상상인저축은행은 박람회 기간 저축은행업계에서 가장 높은 1년 만기 정기예금 상품보다 0.1%포인트 금리를 얹은 예금 상품을 선착순 400명(16~17일 각 200명씩)에게 판매한다. 예컨대 현재 기준(12월 5일) 저축은행업계 1년 예금상품 최고금리가 연 6.1%라는 점을 감안하면 연 6.2% 상품에 가입할 수 있는 셈이다.올해 1월 금융 당국에 온라인투자연계금융업자(온투업자)로 등록한 P2P 회사 솔라브리지는 재테크 박람회에 맞춰 고금리 단기 투자상품을 출시한다. 태양광 발전소에 투자하는 이 상품은 연이율 15%를 추구한다. 투자 기간은 3개월, 최대 투자한도는 500만원이다. 다만 시장 상황에 따라 원금 보장은 되지 않고, 투자자가 몰릴 경우 조기 마감될 수 있다. 이 회사는 현장에서 최대 6만원 상당의 상품권 혜택도 제공한다.조각투자 핀테크사 스탁키퍼(뱅카우)와 테사도 올해 재테크 박람회에 참여한다. 스탁키퍼는 현장에서 뱅카우 회원 가입을 하면 뽑기를 통해 치킨쿠폰과 커피쿠폰을 지급한다. AI(인공지능) 알고리즘 기반 자산관리 플랫폼 서비스를 제공하는 쿼터백은 방문객들에게 안정적인 자산관리를 위한 기초 지식을 알려준다. NFT(대체 불가능한 토큰) 마켓플레이스 모핑아이는 추첨을 통해 금 NFT와 무선 충전기 등을 제공한다. 주택금융공사는 부스에 방문하는 고객들에게 마스크와 손소독제 등 홍보물품을 나눠준다.제 1전시실에서는 KB금융, 신한금융, 우리금융, 하나금융, NH농협금융 등 5대 금융그룹과 삼성금융네트웍스(삼성카드, 삼성증권, 삼성생명, 삼성화재), 미래에셋그룹, 한국투자증권, 대신파이낸셜그룹 등 대형 금융사들이 부스를 마련한다. 부스에서는 1대1 상담은 물론 이벤트를 통해 다양한 선물을 제공할 예정이다. 한국투자증권은 이번 박람회에서 처음으로 해외주식 거래를 신청하는 방문객들에게 10달러를 지급하고, 선착순 200명에게는 스타벅스 상품권 1만원권을 제공한다. 또 신청일로부터 2개월간 온라인 매수수수료 0%를 적용한다.3년을 기다렸다! 재테크 박람회 무료로 사전 등록하세요2023년 새해에 웃을 수 있는 투자 전략이 궁금하다면, 조선일보가 12월 16~17일 개최하는 ‘2023 대한민국 재테크 박람회’를 방문하세요. 3년 만에 오프라인으로 열리는 박람회는 독자 여러분의 재테크 궁금증을 시원하게 풀어줄 화끈한 ‘재테크 만물상’으로 꾸몄습니다. 주식⋅부동산⋅채권⋅예금 등 재테크 주요 영역에 대한 전문가들의 2023년 투자 비법 및 주택연금⋅양도세⋅상속⋅증여 등을 가장 똑똑하게 할 수 있는 실전편 특강 등 20개 강의가 이틀 동안 촘촘하게 이어집니다. 강연 좌석 중 일부는 홈페이지 사전 신청자에게 먼저 공개되고, 사전 신청을 못 했다면 현장 선착순으로 들을 수 있습니다. 박람회 입장은 홈페이지에서 간단한 사전 등록만 마치면 무료입니다.올해로 10회째인 박람회엔 인기 개그맨이었다가 성공한 전업 투자자로 변신한 황현희씨, 가상화폐 투자로 35억원을 벌어 직장을 그만둔 젊은 ‘파이어족’ 한정수 연두컴퍼니 대표 등 젊은 자산가들의 흥미진진한 있는 투자 스토리도 들을 수 있습니다. 디지털 기술로 일반인에게도 활짝 열린 음악 저작권, 그림, 콘텐츠 투자 등 문화 금융의 새로운 세계에 대해 뮤직카우⋅아트투게더⋅펀더풀 등 스타트업 대표들이 직접 설명합니다.-일시: 2022년 12월 16일(금)~17일(토), 오전 10시~오후 6시-장소: 서울 대치동 SETEC(세텍, 지하철 3호선 학여울역 1번 출구)하철 3호선 학여울역 1번 출구)-참여: 홈페이지 사전 등록 시 무료(현장 입장료 5000원)-홈페이지 주소: chosun-moneyexpo.co.kr-문의: 1855-3568, money@chosun.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2022.12.08.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>토스, 6개월간 사기 송금 피해 15만건 차단</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001571864?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>이상거래탐지시스템팀 가동 성과토스 운영사 비바리퍼블리카가 사기계좌 확인 서비스를 통해 최근 6개월간 사기 송금 피해 15만건을 막았다고 7일 밝혔다. 토스에 따르면 사기·이상송금 방지는 토스 FDS(이상거래탐지시스템)팀을 중심으로 이뤄졌다. 통상 중고거래 사이트나 앱에서 활동하는 사기범들은 미끼 상품을 올린 후 간편결제로 위장한 안심결제 페이지를 통해 대금을 수취한다. FDS팀은 이런 범죄 웹사이트의 패턴을 분석해 도용된 계좌번호를 확보했다. 최근 6개월간 이런 식으로 파악된 사기 계좌만 130개에 달한다. 특히 24시간 운영되는 토스 고객센터와 FDS팀 간의 협업을 통해 피해를 차단했다. 토스 관계자는 “앞으로도 토스의 모든 송금이 안전할 수 있도록 적극적인 고객 보호 정책을 펼칠 것”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2022.12.08.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>대박 나도, 실패해도 또 도전…창업 중독자들, 벤처 생태계 키웠다</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004785145?sid=101</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>실리콘밸리처럼 韓도 연쇄창업'창업의 정석'으로 불리는 노정석뷰티벤처로 일곱 번째 창업 도전'아자르' 신화 안상일 11번 창업이승건도 8전9기 만에 토스 성공권도균·류중희 등 투자자로 변신AC 설립해 후배 양성 나서김동신, 실리콘밸리서 맹활약국내 벤처업계에 노정석(비팩토리 대표)이란 이름은 꽤 많이 알려져 있다. 창업의 정석, 미다스의 손, 스타트업 마스터 등 화려한 수식어도 따라붙는다. 그럼에도 그와 가장 잘 어울리는 말은 ‘연쇄 창업가’다. 창업만 일곱 번 했고, 대부분 성공했다. 국내 스타트업 중 처음으로 구글이 사들인 태터앤컴퍼니(블로그 개발업체), 글로벌 모바일 광고회사 탭조이가 인수한 파이브락스(게임 이용자 분석 업체) 등을 그가 세웠다. 2020년 일곱 번째 창업 아이템으로 택한 건 의외로 화장품이었다. “뷰티업계의 테슬라가 되겠다”는 그는 인공지능(AI)으로 화장품도 혁신할 수 있다고 믿는다.그래픽=김선우 기자국내 스타트업 업계에는 노 대표 같은 연쇄 창업가가 적지 않다. 손대는 사업마다 잭팟을 터뜨리는 인물도 있고, 수많은 실패를 겪은 뒤 마침내 성공 가도에 오르는 사람도 있다. 성공한 창업자가 투자자로 변신해 ‘선순환 생태계’를 조성하기도 한다. 한경 긱스(Geeks)가 국내 스타트업 업계를 이끌어온 대표적 연쇄 창업가들을 살펴봤다. ○7전8기형 창업자들동영상 앱 아자르로 대박을 터뜨린 안상일 하이퍼커넥트 대표는 이른바 ‘오뚝이형’ 연쇄 창업가다. 그는 7전8기가 아니라 무려 10전11기를 거쳤다. 김밥집, 옷가게, 검색엔진, 사진 스튜디오 등 업종도 가리지 않았다. 서울대 창업동아리 회장 출신인 그는 10번에 이르는 쓰라린 실패 뒤 2014년 하이퍼커넥트를 세웠다. 알고리즘을 기반으로 한 맞춤형 영상 채팅 앱 아자르는 글로벌 시장에서 큰 인기를 끌었다. 지난해 초 세계 최대 데이팅 앱 틴더를 운영하는 미국 매치그룹은 하이퍼커넥트를 2조원에 사들였다.박현호 크몽 대표 역시 10전11기를 겪었다. 프리랜서 마켓 플랫폼 크몽으로 주목받고 있는 박 대표는 대학생 시절 온라인 쇼핑몰, PC방 관리 프로그램 등을 개발했다. 전자기기 쇼핑몰 라밤바도 세웠다. 성장하던 사업은 닷컴버블이 터지며 와르르 무너졌다. 2011년 크몽의 초기 모델을 선보인다. 5000원에 다른 사람의 재능을 사고파는 방식으로 서비스를 하다가 캐리커처 그려주기, 연애 상담, 직장 상사 욕해주기 등 ‘말랑말랑’한 요소를 넣으며 입소문이 나기 시작했다.이승건 비바리퍼블리카(토스) 대표는 8전9기로 유니콘기업(기업가치 1조원 이상 비상장사) 신화를 썼다. 이 대표는 간편 결제 서비스를 내놓기 전 2011년 소셜미디어 울라블라, 2013년에는 모바일 투표 앱 다보트 등을 출시했다. 이후 100개가 넘는 아이템 가운데 선택해 나온 서비스가 지금의 금융 앱 토스다.침대 매트리스 시장을 혁신하고 있는 전주훈 삼분의일 대표 역시 여러 차례 사업에 실패했다. 전 대표는 2015년 가사도우미 플랫폼 홈클을 내놨으나 수익성 악화와 법률문제 등으로 사업을 접어야만 했다. ‘가성비’ 좋은 매트리스업체 삼분의일로 재기에 성공한 그는 최근 글로벌 화학회사 다우와 제품 공동 개발 협약을 맺는 등 사업을 빠르게 확장하고 있다. ○연이어 성공 가도 달리기도‘미다스의 손’을 가진 창업자도 적지 않다. 장병규 크래프톤 의장이 대표적이다. 1세대 벤처사업가인 장 의장은 1997년 네오위즈를 설립했다. 2005년에는 검색엔진 업체 첫눈을 공동 창업한 뒤 네이버에 매각했고, 2007년 크래프톤 전신인 블루홀스튜디오를 설립했다. 크래프톤은 대형 게임사로 성장해 지난해 상장에 성공했다.클라우드 컨설팅 기업 베스핀글로벌의 이한주 대표 역시 손대는 사업마다 성공했다. 이 대표는 1983년 아버지인 이해민 전 삼성전자 대표를 따라 미국으로 갔다. 이후 1998년 웹 호스팅 업체 호스트웨이를 창업해 인터넷 서비스 업계에 발을 들였다. 이 대표는 인터넷 성장 흐름을 타고 2014년 호스트웨이를 미국 사모펀드에 5억달러를 받고 매각했다. 국내로 돌아와 스타트업을 돕는 액셀러레이터(AC) 스파크랩을 공동 창업했고, 베스핀글로벌을 세워 클라우드 시장의 혁신을 꾀하고 있다.데이터 농업 스타트업 그린랩스는 금융·정보기술(IT) 전문가들이 모여 2017년 설립한 회사다. 신상훈 대표는 뱅크오브아메리카(BoA)와 메릴린치에서 펀드매니저로 일했고, 데이팅 서비스 앱 아만다 운영사인 넥스트매치를 창업했다. 안동현·최성우 대표는 소셜커머스업체 쿠차도 설립했다. 안 대표는 피키캐스트 대표도 지냈다. 지난해 매출 약 1000억원을 기록한 그린랩스는 올해 다섯 배 늘어난 5000억원가량의 매출을 올릴 것으로 예상한다. ○투자자로 변신해 후배 양성도‘한국 스타트업의 대부’로 불리는 권도균 프라이머 대표는 지금까지 5개 회사를 세웠다. 그는 1990년대 후반 결제업체 이니시스와 보안회사 이니텍을 설립해 모두 코스닥에 상장시켰다. 엑시트에 성공한 그는 후배 양성에 본격 나선다. 권 대표가 2010년 설립한 프라이머는 국내 최초 스타트업 액셀러레이터로 불린다. 스타일쉐어, 아이디어스, 번개장터, 라엘, 세탁특공대 등 200곳이 넘는 스타트업이 그의 손을 거쳐 빛을 봤다.류중희 퓨처플레이 대표는 창업으로 수백억원의 대박을 터뜨리고 다시 창업 전도사로 벤처판에 복귀했다. 류 대표는 2006년 얼굴인식 기술 회사인 올라웍스를 세운 뒤 인텔에 3100만달러에 판 경험이 있다. 회사 매각 후 젊은 인재들의 기술 창업을 돕기 위해 2013년 퓨처플레이를 설립했다. ○연쇄 창업은 실리콘밸리 문화연쇄 창업은 미국 실리콘밸리를 키운 힘이기도 하다. 국내 벤처업계에서 활약하다가 실리콘밸리에서 창업하는 사례도 잇달아 나오고 있다. 김동신 센드버드 대표는 기업용 채팅 플랫폼으로 유니콘기업을 키웠다. 그는 서울대 컴퓨터공학과를 졸업한 뒤 엔씨소프트에서 근무하다가 2007년 게임업체 파프리카랩을 창업했다. 2012년 일본 게임사인 그리에 파프리카랩을 매각하고, 2013년 실리콘밸리에서 센드버드를 세웠다.이창수 올거나이즈 대표는 노정석 대표와 함께 파이브락스를 공동 창업한 인물이다. 올거나이즈는 이 대표가 2017년 실리콘밸리에서 창업한 자연어 이해 AI 솔루션 스타트업이다. AI봇 알리와 인지 검색 솔루션 등을 운영하고 있다.인텔과 구글에서 소프트웨어 엔지니어로 일한 하정우 베어로보틱스 대표는 한때 순두부집 사장이었다. 그는 식당 일이 너무 고되다는 것을 깨닫고, 서빙 같은 단순 반복적인 일을 해주는 로봇을 개발해야겠다고 생각한다. 2017년 서빙 로봇 스타트업 베어로보틱스를 창업한 배경이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2022.12.08.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>모바일 앱서 민원서류 발급 · 제출…서울시 전자증명 서비스 도입</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/055/0001018896?sid=102</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>서울시가 민원 신청 시 필요한 서류를 모바일 앱에서 발급받아 제출할 수 있는 서비스를 시작합니다.기존에도 민원인이 모바일 전자증명서를 발급받을 수는 있었지만, 스캔 후 이미지 파일로 내거나 직접 기관을 방문해 제출해야 해 번거로웠습니다.담당 공무원도 제출된 문서를 이미지 자료로만 볼 수 있어 일일이 사실관계를 확인해야 하는 불편함이 있었습니다.이번에 도입된 새 시스템에서 민원인은 정부24, 네이버, 카카오, 신한은행, 토스, 서울지갑 등 모바일앱에서 전자증명서를 발급받아 원하는 기관에 제출할 수 있습니다.증명서를 제출한 후에도 담당 공무원이 열람하지 않았다면 회수가 가능합니다.시는 현재 시행 중인 모바일 건강관리 사업 '손목닥터9988'과 내년 1월부터 시행하는 기부식품 제공사업 운영지원 등에 모바일 전자증명 서비스를 우선 적용한 후 확대할 계획입니다.(사진=서울시 제공, 연합뉴스)</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2022.12.09.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>'필리핀의 토스' 마야, 암호화폐 결제 도입한 이유는 [한경 코알라]</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004785395?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>백훈종의 알쓸₿잡 &lt;57&gt;12월 9일 한국경제신문의 암호화폐 투자 뉴스레터 '코알라'에 실린 기사입니다. 주 3회 아침 발행하는 코알라를 받아보세요!무료 구독신청 hankyung.com/newsletter  필리핀 블록체인위크 2022에서 느낀점지난 11월 28일~12월 2일, 5일간 필리핀 마닐라에서 열린 ‘필리핀 블록체인위크 2022’ 행사에 다녀왔다. 연사로 초청받아 참여하게 된 것이라 무대에서 주제 발표를 진행했고, 패널토론에도 하나 참여했다. 개인적으로 뜻깊은 경험이었다. 행사에서 만난 필리핀 사람들은 생각했던 것 이상으로 암호화폐와 블록체인에 대한 기대감이 커 보였다. 이번 행사가 필리핀에서는 처음으로 열린 대규모 블록체인 컨퍼런스임에도 3,500명이 넘는 사람들이 모였으니 그 열기가 대단했다고 볼 수 있다. 특히 FTX 파산 등 연이은 악재 이후로 암호화폐 가격 하락이 계속되고 있음에도 행사장은 연사들의 주제 발표와 패널토론 무대를 보기 위한 투자자들로 연일 만원을 이뤘다.이번 행사의 주요 주제는 웹 3.0과 NFT, 그중에서도 게임과 블록체인을 결합한 ‘게임 파이’였다. 그래서 그런지 행사장 부스에는 자신들이 만든 게임을 시연하고 있는 기업들이 유독 눈에 많이 띄었다. 한때 필리핀 젊은이들이 게임 내 캐릭터를 육성하여 돈을 버는 ‘엑시인피니티’를 부업으로 삼아 월 100만 원씩 번다는 뉴스를 본 적이 있는데, 그 경험이 있기 때문인지 필리핀의 암호화폐 투자자들은 우리나라 투자자들과는 관심사가 약간 달라 보였다. 우리나라 투자자들이 거래소에 상장된 코인 중 2배, 3배 갈 종목을 찾는 데 관심이 많다면, 필리핀 투자자들은 무엇이 다음 엑시인피니티가 될 게임인지 찾는 듯 했다.행사장 내에서 게임을 시연하고 있는 부스 / 직접 촬영사실 게임과 연계된 코인이나 NFT의 지속적인 가격상승이 없다면 새로운 게임 이용자들의 인입은 자연스레 줄어들게 된다. 그러면 가격이 더 내려가고 유저들이 추가로 빠져나가는 악의 순환고리에 빠질 수밖에 없다. 제작사가 이를 해결하려면 시간이 지나도 인기가 사그라지지 않는 명작 게임을 만들거나, 단편 게임들을 연달아서 계속 흥행시켜야 한다. 이런 상황에 놓인 게임 제작사에 코인이나 NFT 도입은 그리 좋은 전략이 아니다. 명작 게임을 만드는 어려운 길 보다는 코인 가격을 띄우는 쉬운 길로 가려는 유혹에 빠지기 때문이다. 이런 이유로 게임과 블록체인, 그리고 암호화폐의 융합이 유의미한 규모의 산업으로 성장하기는 어려우리라 생각하는 나로서는 행사장 곳곳에서 보이는 게임 프로젝트들에 큰 관심을 가지는 않았다.나의 흥미를 잡아당긴 곳은 필리핀 최대의 핀테크 기업인 ‘GCash(지캐시)’와 ‘Maya(마야)’의 부스였다. 둘 다 우리나라의 토스, 카카오페이에 해당하는 국민 핀테크 앱이라고 생각하면 된다. 사실 처음에는 나도 이들이 얼마나 유명한 서비스인지 잘 몰랐다. 필리핀에 도착한 첫날부터 호텔에 짐을 풀자마자 바로 행사장으로 갔기 때문에 배경지식이 전혀 없었다. 그러나 그날 저녁, 밖에 나가서 외식하고 편의점에서 물건을 사는 등 소비를 해보니 곧바로 두 서비스의 위력을 느낄 수 있었다. 우선 어느 상점에 들어가든 계산대 한편에 반드시 지캐시의 결제용 QR코드가 붙어있었다. 심지어 신용카드 결제 단말기가 없어 현금 결제만 가능한 상점에서도 지캐시 앱을 통한 온라인 결제는 가능했다. 아쉽게도 외국인은 지캐시 앱을 내려받을 수가 없어 직접 이용해보진 못했지만 왜 국민 앱이라고 불리는지 매우 알만했다. 반면 마야의 이름은 결제 시 발행되는 영수증에서 쉽게 찾아볼 수 있었다. 마야는 우리나라의 KG이니시스와 같은 Payment gateway(PG) 사업을 함께 운영하고 있다고 한다. 현지에서 만난 관계자에게 들으니 마야 앱을 사용하는 고객 수가 이제 거의 5000만 명에 근접했다고 한다. 필리핀 전체 인구가 약 1억 명 정도이니 거의 50%의 국민이 쓰는, 말 그대로 국민 앱인 셈이다.GCash(지캐시) 부스(좌)와 Maya(마야) 부스(우) / 직접 촬영  필리핀 사람들이 처한 금융 환경필리핀 사람들의 핀테크 앱 사용률이 유난히 높은 이유는 크게 두 가지로 나뉜다. 첫 번째는 낙후된 은행 인프라다. 필리핀 중앙은행인 BSP에서 2019년 성인 인구 7200만 명을 대상으로 시행한 소비자 금융조사 결과에 따르면 은행 계좌를 가진 필리핀인은 전체의 30%가 채 되지 않는다. 일반적으로 필리핀 국민은 현금 결제를 선호하는 것으로 알려져 있으며 은행 이용을 꺼린다고 한다. 마닐라에서 길을 거닐다 보면 은행 앞에 길게 줄이 늘어서 있는 광경을 자주 목격할 수 있다. 은행에 방문하여 창구 직원을 만나 업무를 처리하기 위해서는 상당히 긴 대기시간을 견뎌야만 하며, 코로나19 사태 이후로 더 심해졌다. 우리나라처럼 쾌적한 영업장 환경과 잘 만든 자체 모바일앱을 제공하는 은행들이 즐비한 나라에서는 잘 상상이 되지 않는 일이지만, 필리핀 사람들에게 은행을 이용하는 것은 귀찮고 성가신 일로 받아들여지고 있다.두 번째 이유는 다소 어이없게도 대다수 국민이 은행을 이용할 만한 충분한 재산이 없기 때문이다. 중앙은행의 설문조사에서 은행 계좌가 없다고 답한 응답자들에게 왜 은행 계좌를 만들지 않는지 묻자 45%가 ‘자금 부족(Lack of fund)’이 이유라고 답했다. 2018년 기준 필리핀 국민의 연평균 가족 소득은 31만3000페소로, 원화 기준으로 약 740만 원 정도이다. 4인 가족일 경우 구성원 1인당 연 185만 원을 번다는 뜻이며 이를 열두 달로 나누면 가족 구성원 한 명의 수입은 매월 약 15만4000원으로 계산된다. 물론 필리핀 물가가 한국보다 싸기 때문에 이 정도 수입이 정상적인 생활을 위해 충분한지 아닌지를 판단하기는 어렵지만, 설문조사 결과 은행 계좌를 개설하지 않는 가장 큰 이유가 자금 부족이라는 것은 이 금액이 정상적인 삶을 영위하기에 충분한 액수가 아닐 가능성이 크다는 뜻이다.최근 한국은 물론 전 세계가 달러화 초강세로 휘청이는 가운데, 필리핀 역시 지난 9월 달러 대비 페소 환율이 18년 만에 최고치를 기록했다. 고환율은 필리핀의 모든 물가를 끌어올리는 중이다. 특히 기름값이 많이 올라 예전에는 1000페소면 하루 차량을 운행할 수 있었는데, 요즘은 2000페소 이상 기름을 넣어야 하루 차량을 운행할 수 있다고 한다. 하지만 근로자들의 평균 월급은 그대로라서 기름을 넣고 나면 나머지 생활비를 줄이는 수밖에 없다. 식자재와 외식비 인플레이션도 심각하다. 필리핀은 쌀을 대부분 수입에 의존하고 있는데, 급등한 환율 때문에 식재료값도 올해 초 대비 30%나 올랐다고 한다.이러한 금융 환경에서 온라인 뱅킹의 중요성이 대두되는 것은 자연스러운 현상이다. 대다수 필리핀 사람들은 모바일에 친숙하다. 전 국민의 69%가 휴대전화를 사용하고 있으며, 53%는 인터넷을 사용한다. 은행 계좌가 없는 필리핀 성인 중에도 무려 70%가 휴대전화를 가지고 있다. 하루에 몇 시간을 대기해야 하는 것도 싫고 은행에 보관할 만큼 충분한 소득도 없는 필리핀 국민에게 지캐시와 마야는 훌륭한 대체재이다.  비트코인이 필리핀 국민들의 희망이다지캐시와 마야는 최근 들어 암호화폐 거래 기능도 제공하기 시작했다. 사실 같은 앱을 사용하는 사람끼리는 이미 은행 계좌 없이도 페소화를 주고받을 수 있고, 웬만한 상점에서도 앱만 있으면 페소화 결제가 가능하여 꼭 암호화폐를 결제 수단으로 도입할 필요는 없어 보인다. 그런데도 두 회사 모두 암호화폐를 품은 이유는 역시 언젠가 페소화가 아니라 암호화폐만 쓰이는 순환 경제가 도래할 가능성에 미리 대비한 것으로 볼 수 있다.강달러에 환율이 치솟고 심각한 인플레이션으로 이어져 국민의 실소득이 반강제적으로 줄어드는 현상은 필리핀뿐만이 아니라 미국을 제외한 모든 지역에서 벌어지고 있는 현상이다. 단지 원래 빈곤층 비율이 높던 필리핀 같은 가난한 국가들이 더 심각한 타격을 받을 뿐이다. 마닐라에서 그랩(Grab)을 잡아타고 이동하면 조금은 특별한 경험을 하게 된다. 빨간불에 차가 멈추어 설 때마다 어디선가 돈을 구걸하는 어린이들이 나타나 창문을 두드리며 차 안에 앉아있는 나를 애처로운 눈빛으로 쳐다보는 것이다. 마닐라 정도 되는 대도시에 구걸로 끼니를 해결해야 하는 빈곤층이 이 정도로 많다면 정치든 경제든 산업이든 뭔가 해결되지 않는 구조적인 문제가 있다고 봐야 하지 않을까.필리핀 도로에서 돈을 구걸하는 어린이 / Philippine News Agency이번 필리핀 블록체인위크 2022의 주제 발표 무대에서 내가 준비한 발표 자료의 제목은 ‘왜 비트코인이 최고의 투자자산인가’이다. 필리핀 빈곤층 국민이 가난을 벗어나려면 비트코인을 지금부터라도 꼭 알고 공부해야 한다는 내용을 담았다. 비트코인이 필리핀 국민에게 제공할 수 있는 역할은 분명하다. 원래부터 어려웠던 경제 상황에 페소화 가치하락과 인플레이션까지 겹쳐 더욱 살기 힘들어진 환경을 벗어날 수 있는 탈출구의 역할이다. 비록 지금은 가격이 전고점 대비 많이 내려와 있지만, 비트코인은 기본적으로 강력한 희소성을 기반으로 다른 재화들 대비 상대적 가치가 오르는 특성이 있는 ‘경화’이다. 따라서 전 세계가 다시 돈 풀기를 시작하면 그 전보다 더 높은 프리미엄을 부여받고 가치가 상승할 수 있다.이미 지캐시와 마야 등 모바일 핀테크 앱 사용에 익숙한 필리핀 국민이니, 앱 내에서 제공되는 암호화폐 교환 기능을 이용해서 소득 일부분을 비트코인으로 바꿔 저축하는 습관을 들여야 한다. 그러면 꼭 은행 계좌를 만들지 않아도, 예금이자를 받지 않아도 안전하게 부를 축적할 수 있을 것이다. 비트코인은 중앙은행의 기준금리나 인플레이션과 같은 거시경제 환경과 상관없이 하드코딩 된 코드에 따라 10분에 한 번씩 블록이 생성되고 블록 생성자에게 정해진 비트코인 보상이 주어지는 ‘number go up technology (숫자 상승 기술)’이다. 누구도 이 규칙을 바꿀 수 없고 멈출 수도 없다. 은행 계좌에 페소화를 예금해놓고 물가상승률도 못 따라가는 이자만 받는 것은 빈곤 문제를 해결하는 데 전혀 도움이 안된다. 필리핀 국민이 가난에서 벗어나는 방법은 은행 계좌 개설이 아니라 이제부터라도 비트코인에 투자하는 것이다. 백훈종 샌드뱅크 COO는…안전한 크립토 투자 앱 샌드뱅크(Sandbank)의 공동 창업자 겸 COO이자 "웹3.0 사용설명서"의 저자이다. 가상자산의 주류 금융시장 편입을 믿고 다양한 가상자산 투자상품을 만들어 투자자에게 제공하는 샌드뱅크를 만들었다. 국내에 올바르고 성숙한 가상자산 투자 문화를 정착시키기 위해 각종 매스컴에 출연하여 지식을 전파하고 있다.▶이 글은 암호화폐 투자 뉴스레터 구독자를 대상으로 다양한 관점을 제공하기 위해 소개한 외부 필진 칼럼이며 한국경제신문의 입장이 아닙니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2022.12.13.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>"상업적 성패 달렸다" 美메디케어, 치매 치료제 적용 범위 넓힐까</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005386299?sid=105</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>美CMS "알츠하이머병 치료제 적용 범위 재고 용의 있어"수천만원 약가에 메디케어 적용 여부가 상업적 성공 관건"FDA와 CMS의 기준은 달라…적용 범위 넓어져야 후발주자도 유리"[이데일리 이광수 기자] 미국 건강보험인 ‘메디케어’가 지원하는 알츠하이머병 치료제 범위가 넓어질 가능성이 커졌다. 메디케어는 미국에서 65세 이상 고령자를 위한 공공의료보험이다. 앞서 바이오젠(BIIB)이 개발한 알츠하이머병 치료제 ‘아두헬름’은 데이터와 임상 과정에서 논란이 있었고, 메디케어에서 극히 제한적인 범위내에서만 보험을 인정한 바 있다. 이는 상업적인 실패의 핵심 원인으로 지목됐다. 13일 외신을 종합하면 메디케어와 메디케어드 서비스 센터(CMS)는 지난주 열린 미국의 대표적인 싱크탱크 밀켄연구소가 연 컨퍼런스에서 “알츠하이머병 치료제 적용 범위를 재고할 용의가 있다”고 밝혔다. 메디케어의 적용 여부는 알츠하이머병 치료제의 상업적 성공과는 밀접한 연관성이 있다. 약값이 비싸서다. 바이오젠의 ‘아두헬름’은 처음에는 연간 5만6000달러(약 6000만원)로 책정됐다. 현장에서 쓰이는 사례가 많지 않아 2만8000달러(약 3000만원)로 가격을 낮추기도 했다. 하지만 분위기를 반전하지 못했다. 당시 CMS는 아두헬름 임상에 참여한 환자에만 보험급여를 적용하기로 했다. 당시 CEO(최고경영자)였던 미셸 보나토스는 “모든 메디케어 가입자의 아두헬름 접근을 사실상 거부하는 것으로 매우 실망스럽다”고 밝힌 바 있다. CMS가 보험급여를 적용하는 것은 FDA의 기준과는 무관하다는게 업계 전문가들의 설명이다. 현재 FDA 임상 절차를 밟고 있는 한 바이오업계 대표는 “보험급여 적용 여부가 상업적 성공에 굉장히 큰 영향을 준다”며 “미국은 CMS가 약가를 주지 않으면 거의 개인 자비를 들여서 해야 한다. 수천만원의 약을 죽을때까지 맞아야 하는데 거의 불가능한 일”이라고 설명했다. 따라서 바이오젠과 에자이가 함께 개발중인 항체치료제 ‘레카네맙’도 메디케어 적용 여부가 상업적 성공과 직결된다. 약가 대비 환자가 얻는 효익이 인정돼야 하는데 현재까지 분위기는 좋다. CMS가 앞서 아두헬름의 부정적 데이터를 보고 적용 범위를 제한한 것과 반대로, 긍정적 데이터가 나오면 적용 범위를 넓힐 수 있다는 것이다. CMS는 “새로운 데이터가 나오면 검토할 것”이라고 설명했다. 레카네맙의 글로벌 임상 3상 데이터가 긍정적으로 나왔다. 바이오젠은 지난달 29일 초기 알츠하이머병 환자 대상으로 투약 18개월 뒤 인지능력 감퇴를 27% 늦췄다고 밝혔다. 국내 한 업계 관계자는 “(레카네맙의 경우) 통계적으로 유의성이 확인됐기 때문에 FDA 승인은 가능하지 않겠냐는 생각”이라며 “다만 CMS에서 약가를 인정해줄지는 두고봐야 한다. 국내에서도 식품의약품안전처와 심사평가원의 기준이 다르듯 미국도 마찬가지”라고 말했다.레카네맙의 메디케어 인정 여부에 후발 개발자들의 시선도 집중되고 있다. 일라이릴리(LLY)가 ‘도나네맙’으로 레카네맙의 뒤를 쫓고 있다. 이달 초 임상3 상 6개월 투약 결과 기존 허가된 치료제 아두헬름 대비 우월성을 입증했다. 국내에서는 아리바이오와 젬백스(082270) 등이 알츠하이머병 치료제를 개발하고 있다. 경구용 알츠하이머병 치매치료제 ‘AR1001’ 미국 임상 3상을 개시함과 동시에 기술수출도 본격적으로 추진 중이다. 젬백스는 글로벌 임상2상을 진행 중이다. 업계 관계자는 “레카네맙이 약가를 받는 것이 국내 개발사 입장에서도 호재”라며 “효능은 물론이고 가격도 관건이 될 것이다. 아두헬름의 사례를 봤을 때 가격이 너무 높게 책정이 된다면 의문을 제기하는 사람이 상당수 있을 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2022.12.07.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>토스 "의심스러운 송금 차단"…6개월간 사기송금 15만건 막아</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000313458?sid=101</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>[토스가 사용자의 기기정보, 접속위치, 환경, 평상시 거래 패턴 등을 분석을 통해 최근 6개월 간 15만 건의 사기 송금 피해를 막은 것으로 나타났다. (사진=토스)]모바일 금융 서비스 토스를 운영하는 비바리퍼블리카가 최근 6개월 간 약 15만 건의 송금 피해를 막았다고 오늘(7일) 밝혔습니다.토스는 사용자의 기기정보, 접속위치, 환경, 평상시 거래 패턴 등을 머신러닝 기술을 통해 분석해 의심스러운 송금을 차단하고 있습니다. 이상거래탐지시스템(FDS)팀을 중심으로 안심결제 페이지를 악용한 신종사기 수법을 확인하고 이에 대응하는 프로그램을 개발해 사용자들의 피해를 막고 있습니다.토스 관계자는 "FDS팀이 중고거래 사이트나 앱에 미끼 상품을 올린 뒤 포털사이트 간편결제로 위장한 안심결제 페이지를 이용한 신종 사기패턴을 확인했다"고 설명했습니다. 사기에 이용되는 범죄 웹페이지는 주소와 디자인이 포털사이트 안심결제 페이지와 매우 유사해 최근 피해자가 급증하는 상황입니다.토스 FDS팀은 소비자 피해를 선제적으로 막기 위해 웹 스크래핑 기술을 이용해 범죄 사이트에 기재된 계좌번호를 수집했습니다. 사기범들이 이용하는 범죄 웹페이지 패턴을 데이터 분석을 통해 추정하고, 해당 웹페이지에 사용된 도용 계좌번호를 확보한 것입니다.사용자들이 24시간 문의할 수 있는 토스 고객센터와 FDS팀 간 협업으로 신속하게 피해를 막을 수 있었다는 것이 토스 측의 설명입니다. 이렇게 파악된 사기 계좌는 지난 6개월 간 130여 개에 달합니다. 해당 계좌번호로 피해를 입을 뻔 한 경우는 1600건, 약 5억 8천만 원입니다.토스는 이외에도 사용자들에게 명의도용 신고, 보이스피싱 신고, 중고거래 사기 신고 등을 받아 수집한 사기계좌와 경찰청 사이버안전지킴이, 더치트에 등록된 사기계좌도 송금과정에서 자동으로 확인하고 있습니다. 이를 통해 최근 6개월 간 막은 사기 송금은 15만 건, 사기 피해 예방 금액은 160억 원입니다.이광현 토스 FDS팀 담당자는 "토스의 안전한 송금을 위해 새로운 사기 기법을 연구하며 해외 범죄 조직이 운영하는 피싱 사이트의 계좌번호를 수집하는 등 적극적으로 사용자 피해를 예방하고 있다"며 "앞으로도 토스의 모든 송금이 안전할 수 있도록 적극적인 고객보호 정책을 펼칠 것"이라고 밝혔습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2022.12.10.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>토스 알뜰폰 출사표에 중소유통업계 울상 "문어발 확장에 희생양"</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002292471?sid=101</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>전체 이동통신 가입자수의 16.3% 차지하며 성장세 기록토스 진출에 '중소 알뜰폰사업자 붕괴' vs '시장 파이 ↑'금융위, 금산분리 규제 완화 추진...시장 진입 근거 마련 ◆…자료사진:연합뉴스     알뜰폰(MVNO) 시장이 가파른 성장세를 보이는 가운데 금융업도 알뜰폰 사업에 뛰어들면서 시장 경쟁이 치열해 지고 있다. KB금융의 ‘KB리브엠’에 이어 ‘토스뱅크’를 운영 중인 비바리퍼블리카도 알뜰폰 ‘토스모바일’로 시장 진출을 선언했다. 중소 이동통신 유통 사업자들은 알뜰폰 생태계를 무너뜨릴 수 있다며 거세게 반발하고 있다.   저렴한 요금제를 무기로 이동통신 시장에 지각변동을 일으킨 알뜰폰 시장에 ‘토스모바일’이 출사표를 내던지면서 통신 3사 점유율 구도에 변화를 가져올 것이라는 관측이 나온다.   시장 초기에는 싼 맛에 쓰려는 상품으로 인식이 강해 '효도폰'이라고 불렸던 알뜰폰이 최근 MZ세대를 중심으로 젊은 세대들이 많이 찾는 인기폰으로 올라서면서 위상이 달라졌다.   10일 과학기술정보통신부 '무선통신서비스 가입 현황'에 따르면, 지난 10월 말 기준 알뜰폰 가입자는 전체 이동통신 가입자수의 16.3%를 차지한 1246만2574명이다. 2019년 775만명이었던 가입자수는 지난해 11월 1000만명을 돌파하면서 시장 정착에 성공한 모습이다. ◆…자료:과학기술정보통신부 제공     그러나 이통3사 자회사의 점유율이 지난해 말 기준 50%를 돌파하면서 중소 알뜰폰의 수익성은 오히려 악화된 것으로 나타났다. 과기정통부에 따르면 알뜰폰 사업자 전체 영업이익은 2017년부터 2021년까지 5년동안 228억원의 적자를 기록했다.    알뜰폰 업계는 안정적 사업을 하기 위해서는 망 도매제공 의무를 제도화하고 망 도매대가 산정방식을 완화해야 한다고 주장한다. 망을 빌려쓰는 알뜰폰 중소사업자 입장에서는 망 도매대가가 높으면 남는 게 없는 장사이니 도매대가를 낮춰달라는 요구다.   이런 가운데 토스 운영사 비바리퍼블리카가 알뜰폰 사업에 본격 뛰어들면서 중소 이동통신 유통업체들은 금융권까지 시장에 가세하면 알뜰폰 업계는 고사 위기에 처할 것이라고 우려의 목소리를 냈다.   '금산분리' 원칙상 금융권은 알뜰폰 사업에 진출할 수 없다. 그러나 지난 2019년 KB국민은행이 금융위로부터 '금융구제 샌드박스'로 선정받아 임시허가를 받으면서 물꼬가 트였다. 금융위는 통신업을 아예 은행의 '부수업무'로 지정할 수 있도록 금산분리 규제 완화를 추진하고 있다. 금융업이 알뜰폰 시장에 진입할 수 있는 근거가 마련되는 셈이다.   전국이동통신유통협회(KMDA)는 8일 '알뜰폰 은행 부수업무 지정에 반대한다'는 내용의 성명서를 냈다. KMDA는 "내년 금융위원회가 알뜰폰 사업을 은행의 부수업무로 지정하게 되면, KB국민은행뿐 아니라 막대한 자본력 갖춘 여러 은행들이 우후죽순으로 알뜰폰 사업에 진출할 것"이라고 주장했다.   그러면서 “이렇게 되면 중소 유통업체들과 직원들은 거대 금융기관들의 문어발식 사업 확장으로 인한 희생양이 될 수밖에 없다”고 호소했다.   다만 이통3사 자회사들은 반대 목소리를 내지 않고 지켜보자는 입장이다. 영세한 사업자가 많은 시장에 금융업종 진출이 시장 전체의 파이를 키우는 것은 물론 활성화에 도움이 될 가능성이 높다고 보고 있기 때문이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2022.12.14.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>토스뱅크 "중도상환 수수료 무료"…1인당 16만원 아꼈다</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004787278?sid=101</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>대출 중도상환한 8만6500명 혜택중저신용자에 절감 효과 더 커인터넷전문은행 토스뱅크의 '중도상환 수수료 무료' 정책으로 지난 1년간 대출자 8만6500명이 모두 139억원의 중도상환 수수료를 아낀 것으로 나타났다. 1인당 약 16만원을 절감한 셈이다.  14일 토스뱅크가 중도상환 수수료 무료 정책의 효과를 분석한 결과에 따르면 작년 10월부터 올해 11월까지 토스뱅크로부터 대출을 받은 차주 가운데 8만6500명이 만기 전 중도상환을 선택했다. 이들이 아낀 중도상환 수수료는 모두 139억원에 달했다. 은행권 평균 중도상환 수수료율인 0.7%를 적용해 산출한 결과다.  작년 10월 출범한 토스뱅크는 대출자들에게 중도상환 수수료를 받지 않고 있다. 중도상환 수수료는 대출을 약속한 기간보다 일찍 갚을 때 내는 일종의 위약금이다. 통상 은행들은 대출금의 0.7~0.8% 가량을 수수료율로 물린다. 저축은행 등은 최고 1~2% 수준이다.  다만 인터넷전문은행들은 중도상환 수수료 면제 혜택을 적극적으로 제공하고 있다. 토스뱅크는 신용대출에 대해 중도상환 수수료를 받지 않고 있고 카카오뱅크는 내년 6월까지 주택담보대출 중도상환 수수료를 면제한다. 케이뱅크는 전세대출과 신용대출에 대해 중도상환 수수료를 받지 않고 있다.  토스뱅크에서 대출을 중도상환한 차주 가운데 42%(3만8300명)는 중·저신용자였다. 토스뱅크 관계자는 "중저신용 대출자의 1인당 중도상환 수수료 실부담액은 최소 18만원으로 고신용자보다 높은 것으로 추산됐다"며 "1금융권 접근성이 낮은 중저신용자가 상대적으로 수수료 무료 정책의 효과를 더 크게 봤다"고 분석했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2022.12.06.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>한화손보 "종이 대신 전자증명서 제출하세요"</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011577441?sid=101</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 남정현 기자 = 한화손해보험이 행정안전부의 정부 전자문서지갑을 연계해 '모바일 전자증명서 제출 서비스' 시스템을 구축했다고 6일 밝혔다. 앞으로 고객은 주민등록등본, 가족관계증명서 등 보험업무에 필요한 종이 민원증명서를 디지털 기반의 모바일 전자증명서로 대체해 제출할 수 있다.민원증명서 제출이 필요한 고객은 모바일앱에서 전자문서지갑을 통해 바로 한화손해보험으로 전송을 요청하면 된다. 행정기관 방문, 서류발급, 보험사 제출과 같은 번거로운 과정이 디지털화되고 문서출력도 줄어드는 ESG차원의 개선이 이뤄졌다.한화손해보험은 이 서비스를 현재 의료수급권자 할인신청, 지정대리청구인 지정과 같은 장기보험계약 변경업무에 적용 중이다. 향후엔 장기보험업무 전반 외에도 일반·자동차보험 관련 업무로 확대할 계획이다.전자문서지갑이란 행정·공공기관에서 발급하는 종이 민원증명서를 암호화된 전자문서 형태로 발급받아 보관할 수 있는 클라우드 기반의 개인 저장소다. '정부24' 등 공공 앱이나 네이버, 카카오, 페이코, 토스 등에서 만들 수 있다. 한화손해보험 관계자는 "모바일을 연계한 디지털 트렌드 변화에 선제적으로 대응하고자 이번 서비스를 개발했다"며 "앞으로도 디지털 기반의 계약관리 서비스를 다양화 함으로써 고객 편익에 앞장설 것"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2022.12.12.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>너도나도 범죄 막겠다더니… 은행 이상거래는 여전히 활개 중</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000861443?sid=101</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>금융권이 너도나도 이상거래탐지시스템(FDS)을 도입하고 거액을 들여 이를 고도화하고 있지만, 여전히 보이스피싱 등 특이 거래를 잡아내지 못하는 것으로 나타났다.12일 금융권에 따르면 소매금융을 취급하는 17개 은행은 2013년을 시작으로 현재 모두 FDS를 도입했다. FDS는 평소와 다른 이상 구매 패턴을 사전에 감지, 카드 복제에 따른 부정 거래를 방지하는 시스템을 의미한다. 은행들은 보이스피싱, 스미싱기법 등을 시스템에 적용하는 등 고도화작업을 진행하고 있다./토스 제공        금융사들은 최근 FDS를 앞세워 이상 거래를 잡아냈다고 강조한다. 일례로 인터넷전문은행 토스뱅크를 계열사로 두고 있는 토스(비바리퍼블리카)는 최근 6개월 동안 약 15만건의 송금 피해를 막았다고 밝혔다. 토스는 소비자 피해를 선제적으로 막기 위해 웹 스크래핑 기술을 이용하여 범죄 사이트에 기재된 계좌번호를 수집했다.BNK부산은행도 지난달 FDS를 통해 19억원 상당의 고객 피해를 예방했다고 발표했다. 사기범이 60대 고객에게 자녀 사칭 문자를 보낸 이후 스마트폰을 원격 조정해 불법 이체를 시도하자 부산은행은 FDS시스템으로 이를 탐지한 뒤 ‘보이스피싱 피해 예방팀’을 통해 긴급히 고객에게 통화를 시도했다고 한다.그러나 코로나19 팬데믹(세계적 대유행) 이후 모바일뱅킹 등 디지털 금융 서비스 확산과 함께 사이버공격 역시 진화하고 있다. 특히 인터넷은행을 중심으로 관련 사기가 늘어나고 있다.국회 정무위원회 소속 박재호 더불어민주당 의원이 금융감독원으로부터 제출받은 자료에 따르면, 올해 상반기 전기통신금융사기(보이스피싱)로 인해 지급이 정지된 계좌 수는 ▲케이뱅크 1836건 ▲카카오뱅크 3270건 ▲토스뱅크 855건이었다.일러스트=이은현        은행별로 살펴보면, 케이뱅크의 최근 3년간 지급 정지 계좌 수는 2019년 322건에서 2020년 423건, 2021년 1971건으로 급증했다. 올해 상반기 지급 정지 계좌 수는 작년 한 해 정지 건수에 육박했다. 카카오뱅크의 지급 정지 계좌 건수도 올해 상반기에만 지난해(4993건) 수준의 65.5%에 달했다. 토스뱅크는 지난해 10월 출범 이후 지난 6월 27일까지 지급 정지 계좌 건수가 2021년 119건에서 올해 상반기 855건으로 늘어났다.그러나 FDS 도입에 대한 법적인 강제 사항이 없어 FDS의 실제 효용성 여부는 알기 어렵다. 금융사마다 FDS를 고도화하고 있다고 하지만 이를 제대로 검증할 수 없는 셈이다. 실제로 카카오뱅크는 지난해 11월 금융감독원으로부터 경영유의 조치를 받았다. FDS로 추출된 거래를 자금세탁 방지팀에 전달할 뿐 별도의 의심 거래 검토 및 모니터링을 하지 않고 있었기 때문이다.올해 국정감사에서도 비슷한 문제가 지적됐다. 우리은행이 앞서 FDS 도입과 고도화에 각각 수십억원을 투자했음에도 거액의 횡령과 이상 외환거래를 알아채지 못했다는 점에 대한 질타가 이어졌다. 국민의힘 윤주경 의원은 “우리은행뿐 아니라 타 은행도 수상한 거래가 있었는데 FDS가 탐지하지 못한 것이 아닌지 의심이 된다”며 “은행들이 FDS 도입 및 고도화에 예산을 수십억원 투입하고도 피해를 탐지 못 했다면, 이는 예산 낭비”라고 말했다.금융당국도 은행권과 FDS를 손보겠다는 계획을 밝혔다. 이복현 금융감독원장은 “특이 거래나 횡령 등에 관련해 사회가 변하는 양상을 감독원과 은행이 따라가지 못했던 측면이 있다”면서 “실무적으로 FDS 관련 개선 방안을 은행연합회 등과 마련하도록 하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2022.12.09.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>토스페이먼츠, 출범 2년만에 월 거래액 3조6000억 돌파</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002138448?sid=105</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 토스의 페이테크(Paytech) 계열사 토스페이먼츠(대표 ‘김민표’)는 올해 11월 기준 월 거래액이 3조6000억원을 넘어섰다고 9일 밝혔다. 2020년 8월 회사 출범 이후 2년여 만의 성과다.토스페이먼츠는 ▲당일 PG 연동 ▲쉽고 편리한 결제 경험(UX) ▲보증보험 무료 가입 혜택 등 영·중소 사업자 맞춤형 정책 ▲글로벌 수준의 보안 시스템 구축 등 고착화된 PG 업계에서 새로운 변화를 선보이며, 시장점유율을 확대하고 있다.출범 당시 1조 8000억원 수준이었던 토스페이먼츠의 월 거래액은 올해 11월 기준 3조6400억 원으로 2배 이상 증가했다. 이는 전년 동기 대비 44% 증가한 것으로, 같은 기간 국내 주요 PG 사업자들의 거래액 성장률 대비 높은 수치다.토스페이먼츠 관계자는 “내부 데이터 집계 결과, 토스페이먼츠는 2022년 8월 처음으로 월 거래액 기준 업계 1위에 오른 것으로 나타났다. 국내 대형 이커머스 가맹점 유치 등을 통해 거래액 규모가 지속적으로 성장하는 추세다”고 밝혔다.2022년 11월 기준 토스페이먼츠의 가맹점 숫자는 출범 당시와 비교해 25% 증가한 약 10만 개에 이르며, 주요 성장 지표인 월간 유입 가맹점 숫자도 2500개로 나타났다. 토스페이먼츠가 올해부터 해외 시장 공략에 본격적으로 나서면서 거래액과 가맹점 규모 모두 성장할 것으로 기대된다. 최근 토스페이먼츠는 ‘피델리티내셔널인포메이션서비스(FIS)’ 및 ‘앤트그룹’과 각각 제휴해 글로벌 가맹점 대상 전자 결제 서비스를 시작했다.김민표 토스페이먼츠 대표는 “토스페이먼츠는 가맹점의 비즈니스 성장을 돕기 위한 파트너로서 새로운 접근 방식을 통해 시장의 변화를 만들어 나가고 있다. 앞으로도 토스페이먼츠는 가맹점이 사업에만 집중할 수 있도록 다양한 솔루션을 선보일 계획이다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2022.12.12.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>내년 네이버·쿠팡·카카오 간편결제 수수료 공시된다</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011390681?sid=101</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>금융당국이 소상공인의 수수료 부담을 덜어주기 위해 내년부터 네이버 카카오 등 빅테크의 온라인 간편 결제 수수료 공시를 추진합니다. 금융감독원은 지난 6일 국민의힘과 당정협의에서 대형 빅테크의 결제 수수료를 공시하는 내용의 '빅테크 등 간편결제 수수료 투명성 제고 방안'을 보고했습니다. 이는 빅테크가 소상공인의 온라인 가맹점과 서비스 제공 계약을 체결할 때 종류별 수수료를 구분하지 않고 통합 계약을 하고 있어 수수료가 합리적으로 매겨지고 있는지 알 수 없다는 지적이 많기 때문입니다. 앞서 성일종 국민의힘 정책위의장은 당정협의 후 브리핑에서 소상공인의 금융 부담 완화를 위해서는 온라인 간편결제 수수료의 투명성을 높이기 위해 '공시 제도'를 도입해 수수료 인하를 유도하기로 했다고 밝혔습니다. 이에 따라 금감원은 소상공인이 부담하는 수수료를 항목별로 구분해 투명하게 관리하도록 하고 경쟁을 촉진해 민간 자율로 적정 수수료율을 책정하도록 유도한다는 방침입니다. 이를 위해 먼저 온라인 간편 결제 수수료 부분에 대해서는 회계 법인의 확인을 받아 공시할 예정이며 이를 위한 가이드라인도 만들 계획입니다. 공시 대상은 간편 결제 규모가 월 평균 1천억 원 이상인 상위 10개사로 네이버파이낸셜(서비스명 네이버페이), 쿠팡페이, 카카오페이, G마켓(스마일페이), 11번가(에스케이페이) 등입니다. 이밖에 우아한형제들(배민페이), 엔에치엔페이코(페이코), 에스에스지닷컴(에스에스지페이), 비바리퍼블리카(토스페이), 롯데멤버스(엘페이)도 포함됩니다. 금감원은 올해 안에 가이드라인을 확정한 뒤 내년 2~3월 중에 최초 공시한 뒤 반기마다 재공시할 방침입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2022.12.07.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>소진공, 혁신기업 토스와 협업…"소상공인 정책 접근성 높인다"</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005382055?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>토스앱에 소상공인 지원사업 연계…협업 시너지 기대[이데일리 함지현 기자] 소상공인시장진흥공단은 토스와 협업해 소상공인의 정책 접근성을 높인다고 7일 밝혔다.(사진=소상공인시장진흥공단)소진공에 따르면 지난 2일 양측은 세부적인 협업과제 발굴과 실무토론을 위해 토스 본사에서 혁신워크숍을 개최했다. 이날 워크숍에는 소진공의 새로운 혁신동력인 혁신이끄미 20명과 토스팀 실무 담당자 7명이 함께 참석했다.이들은 토스의 일하는 방식과 혁신적인 조직문화를 공유했다. 향후 양 기관이 함께 추진할 협업과제를 발굴하고, 구체화하기 위해 토론을 진행했다. 이날의 토론과제는 △토스애플리케이션을 활용한 소상공인 정책자금 취급방안 △온누리상품권 플랫폼 연계방안 △소상공인 원스톱 정부지원 사업 홍보방안 △내년도 출시 예정인 토스 플레이스 단말기와 연계한 온누리상품권 활성화방안 등이다.논의된 과제들은 단기와 장기과제로 구분하고 담당자를 지정해 지속적으로 밀착 관리해 나갈 계획이다. 박성효 소진공 이사장은 “공공기관과 우수 민간기업 간 협력으로 과감한 업무 효율화를 이끌어내고, 소상공인이 체감할 수 있는 서비스를 구현해 나갈 것”이라고 말했다.소진공은 지난 10월부터 ‘중복과 비효율은 빼고, 성과와 국민체감은 더하고’라는 혁신 슬로건 하에, 소상공인이 체감하는 성과를 창출하기 위한 조직의 혁신에 박차를 가하고 있다.오는 13~14일에는 모든 부서의 혁신노력과 성과를 전사적으로 공유하는 ‘제1회 혁신성과대회’를 개최해 혁신 우수부서와 기여자들에게 총 800만원 규모의 포상금을 지급할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2022.12.02.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>“사욕을 버리고 공동체에 헌신하라”…통치자의 신념 강제한 플라톤[윤비의 칼과 펜]</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003190413?sid=103</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>(16) 정의의 이름1세기쯤 제작된 플라톤의 아카데미. 폼페이 시에서 발굴된 모자이크.플라톤이 생각하는 정의로운 국가는 철저한 개인의 역할 분담…‘수호자’가 정치 전담하길 주장우수한 혈통 지닌 ‘수호자’들이 공동체에 헌신하도록 철저히 교육…공동생활하며 소유도 제한오늘날 기준으로는 전체주의에 가까운 사상…전쟁 패배 이후 아테네의 취약한 현실 고려해야지난 글에서 이야기했듯 소크라테스-플라톤(이제부터는 간단히 플라톤이라고 부르겠다. 물론 지난번에도 이야기했듯 플라톤의 대화편에 등장하는 소크라테스의 주장은 상당 부분 실제 소크라테스의 생각을 담고 있으리라는 점을 잊어서는 안 된다)은 부강한 나라는 지금 잘나가는 이런저런 나라를 무작정 흉내 내는 것으로는 도달할 수 없다고 보았다. 중요한 것은 정의로운 시민, 정의로운 국가를 이루는 것이며 이는 정의가 무엇인지를 근본적으로 이해하지 않으면 불가능하다.플라톤에게 정의를 이해한다는 것은 ‘좋음’을 이해하는 것이다. ‘좋음’이라는 뜻은 ‘내가 너를 좋아해’라는 뜻의 좋음도 아니고 ‘그 사람 좋은 사람이야’라는 의미의 좋음도 아니다. ‘좋음’은 뭔가가 제대로 돌아가는 상태이다. 나무가 제때 싹을 틔우고 열매를 맺게 한다면 그것은 ‘좋은’ 상태이다. 잘 먹고 잘 자고 몸 구석구석 아픈 곳 없이 잘 움직이면 마찬가지로 ‘좋은’ 상태이다. 가정이 화목하고 궁핍하지 않으면 ‘좋은’ 상태이고 국가가 안정되고 번영한다면 그것 역시 ‘좋은’ 상태이다. 무엇인가가 해야 할 일을 제대로 하는 상태, 그것이 ‘좋은’ 상태이다.정의는 사회 및 국가 질서가 ‘좋음’에 도달했을 때를 일컫는다. 정의로운 국가는 이런 좋은 상태에 도달하여 이를 유지해가는 국가이다. 정의로운 인간은 이런 좋은 상태를 이해하고 그를 위해 노력하는 인간이다. &lt;국가&gt;에서 플라톤은 국가 차원의 정의를 먼저 이야기하고 이어서 개인 차원의 정의를 이야기하겠다고 한다. 큰 물체를 관찰하는 것이 작은 물체를 관찰하는 것보다 쉽듯, 정의 역시 국가처럼 덩치 큰 곳에 있을 때, 인간의 정신처럼 작은 곳에 있을 때보다 분석하고 이해하기 쉽다는 것이 그 이유이다.플라톤이 생각하는 정의로운 국가는 철저한 역할 분담을 원칙으로 한다. 사람들이 정치공동체를 이루어 사는 것은 어차피 한 사람이 필요한 모든 물건을 만들 수 없고 그렇게 하는 것이 효율적이지도 않기 때문이다. 즉 인간들은 필요해서 정치공동체로 뭉친다. 그 안에서 농부, 집 짓는 사람, 베 짜는 사람, 신발 만드는 사람, 장사꾼, 날품팔이까지 각양각색의 사람들이 각자의 일을 하며 살아간다. 물론 나라가 더 커지면 시인, 배우, 무용가, 가정교사, 유모, 이발사, 요리사, 빵 만드는 사람 등 더 다양한 직종에 종사하는 사람들이 생겨난다.플라톤은 이런 역할 분담론을 정치에까지 확장해서 적용한다. 그에 의하면 국가를 다스리고 보호하는 것(여기에는 전쟁도 포함된다)도 일종의 전문 기능이다. 모든 전문 기능에는 그 일을 전담하는 사람이 있듯 여기에도 특화된 사람들이 있다. 이를 플라톤은 수호자라고 불렀다. 정치는 이들이 전담해야 한다.플라톤은 인간마다 근본적으로 자질이 다르다고 여겼다. 수호자의 자격을 갖춘 이들은 일단 혈통부터 다르다. 기백 있고 신체적으로 강건하다. 적에게는 사납지만, 동료 시민들에게는 유순하기도 하다. 여기에 영리하기까지 해서 지혜를 사랑하고 학문을 즐긴다. 그 안에서도 지도자의 지위에 더 어울리는 사람들과 이들을 보조하는 것이 좀 더 어울리는 사람들로 나눠진다. 한편 나머지 사람들은 이들 수호자의 지도를 받아들이며 정치가 아닌 다른 일에 종사하는 것이 적절하다고 플라톤은 주장한다.이런 주장을 설명하기 위해 심지어 그는 신이 인간을 만들 때 금, 은, 동, 철을 각각 다른 비율로 섞었으며, 고귀한 금속이 얼마나 들어갔는가에 따라 사람의 가치가 결정된다는 주장까지 폈다. 금이 들어간 인간은 리더, 은이 들어간 인간은 그들을 원조하는 사람, 동이나 철이 주로 들어가면 일반시민으로서 리더의 말을 들어야 한다는 것이 그의 생각이다.플라톤 사후 제작된 플라톤 두상의 로마시대 모작. 로마 카피톨 박물관 소장플라톤은 이런 여러 부류의 인간들 가운데 국가를 이끌기에 적합한 자질을 가진 이들을 어떻게 발굴하고 길러야 하는가에 큰 관심을 보인다. 그는 아예 출생부터 통제하기를 바란다. 열등한 혈통의 사람과 관계하여 아이를 낳게 되면 우수한 혈통을 버려놓기 때문이다. 따라서 그는 속임수를 써서라도 우수한 혈통의 사람이 자신과 같은 부류의 사람과 짝을 지어 아이를 갖도록 만들어야 한다고 여겼다.출생 못지않게 중요한 것이 교육이다. 플라톤은 국가가 우수한 혈통을 지닌 수호자들이 옆길로 새지 않고 자신들의 자질을 꽃피우도록 적극적으로 관리해야 한다고 믿었다. 논의는 길지만, 주장은 간단하다. 보호자들에게 정의에 대한 신념, 이를 실현하는 데 필요한 절제와 용기, 그 밑받침이 되는 이타심과 애국심 이외 나머지 감정이나 생각, 예를 들어 낭만, 애수 따위의 생각은 모조리 제거해버려야 한다 음악조차 조화롭고 씩씩한 리듬과 곡조의 것만 들어야 한다. 정의에 대한 신념, 공동체에 대한 헌신을 조금이라도 꺾을 만한 이야기, 삶에 대한 비관주의를 불어넣을 시나 노래는 아예 이들의 귀에 들리지도 못하게 하는 것은 기본이다. 만일 플라톤이 보호자들에게 노래방을 만들어주고자 했다면 그 안에는 군가나 교육 목적의 노래는 차고 넘칠 만큼 있었을 테지만 최백호의 ‘낭만에 대하여’나 디핵의 ‘오하요 마이 나이트’ 같은 노래는 결코 없었을 것이다. 당연히 여타 개인적인 편익이나 안락도 허용되지 않는다. 모두는 공동생활을 하게 되어 있으며, 사적 소유도 극히 제한된다. 심지어 아내도 공유해야 하고 아이들도 공동 양육해야 한다고 주장한다. 제대로 된 가족이 만들어지면 사사로운 정에 이끌려 공무를 그르칠 위험이 생기기 때문이다.이렇게 보면 플라톤의 수호자는 굉장히 불쌍한 사람들이다. 아테네 사람들도 다르게 생각하지 않았다. 아데이만토스는 한창 수호자들의 교육에 대해 열을 올리고 있는 소크라테스의 말을 끊고 이런 나라의 지배자들은 불행한 존재들일 뿐이라고 항의한다. 국가를 지배하지만 누리는 것은 거의 없기 때문이다. 그들은 땅도, 멋진 집도, 돈도 없다. 사치는커녕 여행도 마음대로 할 수 없고 애인의 마음을 살 선물 하나 할 돈도 없다.이에 대해 플라톤은 제대로 길러진 수호자들이라면 이런 삶을 행복하게 여길 것이라고 변명한다. 더불어 그는 “우리가 나라를 세우면서 목적으로 삼고 있는 것은 어떤 한 계급이 아니라 나라 전체가 행복해지는 것”(&lt;국가&gt;, 조우현 역)이므로 수호자들이 겪는 이런 불이익을 너무 심각하게 여길 필요가 없다고 주장한다.그러나 자신이 구상한 정치 질서에 대한 플라톤의 변론은 우리 귀에는 전체주의자의 변명으로 들린다. 정치공동체 전체의 행복보다 한 계급이나 집단의 행복이 앞설 수 없다는 주장에는 많은 이들이 공감하겠지만, 전체의 행복을 위해 한 집단이 도구처럼 취급되어 길러져도 된다는 생각까지 옹호하기는 힘들다. 그렇게 길러진 사람들이 자신의 처지를 행복하다고 여길 때 우리는 그것을 행복이 아니라 ‘완벽한 세뇌’라고 부른다.사실 아무리 좋게 읽어도 플라톤이 그리는 &lt;국가&gt;는 상식적으로 받아들이기 힘든 극단적인 아이디어를 꽤 담고 있다. ‘왕후장상에는 씨가 있다’는 식의 주장이나 고귀한 혈통을 유지하기 위해 국가가 남녀관계까지 조작해야 한다는 생각은 아무리 차이에 너그러운 민주주의자라도 불쾌하게 여길 것이다.실제로 플라톤은 민주주의에 대한 반감을 전혀 숨기지 않았다. 그에게 민주주의는 시민들의 마음속에 싹튼 탐욕과 이기심이 마구 뻗어나간 결과이다. 플라톤이 민주주의만 비난한 것은 아니다. 그는 참주제도, 과두제도, 귀족정부도 모두 시민의 이기심을 통제하지 못해 국가까지 병이 든 결과 빚어진 것으로 여겼다.물론 플라톤 사상의 이런 ‘반민주성’을 지나치게 부각할 필요는 없다. 지난 글에서도 이야기했듯이 오늘날의 잣대로 한 사상가를 배척하거나 받아들이는 것은 과거에 접근하는 바른 방법은 아니다. 어차피 19세기 후반까지도 민주주의에 대해 호의적인 문필가나 정치이론가들은 그리 많지 않았다. 왕정을 못마땅히 여기고 심지어 비난한 공화주의자들조차도 대부분 민주주의를 그다지 좋게 보지 않았다. 우리는 과거 사상가들을 우리가 동의할 만한 결론을 내리는가를 기준으로 판단하지 않는다.그러나 서양 정치이론의 역사는 플라톤 사상의 각주일 뿐이라는 식으로 플라톤 사상의 의미를 과장해서도 안 된다. 서양의 역사에서 플라톤이 처음으로 정치 및 국가에 대해 체계적인 이론을 내놓은 것은 사실이다. 그가 포착하고 토론했던 여러 문제들이 오늘날도 여전히 이슈로 남아 있는 경우도 적지 않다. 그러나 그것은 인간 사회에 시대와 장소를 막론하고 공통적으로 등장하는 문제들이 있기 때문이다. 우리가 정치에 대해 알아야 할 모든 것은 이미 플라톤이 말했다는 식으로 이야기하는 것은 곤란하다.플라톤에 대한 과장된 존경심을 거두고 한걸음 떨어져 생각해보면 그의 시대가 우리로부터 얼마나 먼가를 알게 된다. 플라톤이 그리는 국가는 오늘날의 기준에서 보면 아주 원시적이다. 이 연재를 통해 계속해 강조했지만, 당시의 정치공동체는 작은 위협에도 쉽게 무너지고 심지어 사라질 수도 있는 매우 취약한 존재였다. 겨우 몇만명 규모의 인구에 경제적 생산력은 낮은 도시에서 전쟁에 의해서든 질병에 의해서든 단 몇천명만 사망해도, 공동체는 뿌리부터 흔들리게 된다. 가뭄에 의한 흉작이나 홍수 같은 자연재해도 마찬가지 결과를 가져올 수 있다. 외부의 위협에 맞서 동원할 수 있는 인적, 물적 자원이 뻔하다 보니 문제가 생기면 “닥치고 한데 뭉쳐 돌격 앞으로!”식의 생각이 쉽게 자라나고 인기를 끈다. 한때 주변 지배지역을 포함하여 30만에 달하는 인구를 가진 그리스 최대 도시 아테네였지만 이런 한계를 근본적으로 벗어나지는 못했다.더욱이 플라톤이 활동하던 무렵의 아테네에서는 너나없는 총력동원으로 위기를 넘어서야 한다는 생각이 쉽게 자라날 수 있는 토양이 마련되어 있었다. 펠로폰네소스 전쟁의 패배 이후 부정할 수 없게 된 국력 쇠퇴의 현실이 아테네인들을 마치 숙취 후 찾아오는 불쾌감처럼 내리누르고 있었기 때문이다. 사회를 병영처럼 일사불란하게 재조직하여 위기를 돌파해야 한다는 플라톤의 생각은 이런 배경에서 출현했다.&lt;국가&gt;가 수호자들을 길러내고 유지하는 문제를 유독 길게 다루고 있는 것도 비슷한 맥락에서 이해될 수 있다. 이미 펠로폰네소스 전쟁 당시부터 아테네는 리더십의 위기를 심각하게 겪었다. 투키디데스는 페리클레스가 죽고 난 후 고만고만한 정치지도자들이 욕심만 부리다가 결국 나라를 이 꼴로 만들었다고 분통을 터뜨렸다. 전쟁에서 패배한 후 리더십을 둘러싸고 벌어진 내홍에 대해서는 지난 글에서 이야기했다. 플라톤이 어떤 사람들이 리더가 되어 어떻게 국가를 끌고 가야 하는가에 대해 큰 관심을 기울인 것은 이런 상황에서 보면 당연하다.플라톤은 국가의 지도자를 키워내는 데 있어 철학이 아주 중요한 역할을 할 것이라고 믿었다. 소피스트들은 철학을 우주와 인간에 대한 쓸모없는 한담이라고 비난했다. 그러나 플라톤은 철학이 정치를 이끌어가는 가장 중요한 지혜이며 무기가 될 수 있다고 믿었다. 철학이 권력과 결합할 때 가장 강하고 번영하는 국가가 등장할 것이라고 생각했다. 철인왕의 사상이다. 다음 글에서 계속 이야기한다.▶윤비 성균관대학교 정치외교학과 교수정치이론을 역사 및 문화와 관련지어 연구한다. 베를린 훔볼트대 정치학과 및 역사학과, 서울대 외교학과에서 서양정치사상을 강의하였다. 가르친다는 일을 영광으로 여기며 산다. 2021년 마키아벨리를 주제로 독일에서 단행본을 출간하였다. 2018~2020년 한겨레 신문에 ‘윤비의 이미지에 숨은 정치’를 연재하였고, EBS &lt;지식의 기쁨&gt; &lt;세바시&gt; 등에서 강연하였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2022.12.01.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>토스, 베트남 법인 축소…해외사업 사실상 손뗀다</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004128988?sid=101</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>동남아 법인에 베트남 법인 흡수직원 수도 20명에서 한 자릿수로알뜰폰 등 국내 신규사업에 집중토스가 베트남에서 출시한 애플리케이션 내 만보기 리워드 서비스 예시 화면. 사진 제공=비바리퍼블리카 베트남 홈페이지 화면 캡쳐[서울경제] 토스가 베트남 법인을 출범 3년 만에 오피스로 전환하고 해외 사업을 사실상 중단한다.1일 금융권에 따르면 토스는 베트남 법인 ‘비바리퍼블리카 베트남’을 동남아 법인과 통합한다. 지난달 23일 이사회를 열고 베트남 법인에 1627만 달러(약 213억 원)를 출자한 후 베트남 법인이 다시 동남아 법인에 출자하도록 했다. 앞서 토스는 올해 4월 말 싱가포르에 동남아 사업 본부 격인 ‘토스 사우스이스트아시아’를 설립했다.베트남 법인은 사무소 형태로만 유지한다. 2019년 10월 출범 후 3년 만에 사실상 철수를 결정한 것이다. 상반기에 20여 명이던 직원도 현재는 한 자릿수로 줄었다. 소액대출, 가상 선불카드 발급, 신용평가모델(CSS) 구축 등 기존에 베트남에서 진행하던 사업들도 대거 축소·중단될 것으로 보인다.빅테크 가운데 가장 앞서 글로벌 시장 진출에 나섰던 토스가 베트남에서 철수 결정을 내린 건 동남아 핀테크 시장에서 유의미한 경쟁력을 확보하지 못했기 때문이다. 당초 베트남 법인은 만보기 리워드 등 비금융 서비스로 이용자를 확보하고 이후 금융 서비스까지 이용하게 만들겠다는 전략이었지만 금융 플랫폼 전환에 실패했다.재무구조도 점점 악화됐다. 올해 3분기 말 베트남 법인의 부채는 상반기보다 34% 늘어난 약 285억 원으로 자산(약 68억 원)의 4배를 웃돌았다. 토스 자회사 중 자본이 ‘마이너스(-)’인, 즉 완전자본잠식 상태인 곳은 아직 본격적인 사업을 시작하지 않은 토스 인슈어런스를 제외하면 베트남 법인이 유일하다. 손실도 눈덩이처럼 불었다. 지난 3분기 말 베트남 법인의 총포괄손실은 약 127억 원으로 상반기 대비 120% 넘게 급증했다. 토스 관계자는 “현 상태를 유지할지 이쯤에서 중단할지 등 여러 카드를 놓고 현재 고민하고 있다”고 말했다.시장에서는 해외 사업 철수가 오히려 긍정적이라는 반응도 나온다. 금융권의 한 관계자는 “토스의 해외 사업은 현지 기업에 대한 지분 투자 형태로 이뤄질 것으로 보인다”며 “베트남에 추가 자원 투입을 줄이는 대신 국내 사업에 집중할 수 있을 것”이라고 말했다.한편 국내 다른 빅테크사들도 3년을 못 넘기고 속속 해외 사업을 접고 있다. 네이버 일본 관계사 라인은 최근 2020년 미국에 설립한 암호화폐거래소 ‘비트프론트’를 폐업한다고 밝혔다. 올해 4월 일본 암호화폐거래소 ‘사쿠라 익스체인지 비트코인(SEBC)’에 투자한 카카오 자회사 카카오픽코마는 지난달 30일 보유 지분 전량을 바이낸스에 매각하고 해외 암호화폐 시장에서 철수했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2022.12.11.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>"한국 진출에 진심이었구나"…빗썸 노렸던 FTX, '토스'에 1500억원 투자</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006511898?sid=105</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>FTX 관계사 알라메다벤처스, 토스 지분 1.14% 보유韓 진출 위해 계좌 확보 시도한 듯…이후 빗썸 인수 통한 진출도 검토지난달 미국 델라웨어주 파산법원이 공개한 FTX의 챕터11 파산 신청 자료. 프리드 창업자 산하에 4개의 사업 부문이 있고, 그 중 '알라메다' 부문에 토스가 속해 있다. FTX 관계사 알라메다벤처스는 토스 지분을 약 1.14% 보유한 것으로 파악된다.(서울=뉴스1) 박현영 기자 = 글로벌 가상자산 거래소 FTX의 관계사 알라메다벤처스가 국내 핀테크 기업 '토스'의 지분을 보유 중인 사실이 뒤늦게 알려졌다. FTX는 한 때 거래량 규모 세계 2위였으나 지난달 파산한 거래소다.이와 관련해 업계에서는 FTX가 한국 진출을 위해 인터넷은행인 토스뱅크 설립 계획이 있던 토스에 투자한 것으로 분석하고 있다. ◇토스 지분 1.14% 보유…"장외 시장서 구주 매입한 듯"지난 6일(현지시간) 파이낸셜타임즈는 FTX 그룹의 투자 포트폴리오 목록을 공개했다. 해당 목록은 샘 뱅크먼 프리드(Sam Bankman-Fried) FTX 창업자가 지난달 FTX 파산 위기 당시 긴급 자금 조달을 위해 활용했던 목록이다.목록에는 한국 기업으로 표기된 '토스'가 포함됐다. 투자 주체는 관계사 '알라메다벤처스'로 알려진 '매클로린인베스트먼트(Maclaurin Investments Ltd)'다. 투자 규모는 1억1370만달러(약 1479억원)이며, FTX 측은 토스의 기업가치를 99억3700만달러(약 13조원)로 평가했다. 해당 기업가치에 따르면 알라메다벤처스가 보유한 토스 지분은 약 1.14%다. 지난달 미국 델라웨어주 파산법원이 공개한 FTX의 챕터11 파산 신청 자료에도 이 같은 사실이 등장한다. 자료에 따르면 프리드 창업자 산하에는 알라메다를 포함한 4개의 사업 부문이 있고, 그 중 알라메다의 투자 포트폴리오에 토스가 포함돼 있다. 토스 운영사 비바리퍼블리카는 5% 이상 지분을 보유한 대주주의 경우 분기 공시를 통해 공개하고 있다. 알라메다벤처스의 지분은 1% 내외라 공시 속 주주 명단에는 포함되지 않았다.이와 관련해 토스 측은 알라메다 벤처스가 장외거래(OTC) 등을 통해 구주를 인수했을 것으로 추측했다.  토스 관계자는 "5% 이상 지분을 보유한 대주주 명단에는 알라메다가 없고, 올해 8~9월 신규 자금을 조달할 당시 투자한 주주 명단에도 없다"며 "정확한 투자 여부는 확인할 수 없으나, 정황상 예전에 장외 시장에서 구주를 매입한 것으로 보인다"고 밝혔다. ◇토스 투자, FTX 韓 진출 위한 포석…이후 빗썸 인수도 검토업계 관계자들은 토스 투자와 관련, FTX가 한국 시장 진출을 염두에 뒀다는 증거 중 하나라고 봤다.  토스는 인터넷전문은행 토스뱅크를 운영하고 있다. 토스뱅크가 정식 출범한 건 지난해 10월이지만, 토스의 인터넷은행 진출은 이미 2019년 말 토스가 금융위원회로부터 예비 인가를 따내면서 공식화됐다. FTX의 설립 시기도 2019년이다. 국내 가상자산 업계 관계자는 "FTX가 한국 시장 진출을 위해 은행 계좌를 열어 보려는 의도로 토스에 투자한 것으로 보인다"고 말했다. 한국에서 거래소 사업을 본격적으로 하기 위해선 은행과 계약을 맺고 실명확인 입출금계좌(실명계좌)를 확보해야 한다. FTX 관계사인 알라메다벤처스가 토스에 투자한 것도 이 때문이라는 추측이다. 시기적 타당성도 이 같은 추측에 힘을 더한다. 은행 계좌가 있어야 원화 거래를 지원할 수 있다는 규제가 만들어진 건 특정금융정보법(특금법) 개정안이 통과된 2020년 3월이지만, 개정안이 국회에 제출된 건 2019년 말이다. 알라메다 벤처스가 토스에 투자한 것도 이 시기쯤으로 추측된다. 프리드 창업자는 일찌감치 한국 시장의 중요성을 파악했던 인물이다. 그는 FTX 설립 전, 투자사인 알라메다리서치를 세우고 지난 2018년 한국에 '한남그룹'이라는 법인을 설립했다. 한국 내 투자 활동을 위한 법인이었던 것으로 보인다. 등기부등본 상 한남그룹의 대표 역시 프리드 창업자다. FTX를 설립한 이후엔 토스에 투자하는 등 본격적으로 한국 진출을 노린 것으로 보인다. 단, 토스 지분과 관계없이 특금법 상 요건까지 갖추며 한국 시장에 직접 진출하는 것은 쉽지 않았을 것으로 풀이된다. 이에 FTX는 빗썸 인수를 검토하는 등 다른 방법을 노리기도 했다. FTX는 빗썸과 인수를 위한 구체적인 조건까지 논의했으나, 올해 상반기쯤 협상이 결렬된 것으로 알려졌다. 한편 투자 포트폴리오에 따르면 FTX 그룹은 토스 외에도 한국 기업 중 컴투스의 가상자산 프로젝트 'C2X(엑스플라)'에도 500만달러(약 65억원)를 투자했다. 또 가상자산 결제 및 송금 서비스 '겟핍닷컴'에도 30만달러(약 4억원)를 투자한 것으로 나타났다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2022.12.13.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>10월 정기예적금 45.9조원 역대최대폭 증가...금리인상 자제령에도 '머니무브'</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004941494?sid=101</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>한은, '2022년 10월 통화 및 유동성' 발표 /사진=연합뉴스  [파이낸셜뉴스] 10월 통화량이 전달보다 13조8000억원 증가한 가운데 정기예적금이 무려 45조9000억원 급증한 것으로 나타났다.   두 달 전인 지난 8월에 이어 다시 역대 최대폭 증가다. 금융당국의 예금금리 인상 자제령에도 금리인상과 안전자산 선호심리가 지속된 영향이다. 마땅한 투자처를 찾지 못한 자금들은 예적금으로의 '머니무브'를 이어갔다.   ■  예·적금 급증세 지속...1500조원 돌파 13일 한국은행이 발표한 '2022년 10월 통화 및 유동성'에 따르면 시중 통화량을 의미하는 광의통화(M2, 계절조정·평잔 기준)는 10월 3757조9000억원으로 전달보다 13조8000억원 증가했다. 전달 보합세에서 다시 증가하면서 증가세가 이어졌다.   특히 정기예적금이 45조9000억원 크게 증가했다. 이는 관련통계 편제를 시작한 2001년 12월 이후 가장 큰 폭이다. 앞서 지난 8월 34조1000억원 증가하며 역대최대폭으로 증가한 지 두달만에 다시 역대최대폭을 경신했다. 전달인 9월에도 정기예적금 증가폭은 8월 다음으로 많은 30조5000억원을 나타냈다. 석달째 큰 폭의 증가세를 이어가고 있는 셈이다. 이에 정기 예적금 잔액은 10월 1500조5000억원을 넘어서며 1500조원에 돌파했다.   이는 금리상승과 안전자산 선호현상이 지속되고 있는 데 따른 것이다. 경제주체별 통화량도 기업이 9조2000억원 늘고 가계 및 비영리단체가 7조5000억원 증가했는데 모두 정기예적금을 중심으로 증가했다.   반면 수시입출식저축성예금은 16조1000억원 감소했다. 전달에 이어 다시 통계 이래 최대폭으로 줄었다. 요구불예금이 7조7000억원 줄어들고 MMF(머니마켓펀드)도 13조1000억원 감소했다. 경제주체별로도 기타금융기관에서 금전신탁 및 MMF 등은 13조8000억원 감소했다. 은행권 정기 예적금을 중심으로 한 머니무브가 이어지고 있는 모습이다.   ■  금리경쟁 줄었지만 예·적금 투자지속 이 같은 정기 예·적금 증가세는 꾸준하다는 게 은행권 설명이다. 최근 금융당국의 수신금리 인상 자제령에 시중은행에서는 예·적금 금리를 올리지 않고 있지만 예·적금 증가세는 여전하다는 것이다.   은행권 관계자는 "(은행들이) 금리를 올리지 않고 있지만 마땅한 투자처가 없다"면서 "지금 금리로 신규 예·적금 가입자는 늘고 있다"고 설명했다.   한국은행 기준금리가 지난달 24일 3.25%로 인상되기 앞서 같은 달 20일 금융당국은 은행권 정기예금 등 수신금리 인상 경쟁에 대한 자제를 당부했다. 수신금리 인상이 대출금리 인상으로 이어진다는 이유에서다. 이에 한은 금통위에서 기준금리가 0.25%p 올랐지만 수신금리를 올린 은행은 인터넷은행인 케이뱅크와 토스뱅크뿐이다. 케이뱅크는 '코드K 정기예금' 상품 등의 금리를 최대 0.5%p 인상했고 토스뱅크는 5000만원 초과 금액에 대한 '토스뱅크 통장' 금리를 4.0%로 올렸다.   현재 시중은행들의 수신금리 인상 경쟁도 주춤한 상태다. 은행연합회에 따르면 KB국민·신한·하나·우리·NH농협은행 등 5대 시중은행의 정기예금 금리는 2.80~4.92% 수준이다. 우리은행의 'WON플러스예금'이 4.92%로 가장 높고 하나은행의 '하나의정기예금', KB국민은행의 'KB Star 정기예금' 금리가 각각 4.85%, 4.78%로 그 뒤를 이었다.   정기적금의 경우 3.25~4.55% 수준 금리를 제공한다. 우리은행의 '우리SUPER주거래적금'(4.55%), 'WON적금'(4.1%), 하나은행의 '내맘적금(3.55%) 등 순서로 금리가 높았다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2022.12.08.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>서울시 "민원 신청에 필요한 구비서류, 모바일로 제출하세요"</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006507570?sid=102</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>자체 관리 시스템 새로 구축…모바일 전자문서지갑 활용민원 신청 모바일 서류 제출(서울시 제공).(서울=뉴스1) 전준우 기자 = 서울시는 이달부터 민원 신청 때 필요한 서류를 모바일 전자증명서로 제출할 수 있는 서비스를 시작했다고 8일 밝혔다.기존에도 모바일 전자증명서를 발급 받아 제출할 수는 있었지만 전자 증명서 제출 시 '문서열람번호'까지 제출해야 한다. 또 이미지(PDF 형태) 자료로만 볼 수 있어 담당 공무원은 해당 문서를 일일이 대조 확인하는 방식으로 사실 관계를 확인해야 했다. 올해 12월 시행 중인 '손목닥터 9988'에 18만명, 내년 1월부터 시행할 기부식품 제공사업 운영지원 등 3개 사업에 8만6000명 등 대상 인원이 많은 관계로 행정처리 시간 단축을 위한 일괄처리가 절실하다. 서울시는 이런 문제점을 해결하고자 자체 관리 시스템을 새로 구축했다. 시민들이 전자증명서를 편리하게 모바일로 제출하면 담당공무원은 사업 대상자를 일괄 선별할 수 있도록 개선했다. 스마트폰 하나면 정부24(약 300종) 네이버(62종) 카카오(7종) 신한은행(5종) 토스(64종) 서울지갑(8종) 등 모바일앱에서 전자증명서를 발급 받아 원하는 기관에 제출할 수 있다. 전자증명서를 발급 받아 제출하기 위해서는 개인별로 전자문서지갑을 모바일에서 만들어야 하며, 여러 모바일앱(네이버, 카카오 등)에서 공유해 사용 가능하다.'손목닥터 9988' 신청은 서울시 소재 직장인 여부 확인을 위해 '재직증명서' 대신 '고용보험 자격이력 내력서'를 모바일 전자증명서로 제출할 수 있다. 내년부터 기부식품 제공, 장애인 주택 특별공급 신청, 중증 장애인 자산형성 지원 등 3개 사업으로 점차 확대해 모바일 전자증명서를 받을 예정이다. 이혜경 서울시 디지털정책관은 "앞으로 모바일 전자증명서 서비스를 확대해 언제 어디서든지 관련 구비서류를 모바일로 즉시 제출할 수 있도록 하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2022.12.07.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>다올투자증권, 다올인베스트먼트 매각 소식에 강세 [증시이슈]</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000035768?sid=101</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>태국 현지법인 이어 VC 자회사도 매각 추진"유동성 확보 차원…내년 대비 선제적 대응"     [사진 다올투자증권]    다올투자증권이 벤처캐피탈(VC) 자회사 다올인베스트먼트를 매각한다는 소식에 강세다.      7일  유가증권시장에서 오전 10시 14분 현재 다올투자증권은 전일 대비 3.03%(100원) 오른 3400원에 거래되고 있다. 같은 시각 코스닥 시장에서 다올인베스트먼트도 13.66%(420원) 오른 3495원에 거래 중이다.      다올투자증권은 다올인베스트먼트 매각을 위해 국내 금융사들과 접촉하고 있다고 밝혔다. 다올투자증권이 보유한 지분 전량(52.0%)을 매각하는 조건으로, 희망 매각가는 약 2000억원이다.      앞서 다올투자증권은 유동성 확보를 위해 태국 현지법인 ‘다올 타일랜드’ 매각에 나섰고 정규직 임직원을 대상으로 희망퇴직 신청을 받았다.      다올인베스트먼트는 1981년 설립된 국내 1세대 벤처캐피털(VC)로, 비바리퍼블리카(토스), 우아한형제들(배달의 민족) 등 스타트업에 투자했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2022.12.09.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>토스페이먼츠, 월 거래액 3조6000억 돌파</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005383865?sid=105</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>출범 2년 만에 규모 2배로 늘어나[이데일리 임유경 기자] 토스페이먼츠(대표 김민표)는 올해 11월 기준 월 거래액이 3조6000억원을 넘어섰다고 9일 밝혔다. 이는 전년 동기 대비 44% 증가한 것으로, 같은 기간 국내 주요 PG 사업자들의 거래액 성장률 대비 높은 수치다. 또, 2020년 8월 출범 당시 토스페이먼츠의 월 거래액은 1조8000억원 수준이었는데, 2년여 만에 규모를 2배 늘린 것이다.지난 11월 기준 토스페이먼츠의 가맹점 숫자는 출범 당시와 비교해 25% 증가한 약 10만개에 이르며, 주요 성장 지표인 월간 유입 가맹점 숫자도 2천 500개로 나타났다. 올해부터는 해외 시장 공략에도 나섰다. 최근 토스페이먼츠는 ‘피델리티내셔널인포메이션서비스(FIS)’ 및 ‘앤트그룹’과 각각 제휴해 글로벌 가맹점 대상 전자 결제 서비스를 시작했다.토스페이먼츠 측은 △당일 전자지급결제대행(PG) 연동 △쉽고 편리한 결제 경험(UX) △보증보험 무료 가입 혜택 등 영·중소 사업자 맞춤형 정책 △글로벌 수준의 보안 시스템 구축 등의 특장점이 성장 동력이 됐다고 설명했다.김민표 토스페이먼츠 대표는 “토스페이먼츠는 가맹점의 비즈니스 성장을 돕기 위한 파트너로서 새로운 접근 방식을 통해 시장의 변화를 만들어 나가고 있다. 앞으로도 토스페이먼츠는 가맹점이 사업에만 집중할 수 있도록 다양한 솔루션을 선보일 계획이다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2022.12.06.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>"금리 오르고 기업대출 늘더니" 3분기 국내 은행 BIS 비율 하락</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000875369?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>올 3분기 국내 은행의 BIS(총자기자본) 비율이 전기대비 0.46%포인트 떨어졌다./사진=이미지투데이 올 3분기 국내 은행의 BIS(총자기자본) 비율이 전분기대비 0.46%포인트 떨어졌다. 최근 기준금리 인상에 따라 채권값이 떨어진 데다 기업대출이 늘면서 위험가중자산이 커졌기 때문이다.금융감독원은 6일 이같은 내용이 담긴 '2022년 9월말 은행지주회사 및 은행 BIS기준 자본비율 현황(잠정)'을 발표했다.9월말 기준 은행의 BIS기준 보통주자본비율, 기본자본비율, 총자본비율, 단순기본자본비율은 각각 12.26%, 13.51%, 14.84%, 6.09%를 기록했다.이는 지난 6월말 대비 각각 0.45%포인트, 0.44%포인트, 0.46%포인트, 0.15%포인트 하락한 수준이다.금감원은 신한, 하나, 국민, 우리, 농협, DGB, BNK, JB 등 8개 금융지주회사와 SC, 시티, 산업, 기업, 수출입, 수협, 케이뱅크, 카카오뱅크, 토스뱅크 등 9개 은행을 대상으로 국내 은행의 BIS 기준 자본비율을 산출한다.이는 순이익 시현·증자 등에도 금리상승에 따른 채권평가손실로 자본 증가폭이 제한된 반면 기업대출 증가, 환율상승 등으로 위험가중자산은 크게 증가해 자산증가율(4.5%)이 자본 증가율(1.4%)을 상회한 데 기인한다.단순기본자본비율은 총위험노출액 증가율이 기본자본 증가율을 상회하면서 지난 6월말 대비 0.15%포인트 줄었다.9월말 현재 모든 국내은행이 규제비율(자본보전완충자본 및 D-SIB 추가자본 포함)을 상회했다.위험가중자산이 감소하거나 상대적으로 보통주자본이 크게 증가한 4개 은행(BNK·JB·씨티·수협)은 전분기말 대비 보통주자본비율이 상승했다.위험가중자산 증가율이 보통주자본 증가율을 상회한 12개 은행은 보통주자본비율이 하락했다.금감원은 대내외 경제 충격에도 은행이 건전성을 유지해 본연의 역할을 충실히 수행할 수 있도록 손실흡수능력 확충을 유도할 예정이다.금감원 관계자는 "은행의 자본비율 현황에 대한 모니터링을 한층 강화하고, 자본비율이 취약한 은행에 대해서는 자본적정성 제고를 유도하겠다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2022.12.02.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>[fn마켓워치]정영호 아시아F&amp;I 대표 "내년 저평가 사업장 투자기회 많을 것"</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004936843?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>정영호 아시아에프앤아이(F&amp;I) 대표 [파이낸셜뉴스] 정영호 아시아에프앤아이(F&amp;I) 대표가 내년 저평가 사업장에 대한 투자기회가 많을 것으로 봤다. 올해 하반기부터 부동산시장이 급격하게 위축되고, 브릿지론 단계부터 투자금을 찾지 못해 어려워진 사업장이 늘어나서다.   정 대표는 2일 파이낸셜뉴스와 만나 "내년에는 저평가된 사업장 및 부실 사업장에 대한 투자기회가 많이 있을 것"이라며 "지금은 유동성의 확보 및 타 투자기관과의 협업에 보다 많은 노력을 기울이고 있다"고 말했다.   아시아F&amp;I는 NPL(부실채권) 및 저평가에 대한 자산 투자에 강점을 가진 곳으로 평가된다.   자회사 'AP더핀'을 통한 온라인금융플랫폼 사업도 한 축이다. 내년에 온라인대출중개사업을 본격적으로 개시할 예정이다.   현재 개인 대출비교 시장은 토스, 카카오페이, 핀다 등 3파전 양상을 보이고 있다. 윤창현 국민의힘 의원실이 금융감독원으로부터 제출받은 상위 10대 저축은행 신용대출 현황’ 자료에 따르면 토스(시장점유율 48.8%), 카카오페이(23.2%)와 핀다(16.9%) 순이다.   아시아F&amp;I는 신한금융그룹과 함께하는 공모전 '프롭핀테크 게임체인저'를 통해 기회를 봤다. 스타트업의 번뜩이는 아이템을 통해 온라인금융플랫폼에 접목 할 수 있다는 판단이다.   그는 "이번 2기 공모전 선정기업과 전향적으로 협력방안을 모색할 계획"이라며 "각 금융기관 제휴를 위한 준비작업을 진행 중"이라고 설명했다.   아시아F&amp;I가 개인 대출비교 시장에 공을 들이는 것은 부동산담보대출이 부동산 투자에 대한 전문성을 살릴 수 있는 기회로 봤기 때문이다. 지금은 대출이지만 나중에는 금융상품으로 이어질 수 있다는 기대도 있다.   정 대표는 "모든 금융상품이 오프라인 중심에서 온라인 중심으로 옮겨가고 있다"며 "온라인을 통한 개인 대출비교에서 기회를 엿볼 수 있었다"고 강조했다.   정 대표는 KPMG삼정회계법인에서 NPL, 자산유동화(ABS) 및 기업 구조조정 관련 자문을 진행했고, 하나금융그룹의 자회사인 하나에프앤아이 투자 및 자산관리본부장을 역임키도 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2022.12.09.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>그리스 문명의 원류…안탈리아에 빠져 5일간 머물다</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/094/0000010535?sid=103</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>[나홀로 차박 세계일주] 열한 번째 이야기안탈리아 라라 해변의 날씨가 너무 좋아 5일 동안 차박했다.카파도키아에서 계속 남쪽으로 내려온다. 콘야Konya 평야와 토로스Toros 산맥을 넘어 550km의 거리를 달리면 안탈리아가 나온다. 콘야 평야는 남한 면적의 반 정도인 크기로 중간 중간에 카라반 사라이Karavan Saray가 있다. 카라반이란 실크로드에서 낙타나 말에 짐을 싣고 교역을 하던 상인들을 말하여, 카라반 사라이는 장거리 이동에 지친 상인들을 위한 숙소다. 단순히 카라반들이 쉬어가는 장소가 아니라 서로 만나 문물을 교환하거나 생필품을 사고팔던 교역소기도 했다. 말하자면 카라반 사라이는 사막이나 초원에서 오아시스 같은 곳이다. 실크로드는 총 길이 12,000km로 낙타가 하루 동안 갈 수 있는 거리인 30km 마다 카라반 사라이가 세워졌는데, 도적떼에 털리지 않도록 성처럼 지었다. 토로스 산맥은 지중해 연안과 평행을 이루며 동쪽의 유프라테스 강 상류까지 완만한 곡선을 그리며 뻗은 산맥이다. 산맥 너머의 안탈리아와 10도 이상 온도 차이가 난다고 하며, 지그재그로 능선을 넘다 보면 우리나라 제주도에서 볼 수 있는 삼나무인 백향목들이 자라고 있다. 휴양도시 안탈리아에서 2시간 떨어진 알라니아에는 해변가가 길게 늘어져있다남쪽으로 내려갈수록 날씨가 점차 따뜻해지면서 바다가 보이기 시작한다. 지중해는 유럽과 아프리카, 아시아의 경계를 긋는 바다로 유럽인들에게는 '지구의 중심을 뜻하는 바다'였다. 옛날부터 지중해는 중요한 해상 교역로 역할을 해왔다. 튀르키예와 그리스 사이는 에게해, 그리스와 이탈리아 사이는 이오니아해라고 부른다. 튀르키예 최대의 항구인 메르신에서 안탈리아까지 해안가 도로에는 야자수들이 자라면서 이국적인 모습을 보여준다. 경치는 좋지만 해안가 도로는 꼬불꼬불해서 운전하기에 여간 피곤한 게 아니다. 안탈리아Antalya는 튀르키예 최대의 휴양도시로 맑고 깨끗한 지중해와 고대 로마 유적들이 많다. 안탈리아 시내의 해변으로 콘얄티 해변Konyaalti Plajlari과 라라 해변Lara Plajlari을 꼽을 수 있다. 콘얄티 해변은 몽돌 해변이고 대중적이라고 한다면, 라라 해변은 모래로 되어 있고 귀족적인 해변으로 고급 호텔이 많다. 안탈리아에서 동쪽으로 2시간 거리에 있는 알라니아Alanya의 클레오파트라 해변과 담라타쉬 해변은 11월 말인데도 날씨가 온화해서 아직도 수영을 즐기는 사람들이 많다. 특히 담라타쉬 해변에서 알라니아 성으로 연결되는 케이블카를 타고 정상에서 바라보는 도시의 풍경이 한 편의 그림 같다. 이곳은 유럽 사람들이 많이 찾는 곳이라고 한다. 안탈리아는 겨울철에도 날씨가 따뜻해서 수영을 할수있다안탈리아는 겨울철에도 날씨가 따뜻해서 수영을 할수있다안탈리아의 구시가지 골목길은 대리석 바닥과 고풍스런 건축물에 곳곳에 유적들이 남아 있다. 골목길을 요리조리 따라가면 마리나 항구와 이블리미나레Yivliminare 모스크가 나온다. 해안 절벽 위에 있는 전망대에서 바라보는 토로스 산맥과 발아래 고즈넉하게 자리한 항구의 모습이 멋지다. 거기서 다시 구시가지를 돌아 나오면 하드리아누스Hadrianus의 문이 나온다. 로마 오현제 중 세 번째 황제인 하드리아누스가 130년에 안탈리아를 방문한 것을 기념해 세운 문이라고 한다. 약 2,000년 전에 만들어진 것치곤 보존 상태가 좋고 아름다운 문이다. 로마 황제 하드리아누스의 방문을 기념해 세운 문튀르키예 3대 박물관 중 하나인 안탈리아 고고학 박물관은 구석기 시대부터 비잔틴 제국 시대까지 다양한 유물들이 시대 순으로 전시되어 있다. 그리스 신화에 나오는 신과 석관에 새겨진 조각상들을 보면 그 규모뿐만 아니라 화려함과 섬세함에 놀라지 않을 수 없다. 사실 고대 그리스 문명은 그리스에서 시작된 것이 아니라 튀르키예 지중해에서 비롯된 것이다. 아스펜도스, 페르게, 미라, 페티예, 보드룸, 밀레투스, 셀추크, 베르가마, 트로이 등 그리스 신화에 나오는 도시들은 대부분 튀르키예에 있다. 그리스 최초의 철학자인 탈레스(기원전 624~545)는 튀르키예의 밀레투스 출신이었다. 탈레스는 '우주는 어떻게 만들어졌는가?'에 대한 답을 내놓은 첫 번째 철학자라고 할 수 있다. 그는 만물의 근원을 '물'이라고 주장했다. 그의 답이 맞는지는 과학적으로 중요하지 않다. 보다 중요한 것은 그가 어떤 질문을 던졌고, 그 질문에 대해 어떤 논리적 근거를 제시했느냐 하는 점에 있다. 탈레스 이전에는 자연 현상의 원인을 신이나 초자연적인 것에서 찾으려고 했다. 하지만 탈레스는 그 원인을 자연 안에서 찾으려고 했으며, 그에 대한 근거를 제시한 첫 번째 사람이 되었으며, 우리는 이를 철학자라고 부른다. 아스펜도스의 극장은 15000명을 수용할 수있다올림포스 산은 총 8개가 있다 아스펜도스Aspendos는 고대 그리스·로마 도시로서 1만 5,000명 이상을 수용할 수 있는 거대한 규모의 극장으로 2세기에 지어진 가장 큰 극장 중 하나다. 매년 7~9월 경 높이 100m의 원형극장에서는 오페라와 발레 공연이 열리기도 한다. 페르게Perge는 서기 46년 성 바오로가 첫 설교를 한 장소로 알려지면서 비잔틴 시대의 기독교인들에게 중요한 도시가 되었다. 이 곳에서는 고대 도시의 모든 유적들인 묘지, 극장, 성벽, 경기장, 체육관, 목욕탕, 아고라와 몇 km의 기둥이 늘어선 거리를 볼 수 있다. 특히 터키에 남은 경기장 유적 중 이곳의 경기장이 가장 잘 보존된 것이라고 한다. 엄청난 규모의 경기장은 계단의 형태가 남아 있는 곳과 무너진 곳이 동시에 있어서 기나긴 시간의 흐름을 한 눈에 볼 수 있다. 올림포스 산으로 오르는 케이블카. 정상에선 안개에 잠겨 아무것도 보이지 않았다.안탈리아 서쪽으로 한 시간을 가면 올림포스 산(2,365m)으로 올라가는 케이블카를 탈 수 있다. 올림포스 산은 그리스에 4개, 튀르키예에 3개, 키프로스에 1개가 있다고 한다. 그중 리키안 올림포스라고도 불리는 안탈리아의 타탈리 산(Tathali, 2,365m)은 그리스에 있는 올림포스 산과 더불어 신들의 고향이다. 길이가 4.3km인 케이블카를 타면 정상까지 바로 갈 수 있는데, 정상은 11월부터 6월까지 눈에 뒤덮여 있을 만큼 추운 곳이다. 산은 신들의 고향답게 구름으로 가려 있었고 정상부는 온통 눈으로 덮여 있고 바람이 매서웠다. 중간에 연결되어 있는 케이블탑을 지날 때면 롤러코스터에서 떨어질 때처럼 심장이 쿵하고 내려앉는 느낌이다. 올라갈수록 가스가 자욱해지면서 궁금증과 공포감이 공존한다. 이 산에는 '키메라'라고 하는 바위틈에서 꺼지지 않는 불꽃이 있다. 심지어 바람이 불거나 비가와도 불이 꺼지지 않는다고 한다. 그리스 신화에 의하면 키메라는 머리가 셋이 있는 괴물로 입으로는 불을 내뿜는데, 명마 페가수스를 탄 영웅 벨레로폰에 의해 죽었다고 전해진다. 생물학적으로는 한 개체 내에서 서로 다른 유전적 성질을 가지는 현상을 말한다. 제우스신과 헤라 신의 아들인 헤파이토스는 태어나자마자 불꽃을 휘날리며 빛을 내뿜어서 그의 어머니 헤라가 올림포스 산으로 추방했다. 헤파이토스는 미의 여신인 아프로디테와 결혼하여 이곳 올림포스 산에서 살았다고 한다. 그래서 산 정상에 헤파이토스와 아프로디테의 조각상이 있다. 중동의 자연 환경은 가혹하다. 기술이 발달하지 않은 과거엔 먹는 문제가 최대 관심사였을 테다. 이슬람에서는 인간과 가축의 공생이 절대적으로 필요한 생활에서 먹는 것에도 일정한 법칙이 있었다. '할랄halal'의 정확한 개념을 모르더라도 어디선가 한 번쯤 이 단어를 들어본 사람들이 있을 것이다. 이른바 '허용된 것'을 뜻하는 말이다. 하지만 할랄이라 하면 돼지고기를 못 먹는 이슬람 음식문화 정도로 막연하게 생각하는 사람들이 대다수다. 사실 중동 지역에서 이슬람교뿐만 아니라 유대교에서도 돼지고기를 먹지 않는다. 우리가 알고 있는 '발굽이 갈라져 있고 되새김질을 하는 동물은 먹을 수 있다'는 규정은 유대교에 한정된다. 소나 양, 닭은 반추동물이기 때문에 먹을 수 있다. 돼지는 발굽이 갈라져 있지만, 되새김질을 하지 않기 때문에 금지된 것이다. 이슬람교의 쿠란에 따르면 육류 중에도 죽은 동물과 돼지고기, 파충류 등을 금하고 있다. 안탈리아 고고학 박물관돼지는 유목 민족의 특성상 별로 도움이 되지 않는 동물이었다. 이동성이 양과 말에 비해 현저히 떨어지며, 사람과 똑같이 물과 곡식을 필요로 하고 여름철에 쉽게 상한다. 또한 고기, 젖, 가죽을 모두 활용할 수 있는 양에 비해 가죽도 별 쓸모가 없는 동물이었다. 아마도 유목 민족에서 비롯된 이슬람 종교에서 돼지고기를 안 먹는 게 그런 이유 때문인 것 같다. 그럼 돼지고기 말고 소고기나 닭고기는 할랄 대상일까? 정답은 그럴 수도 있고 아닐 수도 있다. 가축을 죽일 때 알라의 기도문을 외면서 단칼에 동맥을 끊는 방식으로 도축을 해야 한다는 이슬람법에 따르면 고기를 먹을 수 있다. 할랄에 반대되는 개념은 더럽고 허용되지 않는 것을 뜻하는 '하람Haram'이다. 돼지고기 같은 음식은 대표적인 하람으로 무슬림들에게 구더기 같은 불결함으로 인식된다. 무슬림들이 이처럼 하람에 민감하다 보니 할랄은 단순히 식품의 종류만으로 한정할 수 없다. 즉 식품의 가공, 포장, 보관, 운송 등 모든 유통 과정에서 하람과 철저하게 분리, 취급해야 한다는 개념으로 이해해야 한다. 따라서 식품뿐만 아니라 화장품이나 의약품 같이 몸에 바르고 섭취하는 모든 것에 할랄이 적용된다. 하지만 할랄 인증이 있는 상품과 서비스만으로는 살아갈 수 없기 때문에 명백한 하람만 아니라면 소비가 이루어진다고 한다. 금지된 음식이라도 기아 상태나 생명이 위험할 때 또는 무의식중에 먹은 음식 등은 허용한다는 유연한 입장이다. 즉 하람이더라도 모르고 섭취한 것은 죄가 되지 않는다는 얘기다. 되네르 케밥케밥의 종류가 수백가지? 독일의 어떤 철학자는 "당신이 먹는 음식이 곧 당신이 누구인지를 말해준다"라는 유명한 명언을 남겼다. 우리는 매일 밥을 먹지만 새로운 음식과 맛있는 음식을 만날 때 입에 침이 고이고 가슴이 두근거린다. 현재 전 세계 인구 중 20억 명이 무슬림이라고 한다. 그 중 튀르키예는 과거 오스만 제국이었으며 서아시아와 유럽 남부에 걸쳐있는 나라이다. 보스포루스 해협을 경계로 서쪽 3%는 유럽, 동쪽 97%는 아시아 지역으로 나뉘어진다. 면적은 우리나라의 8배 정도이고, 인구는 약 8,500만 명이다. 튀르키예는 프랑스, 중국과 함께 세계 3대 미식 국가로 알려져 있다. 쉬쉬 케밥고등어 케밥튀르키예의 대표적인 음식은 무엇이 있을까? 먼저 튀르키예 하면 케밥이라고 할 만큼 케밥은 빼놓을 수 없는 음식이다. 케밥의 뜻은 '구이'라는 말로 지역에 따라 수백가지에 달할 정도로 다양한 종류가 있다. 일반적으로 바베큐는 수평으로 고기를 꽂아 돌리는데, 케밥은 양이나 닭 등을 수직으로 꽂아 회전시키며 한쪽에서 불을 가하면서 익히는 방법이다. 수직으로 꽂혀 있는 고기의 기름은 아래로 떨어지며 가장 외부부터 익는다. 주문이 들어오면 불꽃을 조절하며, 칼로 고기를 자른 다음 빵, 채소 등을 넣어준다. 이 같은 것을 되네르 케밥Doner Kebab이라고 한다. 이와 비슷한 방법으로 조그만 꼬치에 고기를 구워주는 것을 쉬쉬 케밥Sis Kabab이라고 한다. 또한 우리나라 떡갈비처럼 잘 다진 고기로 갖은 양념을 하여 먹기 좋은 크기로 구어낸 쾨프테 케밥Kofte Kabab이 있다. 밀가루를 반죽하여 둥글고 납작하게 만들어 구은 것으로 우리나라 빈대떡처럼 만든 피데Pide가 있다. 이탈리아의 피자와 비슷하지만 안에 아무런 내용물이 없어서 고기 같은 것을 싸서 먹는다. 옛날 오스만 제국 시절의 궁중 비화로 매일 술탄(황제)의 식탁에는 같은 음식을 올려서는 안 된다는 엄격한 내규가 있었다. 주방장과 요리사들이 목숨을 내걸고 음식의 개발과 조리에 전심전력을 다했음은 자명하다. 튀르키예 홍차커피와 홍차는 튀르키예인들에게 동반자와 같다. 식사 때뿐만 아니라 수시로 마신다. 우리나라 같으면 저녁에 남자들이 모여 술잔을 기울이겠지만, 튀르키예 남자들은 찻집에서 '짜이'라고 하는 홍차를 마시며 이야기를 나눈다. 손잡이가 없는 아름다운 유리잔에 담는 것이 원칙이다. 튀르키예 커피는 유네스코 무형문화유산으로 만드는 과정부터 독특하다. 황동 주전자에 커피 가루를 넣고 숯불에 올려 끓인다. 어느 정도 끓여지면 커피 가루를 가라앉히기 위해 몇 분 정도 그대로 놔둔다. 커피 가루가 그대로 담겨 있어 향과 맛이 강한 편이다. 커피를 다 마실 때쯤에는 커피 가루가 입술에 묻어 나온다. 양고기로 만든 램찹튀르키예 음식의 기본은 고기와 젖이다. 양젖은 그대로 마시거나 발효시켜 요구르트로 만든다. 요구르트의 어원이 튀르키예에서 왔을 정도로 고기 음식과 궁합이 잘 맞는다. 요구르트에 물과 소금을 섞어 만든 아이란Airan은 요구르트와 우유의 중간쯤으로 약간 시큼한 맛이 난다. 로쿰Locum은 옥수수 전분과 설탕을 주재료로 과일즙과 견과류를 넣어 만든 젤리로 '죽기 전에 먹어봐야 할 세계 음식재료 1001'에 꼽힐 정도로 특유의 달콤함과 화려한 색감을 가지고 있다. 안탈리아의 날씨가 너무 좋아 라라 해변에서 5일 동안 차박했다. 그런데 러시아 시베리아를 횡단하며 매일 수백km를 달렸던 게 문제인지 주행 충전기의 퓨즈가 나갔다. 이제 본격적으로 겨울에 접어들면서 차박할 때 보온은 필수적이다. 전기담요나 인덕터, 보온 밥솥, 전등 없이 겨울을 날 수는 없다. 물론 차 위에 태양광을 설치했지만 그건 보조 역할 밖에 하지 못한다. 다행히 안탈리아는 휴양 도시답게 캠핑카 수리 전문점이 여러 개 있었다. 퓨즈를 바꿔 무사히 문제를 해결했다. 그날 차박을 하면서 바라보는 전구의 불빛이 유난히 따뜻하고 포근해 보였다. 정갑수 연세대산악회 OB. 악우회. 핵물리학 박사. 을지대 방사선과 교수 역임. 저서 &lt;물리법칙으로 이루어진 세상&gt;, &lt;브레인 사이언스&gt;, &lt;세상을 움직이는 수학&gt;, &lt;세상을 움직이는 물리&gt;, &lt;방사능 시대를 살아가는 엄마들에게&gt;, &lt;호모 사이언티피쿠스&gt;, &lt;암벽등반의 세계&gt;, &lt;암벽등반과 스포츠클라이밍&gt;, &lt;겨울산행과 빙벽등반&gt;, &lt;스포츠클라이밍의 거의 모든 것&gt; 등. 히말라야 동계 에베레스트, 탈레이사가르, 트랑고타워 등반. 남미 최고봉 아콩카과(6,960m), 북미 최고봉 데날리(6,194m), 남극 최고봉 빈슨매시프(4,897m) 등정. 대한민국 체육훈장 대한체육회 연구상 수상. 다음 주에 계속</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2022.12.07.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>소진공, 토스와 정부 지원사업 연계…국민 체감 향상</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011579225?sid=101</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>기사내용 요약지난 2일 혁신 워크숍 개최…"업무 효율화"[서울=뉴시스] 소상공인시장진흥공단(소진공) 전경. (사진=뉴시스 DB). photo@newsis.com [서울=뉴시스] 이창환 기자 = 소상공인시장진흥공단(소진공)은 토스와 협업을 통해 소상공인의 정책 접근성을 높이겠다고 7일 밝혔다. 앞서 소진공과 토스 관계자는 지난 2일 세부적인 협업 과제 발굴과 실무 토론을 위해 서울 강남 토스 본사에서 혁신 워크숍을 개최했다. 이날 워크숍에는 소진공의 새로운 혁신 동력인 '혁신이끄미' 20명과 토스팀 실무 담당자 7명이 함께 참석했다. 이들은 토스의 일하는 방식과 혁신적인 조직문화를 공유한 뒤 향후 두 기관이 함께 추진할 협업 과제를 발굴하고, 이를 구체화하기 위해 열띤 토론을 진행했다. 토론 과제는 ▲토스앱을 활용한 소상공인 정책자금 취급 방안 ▲온누리상품권 플랫폼 연계 방안 ▲소상공인 원스톱 정부 지원 사업 홍보 방안 ▲내년도 출시 예정인 토스 플레이스 단말기와 연계한 온누리상품권 활성화 방안 등이었다.두 기관은 논의된 과제들을 단기와 장기 과제로 구분하고, 담당자를 지정해 지속적으로 밀착 관리해나갈 계획이다. 박성효 소진공 이사장은 "공공기관과 우수 민간 기업 간 협력으로 과감한 업무 효율화를 끌어내고, 소상공인이 체감할 수 있는 서비스를 구현해나갈 것"이라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2022.12.06.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>'애플페이' 상륙 초읽기…약관심사 완료</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002275703?sid=105</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>금융당국, 5일 마무리…구글페이 등 글로벌 페이 추가 진출 우려금융당국이 애플페이의 약관심사를 완료한 소식이 전해진 가운데, 기존 카드사 중 글로벌 페이사의 국내시장 추가 진출 우려가 확산되고 있다.이미 온라인 결제시장은 카카오페이, 토스페이 등 핀테크사에 점유율을 빼앗기는 상황에서 애플페이 뿐만 아니라 구글페이, 가민페이 등 글로벌 페이 서비스가 국내 오프라인 결제시장에 더 들어오면 기존 카드사의 입지는 더 축소되기 때문이다.6일 여신업권에 따르면, 전날 늦은 저녁 금감원은 애플페이의 약관심사를 완료했다. 이는 곧 애플페이의 국내시장 진출을 금융당국이 허용한 것을 의미한다. 앞서 시장에선 현대카드의 애플페이 연계 서비스 등장을 기대했는데 당국의 약관심사 완료로 관련 서비스가 조만간 출시될 것으로 예상된다.여신업권에선 애플페이가 국내시장에서 활성화되면 구글페이와 가민페이 등 글로벌 페이사가 국내 결제시장을 눈독드릴 것이라는 목소리가 있다.한 금융권 관계자는 “앞으로 애플페이 뿐만 아니라 구글페이, 가민페이 등 엄청난 덩치를 자랑하는 해외 서비스가 물 밀듯이 들어올 텐데 이들의 파급력은 상상을 초월 할 것”이라고 말했다.이어 “지금은 현대카드와 애플페이가 부각되지만, 나중에는 모든 카드사가 살기 위해 글로벌 페이 서비스에 붙을 수도 있는 일”이라고 설명했다.다른 여신업권 관계자는 “온라인 결제시장은 카카오페이, 토스페이, 네이버페이 등이 주름잡고 있는 상황에서 글로벌 페이사가 국내시장에 다수 유입된다면 기존 카드사의 결제서비스 실적은 갈수록 어려워질 것”이라고 한탄했다.한편 국내 오프라인 매장에서 근접무선통신(NFC) 단말기를 보유한 곳이 10% 수준이고,  삼성의 모바일 디바이스와 애플의 아이폰 디바이스가 국내 모바일 시장에서 차지하는 비율이 8대 2 정도로 격차가 있기 때문에 애플페이의 국내시장 진출 성공을 장담할 수 없는 상황이라는 주장이 있었다.이에 대해 다른 여신업권 관계자는 “현재는 삼성의 모바일 디바이스가 국내 시장의 대부분을 차지하고 있지만, 청소년들 사이에선 아이폰이 대세”라며 “이들이 성인이 되었을 때 어떤 브랜드의 모바일 디바이스가 시장을 삼킬지는 뻔한 것”이라고 말했다.그는 “국내 카드사가 연합해 오픈페이를 대응한다고 하던데, 타사의 상품을 허용하는 서비스 특성상 얼마나 협업이 될지도 미지수”라며 “이제는 각 카드사가 알아서 살아남아야 하는 게 현실”이라고 덧붙였다.한편 당국이 직접 나서 국내 카드사의 입지를 최소한으로 지켜줄 필요가 있다는 의견도 있다.이와 관련해 금융감독원 관계자는 지디넷코리아와의 통화에서 “당국은 애플페이 약관이 법에 부합했는지를 심사했을 뿐, 그밖에 시장에 미칠 파장에 대해선 말씀드릴 부분이 없다”고 일축했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2022.12.07.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>"정책 접근성 높인다" 토스와 협업하는 소진공</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003064184?sid=101</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>소상공인시장진흥공단은 토스와 협업해 소상공인의 정책 접근성을 높이겠다고 7일 밝혔다.소진공과 토스는 앞서 워크숍을 열고 토스의 일하는 방식과 혁신적인 조직문화를 공유했다. △토스앱을 활용한 소상공인 정책자금 취급방안 △온누리상품권 플랫폼 연계방안 △소상공인 원스톱 정부지원 사업 홍보방안 △내년도 출시 예정인 토스 플레이스 단말기와 연계한 온누리상품권 활성화방안 등을 논의했다.박성효 소진공 이사장은 “공공기관과 우수 민간기업 간 협력으로 과감한 업무 효율화를 이끌어내고 소상공인이 체감할 수 있는 서비스를 구현해 나가겠다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2022.12.09.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>토스페이먼츠, 2년 만에 월 거래액 3조 6천억 돌파</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000313815?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>[토스페이먼츠가 출범 2년여 만에 월 거래액 3조6천억원을 넘어섰다.(자료 : 토스페이먼츠)]토스 페이테크 계열사인 토스페이먼츠가 출범 2년여 만에 월 거래액 3조6천억원을 넘어섰습니다.토스페이먼츠는 올해 11월 기준 월 거래액이 3조6천억원을 넘어섰다고 오늘(9일) 밝혔습니다. 이는 지난 2020년 8월 회사 출범 이후 2년여 만의 성과입니다.토스페이먼츠는 ▲당일 PG 연동 ▲쉽고 편리한 결제 경험(UX) ▲보증보험 무료 가입 혜택 등 영세·중소 사업자 맞춤형 정책 ▲글로벌 수준의 보안 시스템 구축 등 고착화된 PG 업계에서 새로운 변화를 선보이며, 시장점유율을 확대하고 있습니다.토스페이먼츠에 따르면 지난 2020년 출범 당시 1조8천억원 수준이었던 토스페이먼츠의 월 거래액은 올해 11월 기준 3조6400억원으로 2배 수준으로 증가했습니다. 이는 전년 동기 대비 44% 증가한 것으로, 같은 기간 국내 주요 PG 사업자들의 거래액 성장률 대비 높은 수치라는 설명입니다.토스페이먼츠 관계자는 "내부 데이터 집계 결과, 토스페이먼츠는 올해 8월 처음으로 월 거래액 기준 업계 1위에 오른 것으로 나타났다"며 "국내 대형 이커머스 가맹점 유치 등을 통해 거래액 규모가 지속적으로 성장하는 추세"라고 밝혔습니다.올해 11월 기준 토스페이먼츠의 가맹점 숫자는 출범 당시에 비해 25% 증가한 약 10만 개에 이르며, 주요 성장 지표인 월간 유입 가맹점 숫자도 2500개로 나타났습니다.토스페이먼츠는 최근 '피델리티내셔널인포메이션서비스(FIS)' 및 '앤트그룹'과 각각 제휴해 글로벌 가맹점 대상 전자 결제 서비스를 시작하는 등 해외 시장 공략에 본격적으로 나서면서 거래액과 가맹점 규모 모두 성장할 것으로 기대하고 있습니다.김민표 토스페이먼츠 대표는 "토스페이먼츠는 가맹점의 비즈니스 성장을 돕기 위한 파트너로서 새로운 접근 방식을 통해 시장의 변화를 만들어 나가고 있다"며 "앞으로도 가맹점이 사업에만 집중할 수 있도록 다양한 솔루션을 선보일 계획"이라고 말했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2022.12.13.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>수신 금리 올리는 인터넷은행...속내 복잡하네</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002077544?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>케뱅·토뱅 등 잇달아 금리인상  중금리 신용대출 비중 늘어나자 자금조달·건전성 관리 차원 단행“갑론을박이 많았다”수신금리를 인상한 한 인터넷전문은행의 관계자는 적절한 금리 인상의 폭과 속도를 맞추기 위해 내부적으로 논의를 거듭했다며 이같이 말했다. 금융당국의 자제 요청에 시중은행들의 수신금리 인상에 제동이 걸리면서, 인터넷은행은 경쟁적으로 금리 인상에 나서고 있다. 하지만 인터넷은행의 수신금리 인상에는 자금조달, 건전성 관리 등을 위한 복잡한 속내가 반영돼 있다.13일 금융권에 따르면 카카오뱅크·케이뱅크·토스뱅크 3대 인터넷은행의 지난 1분기 대비 3분기 수신잔액 증가율은 평균 10%다. 케이뱅크의 경우 지난 3월 11조5400억원에서 13조4900억원으로 16.89% 증가했으며, 토스뱅크는 21조45억원에서 23조1445억원으로 10%, 카카오뱅크는 33조414억원에서 34조5560억원으로 4% 늘었다. 한국은행이 집계한 예금은행 총수신 잔액이 지난 3월 1889조4743억원에서 1937조2480억원으로 2% 증가한 것과 비교하면 성장세가 가파르다.인터넷은행은 이 기세를 몰아 수신금리를 인상해 시중의 자금을 끌어 모으고 있다. 케이뱅크는 전날 파킹통장 ‘플러스박스’의 금리를 연 2.7%에서 0.3%p(포인트) 올려 연 3.0%로 인상했다. 토스뱅크의 경우에도 이날부터 5000만원 초과 금액에 대해 연 4.0% 금리를 적용하겠다고 밝혔다. 시중은행의 수신금리 인상이 주춤하면서 목돈을 넣을 곳을 찾기 위해 관망하고 있는 금리 노마드(유목민)족의 자금을 잡겠다는 계획이다.인터넷은행이 수신금리를 경쟁적으로 인상하는 데에는 1차적으로 자금조달 목적이 있다. 카카오뱅크와 케이뱅크, 그리고 토스뱅크는 올해 말 중금리 신용대출 비중 목표치로 각각 25%, 25%, 42%를 내세웠으며 세 은행 모두 달성을 눈앞에 뒀다.개인사업자 등 신파일러(thin filer·금융이력부족자)를 위한 대출사업 규모가 늘어나고 있는 만큼 자금조달이 시급하다. 인터넷은행은 아직 신용 부족으로 은행채 발행을 하지 못하고 있어 수신과 기업공개(IPO), 유상증자로 자금을 조달할 수밖에 없다.건전성 관리를 위한 여유자금도 필요한 상황이다. 최근 중·저신용자 대출을 대폭 늘린 인터넷은행을 두고 건전성에 대한 우려의 시선이 적지 않다. 실제 각 사에 따르면 카카오뱅크, 케이뱅크, 토스뱅크의 고정이하여신(NPL) 비율은 작년 말 평균 0.26%에서 올 3분기 말 0.43%로 0.23%포인트 상승했다. 고정이하여신은 부실채권을 의미하며 NLP비율이 높을수록 자산건전성이 취약하다는 뜻이다.금융당국도 인터넷은행의 부실채권 규모를 눈여겨보고 있다. 금융당국 관계자는 “부실채권으로 인한 손실이 발생할 수도 있지만 지금 당장 크게 문제가 되는 정도는 아니다”며 “금리상승기에 건전성과 유동성 관리를 철저히 해달라고 늘 이야기하고 있다”고 말했다.홍승희 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2022.12.14.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>돈맥 캐기 전략, 여기 대치동 세텍에 다 있어요</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003734479?sid=101</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>[핀테크관] 디지털 금융 한눈에, 업계 최고금리 특판도							금리 상승과 시장 정체로 투자할 길을 만나기 어려운 시대일수록 새로운 투자 기회를 찾는 수요가 많다. 2023 대한민국 재테크 박람회 제2 전시실엔 디지털 시대에 맞춘 다양한 금융 서비스를 쏟아내고 있는 인터넷 은행 3곳과 핀테크(금융과 첨단 기술의 결합) 기업, 가상 자산 거래소 등이 대거 포진해 관람객을 맞을 예정이다.올해 재테크 박람회의 하이라이트 중 하나인 특판 상품은 상상인저축은행이 준비했다. 15일 기준 저축은행 예금 중 가장 높은 이율을 기준으로 0.1%포인트 금리를 얹어주는 특판 예금을 선착순 400명(16일, 17일 각각 200명)에게 판매한다. 100만~1000만원 가입이 가능하다. 현재 기준(12월 12일) 저축은행 업계 1년 예금 상품 최고 금리가 연 5.9%라는 점을 감안하면 연 6%를 주는 예금에 가입할 수 있는 셈이다.케이뱅크·카카오뱅크·토스뱅크 등 인터넷 은행 ‘3총사’는 이번 박람회를 통해 젊은 은행다운 다채로운 사은품을 준비했다. 케이뱅크는 부스 방문자에게 선착순으로 에코백과 캐릭터 스티커를 준다. 카카오뱅크는 카카오 인기 캐릭터인 춘식이·라이언의 3D 모형과 함께 사진 찍는 이벤트를 진행한다. 현장에 설치되는 춘식이와 함께 사진을 찍고, 개인 소셜미디어에 ‘#카카오뱅크’나 ‘#카카오뱅크개인사업자뱅킹’이라고 태그를 달아 사진을 올리면 춘식이 스티커를 준다. 토스뱅크는 박람회에서 받을 수 있는 다양한 팸플릿과 기념품을 담을 대형 에코백을 부스 방문자에게 준다.  										한국에서 가장 오래된 가상 자산 거래소인 코빗은 앱을 설치하거나 새로 가입하는 참관객에게 티셔츠·스포츠타월 등을 준다. 가입 후 신한은행 계좌를 연동하면 추첨을 통해 비트코인 쿠폰(1만·3만·5만원)을 제공한다. NFT(대체 불가능 토큰) 거래소인 ‘모핑아이’는 부스 방문 후 설문조사 참여 시 추첨을 통해 금 NFT 3개, 무선 충전기 등을 준다. 태양광발전 소액 투자를 할 수 있는 핀테크 회사 ‘솔라브리지’는 부스를 방문해 처음으로 투자하는 관람객에게 최고 6만원 상당 상품권 혜택을 준다. 아울러 연리 15%를 추구하는 P2P(개인 간) 투자 상품을 선착순으로 판매한다. 단 이 상품은 원금 손실 위험이 있다. 한우 ‘조각투자’ 서비스인 핀테크 회사 ‘뱅카우’는 부스에서 회원 가입하면 추첨을 통해 치킨·커피 쿠폰 등을 준다.인공지능(AI)이 투자 전략을 짜주는 로보 어드바이저 회사인 ‘쿼터백’과 ‘콴텍’도 관람객을 맞을 예정이다. 쿼터백은 퀴즈를 푸는 방문객에게 책, 달력, 대형 에코백 등을 준다. 앱을 통해 자신이 가입한 보험을 진단해볼 수 있는 ‘굿리치’는 클릭 네 번만 하면 되는 간단한 보험 추천 서비스를 현장에서 체험할 경우 경품을 제공한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2022.12.12.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>[DD 퇴근길] 트위터, 원고지 20매의 힘은?</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002138617?sid=105</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>디지털데일리가 퇴근 즈음해서 읽을 수 있는 [DD퇴근길] 코너를 마련했습니다. 혹시 오늘 디지털데일리 기사를 놓치지는 않으셨나요? 퇴근 앞두고 저희가 요약 정리한 주요 기사를 가벼운 마음으로 읽어주시기 바랍니다. 전체 기사는 ‘디지털데일리 기사 하단의 관련뉴스(아웃링크)’에서 확인할 수 있습니다.   일론 머스크 트위터 최고경영자(CEO)가 트위터의 글자 수 제한을 현재의 280자에서 4000자(원고지 20매 분량)까지 늘릴 예정이라고 밝혔다고 맥루머스 등 외신들이 11일(현지시간) 보도했습니다. 머스크 CEO는 “트위터가 글자 수 제한을 4000자로 늘리겠다는 소문이 사실이냐”는 트위터 이용자의 질문에 “그렇다”고 답했고, 다만 자세한 정보는 공개하지 않았는데요.트위터는 원래 140자 글자 수 제한이 있었습니다. 그러다 2017년 이후 280자로 늘어난 상태입니다. 하지만 머스크는 트위터를 인수하면서 이 글자수 제한을 풀어야 한다고 제안한 바 있는데요. 과연 4000자까지 늘어난 글자 수가 트위터 이용에 어떤 영향을 미칠지 관심이 모아집니다. 그동안 280자로 제한됐던 글자 수가 답답하셨던 분들에게는 희소식이겠습니다.삼성전자, 한종희 'TV·가전' 노태문 '모바일·디자인' 겸직최근 삼성전자가 디바이스익스피리언스(DX)부문 조직개편을 마무리했는데요. DX부문장인 한종희 부회장은 원래대로 영상디스플레이(VD)사업부장 및 생활가전(DA)사업부장 겸임합니다. 업계에서는 세계적인 경기침체로 최근 부진에 빠진 DA사업부를 한 부회장이 이끄는 게 낫겠다는 삼성전자 이재용 회장 판단으로 보고 있습니다. 한 부회장의 강력한 리더십이 간절한 상황인데요.한 부회장을 보조할 인사로는 용석우 부사장이 등장했는데요. VD사업부에 부사업부장직을 신설하고 이 자리에 VD사업부 개발팀장 용 부사장을 임명한 것이죠. 용 부사장은 차기 VD사업부장으로 꼽히는 인물이기도 합니다.DX부문 내 모바일익스피리언스(MX)사업부도 변화가 있었습니다. 우선 노태문 MX사업부장이 디자인경영센터장을 겸직하고, 기존 센터장은 김진수 부사장은 부센터장을 맡습니다. 이 센터는 삼성전자 완제품 디자인을 연구개발(R&amp;D)하는 곳인데, 사장급 인사를 수장으로 앉혀 디자인 역량 강화에 집중하겠다는 의도로 해석됩니다. 노 사장의 어깨가 무거워졌죠.또 스마트폰 개발실장에는 최원준 부사장이 자리합니다. 최 부사장은 퀄컴 출신으로 지난 2020년 최연소 부사장으로 승진한 바 있죠. 그는 세계 최초 5세대(5G) 이동통신 단말기 상용화 앞장서는 등 차기 MX사업부장으로 거론됩니다.   올해 내가 가장 재밌게 본 네이버웹툰이 궁금하다면?네이버웹툰과 시리즈가 오는 31일까지 웹과 앱 이용자 개개인 열람 이력을 분석한 ‘2022 위드 웹툰 나의 웹툰 리포트(이하 웹툰 리포트)’와 ‘2022 위드 시리즈, 나의 시리즈 리포트(이하 시리즈 리포트)’를 앱에서 각각 공개합니다. 먼저 웹툰 리포트에서는 ▲나의 열람 요약(열람 일수 및 회차 수) ▲나의 열람 유형(나의 열람 유형과 비슷한 웹툰 캐릭터 공개) ▲나의 베스트 웹툰(장기 열람 및 가장 많은 회차를 읽은 작품) ▲독자 추천 웹툰(나의 감상 이력과 유사한 이용자 선호 작품)을 확인할 수 있습니다. 웹툰 리포트에 따르면 네이버웹툰 서비스 이용자들은 올 한 해 평균 938개 회차를 감상한 것으로 나타났습니다.이용자 개별 데이터와 성별에 따른 ▲인기순 베스트(올해 많은 독자가 열람한 작품) ▲슈퍼루키 베스트(올해 오픈한 신작 중 많은 독자가 열람한 작품) ▲쿠키도둑 베스트(작품을 열람한 독자 중 유료 결제 비중이 높은 작품)도 발표했는데요. 인기순 베스트 1위에 오른 ‘외모지상주의’와 ‘연애혁명’은 도전만화에서 발굴돼 8년 넘게 최상위권을 유지하고 있는 작품입니다. 네이버웹툰은 도전만화에서 정식연재로 이어지는 창작 프로세스를 통해 신작과 인기작 선순환을 만들어 왔죠. 올해는 ▲대학원탈출일지 ▲남편먹는여자 ▲안녕,나의수집 등 13개 도전만화 연재작이 정식 연재를 확정했습니다. 네카오에 SSG·쿠팡도…내년 2~3월 간편결제 수수료 공개금융당국이 네이버·카카오·쿠팡 등 빅테크 온라인 간편결제 수수료 공시를 추진합니다. 업계에 따르면 금융감독원은 지난 6일 국민의힘과 당정협의에서 대형 빅테크 결제 수수료를 공시하는 내용의 ‘빅테크 등 간편결제 수수료 투명성 제고 방안’을 보고했습니다. 금감원은 연내 가이드라인을 확정하고, 이에 따라 내년 2~3월경 공시할 예정입니다. 간편결제를 제공하는 빅테크 기업들은 입점업체들과 계약을 체결할 때 종류별 수수료를 구분하지 않고 통합 계약을 합니다. 이에 수수료가 합리적인건지 알 수 없다는 지적이 제기돼왔는데요. 기업별 수수료율을 공시해 투명하게 관리하고, 자율적으로 적정 수수료율을 정하도록 유도한다는 방침입니다.공시 대상은 간편결제 규모가 월 평균 1000억원 이상인 상위 10개사로 ▲네이버파이낸셜(네이버페이) ▲쿠팡(쿠팡페이) ▲카카오(카카오페이) ▲G마켓(스마일페이) ▲11번가(SK페이) ▲우아한형제들(배민페이) ▲NHN페이코(페이코) ▲SSG닷컴(SSG페이) 비바리퍼블리카(토스페이) 롯데멤버스(엘페이)가 포함됩니다. 50년 만의 달 착륙 1단계 성공…오리온, ‘무사귀환’‘아르테미스1호’의 달 탐사 여정이 끝났습니다. 11일(이하 현지시각) 유인우주선 ‘오리온’의 승무원 모듈이 미국 캘리포니아주 서쪽 바다에 착수했는데요. 미국 항공우주국(NASA)은 “오리온의 지구 귀환은 아폴로17호의 달 착륙 이후 50년 만에 달 탐사와 관련 최대 업적”이라며 “▲NASA ▲미국 ▲국제 협력 파트너 ▲인류의 큰 승리”라고 밝혔습니다.오리온은 아르테미스1호의 유인우주선으로 발사체 SLS에 실려 지난 11월16일 지구를 떠났습니다. 사람 대신 센서를 부착한 마네킹이 탑승해 25.5일 동안 아르테미스1호 성능 시험과 심우주 탐사를 위한 정보 등 총 17단계 임무를 진행했습니다.NASA는 “오리온이 안전하게 지구로 돌아오면서 우주비행사를 달로 보내는 다음 임무를 가능케 했다”라며 “화성 탐사를 준비하기 위해 달에서 장기 체류 등을 향한 우리의 길의 시작”이라고 설명했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2022.12.15.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>연말 가파른 '대출 절벽'...2금융 플랫폼 대출 무더기 중단</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004787830?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>대출비교 플랫폼 입점 금융사100여곳 중 40곳 조회 안돼최고금리 제한, 조달금리는 뛰어대출 내줄수록 수익성은 악화2금융권 "사실상 개점휴업"저신용자 위한 햇살론도 중단사진=게티이미지뱅크개인 신용점수가 840점(옛 3등급)인 직장인 정모씨(33)는 최근 한 대출 비교 플랫폼을 통해 신용대출 한도와 금리를 조회했다. 그런데 입점한 금융회사 세 곳 중 한 곳은 ‘금융사 점검 중’이라며 아예 조회가 되지 않았다. 점검 종료 기간은 모두 12월 30일~내년 1월 1일이었다. 연말을 앞두고 급전이 필요했던 정씨는 어쩔 수 없이 가장 높은 한도를 제시한 한 저축은행에서 대출을 신청했지만 최종 심사 결과 퇴짜맞았다.저축은행 카드사 캐피털사 등 2금융권 회사 상당수가 연말까지 카카오페이 토스 핀다 같은 대출 비교 플랫폼을 통한 대출을 한시 중단했다. 금리가 급격히 오르며 자금 조달 비용이 급증한 반면 대출 금리는 법정 최고금리 규제에 묶인 바람에 대출을 내줄수록 손해인 상황이 벌어졌기 때문이다. 금융사들은 수익성이 더 낮은 플랫폼 대출을 중단한 데 이어 대표적 정책서민금융상품인 ‘햇살론’ 취급도 줄이고 있다. 2금융권 “사실상 개점휴업”15일 금융업계에 따르면 카카오페이 신용대출 비교 서비스에 입점한 금융사 57곳 중 2금융권 21곳은 대출자의 신용 상태와 상관없이 ‘금융사 점검’을 명목으로 대출 조회 결과를 제공하지 않고 있다. 토스 입점 금융사 역시 52곳 중 2금융권 19곳이 연말까지 점검 상태다. 이미 10월 초중순부터 ‘점검’ 팻말을 걸어둔 금융사도 적지 않다. 저축은행 업계 1위 SBI저축은행의 모바일 뱅킹 사이다뱅크와 캐피털 업계 1위 현대캐피털, 지방금융지주 계열 BNK·DGB캐피털 등 대형사들도 플랫폼을 통한 대출을 이미 중단했다.  일부 금융사는 플랫폼 대출을 한시 중단한 이유로 ‘대출 총량 규제’를 꼽는다. 금융당국은 가계부채 통제를 위해 올해 저축은행의 가계대출 증가율이 연 10.8~14.8%를 넘지 않도록 했다. 작년(21%)보다 훨씬 엄격해졌다. A저축은행 관계자는 “총량 한도가 거의 다 찬 상태여서 플랫폼 대출 영업을 중단했다”고 했다.반면 대부분 금융사는 “대출 한도까지 많이 남았지만 취급하려야 할 수 없는 상황”이라고 토로했다. 금리 급등으로 수익성이 빠르게 악화하고 있기 때문이다. 2금융권의 조달 금리만 1년 전보다 세 배가량 높은 연 6~7% 수준으로 치솟았다.여기에 예금보험료, 대손비용, 대출 관리 원가 등 각종 비용을 합치면 신규 대출은 취급하는 게 오히려 손해라고 주장했다. 특히 플랫폼을 통해 대출을 내줄 경우 금융사는 대출액의 1~2% 이상을 플랫폼 수수료로 지급해야 한다. 금융사들이 플랫폼 중개 대출부터 중단하고 나선 이유다.한국은행에 따르면 올 10월 말 기준 저축은행 가계대출 증가율은 전년 말 대비 7.3%로 규제 상한까지는 여유가 있다. B저축은행 관계자는 “조달 비용이 올랐는데 대출 금리는 법정 최고금리(연 20%)에 막혀 올리지 못하니 한도가 있어도 대출을 극도로 보수적으로 운영할 수밖에 없다”며 “수익성을 떠나 생존을 위한 것”이라고 했다. 한 카드사 관계자는 “지금은 2금융권 대부분이 사실상 개점휴업 상태”라고 했다. 햇살론 문턱도 높아져은행 대출이 어려운 저소득·저신용 직장인을 위한 정책 대출인 ‘근로자 햇살론’ 받기도 하늘의 별 따기가 됐다. 근로자 햇살론은 서민금융진흥원을 통해 정부가 90%를 보증하고 저축은행과 상호금융기관이 돈을 빌려주는 구조다.최고 금리가 연 10.5%로 지금 같은 고금리 시대에 저신용자에게 인기가 높지만 햇살론을 받을 수 있는 곳은 점점 줄고 있다. 한 대출상담사는 “기준금리 급등에 따라 기존 근로자 햇살론을 취급하던 금융사들이 대부분 중단한 상태”라며 “햇살론을 받지 못해 최고 연 15% 금리인 사잇돌2 대출이라도 받겠다는 사람이 많다”고 전했다. 서금원 관계자는 “조달금리가 워낙 오른 데다 부실이 나면 저축은행이 10% 손실을 보다 보니 소극적으로 취급하고 있는 게 사실”이라며 “최대한 참여를 독려하고 있다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2022.12.14.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>“앞으론 이금리도 어렵다” 5% 예금 막히자 부랴부랴 뜨는 상품</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003734494?sid=101</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>은행·상호금융권 고금리 적금 줄줄이 완판 행진							주부 최모(46)씨는 이번 달에 적금을 2개 들었다. 지난달 중순 연 5%를 넘겼던 은행 정기 예금 금리가 금융 당국의 수신금리 인상 자제령 이후 4%대로 내려앉자 예금 갈아타기를 멈추고 여윳돈이 생기면 적금에 넣기 시작한 것이다. 지역농협이나 신협 등 상호금융권에서 나오는 연 7~8%대 ‘장기’ 적금을 골라 담았다. 지난 5일엔 연 7.4% 금리의 홍성낙농축협 적금(47개월)에, 닷새 뒤엔 경기남부수협의 연 7.1% 적금(35개월)에 들었다. 최씨는 “앞으로 이 정도 금리의 적금도 구경하기 어려워질 수 있다는 생각에 일단 가입부터 했다”며 “3년 안팎 장기납인 걸 고려하면 목돈 마련용으로 괜찮은 것 같다”고 말했다./그래픽=백형선 										이달 들어 금융사별 정기 예금 금리가 일제히 내리고 있는 가운데, 그 대안으로 고금리 적금이 부상하고 있다. 금융 당국이 정기 예금 금리를 세게 누르고 있어 금융회사들이 눈치를 보고 있지만, 적금은 상대적으로 압박이 덜하기 때문이다. 금리에 민감하게 반응하는 ‘금리 노마드’족의 관심 속에 최근 은행·상호금융권이 출시한 고금리 적금 특판은 줄줄이 완판 행진을 이어가고 있다.식지 않는 고금리 적금 열풍							13일 5대 은행(KB국민·신한·하나·우리·NH농협)의 1년 만기 정기 예금 금리는 연 4.78~4.92%로 엿새 전(4.81~4.95%)보다 더 떨어졌다. 반면 고금리·이색 적금들은 꾸준히 등장하고 있다.우리은행은 지난 7일 최고 연 11% 적금(데일리워킹적금)을 출시했다. 매일 1만보 이상 걸으면 6개월 만기 시 연 11% 금리를 받을 수 있는 상품인데 사전에 준비한 10만 계좌가 모두 동이 났다. 월 납입액이 30만원이어서 실제 손에 쥘 수 있는 이자가 6만원이 채 되지 않는데도 깜짝 흥행에 성공했다. 그만큼 금리 노마드족의 수요가 적지 않다는 뜻이다. 신규 고객을 확보하는 차원에서도 적금이 유용한 수단이 되고 있다.상호금융권도 고금리 적금을 계속 선보이고 있다. 내년 유동성 위기 상황에 대비해 미리 조합 자금을 확보해 둘 필요가 있기 때문이다. 지난 12일 용인시산림조합이 내놓은 연 8% 적금(1년)은 대면 가입만 가능한데도 번호표를 뽑고 반나절을 기다려야 할 정도로 인기를 끌었다. 앞서 이달 초 나온 보령수협 적금(17개월, 연 7%)을 비롯해 서남구수협(3년, 연 7%)과 경기남부수협(35개월 연 7.1%), 대전유성신협(5년, 연 7%) 등도 대부분 금세 마감됐다. 소비자들도 수신 금리가 거의 정점에 도달했다고 보고 장기 적금을 선호하는 경향을 보이고 있다.인뱅은 파킹 통장 경쟁							인터넷은행들은 파킹 통장(수시입출식) 금리 경쟁을 벌이고 있다. 케이뱅크는 지난 12일부터 파킹 통장인 ‘플러스박스’ 금리를 기존 연 2.7%에서 3%로 0.3%포인트 올렸다. 그러자 토스뱅크가 다음날인 13일 파킹 통장 금리를 5000만원 초과분에 한해 연 4%로 뒤따라 올렸다. 5000만원까지는 이전과 동일하게 연 2.3%를 적용하되 5000만원이 넘는 금액은 연 4%라는 파격적인 금리를 제공하는 것이다. 시중에 대기 중인 여유 자금을 유치해 은행 건전성을 확보하려는 차원으로 풀이된다.인터넷은행들은 금융 당국과 약속한 중금리 대출 목표치를 맞추는 과정에서 재무 건전성 지표가 하락하는 후유증을 겪고 있다. 이를 만회하기 위해 신규 고객을 늘리는 수단으로 파킹 통장 금리를 올리는 것으로 보인다.금리 정점 대비한 재테크 필요							KB금융지주 산하 경영연구소가 금융 자산 10억원 이상 부자들의 투자 트렌드를 분석해 낸 ‘2022 부자 보고서’에 따르면 부자들은 앞으로 1년간 늘릴 투자 항목으로 예적금(29%)을 1순위로 꼽았다. 이어 주식(17.8%)과 채권(9%), 펀드(8%), 만기환급형 보험(7.3%) 순으로 답했다. 아울러 향후 3년간 중장기적 자산 관리 전략에서는 부동산을 가장 유망한 투자처로 꼽았다.자산관리 전문가들은 금리 인상세가 주춤한 만큼 예·적금 외 다른 재테크 수단으로 시야를 넓혀볼 것을 조언하고 있다. 김영호 하나은행 영업1부 PB센터장은 “내년 봄쯤 되면 이자율 오르는 속도가 느려질 것으로 예상된다”며 “금리 정점에 대비해 상대적으로 안전한 연 5~6%대 회사채나 저축보험 등에도 투자해두는 것을 권하고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2022.12.09.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>금융계 '반란군' 핀테크, 혹한기에도 전성시대 지속되려면? [긱스]</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004785403?sid=105</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>이 기사는 프리미엄 스타트업 미디어 플랫폼 한경 긱스에 게재된 기사입니다.전 세계에서 눈에 띄는 유니콘 기업(기업가치 1조원 이상 비상장사) 가운데 상당수가 핀테크 회사라는 사실을 알고 계시나요? 복잡한 규제와 기존 산업과의 마찰에도 핀테크의 몸집은 빠르게 커졌습니다. 핀테크가 유니콘의 주류가 된 이유는 무엇일까요? 왜 주요 금융사들은 핀테크 스타트업을 인수합병(M&amp;A) 하고, 밴처캐피털(VC)들은 대규모 투자를 단행할까요? 렌딧(Lendit)의 김성준 대표가 이 질문을 파고들어 봤습니다. 폭풍 성장한 핀테크 산업의 현 주소와 핀테크가 나아가야 할 방향에 대해 투자업계, 전문가들에게도 물어봤습니다.  우리 생활 속에서 지갑이 사라진 지 오래다. 스마트폰 케이스에 카드 1장 들고 다니는 일상을 살고 있다. 생각해 보면 거의 대부분의 서비스에 ‘결제’ 기능이 붙어 있다. 우리는 어느새 핀테크와 함께 하루를 보내고 있는 것이다.미국 시장조사 리서치 기관 CB Insight가 취합한 전세계 유니콘 리스트에 따르면, 2022년 10월 현재 전세계 유니콘 기업의 수는 1204개로 이 중 21%인 250개가 바로 핀테크 기업이다. 전세계 혁신 시장을 선도하고 있는 유니콘 기업 5개 중 1개가 핀테크 기업이라는 의미다.글로벌 핀테크 유니콘 기업 5곳.유니콘 리스트에 이름을 올린 핀테크 서비스들을 세분화해 보면 지불결제 서비스인 스트라이프(Stripe), 종합금융앱 리볼루트(Revolult), P2P금융 조파(Zopa), 법인카드 서비스인 브렉스(Brex), 급여관리 서비스 구스토(Gusto) 등 그 종류는 무척이나 다양하다.금융이 우리 생활 전반에 걸친 활동인 만큼 다양한 혁신 서비스들이 발전하고 있다는 이야기다. 국내 스타트업 중 유니콘 리스트에 이름을 올린 토스와 두나무 역시 모두 핀테크 스타트업이다. #1. 유니콘 다섯 중 하나 꼴...폭풍 성장한 핀테크이처럼 전세계 혁신 산업군을 통털어 핀테크가 단기간 동안 폭발적으로 성장할 수 있었던 이유는 무엇일까?토스와 렌딧 등 국내 대표적인 핀테크 스타트업에 투자한 알토스벤처스의 오문석 파트너는 “금융은 인류 역사에서 보아도 삶을 영위하기 위해 필요한 가장 큰 산업”이라는 점을 성장의 이유로 꼽았다. 산업이 점점 더 커 가면서 좀 더 효율적으로, 사각지대가 생기지 않기 위해 리스크를 관리할 필요성이 증대되었고, 편리하게 디지털라이제이션(Digitalization)으로 진화해 나갔다는 것이다.그는 "특히 금융 영역에서 소외되고 있는 고객들을 위해 데이터 기반으로 리스크를 관리하고 평가해 금융의 혜택을 누릴 수 있도록 하기 위한 분야가 점점 더 발전하고 있다"며 "현재 치열하게 발전 중인 핀테크 기업들과 더불어 앞으로 탄생할 핀테크 기업들에게도 이 부분을 더욱 기대하고 있다"고 설명했다.세계적인 크라우드 펀딩 서비스인 킥스타터(Kick Starter), 나스닥에서 주목받고 있는 P2P금융 업스타트(Upstart), 한국의 렌딧 등에 투자한 미국 콜라보레이티브 펀드의 브라이언 장 아시아 총괄대표는 “이미 충분한 고객과 데이터를 보유한 기존 금융기업들이 빠르게 혁신해 나가지 못한 것이 핀테크가 발전한 주요 원인이라고 생각한다”며 “기존 금융권의 문제점을 포착한 창업가들이 기술력을 토대로 빠르게 성장을 만들어 냈다”고 이야기했다.금융산업과 학계, 정책 분야에 고루 몸담아 온 핀테크 전문가인 정유신 서강대 기술경영대학원장은 “최근 핀테크가 단기간 내에 금융 산업의 주력으로 자리하게 된 데에는 글로벌 시장에서 핀테크 산업에 대한 투자와 특히 핀테크 업체에 대한 M&amp;A가 급증한 것이 큰 역할을 했다는 것이 전문가들의 시각”이라고 밝혔다.KPMG에 따르면 핀테크 M&amp;A는 2020년 758억 달러, 2021년 831억 달러로 연속 고공행진을 보이고 있다는 것. 어느덧 금융사의 비즈니스 모델을 넘어 금융산업 전반의 구조 변화에도 큰 역할을 하고 있다는 것이다. 변화의 초기에는 페이팔 등 빅테크들이 M&amp;A를 주도했으나, 최근에는 JP모건, 뱅크오브아메리카, 골드만삭스 등 기존 금융사들의 ‘M&amp;A를 통한 반격’이 거세지고 있다고 정교수는 설명했다. #2. 금융사가 핀테크를 품는 이유정교수에 따르면 기존 금융사들이 핀테크 기업을 M&amp;A하는 이유는 크게 3가지로 정리할 수 있다.첫째는 4차산업혁명과 코로나19의 충격으로 더욱 빠른 디지털화가 요구됨에 따라 급격한 구조변화가 불가피해졌다는 점이다. 회사 내부의 인력 양성이나 R&amp;D 투자 등 오가닉 성장과 더불어 M&amp;A를 통한 외부인력 및 조직의 투입 등 인오가닉(inorganic) 성장이 필수적이라고 판단하는 업체가 늘고 있다는 것이다.두번째 이유는 금융 디지털.모바일화에 대응할 수 있는 핵심 인력 및 조직이 취약한 기존 금융기업들이 빅테크와의 경쟁에 맞닥뜨려야 하는 현실을 자각했다는 사실이다.세번째 이유는 금융이 플랫폼화하면서 다양한 비금융서비스와 계속 융합.확대되고 있다는 점이다. 치열한 경쟁 속에서 소비자의 만족도를 높이기 위해 생활에 필요하거나 재미 요소가 될 수 있는 게임, 통신, 의료헬스, 부동산 등의 비금융 서비스와의 융합이 점점 더 중요해지고 있다.이에 따라 이러한 비금융 서비스를 기술적으로 또는 사업모델상으로 연결시켜 주는 핀테크 업체에 대한 M&amp;A가 점점 더 늘어나고 있다는 것이다. #3. 핀테크하기 좋은 한국...미래는?이처럼 전세계적으로 핀테크가 붐을 이루고 있는 가운데 한국의 핀테크 산업 역시 꾸준히 발전 중이다. 흔히 잘 알려지지 않은 사실 하나는 한국이 핀테크 산업이 발전하기 위한 최적의 조건을 갖추고 있다는 점이다. 우리가 잘 알고 있듯 경제 활동을 하는 국민들의 신용 데이터가 국가 차원에서 관리되고 있는 몇 안되는 국가 중 하나이기 때문이다.나이스평가정보나 KCB와 같은 신용 관리 기업들과의 협업도 원활하다. 만일 규제가 해결된 영역이라면 폭발적인 성장을 이뤄낼 수 있는 여지가 충분하다. 대표적인 예로 최근 각광받고 있는 대출비교플랫폼을 들 수 있다. 혁신금융서비스로 규제가 완화되면서 핀다 등 핀테크 스타트업들이 눈부신 성장을 이루어내고 있는 분야다. 세계 최초로 관련 산업법이 제정된 온라인투자연계금융(P2P금융)도 충분한 성장을 이뤄낼 수 있을 것으로 기대되는 핀테크 산업 분야다.두 투자자들이 바라보는 핀테크 산업의 최근 동향과 앞으로의 발전 방향에 대해서도 들어 보았다. 알토스벤처스의 오문석 파트너는 “금융 서비스를 크게 두 가지로 분류하면 일반 고객(Retail) 및 소상공인을 위한 ‘대출’과 대출을 제외한 예적금, 투자, 신용카드 등의 ‘컨슈머뱅킹’으로 나뉘는데, 사실상 전자인 대출의 영역이 압도적으로 큰 것이 현실”이라며 “특히 이 두 영역에서 공통적으로 발전해야 하는 분야는 신용평가모형(CSS)의 고도화”라고 설명했다.이어 “마이데이터나 기존에 축적된 데이터에 비정형적인 추가 데이터를 더하거나 응용해 기존 금융권이 제공하지 못했던 새로운 금융 상품을 만들 수 있는 기업이 핀테크 발전의 키(Key)를 갖게 될 것”이라며 “다양한 시도를 통해 소비자들에게 필요한 금융상품으로 발전시킬 수 있을 때 비로소 핀테크, 즉 진정한 기술 기반의 금융이라는 인정을 받을 수 있을 것”이라고 밝혔다.브라이언 장 콜라보레이티브 펀드 아시아총괄대표는 “최근 코로나 팬데믹 이후 많은 유니콘 기업들이 상장하고 엑시트가 일어나며 기업 가치가 성장했지만, 2022년에는 글로벌 경제의 영향으로 많은 테크 기업들의 주가가 하락하는 어려움을 겪고 있다”며 “이러한 부분이 비단 핀테크 뿐만 아니라 전반적인 스타트업 투자 시장에도 반영돼 더이상 무조건적인 성장보다 건강한 성장과 현금흐름에 보다 더 집중해야 한다”고 지적했다.한 때 유니콘의 명성을 얻었던 회사들도 상장 이후에 기업 가치가 급속도로 떨어져 자본력이 좋은 금융 기업이나 은행권에 저가 인수가 될 가능성마저 보이는 것이 현재의 상황이라는 것이다. #4. 핀테크 전성기...어떻게 이어가나그렇다면 이러한 글로벌 혹한기에 국내 핀테크 산업이 지속적인 발전을 이어 가기 위한 방안은 무엇이 있을지 정유신 교수에게 조언을 청해 보았다.첫번째는 투트랙의 마중물 투자 전략이다. 초기 단계 전용 펀드 조성을 통해 핀테크 붐을 이어 나가는 한편, 싱가포르의 ‘테마섹’이나 소프트뱅크의 ‘비전 펀드’와 같은 유니콘 펀드를 준비하자는 것이다. 스타트업이 스케일링 업하는 과정에 지속적인 투자를 지원할 수 있는 토대를 마련하기 위함이다.두번째는 지속적인 규제 완화다. 정교수는 특히 업무 규제 완화를 통해 금융 회사와 핀테크 간의 협업을 강화시키는 것과 데이터 정보에 대한 규제 완화가 매우 중요하다고 강조했다. 세번째는 핀테크 스타트업들 스스로가 자금이나 인력 운용면에서 스마트한 경영을 해 나가야 한다는 점이다. 네번째는 섭테크(Suptech)와 레그테크(Regtech)를 적극 도입함으로써 금융 산업의 관리.감독 역시 디지털화 해 나가야 한다는 점이다.섭테크는 감독(Supervision)과 기술(Technology)의 합성어로, 금융 감독 프로세스에 IT 기술을 적용하는 다양한 기법을 의미한다. 레그테크는 규제(Regulation)과 기술(Technology)의 합성어로 금융 회사의 내부 통제와 규제 준수를 지원하는 기술들이다. 이렇게 새로운 기술 트렌드를 접목함으로써 사전 관리부터 사후 감독까지 프로세스를 효율화시키는 시너지를 기대할 수 있다고 정교수는 설명했다. #5. 기업가치보다 주목해야할 것   유니콘=게티이미지뱅크최근 경기 침체와 함께 전세계적으로 테크 기업의 주가가 하락하고, 유니콘 기업들의 가치 역시 떨어지고 있다는 기사가 많이 나온다. 물론 ‘유니콘’이란 용어 자체가 기업 가치가 1조원을 넘은 비상장 기업이라는 의미를 갖고 있기 때문에, 유니콘과 기업 가치는 늘 함께 언급될 수 밖에 없는 것이 사실이다.하지만 모두가 알고 있듯 기업 가치란 절대적인 수치가 아니다. 유니콘이라고 불리는 이 기업들은 단지 몸값이 높은 회사들이 아니라, 기존 시장의 문제점과 비효율을 기술과 서비스를 통해 명쾌하게 해결해 냄으로써 세상에 새로운 화두를 던지고 사용자들을 조금은 더 행복하게 만들어 준 회사들이라는 점에 더욱 주목해야 하지 않을까. 이러한 회사들에 투자자들의 이목이 집중되는 것은 너무나 당연한 일이기도 하다.모두가 향후 수 년 간 경기 침체가 이어질 수 있다는 우려를 하고 있는 와중에도, 반짝이는 아이디어와 새로운 기술로 무장한 혁신 기업들은 계속 탄생하게 될 것이라고 믿는다. 지금도 우리 앞에 펼쳐진 미래를 고민하며 잠 못 이루고 있을 모든 창업자들을 응원한다. 화이팅! 렌딧 | 김성준 대표3차례의 창업 경험을 가진 연쇄 창업가. 첫 창업은 2009년에 했던 기부의 일상화를 위한 사회적 기업 1/2 프로젝트. 두번째는 2011년 스탠포드 대학원 재학 중 창업 수업에서 만난 팀과 함께 실리콘밸리에서 창업했던 스타일세즈(StyleSays)다. 세번째 창업한 렌딧은 사업 자금 마련을 위해 한국에 돌아와 개인 대출을 해 본 경험을 통해, 중금리대출이 부재하다는 사회적인 문제를 발견하고 이를 해결하기 위해 창업한 회사다.대학 시절이었던 2006년에 2012년 세계적인 IT기업인 인텔에 인수된 AI 스타트업 올라웍스의 초기 디자이너로 참여하며, 스타트업이라는 미래에 눈떴다. 실리콘밸리에서 경험한 창업가 정신과 혁신적인 조직의 기업 문화를 렌딧에 이식하고 적용, 전통적인 금융 인재들과 혁신적인 IT 인재들이 성공적으로 융합한 테크핀(TechFin) 조직으로 성장시켜 나가고 있다.서울과고를 졸업하고 KAIST에서 산업디자인을 전공했으며, 스탠포드대학원 기계과 프로덕트 디자인 석사 전공 도중 자퇴하고 스타일세즈(StyleSays)를 창업했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2022.12.08.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>한국인이 가장 좋아하는 앱은 유튜브…실용성 부문은 ‘라이징 스타트업’</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005189324?sid=101</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>포브스코리아 데이터분석기업 TDI와 부문별 선정운동앱 ‘콰트’, 푸드 커머스 ‘윙잇’ 등 선두권 차지 포브스코리아가 올해 1월부터 10월까지 국내 유저가 가장 즐겨 이용하는 모바일 애플리케이션(앱)을 분석한 결과 유튜브, 카카오톡 등 유명 앱들이 다수를 차지한 것으로 나타났다. 다만 운동, 식음료 등 실용성 부문에서는 급성장한 스타트업의 앱이 상위권에 다수 포함됐다. 8일 포브스코리아는 데이터분석기업 TDI와 함께 구글 플레이스토어 등을 기반으로 기기설치수, 신규설치수, 삭제수, 활성사용자수, 평균 실행횟수, 평균실행시간, 평균총실행시간, 평점 등 8가지 항목의 데이터를 추출했다고 밝혔다. 총 10개 부문의 각 상위 150개씩, 총 1500개 앱을 후보로 추리고, 최종적으로 부문별 1위부터 10위까지 선정했다.올해 평가에서 한국인이 가장 많이 사용하는 앱 1위에는 지난해에 이어 유튜브가 올랐다. 2위는 카카오톡, 3위 인스타그램, 4위 쿠팡, 5위 당근마켓, 6위 스노어랩, 7위 네이버 지도·내비게이션, 8위 넷플릭스, 9위 티맵, 10위 쿠팡플레이 등이 뒤따랐다. 부문별 순위에서도 토스, 오늘의집, 배달의민족과 무신사 등 유명 앱들이 선두권을 차지했다.건강·운동 부문에서는 엔라이즈의 ‘콰트’ 서비스가 4위를 기록했다. 콰트는 5일 운동 습관 만들기를 중점으로 나에게 맞는 운동과 가벼운 스트레칭 등을 가볍게 시작할 수 있게 해준다. 콰트는 최근 125억원 규모의 시리즈B 투자를 유치했다.식음료(F&amp;B) 부문에서는 푸드 버티컬 커머스 ‘윙잇’이 10위를 달성했다. 윙잇은 데이터 분석과 자체 브랜드를 앞세워 2500여종의 고품질 간편식을 판매하는 플랫폼이다. 2015년 창업 후 7년여 동안 누적 거래액 800억원을 기록했다. 최근에는 B2B 사업에 진출해 주요 식당과 밀키트 전문점에 납품하며, SMB(소상공인) 사업자몰 고객사 300여 곳을 돌파했다. 향후 연간 126조원에 달하는 식품 제조와 도매 시장에 진출해 식품 비즈니스 전 영역을 포괄하겠다는 포부다.부동산 부문에서는 ‘피터팬의 좋은방 구하기(피터팬)’가 10위를 차지했다. 국내 최대 부동산 직거래 커뮤니티로 시작해 앱 버전을 출시했다. 피터팬을 서비스하는 ‘두꺼비세상’은 2013년에 설립해 최근에는 아파트너, 아실 등의 자회사를 갖춰 프롭테크 부문의 강자로 손꼽히고 있다.이외에도 교육 부문에서는 뤼이드의 인공지능 토익 교육 앱 ‘산타’가, 소셜 부문에서는 오디오 라이브 방송 플랫폼 ‘스푼’이 각각 18위를 차지했다. 쇼핑 부문에서도 400만명이 선택한 40대 패션앱 ‘퀸잇’ 19위에 선정되었다. 트렌드 변화와 경쟁 구도 속에서도 일상생활에 밀접하고 자주 사용할 수 있는 스타트업 앱들이 이름을 올렸다는 평가다. 스타트업 관계자는 “대형 플랫폼 외에도 세분화한 영역을 타겟으로 실용성 측면에서 각광받은 앱들이 다수 포진한 것이 눈에 띈다”며 “내년에도 실제 소비자에게 얼마나 구체적인 정보를 제공하고 편의성을 높여줄 수 있는지 ‘고도화’ 여부에 따라 순위가 큰 폭으로 변할 수 있을 것”이라고 전망했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2022.12.12.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>[ET단상]스타트업 혹한기…창업가 불씨는 살아있다</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003065373?sid=101</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>홍성염 재믹스스튜디오 이사.불과 1년 전만 해도 스타트업은 낭만 시대였다. 2021년 한 해 동안 국내 스타트업이 유치한 투자 금액은 총 11조7287억원으로 역대 최대일 뿐만 아니라 그 전해보다 3.3배나 늘어났다.올해는 상황이 많이 달라졌다. 스타트업 투자는 막혔고, 기업 가치는 쪼그라들고 있으며, 매력적인 스타트업이란 미래 비전보다 현재 돈을 벌어서 먹고살 수 있는 회사로 바뀌고 있다. 드디어 옥석이 가려진다며 긍정적인 측면을 보려 하기도 하고, 오히려 지금이 바로 투자 적기라면서 이런 때일수록 투자해야 한다는 의견도 있다. 이미 시작된 스타트업 투자의 혹한기는 앞으로 2~3년 지속될 것으로 전망된다. 이렇게 스타트업 시대는 저물고 마는 것일까.호황이 이어지던 지난 10년 동안 스타트업은 한국사회와 산업 여러 분야에서 혁신 및 변화를 하며 중요한 한 축으로 자리 잡아 왔다. 스타트업이 만들어 낸 일자리는 매년 크게 증가, 2021년에는 76만명 이상이 스타트업 기업에 종사하고 있는 것으로 나타났다.스타트업이 만들어 낸 일자리는 20대와 여성 고용 비율이 높다는 점에서 또 다른 의미를 찾을 수 있다. 기성세대의 기업문화를 대체하기 위한 가설과 실험을 진행하며 일하는 방식 및 문화, 개인의 발전·성장에 대한 긍정적인 결과물을 쏟아내고 있다.무엇보다 스타트업 생태계는 한국의 유능한 청년에게 창업가 정신을 심고, 노련한 장년에게도 용기 있는 도전을 할 수 있는 환경을 제공하고 있다. 주식, 코인, 부동산 등 재테크에 몰입하고 있는 현상의 대척점에서 시장에 필요한 비즈니스 모델을 만들고 사업을 일구는 가치를 보여 주고 있다. 대한민국의 산업 기틀을 세우던 위대한 창업가 시대를 다시 열고 있는 것이다.얼어붙은 투자 환경 아래에서도 스타트업 생태계는 더욱 확장되고 있다. 국내에서 최초로 선보이는 스타트업 오디션 '유니콘 하우스'는 스타트업 생태계가 정점을 찍은 지난해에 방송됐다. 스타트업 위기론이 확산되고 있는 올해 오히려 유니콘 하우스가 보여 주고자 하는 창업가와 투자가 이야기는 가치를 더욱더 발하는 것 같다.스타트업 창업을 꿈꾸는 예비 창업가는 유니콘 하우스를 교과서처럼 생각한다. 서바이벌 방식이지만 유니콘 하우스가 단순히 냉정한 평가를 통해 승자와 패자를 가르지 않기 때문이다. 유니콘 하우스가 보여 주고 싶은 것은 '성공'이라는 결과물이 아니다. 유니콘 하우스는 아이디어가 비즈니스로 만들어지는 과정을 보여 주고, 또 비즈니스가 성장해 나가는 모습을 보여 준다.그 과정에서 심사를 담당하는 하우스 리더는 비즈니스를 성장시키는 멘토가 되고, 함께 울며 응원하는 지지자가 된다. 창업가와 한 팀이 돼 스타트업을 성장시키기 위해 노력한다. 그 안에서 보여 주는 촌철살인의 평가는 스타트업에 자양분이 된다. 이것이 한국형 스타트업 서바이벌 유니콘 하우스의 차별점이다.올해 초 핀테크 기업 '토스'에서도 스타트업 경진대회를 열었다. 토스는 이 대회를 통해 유망한 스타트업을 선정, 투자한다. 대회 이후에도 파트너십을 맺고 성장 노하우를 전수하고 있다. 코로나19 이후 다시 오프라인에서 열리고 있는 벤처캐피털과 액셀러레이터의 데모데이에는 매회 수천명의 사람이 모여들고 있다.스타트업의 겨울철에도 창업가의 불씨를 살려 나가려는 노력이 다양하게 진행되고 있다. 이 같은 노력이 빛을 보기 위해서는 정책이 뒷받침돼야 한다. 위대한 창업가 시대에도 유능한 관료가 있었다. 스타트업 생태계의 또 다른 10년을 위한 정부의 역할이 더욱 중요해지고 있다.홍성염 재믹스스튜디오 이사 syhong@zemixstudio.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2022.12.09.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>토스페이먼츠, 11월 거래액 3조6000억 돌파…전년 比 44% ↑</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002076145?sid=101</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>가맹점 중심 혁신적인 정책·IT 기술 고도화로 빠르게 성장토스페이먼츠 사무실[토스 제공][헤럴드경제=홍승희 기자] 토스의 페이테크 계열사 토스페이먼츠는 올해 11월 기준 월 거래액이 3조 6000억 원을 넘어섰다고 9일 밝혔다. 2020년 8월 회사 출범 이후 2년여 만의 성과다.토스페이먼츠는 ▷ 당일 PG 연동 ▷ 쉽고 편리한 결제 경험(UX) ▷ 보증보험 무료 가입 혜택 등 영·중소 사업자 맞춤형 정책 ▷ 글로벌 수준의 보안 시스템 구축 등 고착화된 PG 업계에서 새로운 변화를 선보이며, 시장점유율을 확대하고 있다.출범 당시 1조 8000억 원 수준이었던 토스페이먼츠의 월 거래액은 3조 6400억 원으로 2배 이상 증가했다. 이는 전년 동기 대비 44% 증가한 것으로, 같은 기간 국내 주요 PG 사업자들의 거래액 성장률 대비 높은 수치다.토스페이먼츠 관계자는 “내부 데이터 집계 결과, 토스페이먼츠는 2022년 8월 처음으로 월 거래액 기준 업계 1위에 오른 것으로 나타났다. 국내 대형 이커머스 가맹점 유치 등을 통해 거래액 규모가 지속적으로 성장하는 추세”라고 밝혔다.2022년 11월 기준 토스페이먼츠의 가맹점 숫자는 출범 당시와 비교해 25% 증가한 약 10만 개에 이르며, 주요 성장 지표인 월간 유입 가맹점 숫자도 2500개로 나타났다.토스는 토스페이먼츠가 올해부터 해외 시장 공략에 본격적으로 나서면서 거래액과 가맹점 규모 모두 성장할 것으로 기대하고 있다. 최근 토스페이먼츠는 ‘피델리티내셔널인포메이션서비스(FIS)’ 및 ‘앤트그룹’과 각각 제휴해 글로벌 가맹점 대상 전자 결제 서비스를 시작했다.김민표 토스페이먼츠 대표는 “토스페이먼츠는 가맹점의 비즈니스 성장을 돕기 위한 파트너로서 새로운 접근 방식을 통해 시장의 변화를 만들어 나가고 있다. 앞으로도 토스페이먼츠는 가맹점이 사업에만 집중할 수 있도록 다양한 솔루션을 선보일 계획이다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2022.12.07.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>토스 "선제적 사기 예방활동으로 반년간 송금피해 15만건 막아"</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004826480?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>사진제공=토스모바일 금융 플랫폼 '토스'를 운영하는 비바리퍼블리카가 사용자 보호를 위한 선제적 사기 예방 활동으로 최근 6개월간 송금 피해 약 15만건을 막았다고 7일 밝혔다.토스는 사용자 기기 정보, 접속 위치, 환경, 거래 패턴 등을 머신러닝 기술로 분석해 의심스러운 송금을 차단하고 있다.특히 토스 이상거래탐지시스템(FDS)팀은 사기범들이 최근 중고거래 사이트나 중고거래 앱에 미끼상품을 올린 뒤 포털사이트의 간편결제로 위장한 안심결제 페이지를 이용한 신종 패턴을 확인했다. 이에 웹 스크래핑 기술을 이용해 범죄사이트에 기재된 계좌번호를 수집하고 있다.또 이용자 신고로 수집된 계좌번호, 경찰청 사이버안전지킴이, 더치트에 등록된 계좌번호도 송금 과정에서 자동으로 확인하고 있다.이를 통해 최근 6개월 동안 막은 사기 송금은 15만건, 사기 피해 예방금액은 160억원에 달한다고 토스 측은 설명했다.이광현 비바리퍼블리카 FDS 담당자는 "앞으로도 토스의 모든 송금이 안전할 수 있도록 적극적인 고객 보호 정책을 펼치겠다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2022.12.09.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>'제값' 찾아가는 쏘카...'모빌리티 슈퍼앱' 성장 기대감 고조</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000041746?sid=105</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>모빌리티 플랫폼 기업 쏘카가 창사 이래 첫 연간 흑자 달성을 예고한지 한 달, 폭락했던 쏘카의 주가가 제자리를 찾고 있다. 지난달 말에는 발행 주식 5.28% 수량에 대한 오버행(보호예수가 종료된 주식의 대한 대량 매도) 우려에도 가시적인 영향은 없었다. 탄탄한 사업 확장 행보와 흑자 달성에 대한 기대감이 주가를 뒷받침했다는 평가다. 9일 쏘카의 주가는 한 달 전 대비 27.14% 오른 2만1550원에 거래를 마쳤다. 지난 8월 상장 당시 주가인 2만9600원에는 못 미쳐도 점진적 회복세에 접어든 모습이다. 쏘카는 지난달 10일 3분기 연결 매출 1170억원, 영업이익 116억원을 기록했다고 발표했다. 전년 동기 대비 각각 35.3%, 662% 증가한 '어닝 서프라이즈'였다. 영업이익률은 전년 1.8%에서 9.9%로 급등했다. 쏘카 서비스를 사용하는 모습. (사진=쏘카)2011년 설립된 쏘카는 영업장에 찾아가 24시간 단위로 차를 빌려야 하는 기존 렌터카 서비스의 불편을 앱 기반, 10분 단위 대여라는 전략으로 차별화하며 성장한 기업이다. 비슷한 시기 등장한 그린카와 치열한 선두 경쟁을 벌였지만, 현재는 다수의 시장조사 지표에서 그린카를 압도하는 시장 1위 사업자로 자리매김했다. 가장 보수적인 지표로 글로벌 시장조사업체 스태티스타의 2021년 국내 카셰어링 시장 점유율 선택했을 때도 쏘카의 점유율은 40.4%를 기록했다. 경쟁사인 그린카는 8.9%에 그쳤다. 다만 지난 10년 쏘카가 '이익을 남기는' 기업은 아니었다. 이용자와 매출은 점점 늘었지만 그만큼 신규 차량을 확보하고 이를 유지하는 비용, 신규 서비스 개발, 마케팅 비용 등 필수비용이 함께 증가하면서 흑자전환에 어려움을 겪었다. 그러나 사업 기반이 안정권에 접어든 2020년부터 손실 규모가 대폭 줄고, 적자의 한 요인으로 지목됐던 자회사 VCNC(타다)를 비바리퍼블리카(토스)에 매각하면서 3분기 연결 기준 흑자 전환에 성공했다. 비바리퍼블리카에 인수된 VCNC는 올해도 약 200억원의 적자를 기록 중이다. 흑자만 놓고 본다면 VCNC 매각이 쏘카에는 '신의 한수'였던 셈.데이터 기반 카셰어링, 틈새 서비스 발굴로 수익성 갱신 지속VCNC 매각 외에도 쏘카는 차량당 수익 규모를 매년 갱신하면서 자체적으로 수익성을 높여왔다. 2019년 약 102만원이었던 차량 1대당 월평균 매출은 2020년 118만7000원, 최근 3분기 기준 158만3000원까지 늘었다. 회사는 이를 '운영 효율화를 통한 차량 가동률 향상과 관리 비용 절감'에 따른 것으로 설명했다. 실제로 쏘카는 개발자 친화적인 환경, 온·오프라인 모빌리티 사업 개발 경력을 동시에 쌓을 수 있는 사업의 특징을 적극 어필하며 개발자 채용에 집중해왔다. 덕분에 3분기 기준 쏘카 전체 직원(430명) 중 개발자 비중은 30%에 이른다. 쏘카는 이들을 통해 차량의 운행 데이터, 사용자의 수요 데이터를 양방향으로 결합한 인공지능(AI) 운영 모델을 고도화하고 있다. 그 연장선상에서 보유 차량을 활용한 고객 수요 기반 서비스도 촘촘히 보완해 나가고 있다. 그동안 출시한 '부름(원하는 위치에 공유차량 배송)', 월 단위 차량 장기대여 서비스인 '쏘카플랜', 충성 사용자 확보를 위한 구독형 상품 '패스포트(대여료 상시할인 및 크레딧 적립)' 출시 등이 대표적이다. 그 중 분기보고서에 따르면 구독 회원은 인당 공헌이익 등의 수익 지표가 비구독 회원 대비 3.8배에서 최대 4.7배에 달하는 것으로 확인된다. 2018년 서비스 출시 후 현재 8만명의 사용자가 이용 중이다. 정기 결제 구독 상품의 특성상 가입자가 늘수록 계절·경기 등 이동수요 변화가 매출에 직접적 영향을 미치는 카셰어링 사업의 약점도 일부 보완될 수 있다. 쏘카플랜은 차량 반도체 부족 장기화로 신차 출고가 지연되고, 금리 인상 등의 문제가 복합적으로 얽히면서 가입자가 크게 늘고 있다. 회사는 전년 1~10월 대비 쏘카 플랜 신규 계약차량 수가 134% 증가, 월 1000건 이상 이뤄지고 있다고 전했다. 또 올해 7월 베타 서비스를 시작한 '편도'는 빌린 차량을 지정된 쏘카존 외에 주차 가능한 모든 장소에 반납할 수 있다. 사용자는 추가된 기본요금과 이동거리에 비례한 추가 요금을 내야 하지만 주차비는 쏘카가 전액 부담하므로, 카셰어링의 주요 불편 요소인 반납에 대한 부담은 줄어든다. 쏘카의 차량-사용자 양방향 데이터 확보 체계. (자료=분기보고서 갈무리)슈퍼앱 발판 마련에 박차…단기 기대주는 '일레클'다만 카셰어링 사업 의존도가 너무 높은 점은 급격한 경기 변화, 규제 상황 등에 직접적인 영향을 받을 수 있다. 3분기 기준 쏘카의 카셰어링 사업 매출 비중은 96.3%다. 신사업 확대를 통한 리스크 분산이 필요한 이유다. 쏘카는 지난해 12월 주차면 공유 플랫폼 '모두의주차장'을 운영하는 모두컴퍼니와 전기자전거 공유 플랫폼 '일레클' 운영사인 나인투원을 연이어 인수했다. 주차 서비스 연계를 통해 카셰어링의 시너지 효과를 높이고, 공유 전기자전거를 이용한 초단거리 이동 서비스 수요도 품겠단 전략이다. 두 서비스는 쏘카의 구독형 상품 패스포트를 통해 할인 등의 혜택이 제공될 가능성이 높다. 특히 일레클은 2분기 21억원의 매출과 10억원의 영업이익을 기록하며 쏘카의 실적 개선을 이끈 자회사로 평가된다. 쏘카는 올해 일레클의 연매출이 약 100억원을 돌파할 것으로 기대하고 있다. 나인투원의 전기자전거 일레클 3.0. (사진=쏘카) 쏘카는 올해 상장 중 유입된 현금 약 1000억원을 이용해 서비스 저변을 넓히기 위한 인수합병을 공격적으로 진행할 예정이다. 각종 모빌리티 서비스를 하나의 쏘카 앱에서 서비스하는 이른바 '슈퍼앱'으로 거듭나기 위한 작업이다. 장기적으로는 자율주행 기반의 찾아오는 카셰어링 서비스 출시도 목표로 하고 있다. 이를 위해 자율주행 기술 보유 기업인 라이드플럭스에 대한 지속 투자와 협업을 진행 중이다. 또 일각에선 쏘카가 국내 2위 교통카드 서비스 '캐시비'를 운영하는 로카모빌리티 인수전에 나설 가능성이 제기되면서 최근 주가 상승에 영향을 미친 것으로 풀이하고 있다.  한편 오랜 적자 행진을 마친 쏘카를 두고 증권가에서도 긍정적인 평가가 나오기 시작했다. 미래에셋증권은 쏘카에 대한 첫 매수 평가 보고서를 발간하며 쏘카가 보유한 2만대의 차량과 높은 점유율을 강점으로 평가했다. 상상인증권 보고서는 "예상보다 빠른 흑자 전환"이란 평가와 함께 △가격 인상으로 인한 외형성장 △데이터 기반의 차량관리·사고비용 절감 노력 등을 호실적의 배경으로 꼽았다. 고금리 시대에 부채비율이 148%에 불과한 점도 긍정적으로 평가되는 재무적 요소다. 기업이 보유한 자본 대비 갚아야 할 빚의 비율을 의미하는 부채비율은 보통 200% 미만을 안정권으로 본다. 다만 차량의 리스구입 비중이 높은 렌터카 업체들은 평균 500%를 오가는 높은 부채비율을 보이는데 비슷한 구조의 쏘카는 최근 상장에 따른 자금 유입으로 부채비율이 안정권에 접어들게 됐다.증권가의 긍정적인 평가와 함께 최근 늘어난 기관의 쏘카 주식 매수도 주가 향상을 뒷받침하는 요소로 보인다. 기관은 지난달 25일부터 2주 연속 순매수세를 유지했다. 외국인 보유 비율은 0.58%로 미미하지만, 이는 3분기 실적 발표 후 48.7% 증가한 수치다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2022.12.14.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>[단독] 말로만 ESG경영…무신사, 컬리 등 장애인 고용률 1% 미만</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002619213?sid=105</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>무신사, 컬리, 크래프톤 등 장애인 고용률 1% 미만‘장애인 고용 자회사’ 세워 의무 다한 기업과 대조국내 주요 정보통신기술(ICT)기업들이 장애인 고용 의무를 다하지 않고 있는 것으로 나타났다. 그림은 장애인고용공단 2017년 공모전 당선작무신사·지마켓·컬리·크래프톤 등 이에스지(ESG, 환경·사회·지배구조) 경영을 강조해온 주요 정보통신기술(ICT) 기업들이 장애인 고용률은 1%에도 못 미치는 것으로 나타났다. 빠른 성장에 초점을 맞추며 말로만 이에스지를 외쳤을 뿐, 실제로는 최소한의 사회적 고용 책임마저 외면한다는 비판이 나온다.14일 &lt;한겨레&gt;가 입수한 ‘2022년 장애인 고용의무 불이행 사전 예고 대상 기업’ 명단에는 인터파크, 아마존웹서비시즈(AWS)코리아, 비바리퍼블리카 등 다수의 정보통신기술 기업들이 이름을 올렸다. 이 명단은 고용노동부가 지난해 말 기준으로 상시 노동자 수 300명 이상 기업의 장애인 고용 상황을 조사해 의무고용률(3.1%)을 지키지 않고 있는 것으로 드러난 기업들에게 의무고용 이행을 촉구하기 위해 만들어진 것으로, 120곳이 올라있다. 사전예고를 받고도 연말까지 의무를 이행하지 않으면, 기업 이름을 공표하고, 의무고용률 미이행 정도에 따라 1인당 최대 월 191만원의 고용부담금을 부과한다.모바일 금융 플랫폼 ‘토스’를 운영하는 비바리퍼블리카와 이커머스 기업 지마켓글로벌 등은 ‘장애인 0명 사업장’으로 분류됐다. 비바리퍼블리카의 지난해 말 기준 상시 노동자 수는 636명으로 19명의 장애인을 고용해야 하지만, 한명도 고용하지 않았다. 지마켓은 이마트에 인수된 뒤 장애인 노동자가 6명으로 늘어났지만, 고용률은 0.6%에 그쳤다.무신사·컬리 등 주요 버티컬 플랫폼(온라인 전문몰)들도 낙제점을 받았다. 무신사는 직원 수 대비 장애인 38명을 고용해야 하지만, 올해 말 기준 장애인 노동자는 12명(장애인 고용률 0.9%)에 불과했다. 새벽배송 전문 플랫폼 마켓컬리를 운영하는 컬리는 지난달 말 기준 장애인 고용을 33명까지 늘렸지만, 장애인 의무고용 인원 117명에는 한참 못미친다.이커머스 기업 티몬은 지난달 서울 강남구 본사 1층에 장애를 가진 직원들이 일하는 ‘티몬위드유카페’(TWUC)를 개점했다. 티몬 제공세계적인 인기 게임 ‘배틀그라운드’ 제작사 크래프톤의 장애인 고용 의무인원은 48명이지만 실제 고용 인원은 4명(0.3%)밖에 되지 않았고, 넷게임즈도 20명을 고용해야 하지만 2명(0.3%)을 고용하는데 그쳤다. 글로벌 클라우드 기업 아마존웹서비시즈코리아의 장애인 고용률은 0.7%(의무고용 인원 26명 중 6명), 메가존클라우드는 0.9%(26명 중 8명)였다.해당 기업들은 새롭게 성장하는 산업의 특성상 관련 직무에 적합한 업무 능력을 보유한 장애인 인력을 찾기가 어렵다고 토로했다. 익명을 요청한 플랫폼 기업 관계자는 “개발자 등 주요 인력 확보와 매출 성장에 우선 집중하다 보니 장애인 채용 문제를 등한시한 부분이 있었다”며 “회사가 계속 커지는 상황이라서 빠르게 늘어나는 직원 수 대비 장애인 의무고용 인원을 채우기 어려운 고충도 있다”고 말했다.이런 상황에서도 ‘자회사 형 장애인 표준사업장’ 제도를 활용해 장애인 고용 의무를 다하는 기업들도 많다. 정부는 장애인 고용 목적의 자회사에서 채용한 장애인을 모회사의 고용률에 산입해주는 제도를 운용 중이다. 이커머스 기업 티몬은 지난해까지 장애인 고용률이 0.5%에 못 미쳐 한해 2억원이 넘는 부담금을 냈지만, 최근 강남구 본사에 장애인 직원이 일하는 ‘티몬위드유카페’(TWUC)를 만들어 고용의무를 지켰다. 카카오 판교 사옥의 커피숍 등 직원복지 시설에도 자회사 ‘링키지랩’ 소속 장애인 노동자들이 일하고 있다. 게임 기업인 넥슨의 자회사 ‘넥슨커뮤니케이션즈’에선 장애가 있는 직원들이 고객 문의 사항 대응과 온라인 게시판 모니터링 업무 등을 맡고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2022.12.06.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>시중은행 특판 예·적금 5% 찍었는데...토스뱅크 2%대 파킹통장 매력 ‘상실’</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002074574?sid=105</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>자금유출 막으려 금리인상 검토인터넷은행 경쟁력 하락 분석도“조건없는 연 2% 통장”토스뱅크가 혁신상품으로 내걸었던 ‘연 2% 통장’이 애물단지가 되고 있다. 두 달 전 연 2.3%로 한 차례 금리 인상을 단행했지만, 여전히 다른 인터넷·시중은행의 예금통장에 비해 금리가 낮기 때문이다. 금리 인상기가 지속되는 상황에서 토스뱅크를 비롯한 인터넷은행의 경쟁력이 떨어지고 있다는 분석도 나온다.6일 금융권에 따르면 토스는 수시입출금통장인 ‘토스뱅크 통장’ 금리 인상을 검토 중이다. 인상 시기와 폭은 아직 정해지지 않았지만, 시장상황과 고객 요구를 살피면서 긍정적으로 고려중이라는 설명이다. 토스는 지난 10월 출범 1주년을 맞아 토스뱅크 통장의 금리를 연 2%에서 연 2.3%로 한 차례 인상했다.토스뱅크의 금리인상은 불가피하다는 게 중론이다. 경쟁사의 유사한 상품과 비교했을 때 금리 측면에서 가장 불리하기 때문이다. 6일 기준 토스뱅크 통장과 유사한 카카오뱅크와 케이뱅크의 파킹통장(자유 수시입출금 통장)을 살펴보면 카카오뱅크의 세이프박스는 연 2.6%, 케이뱅크의 플러스박스는 연 2.7% 금리를 제공 중이다. 토스뱅크의 통장은 ‘매일 이자받기 기능’을 통해 복리 효과를 누릴 수 있다는 게 장점이었지만, 타사 파킹통장의 금리가 줄줄이 인상되자 절대적인 이자 메리트가 떨어지는 상황이다.파킹통장의 인기가 떨어지고 있다는 점도 토스뱅크의 고민거리다. 금리 인상이 정점에 달하고 있다는 분석이 많아지면서 1년 이상의 정기예금에 가입하려는 움직임이 빠르게 나타나고 있다. 은행연합회에 따르면 국내 시중·지방·인터넷은행의 1년 기준 정기예금은 최소 연 3.25%에서 최대 연 5.1%에 달한다. 파킹통장에 돈을 넣어두기 보단 고금리를 받고 장기간 묶어두려는 고객이 늘어나고 있는 배경이다. 이에 토스 애플리케이션(앱)에 대한 발길도 조금씩 줄어들고 있다. 6일 빅데이터 플랫폼 기업인 아이지에이웍스의 데이터 분석 솔루션 ‘모바일인덱스’에 따르면 토스 앱의 주간활성이용자수(WAU)는 지난 11월 말(21일~27일) 930만2755명을 기록했다. 지난 9월 말 이후 950만명 아래로 떨어진 적 없던 토스의 WAU가 수신상품의 금리가 줄줄이 인상되자 930만명대로 떨어진 것이다.예금금리가 고점에 달한 상황에서 토스뱅크뿐 아니라 케이뱅크와 카카오뱅크 등 인터넷은행의 경쟁력이 떨어지고 있다는 분석도 나온다. 시중은행의 정기예금으로 자금이 모두 쏠릴 뿐 아니라 인터넷뱅크의 중금리대출 비중이 늘어나는 상황에서 대손비용이 발생할 가능성이 높기 때문이다.홍승희 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2022.12.13.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>위메프, 올해 결산 키워드는 'C.H.E.E.R'</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002666469?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>ⓒ위메프[데일리안 = 이나영 기자] 위메프는 2022년 주요 전략과 판매 데이터(1~11월)를 바탕으로 'CHEER(응원)'을 결산 키워드로 선정했다고 13일 밝혔다.이는 ▲협업(Collaboration) ▲건강(Health) ▲절약(Economy) ▲진화(Evolution) ▲일상 회복(Reopening) 5가지 단어 조합으로 위메프의 2022년 활동을 함축했다.올해 위메프는 구글과 콘텐츠∙플랫폼∙검색기술 등 전방위적 협업에 나섰다. 사용자의 빠르고 편한 쇼핑을 돕기 위해 서비스 시스템을 컨테이너 기반 구글클라우드환경으로 이전하는 프로젝트를 시작했고, 인공지능과 머신러닝협업 또한 추진한다.상품 검색 결과에서 유튜브 리뷰 영상을 바로 보는 탭도 신설했다. 더불어 유튜브 라이브방송 속 상품을 바로 구매하도록 연결, 모객효과를 톡톡히 봤다. 10월 첫 방송 후 약 두 달간 30만명 이상이 위메프에 신규 가입했다.창작자들과 소셜밸류캠페인 ‘위메이크잇(WE MAKE IT)’을 전개, 제로웨이스트와 소셜임팩트상품도 선보였다.지난해에 이어 건강에 대한 관심이 높았다. 올해는 즐겁게 건강을 관리하는 헬시플레저(Healthy Pleasure) 상품이 지난해와 비교해 판매가 늘었다.특히 무가당요거트(185%), 글루텐프리(106%), 무알코올맥주(94%) 등 첨가물을 덜어낸 식품을 찾는 소비자가 크게 증가했다. 테니스, 축구 등 구기종목 관련 상품 판매는 52% 증가했고 골프와 수영 카테고리도 각각 29%, 17% 매출이 늘었다.고물가 속 소비 트렌드는 단연 ‘알뜰’이었다. 전년 대비 리퍼상품 판매는 2배 이상(107%) 증가했다. 유통기한 임박 상품(127%)도 많이 찾았다. 식비 절감을 위해 직접 채소를 키워먹는 이들도 등장해 상추 모종(42%) 판매가 느는가 하면 통신비 다이어트를 위한 자급제폰(62%)도 인기였다.위메프는 짠테크 트렌드에 맞춰 하반기 ‘만보기’ 서비스를 오픈했다. 사용자가 매일 걷기 미션에 참여, 위메프 포인트를 적립 받는 서비스로, 8월 론칭 이후 참여 유저 수는 90만명을 돌파했다.더욱 치열해지는 경쟁 속 위메프는 커머스플랫폼으로의 진화를 택했다. 특히 큐레이션 기반 사업 방향에 테크를 더 한 플랫폼 고도화에 박차를 가한 한해였다.이를 위해 인재 영입과 플랫폼 개편에도 적극 나섰다. 애플 본사 출신 이진호CTO와 토스증권 창립 멤버 김동민CPO를 영입했다. 이들과 함께 테크, 서비스 역량을 강화해 유저 중심의 플랫폼 서비스를 선보인다.공연 관람 수요가 회복세를 보였다. 공연 관람이 재개된 4~11월 공연·티켓 거래액은 전년 대비 423% 늘었고, 코로나19 유행 전인 2019년과 비교해도 20% 이상 늘었다. 이에 맞춰 송크란뮤직 페스티벌, 월드DJ페스티벌, 레인보우 뮤직&amp;캠핑 페스티벌 등 단독 공연을 선보였다.입국 전 PCR검사 폐지 후 여행 수요도 빠르게 회복했다.이에 위메프는 전문MD큐레이션, 논스톱 예약 등 편의성을 극대화한 ‘W여행레저’를 운영 중이다. 10~11월 두 달간 전년 대비 해외 항공권은 5배 이상(489%), 해외패키지는 19배 이상(1832%) 예약이 크게 늘었다.위메프관계자는 “2022년은 고물가, 경제활동 재개 등 변화가 크고 이에 따른 새로운 소비 트렌드 등장한 해”라며 “위메프는 내년에도 기술 고도화에 적극 나서 다양한 트렌드 상품큐레이션과편의성을 갖춘 사용자 중심 플랫폼으로 성장하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2022.12.02.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>싼 금리 통했나…인뱅, 가계대출 감소세에도 올해 5조↑</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005186286?sid=101</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>인터넷전문은행의 대출이 올해 들어 5조원 넘게 불어났다. 시중은행의 가계대출이 11개월 연속 감소하면서 16조원 이상 줄어든 것과 대조적이다. 시중은행보다 상대적으로 낮은 주택담보대출 금리를 제공하는 인터넷전문은행들의 금리 경쟁력도 한몫했다. 또 고금리의 영향으로 고신용자의 대출 수요는 줄고 있지만 중·저신용자의 생활비 대출은 꾸준한 것으로 풀이된다.2일 카카오뱅크·케이뱅크에 따르면 11월말 두 은행의 여신 잔액은 38조4133억원을 기록했다. 이는 전달 대비 5691억원 늘어났고, 2021년말 대비로는 5조4619억원 증가한 수치다. 은행별로 살펴보면 카카오뱅크의 11월말 여신 잔액은 27조8633억원이었고, 케이뱅크는 10조5500억원 수준이었다. 각각 전달 대비 1491억원, 4200억원이 늘었다.토스뱅크의 경우 11월말 가계대출 잔액을 공개하지 않았지만 3분기말 기준 여신 잔액은 7조1292억원으로 2분기말(4조2940억원) 대비 2조8352억원이 증가했다.이는 5대 시중은행의 가계대출이 11개월 연속으로 감소한 것과 대조적이다. KB국민·신한·하나·우리·NH농협은행의 11월말 기준 가계대출 잔액은 693조346억원으로 집계됐다. 전월보다 6129억원이 줄었다. 5대 은행의 가계대출 잔액은 11개월 연속 감소세를 지속하고 있다. 2021년말보다 16조183억원이 감소했다.인터넷전문은행의 대출이 늘어난 것은 시중은행보다 상대적으로 낮은 금리를 제공한 영향으로 해석된다. 최근 대환 대출 고객 비중도 눈에 띄게 늘었다는 것이 인터넷전문은행 관계자들의 설명이다. 카카오뱅크와 케이뱅크의 변동형 주택담보대출 금리는 4.3~6.096%(신규 코픽스 기준)로 금리 상단이 7% 후반대인 시중은행보다 1%포인트 가까이 낮다. 인터넷전문은행 관계자는 "대출 상담부터 실행까지 비대면으로 진행하면서 비용을 절감하다 보니, 고금리 시기에 고객들의 금리를 낮게 책정하는 것이 가능해졌다"고 말했다.중·저신용자를 대상으로 한 대출을 확대한 영향도 있다. 중·저신용자 대출의 경우 생활비 등으로 쓰이면서 수요가 꾸준하다. 실제로 인터넷전문은행의 3분기 중·저신용자 대상 신용대출 비중은 일제히 상승해 연말 목표치 달성이 눈앞이다. 3분기 기준 카카오뱅크는 23.2%, 케이뱅크는 24.7%, 토스뱅크는 39%였다. 지난해 말과 비교하면 카카오뱅크는 6.2%포인트, 케이뱅크는 8.1%포인트, 토스뱅크는 15.1%포인트 늘었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2022.12.07.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>TDI, 지난 11월 설치기기수가 많은 앱 Top 5 공개</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/088/0000787598?sid=105</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>이미지 = TDI 제공TDI(티디아이)의 분석 플랫폼인 데이터드래곤을 통해 분석한 결과 지난 11월 설치기기수가 많은 앱 Top 5는 ▲네이버 지도 ▲밴드 ▲쿠팡 ▲Instagram ▲당근마켓 등으로 순위 변동은 없었다고 밝혔다.10월 대비 설치수 증가량이 많은 앱 Top 5는 ▲TMAP ▲KB국민은행 스타뱅킹 ▲카카오 T ▲네이버 지도 ▲카카오뱅크 등으로 나타났다.설치기기수는 ▲네이버 지도 2,538만 대 ▲밴드 2,511만 대 ▲쿠팡 2,460만 대 ▲Instagram 2,169만 대 ▲당근마켓 2,051만 대 등이었다.네이버 지도는 설치수가 19만 대 늘면서 설치수 Top 5 앱 중 증가량도 1위를 차지했다. 쿠팡은 16만 대, Instagram은 14만 대 늘었다.증가량이 지난달 대비 가장 많았던 앱은 TMAP이었다. TMAP은 10월 설치수 대비 26만 대 늘었다. KB국민은행 스타뱅킹(+23만 대), 카카오 T(+22만 대), 네이버 지도(19만 대), 카카오뱅크(+16만 대) 등이 뒤를 이었다.이외 카테고리별 합계 1위는 교통 분야로 합계 약 9,166만 대를 기록했다. 각 앱별 설치수는 ▲네이버 지도 ▲카카오 T ▲카카오맵 ▲TMAP ▲코레일톡 순이었다.2위는 소셜미디어였다. ▲밴드 ▲Instagram ▲Facebook ▲카카오스토리 ▲네이버 카페 순으로 합계는 8,646만 대가량이었다.3위는 쇼핑이 차지했다. ▲쿠팡 ▲당근마켓 ▲11번가 ▲G마켓 ▲오늘의집 등 5개 앱의 합계는 약 8,095만 대다.4위는 총 7,814만 대가량인 금융으로 ▲토스 ▲카카오뱅크 ▲페이북/ISP ▲NH스마트뱅킹 ▲KB국민은행 스타뱅킹 순이었다.5위는 OTT였다. 합계는 약 4,762만 대로 각 앱별 설치기기수는 ▲Netflix ▲wavve ▲seezn ▲티빙 ▲쿠팡플레이 순이었다.6위는 약 4,089만 대를 기록한 배달이다. 배달 앱에는 ▲배달의민족 ▲배달요기요 ▲쿠팡이츠 ▲배달특급 ▲땡겨요 등이 순위에 올랐다.7위는 3,335만 대가량이 집계된 홈쇼핑/백화점이다. ▲GS SHOP ▲홈앤쇼핑 ▲CJ온스타일 ▲현대Hmall ▲롯데홈쇼핑 순이었다.8위는 패션이 차지했다. ▲에이블리 ▲무신사 ▲지그재그 ▲브랜디 ▲퀸잇 등이 순위에 올랐으며 총 2,236만 대가량이었다.9위는 약 1,920만 대의 부동산이었다. ▲직방 ▲청약홈 ▲호갱노노 ▲다방 ▲네이버 부동산이 순위에 올랐다.10위는 식음료였다. ▲스타벅스 ▲마켓컬리 ▲이디야멤버스 ▲요리백과 만개의레시피 ▲맥도날드 순이었다. 합계는 약 1,873만 대다.11위는 합계 1,863만 대가량인 여행이다. ▲여기어때 ▲야놀자 ▲Airbnb ▲Skyscanner ▲아고다 등이 순위에 올랐다.12위는 증권으로 총 1,581만 대가량이었다. ▲KB증권 'M-able' ▲키움증권 영웅문S ▲삼성증권 mPOP ▲미래에셋증권 m.Stock ▲한국투자증권 등이 Top 5에 들었다.13위는 총 1,447만 대 집계된 게임이다. ▲Roblox ▲Pokémon GO ▲브롤스타즈 ▲Minecraft ▲무한의 계단 순이었다.14위는 스포츠로 ▲U+프로야구 ▲U+골프 ▲골프존 ▲스마트스코어 ▲카카오골프예약 등이 상위 5위를 차지했으며, 합계는 약 1,375만 대다.15위는 ▲캐시워크 ▲스마트홈트 ▲InBody ▲만보기-걸음 ▲만보기-걷기 등의 건강 앱으로 합계 944만 대가량을 기록했다.16위는 합계 약 368만 대인 뷰티로 ▲화해 ▲카카오헤어샵 ▲뷰티포인트 ▲잼페이스 ▲바비톡 순이었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2022.12.06.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>태국 법인 이어…다올투자증권, 다올인베스트먼트 매물로</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005381910?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>다올인베스트 지분 52% 전량 매각 협의 중인수 후보로 우리금융지주·유진금융그룹 거론지난달 태국 현지법인 지분 매각 시도[이데일리 김보겸 기자] 다올투자증권이 벤처캐피탈(VC) 자회사인 다올인베스트먼트 매각을 추진하고 있다. 레고랜드발 증권업계 자금 경색에 지난달 태국 법인 매각을 추진 중인 데 이어 최대주주로 있는 자회사도 매물로 내놓은 것이다. 6일 다올투자증권에 따르면 이 회사는 다올인베스트먼트를 매각하기 위해 국내 금융사 몇몇 곳과 접촉해 의사를 타진하고 있다. 다올투자증권은 다올인베스트먼트 지분 52.0%를 가진 최대주주다. 지분 전량을 2000억원 이상에 파는 조건으로 협의를 진행 중이다.우리금융지주와 유진금융그룹 등 국내 대형 금융사 등이 인수 후보로 거론된다. 우리금융지주는 5대 금융지주 중 유일하게 VC 계열사가 없으며 유진금융그룹은 지난해 다올그룹에 전 유진저축은행(현 다올저축은행)을 매각한 바 있다. 회사 관계자는 매각 추진 배경으로 “내년도 부동산 프로젝트파이낸싱(PF) 자금난이 악화할 것으로 예상되면서 선제적으로 유동성을 확보하는 차원”이라고 설명했다. 다올투자증권은 최근 본격적으로 비용 절감에 나서고 있다. 지난달에는 1000억원대에 태국 현지법인 지분 69.9% 매각을 시도하고 있다. 최근에는 임직원 희망퇴직 신청자를 받아 퇴직 통보를 마쳤다. 수요가 적은 시스템에 드는 비용 절감 차원에서 웹트레이딩서비스(WTS)도 내년 종료한다. 다올인베스트먼트는 1981년 설립된 ‘1세대 VC’다. 비바리퍼블리카(토스), 우아한형제들(배달의 민족) 등 스타트업에 투자했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2022.12.01.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>네이버·카카오 간편결제 수수료 공시…이르면 내년 2월 첫 공개</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011568348?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>기사내용 요약금감원, 전자금융업자 수수료 공시 가이드라인 사전예고간편결제 수수료 개입 없이 공시로 자영업자 등 부담 완화네이버, 카카오, 토스 등 반기별로 결제 수수료 공시해야신용카드처럼 가맹점 매출 규모별로 영세·중소·일반 공시[서울=뉴시스] 서울 여의도 금융감독원 전경. (사진=뉴시스 DB) 2021.02.05. photo@newsis.com [서울=뉴시스] 김형섭 기자 = 네이버·카카오 등 빅테크 기업의 간편결제 서비스 수수료율 공개를 위한 금융당국의 공시 제도 도입이 마무리 단계에 들어갔다. 이르면 내년 2월께 첫 공시가 이뤄질 전망이다.1일 금융당국에 따르면 금융감독원은 최근 '전자금융업자 수수료 구분관리 및 공시 등을 위한 가이드라인'을 사전예고했다. 오는 13일까지 사업자들로부터 의견을 받아 연내 최종안을 확정할 방침이다.이른바 'XX페이'로 불리는 빅테크의 간편결제 수수료 공시는 일반 신용카드사들보다 페이 사업자들이 높은 수수료를 받음으로써 소상공인·자영업자의 부담을 키운다는 지적에서 시작됐다. 전자금융업자의 간편결제 수수료 공시 시스템은 윤석열 정부 국정과제 중 하나이기도 하다.신용카드 업계와의 형평성도 고려됐다. 신용카드 수수료는 여신전문금융업법에 따라 3년마다 수수료를 재산정하고 있는데 이를 통해 영세·중소 가맹점의 카드 수수료를 감면해 왔다.그러나 전자금융업자에 대해서는 이같은 수수료 개입이 없어 간편결제 수수료율 공시를 통해 소상공인·자영업자의 부담을 덜어주겠다는 게 금융당국의 생각이다.이와 관련해 이복현 금융감독원장은 지난 8월30일 빅테크·핀테크들과의 간담회에서 "수수료는 시장참여자에 의해 자율적으로 결정될 사안으로 감독당국이 직접 개입할 의사가 없다"며 신용카드 수수료와 같은 통제에는 선을 그었다.그러면서도 "소비자와 빅테크와의 정보가 비대칭적인 것은 아닌지 우려도 있는 게 사실이다. 선진국에서는 자율적으로 정보를 공개하거나 시장의 투명성을 확보함으로써 그런 우려를 해소해 왔다"며 간편결제 수수료율 공시를 통한 수수료 인하 기대를 내비친 바 있다.금감원은 그동안 핀테크산업협회, 한국인터넷기업협회, 네이버파이낸셜, 카카오페이, 비바리퍼블리카(토스) 등 12개 업체가 참여한 결제 수수료 공시 작업반(TF)을 통해 가이드라인 작업을 진행해 왔다.금감원이 사전예고한 가이드라인에 따르면 공시 대상은 금융위원회에 등록된 전자금융업자 중 월평균 간편결제 거래금액(지역화폐 제외)이 1000억원 이상인 업체다. 이에 따르면 네이버, 카카오, 토스 등 빅테크 외에도 결제대행사업, 선불사업, 페이 서비스 제공 쇼핑몰 등 주요 사업자 상당수가 수수료 공시 대상이 된다는 게 금감원의 설명이다.가이드라인은 전자금융업자에 대해 수수료를 '결제 수수료'와 '기타 수수료'로 구분해 수취하고 관리토록 했다.결제수수료는 결제서비스와 직접 관련된 수수료로 신용카드사 등 결제원천사 및 상위 전자지급결제대행업자(PG)에 지급하는 수수료, 전자금융업자의 결제업무 수행에 따른 인건비·마케팅 같은 비용과 수수료 마진 등이 포함된다.기타 수수료는 총 수수료 중 결제 수수료를 제외한 나머지다. 홈페이지 구축·관리 명목으로 전자금융업자가 직접 수취하거나 제3의 호스팅사에 지급하는 호스팅 수수료, 온라인 하위몰 입점이나 프로모션 명목 등으로 수취하는 수수료 등이다.이 가운데 기타 수수료는 제외한 결제 수수료가 공시 대상으로 정해진 서식에 따라 각사별로 홈페이지를 통해 공개해야 한다.전자금융업자는 결제 수수료율을 카드와 선불전자지급수단으로 구분해 각각 가맹점 규모별로 공시해야 한다.가맹점 구분은 여신전문금융업법과 감독규정에 따른 신용카드가맹점 구분 기준을 적용한다. 이에 따라 가맹점의 연매출을 기준으로 ▲영세(3억원 이하) ▲중소1(3억원 초과~5억원 이하) ▲중소2(5억원 초과~10억원 이하) ▲중소3(10억원 초과~30억원 이하) ▲일반(영세·중소 제외한 가맹점) 등 5개 구간별로 결제 수수료율이 공시된다. 수수료 공시는 반기별로 이뤄진다. 공시대상 업체는 공시자료를 매 반기 종료 후 1개월 이내에 공시해야 한다.따라서 당해 2~7월 수수료율은 8월에, 당해 8월~이듬해 1월 수수료율은 2월에 공시되는 구조다.금감원은 가이드라인을 연말까지 최종 확정해 올해 8월~내년 1월 간편결제 수수료율을 가능한 2월에 공시한다는 목표이지만 첫 공시인 만큼 사업자들과의 협의 속도에 따라 3월 공시로 미뤄질 수도 있다.금감원 관계자는 "연말이라 간편결제 업체들의 마감·결산 등으로 내년 2월 공시가 조금 늦어질 수도 있다"며 "첫 공시인 만큼 당국에서 검증 작업을 요구하고 있는데 업체들과 협의가 끝나지 않아 지연될 수도 있다"고 말했다.금감원은 공시 대상 업체가 최초로 공시하는 자료에 대해서는 자료의 정확성과 적정성 등을 보장받기 위해 회계법인의 확인을 받도록 할 방침인데 이와 관련한 간편결제 사업자들과의 협의가 더 필요하다는 의미로 보인다.당초 금감원은 결제 수수료도 세부 항목별로 구분해 자세히 공시하는 방안도 검토했지만 원가공개에 해당할 수 있다는 점 때문에 항목별 공시는 하지 않기로 했다. 이는 사실상 영업비밀 침해라는 간편결제 사업자들의 반발도 컸던 부분이다.간편결제 특성상 따라붙는 기타 수수료를 공시 대상에서 제외한 것도 신용카드 수수료보다 비쌀 수 밖에 없는 업계 사정을 고려해준 것으로 풀이된다.금감원 관계자는 "세부 항목별 공개는 원가 공개가 돼 버릴 수 있다. 원가 공개는 사실 자동차도 안 하고 식품 마켓도 안 하고 있는데 당국이 목표로 한 것은 원래부터 가격 공개였다"며 "기타 수수료도 홈페이지에 올려서 광고를 해준다든지 웹 호스팅을 한다든지 하는 거라서 금융 수수료에 해당하지 않아 공시하지 않는 것"이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2022.12.01.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>KB국민은행, 20개 은행중 사회공헌 관심도 ‘1위’…농협·신한 순</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002291778?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>◆…1금융권 사회공헌 관심도 순위. 자료=데이터앤리서치 제공국내에서 영업 활동을 하고 있는 1금융권 은행 중 ‘사회공헌’ 관심도가 가장 높은 은행은 KB국민은행으로 나타났다. 이어 NH농협은행과 신한은행이 뒤를 이었다.   1일 여론조사기관인 데이터앤리서치는 뉴스·커뮤니티·블로그·카페·유튜브·트위터·인스타그램·페이스북·카카오스토리·지식인·기업/조직·정부/공공 등 12개 채널 23만개 사이트를 대상으로 지난 7~9월 1금융권 은행 들을 대상으로 온라인 사회공헌 포스팅 수(정보량=관심도)를 조사했다고 밝혔다.   조사 대상은행은 시중 일반은행 4곳(KB국민·신한·우리·하나은행, 가나다 순)과 특수은행 5곳(IBK기업·KDB산업·NH농협·Sh수협·한국수출입은행), 외국계은행 2곳(SC제일·한국씨티은행), 인터넷 전문은행 3곳(카카오·케이·토스뱅크), 지방은행 6곳(BNK경남·BNK부산·DGB대구·광주·전북·제주은행) 등 20곳이다.   조사 시 은행 이름과 사회공헌, 기부, 기탁, 소외계층, 취약계층, 독거, 장애인 등 키워드 사이에 한글 기준 15자이내인 경우만 결과값으로 도출하도록 했기 때문에 실제 정보량은 달라질 수도 있다.   분석 결과 KB국민은행이 4509건으로 1금융권 20개 은행중 전체 1위를 차지했다. 지난해 같은 기간 1878건에 비해 140.09%나 늘어난 수치다.   뽐뿌에서 한 유저는 지난 9월 KB금융그룹과 KB국민은행이 태풍 피해지역에 10억원의 성금과 이재민들을 위한 긴급구호키트(모포, 위생용품, 의약품 등) 및 급식차와 세탁차 등을 지원한 것에 대해 포스팅했으며 38커뮤니케이션과 네이트판, 더쿠에서도 동일한 내용이 게시됐다.   티스토리에서는 지난 9월 추석을 앞두고 KB국민은행이 1062만원 상당의 사과, 배, 견과류 2종을 기부한 사실이 등재됐다.   트위터에서는 ‘국민은행, 장애인용 경사로·도움벨 설치’, ‘KB국민은행, 취약계층 위한 맞춤형 비금융 서비스 지원 강화’, ‘결식아동 지원을 위한 기부캠페인 실시’, ‘KB국민은행 가평지점, 노인복지관에 성금 300만원 기탁’, ‘저소득층 무료 보험 지원을 위한 기부금 전달’, ‘소상공인연합회에 기부금 2억원 전달’ 등의 소식이 잇따라 트윗됐다.   NH농협은행이 4029건으로 2위를 기록했다. 지난해 같은 기간 2926건에 비해 1103건, 37.69% 늘어났지만 1위 자리는 내놓았다.   NH농협은행 경기본부는 지난 8월 도내 저소득층에 전달해 달라며 1억원 상당의 경기미를 기탁하면서 디시인사이드 뽐뿌 팍스넷 등에서 주목을 받았다.   38커뮤니케이션에서는 농협은행 등 농협금융이 취약계층에 ‘27조+α’원의 금융 지원을 실시한다는 뉴스가 인용됐으며 마이민트에서는 ‘NH농협 의왕시지부 추석맞이 이웃사랑(情) 꾸러미 100박스 기부’ 내용이 게시됐다.   네이버포스트에는 NH농협은행과 다올투자증권이 용산구 독거 노인에게 쌀 2500Kg을 기부했다는 내용이 조명받기도 했다.   신한은행이 3580건으로 3위를 차지했다. 지난해 같은 기간 2922건에 비해 658건, 22.51% 늘었다.   지난 9월 트위터에는 태풍피해 이웃을 위해 응원버튼만 클릭하시면 기부는 신한은행이 대신한다는 사회공헌 활동이 주목을 받았으며 클리앙, 뽐뿌, 보배드림, 에펨코리아, 웃긴대학, 더쿠, 티스토리 등 많은 커뮤니티에서 큰 반향을 일으켰다.   지난 8월에는 신한은행과 셀트리온은 수해 복구활동 지원금 7억원을 유정복 인천시장에 전달, 수해 복구는 물론 구호물품 제작, 취약계층 지원 등에 사용되면서 연합뉴스 등 다수 언론에 노출되기도 했다.   신한은행은 지난 7월엔 청각 장애인을 위해 수화 상담사 등을 별도로 채용, '특화상담 고객센터’를 출범시킴으로써 금융은 물론 땡겨요 배달앱과 메타버스 등 비금융 사업에 대해서도 이들에 편의를 적극 지원함으로써 네이버 블로그에서 여러번 포스팅됐다.   BNK경남은행이 2909건으로 4위를 기록했다. 지방은행 중에서는 가장 높은 사회공헌 관심도로 지난해 같은 기간 1284건에 비해 126.55% 늘었다.   우리은행이 2651건으로 5위를 차지했다. 지난해 같은기간 사회공헌 정보량이 688건이었던 것에 비하면 287.40% 급증했다.   이어 하나은행이 2473건으로 6위, BNK부산은행이 1744건으로 7위, IBK기업은행이 1571건으로 8위, DGB대구은행이 1190건으로 9위를 차지했다.   10위인 카카오뱅크는 1133건으로 인터넷전문은행 중에서는 사회공헌 관심도가 가장 높았다.   이밖에 ▲전북은행 948건 ▲광주은행 372건 ▲KDB산업은행 302건 ▲케이뱅크 300건 ▲한국수출입은행 242건 ▲토스뱅크 225건 ▲Sh수협은행 183건 ▲제주은행 180건 순으로 나타났다.   ▲SC제일은행이 131건 ▲한국씨티은행 59건으로 외국계 은행들의 사회공헌 관심도가 가장 낮았다.   데이터앤리서치 관계자는 “올 3분기 1금융권의 사회공헌 관심도는 지난 해 같은 기간에 비해 대부분 크게 높아졌다”며 “고금리 시대 수혜자인 은행권의 고통 분담 노력이 사회 곳곳에 선한 영향력을 행사하고 있는 것으로 분석된다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2022.12.15.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>택시판 '타다'로 돌아온 VCNC, 직영 운수사 추가 설립</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000717205?sid=105</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>'편안한이동넥스트' 설립… 택시 면허 양수택시 호출 서비스 '타다' 플랫폼을 운영하는 VCNC(타다)가 '편안한이동'에 이어 직영 택시 운수사를 추가 설립했다.VCNC(타다) 대형택시 '타다 넥스트' [사진=VCNC(타다)]관련 업계에 따르면 지난 11월 25일자로 택시운송사업 등을 사업 목적으로 기재한 '편안한이동넥스트'가 설립됐다. 등기부등본에 따르면 VCNC의 택시운송가맹사업 자회사 '편안한이동' 대표인 최규호 대표가 이 회사 이사로 이름을 올렸다.택시 면허도 양수했다. '편안한이동넥스트'는 서울시 중랑구에 소재한 '국제콜택시'가 가지고 있던 면허를 넘겨받는 것으로 나타났다. 이와 관련해 '일반택시운송사업 전부 양도양수 신고'를 했고 서울시는 지난 8일자로 신고수리를 통보했다. 관련 업계에 따르면 '국제콜택시'가 보유하고 있던 택시 면허는 90대 수준으로 추정된다.한 업계 관계자는 "서울에 소재한 법인택시(운수사)가 보유한 택시(면허)는 보통 100대 미만으로 추정되는데 직영 운수사를 세운데다 적지 않은 대수의 택시 면허를 양수받았다는 건 앞으로 사업을 더 키워가겠단 의미로 풀이된다"고 해석했다.앞서 지난해 10월 디지털 금융 플랫폼 '토스' 운영사 비바리퍼블리카가 카셰어링(차량 공유) 기업 쏘카 자회사였던 VCNC(타다) 지분 60%를 인수했다. 쏘카 자회사로 있었을 당시 VCNC(타다)는 기사 딸린 렌터카 호출 서비스인 '타다 베이직'을 운영했는데 기존 택시 업계와의 충돌 등으로 법이 개정되면서 사업을 중단했다.현재 VCNC(타다)가 주력하고 있는 대형택시 '타다 넥스트'는 과거 '타다 베이직'의 택시판이라고 볼 수 있다. VCNC(타다)는 앞서 지난 1월에도 대형택시 '타다 넥스트' 공급량을 확대하기 위해 약 80대 규모 택시 운영권을 확보한 바 있다.VCNC(타다) 관계자는 "'편안한이동넥스트'는 새로운 시도를 위한 가능성을 열어두는 차원에서 설립한 회사"라며 "이후 사업 계획에 대해선 협의 중으로 확정된 바는 없다"고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2022.12.03.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>엔데믹 후 주춤한 '홈트레이닝'에 125억 투자…어떤 계산 있었나</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004825056?sid=101</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>[편집자주] 벤처·스타트업 투자흐름을 쫓아가면 미래산업과 기업들에 대한 인사이트를 얻을 수 있습니다. 한 주간 발생한 벤처·스타트업 투자건수 중 가장 주목받은 사례를 집중 분석합니다.[[이주의핫딜]'콰트' '위피' 운영사 엔라이즈, 125억원 시리즈B브릿지 투자 유치]코로나19(COVID-19) 장기화에 파죽지세 인기를 누린 홈트레이닝 서비스들이 엔데믹(감염병의 풍토병화) 국면에 다소 주춤한 모습을 보인 가운데 구독형 홈트레이닝 플랫폼 '콰트(QUAT)' 운영사 엔라이즈가 최근 125억원 규모의 시리즈B 브릿지 투자를 유치해 이목을 끈다. 투자자들은 어떤 계산에서 이런 베팅을 했을까.  ◇과감한 선택과 집중…콰트·위피 쌍두마차 올인=이번 투자에는 기존 한국투자파트너스·대교인베스트먼트와 함께 LB인베스트먼트, 보광인베스트먼트가 신규로 참여했다.  엔라이즈는 스타트업 치곤 고령에 속한다. 올해 업력 12년차다. 첫 사업 아이템은 2014년 1월 일반인을 대상으로 한 익명 기반 SNS(소셜네트워크서비스) '모씨(MOCI)'였다. 누적 가입자 수 100만을 기록한 뒤 지난해 9월 선택과 집중이 필요하다는 판단하에 서비스를 중단했다. 엔라이즈는 그간 갈고 닦아온 SNS 운영 경험과 기술력을 토대로 2017년 9월 나이·지역·성별·취향 등의 데이터를 통해 동네 친구를 찾아주는 소셜앱 '위피'를 개설했다. 현재 회원수 500만명, 누적 다운로드 670만회, 월 이용자 수(MAU) 20만명을 기록했다. 이어 2020년 6월엔 온라인 홈트레이닝 플랫폼 콰트를 개설, 엔라이즈를 대표하는 쌍두마차를 완성했다. 두 서비스를 통해 이룬 총 매출액은 2020년 272억, 2021년 345억으로 든든한 캐시카우 역할을 하고 있다. 이번 투자를 주도한 한국투자파트너스 관계자는 "엔라이즈는 토스·넥슨·라인·쏘카·요기요·카카오스타일 등 다양한 IT기업에서 우수한 역량을 갖춘 팀원들로 구성된 데다 서비스 개발을 위한 기획, 디자인, 개발 과정에서 데이터 기반으로 가설을 세워 실험·검증하는 과정을 거치는 등 꾸준히 퍼포먼스를 개선해온 점을 높게 평가했다"고 말했다.◇형보다 나은 아우…"국내 첫 '통합 버티컬 운동 플랫폼' 될 것"=엔라이즈의 경영진은 무엇보다 콰트의 성장세에 주목했다. 2021년 콰트의 연매출은 195억원으로 먼저 태어난 위피(150억원)보다 45억원 더 많다. 본격적인 서비스를 개시한 지 2년도 채 안 된 상황에서 괄목할만한 성적은 관심을 끌기에 충분했다. 특히 18조원으로 추산되는 국내 헬스케어 시장을 정조준한 콰트를 미래 성장동력으로 삼고 시장지배력 키우기에 공력을 쏟고 있다. 현재 콰트엔 필라테스·요가·웨이트 등 다양한 운동 프로그램이 담겼다. 전문 코치진과 강하나·빅씨스 등 유명 인플루언서와 함께 제작한 오리지널 운동 콘텐츠가 2022년 11월 기준 1000여개, 누적 조회수는 1000만뷰, 월 트래픽은 60만명, 앱 월간 이용자 수(MAU)는 3만8000명을 달성했다.투자자들은 콰트가 단순 홈트레이닝 플랫폼에서 '통합 버티컬 운동 플랫폼'으로 성장 가능성에 주목한 것으로 전해졌다. 김봉기 엔라이즈 대표는 "최근 급성장하는 운동·건강시장의 크기를 고려했을 때 운동앱 전망은 매우 긍정적"이라며 "현재 시장에서는 에슬레저, 운동기구, 다이어트, 건강기능식품 등 건강과 운동을 통합한 플랫폼이 없기 때문에 콰트를 국내 최초 통합 버티컬 플랫폼으로 성장시키기로 했다"고 말했다.  엔라이즈는 연내 '콰트 스마트 체중계'를 선보이고 구독자들의 운동·건강 데이터를 모아 건강상태와 목적에 맞는 큐레이션 콘텐츠를 제공할 계획이다.  스마트 체중계는 콰트 앱과 연동돼 체지방률, 골격근량, 기초대사량 등의 정보를 실시간으로 전달한다. 앱에선 이 데이터를 분석해 적합한 건강·기능식과 영양제 추천하고, 맞춤 운동법 등을 알려준다는 설명이다. 또 각종 챌린지와 운동 인증 커뮤니티 기능 등도 선보인다.한 투자사 관계자는 "국내 헬스케어 시장 성장세도 엄청나지만 유관시장인 건기식과 에슬레저 패션시장 규모도 2020년 총 8조원의 규모를 넘어설 정도로 빠르게 커가고 있다"며 "이런 시장에서 콰트의 매출 성장 잠재력이 클 것으로 분석했다"고 했다. [머니투데이 스타트업 미디어 플랫폼 유니콘팩토리]</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2022.12.06.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>한화손보, 고객 편익 강화 '모바일 전자증명서 제출' 서비스</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000715089?sid=101</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>민원증명서 제출 시 전자문서지갑 서비스 연계한화손해보험이 보험 업무에 필요한 종이 민원 증명서를 디지털 기반의 모바일 전자증명서로 대체한 서비스를 시작한다.한화손보는 행정안전부의 정부 전자문서지갑 서비스를 연계한 '모바일 전자증명서 제출' 시스템을 구축했다고 6일 밝혔다.한화손해보험이 디지털 기반의 모바일 전자증명서 제출 서비스를 시작한다. [사진=한화손해보험]전자문서지갑은 행정·공공기관에서 발급하는 종이 민원 증명서를 암호화한 전자문서 형태로 발급받아 보관할 수 있는 서비스를 말한다. 클라우드 기반의 개인 저장소로 '정부24'와 같은 공공 애플리케이션(앱)과 민간 앱인 네이버, 카카오, 페이코, 토스 등에서도 사용할 수 있다.한화손보는 고객의 행정기관 방문과 서류발급, 보험사 제출 같은 번거로운 과정이 줄어 편의성이 높아질 것으로 기대하고 있다. 고객은 주민등록등본과 가족관계증명서 등 민원 증명서 제출이 필요할 경우 모바일 앱에서 전자문서지갑을 통해 바로 보험사로 전송을 요청할 수 있다.현재 해당 서비스는 의료수급권자 할인신청과 지정대리청구인 지정 등 장기보험계약 변경 업무에만 적용 중이다. 향후 일반, 자동차보험 관련 업무에도 적용될 예정이다.한화손해보험 관계자는 "모바일을 연계한 디지털 트렌드 변화에 선제적으로 대응하고자 이번 서비스를 개발했다"면서 "앞으로도 디지털 기반의 계약관리 서비스를 다양화하며 고객 편익에 앞장설 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2022.12.11.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>`잘나가던` 토스 주가 장외시장서 72% 폭삭</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002771873?sid=101</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>"연합뉴스    기업공개(IPO) 시장이 얼어붙으면서 올들어 비상장 기업들의 가치도 눈에 띄게 떨어졌다. 장외시장 부진은 내년 상반기까지 이어질 것이라는 관측이 나온다. 11일 비상장 주식 거래소인 증권플러스 비상장에 따르면 일반투자자들이 이 플랫폼에서 거래할 수 있는 시가총액 상위 20개 종목 중 올 초부터 현재까지 거래되는 14개 종목의 합산 시가총액은 올해 1월 초 기준 45조8691억원에서 이달 9일 19조573억원으로 57% 줄어들었다. 개별 유니콘(기업가치가 1조원을 넘는 비상장 스타트업)을 보면 기업가치 하락세는 더욱 가파르다. 간편결제 플랫폼 토스를 운영하는 비바리퍼블리카는 전문투자자 종목이어서 통계에 포함되지 않았으나 1주당 가격이 작년 말 14만3000원에서 이달 9일 3만9700원으로 72.2% 급락했다. 유가증권시장 상장을 앞둔 컬리는 올해 1월 25일 11만5000원에서 이달 9일 3만600원으로 73.4% 떨어졌고, 역시 유가증권시장 상장을 앞둔 케이뱅크는 올해 3월 8일 2만3400원으로 고점을 찍은 뒤 1만2000원 수준으로 48.7% 내렸다. 야놀자는 작년 말 9만9000원에서 현재 4만8800원으로 50.7% 하락했고, 현대오일뱅크는 작년 말 7만4500원에서 3만7000원으로 50.3% 하락했다.암호화폐거래소 관련 기업의 하락 폭은 더 크다. 업비트 운영사인 두나무는 작년 말 51만원에서 12만6000원으로 75.3%, 빗썸 운영사인 빗썸코리아는 작년 말 60만원에서 9만1500원으로 84.8% 급락했다. 금융투자협회에서 운영하는 K-OTC(한국장외주식시장) 시가총액도 올해 2월 46조3758억원에서 이달 8일 17조7495억원 수준으로 61.7% 줄어들었다. 2020∼2021년 IPO 시장 흥행으로 비상장 기업들의 몸값도 덩달아 높아졌지만, 올해 들어 주식 시장 침체에 자금 경색이 겹치며 직격탄을 맞은 것이다. 비상장사가 당분간 IPO에 나서기 힘들어진 것도 가치 하락에 영향을 끼쳤다는 해석이 나온다.올들어 현대엔지니어링, SK쉴더스, 원스토어, 라이온하트스튜디오 등 조 단위 '대어'가 증권신고서를 제출했다가 상장을 철회했고, CJ올리브영, SSG닷컴 등은 상장 계획을 연기했다. 11월 이후에도 밀리의서재, 바이오인프라, 자람테크놀로지 등이 코스닥 상장 추진을 철회했다.황세운 자본시장연구원 연구위원은 "내년 상반기까지는 주식시장이 현재와 같은 하락 흐름을 이어갈 가능성이 높기 때문에 IPO에 나서는 비상장기업이 제한적일 것으로 예상된다"며 "투자자들의 관심도도 떨어지면서 장외시장 부진이 이어질 것"이라고 내다봤다.이어 "비상장 기업은 투자자들이 기업정보를 확보할 수 있는 경로 자체가 적은 편이기 때문에 정보의 비대칭성도 크다"며 "투자 위험을 신중하게 판단할 필요가 있다"고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2022.12.01.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>세븐일레븐, DGB대구은행과 수수료 제휴…"ATM 서비스 무료"</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011569957?sid=101</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스]이지영 기자 = 세븐일레븐이 DGB대구은행과 편의점 ATM 수수료 제휴를 맺었다고 1일 밝혔다.앞으로 대구지역을 제외한 전국 세븐일레븐 점포 7200여 점에 설치된 ATM에서 DGB대구은행 현금 입∙출금 및 계좌이체 등의 금융 서비스를 이용할 수 있다. 특히 세븐일레븐 점포에 비치된 ATM으로 DGB대구은행 금융 서비스를 이용하면 건당 1000~1500원 발생되는 수수료를 면제 받는다.현재 세븐일레븐은 DGB대구은행을 포함해 국민은행, 카카오뱅크, 토스뱅크, 씨티은행, BNK부산은행, BNK경남은행, 롯데캐피탈 등 15개 금융기관과 수수료 면제 서비스를 운영하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2022.12.14.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>MZ세대 공략하는 '1개월 초단기 정기적금' 흥행할까</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000190063?sid=101</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>"짧은 호흡 추구하는 MZ세대 끌어들일 수 있어"14일 은행권에 따르면 시중은행과 인터넷은행은 최근 초단기적금 상품 개발·검토에 들어갔다. /이선화 기자"택시비, 배달비, 간식비 등 사소한 비용을 아껴서 부담 없이 미래를 위한 투자를 할 수 있다는 점이 '26주 적금'의 장점이에요. 고정비 외에 갑자기 지출할 일이 생겼을 때도 유용하게 쓸 수 있어요. 만기가 짧은 적금이 다양하게 출시된다면 선택의 폭이 넓어져 좋을 것 같습니다."목돈 마련이 어려웠던 직장인 박 모 씨(26)는 단기 적금으로 저축습관을 들이고 있다. 내년 4월부터는 1개월 만기의 초단기 정기적금 출시가 가능해지면서 금융소비자들의 적금 운용 패턴도 다양해질 것이라는 분석이 나온다. 카카오뱅크가 '26주 적금' 등으로 단기 적금 흥행 신호탄을 쏜 만큼 은행권의 초단기 적금 상품이 흥행에 성공할지에도 관심이 쏠린다.14일 은행권에 따르면 시중은행과 인터넷은행은 최근 초단기 적금 상품 개발·검토에 들어갔다. 앞서 한국은행은 지난달 29일 내년 4월부터 은행에서 1개월 만기 초단기 정기적금을 가입할 수 있다는 내용의 '금융기관 여수신이율 등에 관한 규정'을 개정했다고 밝혔다. 개정안은 지난달 10일 금융통화위원회에서 의결됐다. 한 은행권 관계자는 "현재 규정으로는 초단기 적금을 만들 수 없기 때문에 내년 4월 1일 이후로 구체적인 상품들이 나올 가능성이 크다"며 "고객들의 니즈를 반영해 바뀐 규정에 맞춰 상품을 출시할 것으로 예상한다"고 했다.현재 정기적금·상호부금의 최단만기는 6개월이다. 은행 적금 만기가 1개월로 변경되는 것은 지난 1995년 11월 이후 27년 만이다. 금리 인상기에는 만기가 짧아야 수익률을 높일 수 있다. 저축은행은 해당 규제를 적용받지 않아 형평성에 어긋난다는 주장도 나왔다. 최근 20~30대 단기 납입을 선호하는 소비자 요구가 증대되면서 낡은 규정이 바뀌게 됐다는 해석도 있다.적금 만기가 1개월로 짧아지면 다양한 초단기 적금 상품이 출시될 것으로 예상된다. 금리 인상기 자금을 짧게 운용하는 '30일 적금'이나 커플 혹은 자녀를 둔 부모를 겨냥한 '100일 기념 적금', 휴가철을 대비한 '휴가비 3개월 적금' 등의 출시도 가능해진다.6개월 단위 단기적금으로 MZ세대(밀레니얼+Z세대)를 공략하고 있는 인터넷은행 중심으로도 다양한 신규 상품이 출시될 것으로 기대된다.카카오뱅크는 '26주 적금' 등으로 단기 적금 흥행 신호탄을 쐈다. /카카오뱅크 제공특히 카카오뱅크는 '26주 적금' 등으로 단기 적금 흥행 신호탄을 쐈다. '26주 적금'은 2018년 6월 출시 이후 지난 10월 말 기준 누적 신규 계좌 개설 수가 1421만좌를 넘어섰다. 통상 은행권에서는 연간 10만 계좌 정도를 개설하면 성공한 상품으로 평가한다.해당 상품은 26주 동안 자동이체 납입에 성공하고 만기 해지하면 우대금리가 적용돼 최대 7%의 고금리를 받을 수 있다. 매주 최초 가입금액만큼 증액해 납입해야하며 가입금액은 1000원, 2000원, 3000원, 5000원, 1만 원 중 선택 가능하다. 현재 26주적금의 고객 구성 비율은 20대 32.05%, 30대 32.01%로, MZ세대가 전체의 64.01%를 차지하는 것으로 알려졌다.카카오뱅크는 '26주 적금'을 통해 금융소비자들이 '소확행(소소하지만 확실한 행복)'을 느낄 수 있다고 설명했다. 여행, 쇼핑 등 계획적인 소비 생활을 누리는 MZ세대 특성에 초단기적금이 부합한다는 분석이다. 또한 다른 업종과의 이색 협업을 통한 재미있는 상품 출시로 타 은행들과 차별화를 두고 있다고 보고 있다.카카오뱅크 관계자는 "26주 적금은 (금융소비자에게) '소확행'의 느낌으로 26주라는 비교적 짧은 기간에 연 금리 최대 7%의 높은 이자를 받을 수 있다"며 "최근 교촌치킨과 GS리테일 등 이색적인 다른 업종과의 협업을 통해 파트너 적금을 출시하고 있으며 GS리테일의 경우 2500원씩 7번 GS포인트를 지급하는 등 차별화를 두고 있다. 앞으로도 단기 적금이 고객들에게 인기를 얻을 것으로 예상한다"고 말했다.케이뱅크에는 단기 적금 성격인 자동 목돈 모으기 서비스 '챌린지박스'가 있다. 챌린지박스는 500만 원 이내로 최소 30일에서 최대 200일까지 자유롭게 목표를 설정하면 매주 저금 금액을 자동 계산해주는 서비스로, 최고 연 4% 금리가 적용된다. 토스뱅크는 6개월 만기 상품인 '키워봐요 적금'을 통해 금리 인상기에 짧은 기간 고금리(연 최대 4%)를 제공하는 상품을 냈다. 지난 6월 출시 3일 만에 10만좌를 넘었다.현재 5대 시중은행의 6개월 만기 적금상품으로는 신한은행의 '신한플러스 포인트적금'이 최대 연 5%로 가장 높은 금리를 제공하고 있다. 국민·우리·농협은행의 상품은 금리가 연 2~3%대 수준이며, 하나은행의 경우 최대 연 3.95% 금리의 6개월 자유적립식 '하나 타이밍 적금'이 있다.은행권에서는 초단기 적금 상품이 MZ세대를 비롯한 금융 소비자들에게 흥행할 것으로 내다봤다. 또 다른 은행권 관계자는 "만기가 긴 적금의 경우 호흡이 길어 만기까지 채워야한다는 부담감이 있을 수 있다"며 "1개월 만기의 초단기 적금들이 나온다면 짧은 호흡을 추구하는 MZ세대를 끌어들일 수 있다"고 설명했다. 다만 그는 "내년 4월부터 초단기 적금 상품이 쏟아지면 금융 소비자 입장에서는 선택의 폭이 넓어지지만 은행들 사이에서는 고객 유치를 위한 경쟁이 불가피할 것"이라고 덧붙였다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2022.12.12.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>금감원, '개인정보노출자' 사고예방시스템 연계기관 확대</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006514150?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>우체국·새마을금고 지점에서 '개인정보 노출자' 등록·해제 가능서울 여의도 금융감독원 모습. 2022.8.15/뉴스1 ⓒ News1 유승관 기자(서울=뉴스1) 유새슬 기자 = 금융감독원은 12일 금융회사 뿐 아니라 우체국·새마을금고 지점에서도 개인정보 노출 사실을 등록·해제할 수 있도록 하는 내용의 업무협약(MOU)을 체결했다고 밝혔다.이복현 금감원장은 이날 오후 서울 여의도 금감원에서 우정사업본부·새마을금고중앙회· 네이버파이낸셜·카카오페이·비바리퍼블리카(토스) 대표 등과의 업무협약식에 참석했다.이번 업무협약은 개인정보노출자 사고예방시스템의 연계기관을 확대·이행하는 내용을 골자로 한다. 개인정보가 노출되면 보이스피싱·금융 사기 등에 연루될 위험이 높아 신속하게 차단해야 한다.업무협약으로 개인정보 노출 사실 등록 및 해제는 은행 등 기존 1만1416개 지점에서 1만8049개로 확대된다.이 원장은 "금융회사 지점이 적은 지역 주민의 금융사고 예방에 기여할 것으로 기대된다"고 밝혔다.이 자리에서는 간편결제나 송금·이체가 많은 네이버파이낸셜 등 주요 전자금융업자에게도 개인정보 노출 사실이 실시간 전파되도록 기관간 업무협약도 체결됐다.신분증 분실이나 피싱 등으로 개인정보가 유출된 경우 인터넷이나 은행 방문을 통해서 '개인정보노출자'로 등록하면 된다. 금융회사는 개인정보노출자 명의로 금융거래가 진행되면 본인확인 절차를 강화해 명의 도용을 예방한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2022.12.13.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>"카드사, 금융 생태계 변화…중장기 '사업 전환'해야"</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000012308?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>여신협회 '3고 경제시대의 여전업 전망과 대응방향' 해외 금융사-플랫폼 협업·진화…사업 전환 고려해야"해외에서는 은행(카드사)이 플랫폼으로 진화하고 있습니다"유창우 비자 코리아 전무가 13일 여신금융협회 주최로 열린 '3고(高) 경제시대의 여전업 전망과 대응방향' 포럼에서 한 발언이다. 카드사들이 금융 생태계 변화에 적응하며, 사업 전환(Business Transformation)을 통한 장기적인 성장 동력을 마련해야 한다는 제언이다./그래픽=유상연 기자 prtsy201@이날 '카드업의 미래 및 지속 성장 방향'라는 주제 발표자로 나선 유 전무는 "고물가, 고금리, 고환율의 '3고' 경제 상황과 각종 규제, 핀테크·플랫폼의 시장 침투 등 카드사의 실적에 부정적인 요소들이 다수인 게 사실"이라고 진단했다.실제 대규모 고객군을 갖춘 빅테크사들의 금융업 진출은 확대되고 있다. 한국은행에 따르면 올해 상반기(1~6월) 간편결제 서비스의 하루평균 이용금액은 7232억원으로 집계됐다. 이 가운데 네이버, 카카오, 토스 등 전자금융업자를 통한 간편결제 이용금액(3641억원)이 50.4%로 절반을 차지했다. 간편결제 서비스 도입 초기인 2016년만 해도 전자금융업자의 비중은 26.6%에 불과했다.유 전무는 "빅테크사들이 금융서비스를 확대하면서 소비자가 금융상품을 처음 접하는 접점이 기존 오프라인 채널에서 디지털 채널로 옮겨가고 있다"고 분석했다. 특히 차세대 소비 계층인 MZ(1980~2000년대 출생) 세대를 중심으로 이런 변화가 가속화되고 있다는 설명이다. 이는 수수료율 인하 압박과 금융상품 이자·총량규제를 받고 있는 카드사들의 미래수익 창출이 갈수록 어려워질 수 있음을 의미한다.그는 다만 "단기적인 변화 동인에 집중한 단기적인 해결책보다 지속될 변화에 집중하는 것이 필요하다"며 "카드사들도 주요 디지털 생태계에 참여하거나 조성, 지원을 하는 등 적극적인 전략 구상을 통해 지속적으로 성장할 수 있는 '사업 전환'을 해야 한다"고 강조했다.이미 해외에선 금융사와 이종업종 플랫폼과 제휴가 활발하다. 스페인의 은행 BBVA는 모빌리티 플랫폼 우버 생태계에 들어가 각종 금융서비스를 제공하고 있다. 예컨대 우버 드라이버 및 가족들을 대상으로 각종 대출서비스는 물론, 계좌 계설이나 카드 발급 등을 진행하고 있다.그는 "다양한 디지털 정책에 대한 전략 도출과 우리(카드사)가 갖고 있는 경쟁 우위 역량·자산이 무엇인지부터 정의해야 한다"며 "'지난 10년은 많은 기업들이 자신의 플랫폼을 만들기 위해 지원과 투자를 했다면, 앞으로 10년은 수많은 디지털 생태계에서 본연의 사업을 어떻게 연결할 것인가'가 성공의 척도가 될 것"이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2022.12.07.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>토스, 6개월간 사기 송금 피해 15만건 막아…"웹 스크래핑 기술로 계좌번호 수집"</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003948067?sid=101</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>토스를 운영하는 비바리퍼블리카가 최근 기승을 부리는 중고거래 사기 등에서 사용자를 보호하기 위한 선제적인 활동을 진행, 최근 6개월 동안 약 15만건의 송금 피해를 막았다고 7일 밝혔다. 토스는 사용자의 기기 정보, 접속 위치, 환경, 평상시 거래 패턴 등을 머신러닝 기술을 통해 의심스러운 송금을 차단하고 있다. 최근에는 안심결제 페이지를 악용한 신종 사기 수법을 확인하고 이에 대응하는 프로그램을 개발해 사용자들의 피해를 막고 있다. 이 같은 대응은 토스 FDS팀(이상거래탐지시스템팀)를 중심으로 이뤄졌다. 토스 FDS팀은 사기범들이 중고거래 사이트나 중고거래 앱에 미끼 상품을 올린 후 포털사이트의 간편결제로 위장한 안심결제 페이지를 이용한 신종 패턴을 확인했다. 사기에 이용되는 범죄 웹페이지는 주소와 디자인이 포털사이트 안심결제 페이지와 매우 유사해 최근 피해자가 급증하고 있는 상황이었다.토스 FDS팀은 소비자 피해를 선제적으로 막기 위해 웹 스크래핑 기술을 이용해 범죄 사이트에 기재된 계좌번호를 수집했다. 사기범들이 이용하는 범죄 웹페이지의 패턴을 데이터 분석을 통해 추정하고, 해당 웹페이지에 사용된 도용된 계좌번호를 확보한 것이다.또한 토스는 사용자들이 서비스에 이상을 느낄 때 언제든지 문의할 수 있도록 24시간 운영되는 토스 고객센터와 FDS팀간 협업으로 더욱 신속하게 피해를 막을 수 있었다고 설명했다.이렇게 파악된 사기 계좌는 지난 6개월간 130여 개에 달한다. 해당 계좌번호로 피해를 입을 뻔 한 경우는 총 1600건, 약 5억 8000만원에 달한다. 토스는 이외에도 사용자들에게 명의도용신고, 보이스피싱 신고, 중고거래 사기 신고 등을 받아 수집한 사기 계좌와 경찰청 사이버안전지킴이, 더치트에 등록된 사기계좌도 송금 과정에서 자동으로 확인한다. 해당 계좌에 송금을 시도하면 바로 경고화면이 나타난다. 최근 6개월 동안 해당 서비스를 통해 막은 사기 송금은 15만건, 사기 피해 예방한 금액은 160억원이다. 이광현 토스 FDS 담당자는 "토스의 안전한 송금을 위해 새로운 사기 기법을 연구하며 해외 범죄 조직이 운영하는 피싱 사이트의 계좌번호를 수집하는 등 적극적으로 사용자의 피해를 예방하고 있다"면서 "앞으로도 토스의 모든 송금이 안전할 수 있도록 적극적인 고객 보호 정책을 펼칠 것"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2022.12.08.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>다올투자증권, '다올인베'도 판다… 주가는 요동</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000875877?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>다올투자증권이 벤처캐피털(VC) 자회사 다올인베스트먼트를 매각한다./사진=다올투자증권 다올투자증권이 벤처캐피털(VC) 자회사 다올인베스트먼트를 매각한다. 업황 악화와 자금조달 시장 위축으로 국내 유일한 태국 진출 법인 매각에 착수한 데 이어 1세대 VC인 다올인베스트먼트 매각도 추진하는 등 허리띠를 잔뜩 졸라매고 있는 모습이다.8일 한국거래소에 따르면 전날 다올인베스트먼트는 전 거래일 대비 275원(8.94%) 상승한 3350원에 거래를 마감했다. 같은 시각 모회사 다올투자증권은 90원(2.73%) 내린 3210원에 장을 마쳤다. 장 초반 전 거래일보다 17.42% 오른 3875원까지 치솟기도 했으나 오후 들어 상승폭을 반납하고 하락전환했다.IB(기업금융) 업계에 따르면 다올투자증권은 삼일PwC를 주관사로 선정하고 국내 금융사 등 인수 후보자를 대상으로 다올인베스트먼트 인수 의사를 살피고 있다. 다올투자증권은 보유하고 있는 다올인베스트먼트의 지분 52%에 대해 2000억원 이상 수준에서 매각을 희망하고 있는 것으로 알려졌다.지난 1981년 설립된 다올인베스트먼트의 전신은 KTB네트워크다. 국내에선 '1세대 VC'란 평가를 받고 있다. 배달의민족(우아한형제들)과 토스(비바리퍼블리카) 등 유니콘 기업에 투자하며 인지도를 높였다.이번 매각은 부동산 프로젝트파이낸싱(PF) 채무불이행 사태로 PF 자금 시장이 경색되고 그룹의 유동성이 부족한 상황에서 핵심 자회사를 매각해 유동성 위기를 극복하고 시장의 우려를 불식시키기 위해서다.최근 다올투자증권은 해외 현지법인을 매각하거나 임직원을 대상으로 희망퇴직을 받는 등 강도 높은 비용절감에 나서고 있다. 앞서 다올투자증권은 유동성 확보를 위해 태국법인 '다올 타일랜드' 매각에 나선 바 있다. 매각 희망가는 1000억원 수준으로 알려졌다. 다올 타일랜드는 국내 금융투자회사가 유일하게 태국에 보유한 현지법인이다.이외에도 임직원을 대상으로 지난달 28일까지 희망퇴직 신청을 받기도 했다. 이번 희망퇴직은 지난 2013년 이후 약 9년 만이다. 영업을 제외한 경영 관련 직무의 상무급 이상 임원 전원은 사직서를 제출한 상태다. 조직 정비 후 경영 상황에 맞춰 임원을 재신임하겠다는 계획이다. 수요가 적은 서비스에 드는 비용을 줄이기 위해 웹트레이딩서비스(WTS)도 내년부터 종료한다.다올투자증권 관계자는 "추가적인 유동성 확보를 통해 불투명한 금융시장에 선제적으로 대응하고 시장 우려를 조기에 불식시켜 신뢰회복과 함께 중장기적 사업안정성을 확보하기 위해 노력할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2022.12.04.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>SK온 기업가치 22조...SK이노·LG전자보다 시총 높아</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000041678?sid=105</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>최영찬 SK온 경영지원총괄(오른쪽)과 김흥수 현대차그룹 기획조정실 EV사업부장이 지난달 29일 서울 종로구 SK서린사옥에서 ‘북미 전기차 배터리 공급 협업’ 양해각서를 체결하고 있다.비상장사인 SK온의 시가총액이 약 22조원에 달하는 것으로 나타났다. LG에너지솔루션과 삼성SDI 등 국내 전지 3사 중 시총 규모는 가장 낮지만, 비상장사 중에서는 현대오일뱅크와 토스(비바리퍼블리카)보다 앞선 1위일 전망이다. SK온의 시가총액은 상장사 중에서는 코스피 시총 기준 14위인 삼성물산(21조9592억원)보다 높은 수준이다.SK온은 지난달 30일 한국투자프라이빗에쿼티와 이스트브릿지파트너스 컨소시엄과 유상증자 주주간 계약 및 신주 인수 계약을 체결했다고 밝혔다. 투자금액은 6953억원이며, 최대 1조3200억원까지 확대될 수 있다.이들은 비상장사인 SK온의 주당 가액을 5만5000원으로 산정했다. 이를 SK온의 발행 주식으로 환산하면 22조원에 달한다.비상장사는 상장사와 달리 시가총액을 알기 어렵다. 시가총액은 회사의 경제적 크기 또는 기업가치를 의미하는데, 상장사는 주식시장에 상장된 주식을 시가로 평가한 총액을 의미한다. 주식가액과 발행주식을 곱해서 시가총액을 책정할 수 있다. 상장사는 시가총액을 쉽게 확인할 수 있지만, 비상장사는 그렇지 않다. 비상장사의 시가총액을 알기 위해서는 별도의 방법을 통해 기업가치를 평가해야 한다. 비상장사의 기업가치를 평가하는 방법으로는 절대가치 평가방법과 상대가치 평가방법이 있다. 절대가치 평가방법은 미래현금흐름의 현재가치 할인모형(DCF)이 있으며, 상대가치 평가방법으로는 유사한 사업을 하는 상장사의 주가를 비교 대상으로 삼아 책정한다.비상장사의 경우 합병 또는 유상증자 시 1주당 발행가액을 결정하는데, 이를 위해 회계법인이 기업가치 평가가액을 산정한다. SK온 또한 이번 유상증자를 위해 회계법인을 통해 기업가치를 평가받았다. 이렇게 확인받은 주당 평가가액이 5만5000원으로 결정됐으며, 발행주식 4억주를 환산해 22조원에 달하는 기업가치를 확인할 수 있었다. SK온의 시가총액은 국내 전지3사보다는 낮은 수준으로 집계됐다. 2일 기준 LG에너지솔루션의 시가총액은 136조6560억원(주당 58만4000원)으로 평가됐다. 삼성SDI는 49조3729억원(주당 71만8000원)이다. 코스피에 상장된 LG에너지솔루션과 삼성SDI는 시가총액 기준 2위와 6위 기업이다.SK온의 시가총액은 LG에너지솔루션보다 약 6배 작고, 삼성SDI보다는 2배 작다. 두 회사 모두 주식시장에 상장돼 매일 같이 주식거래를 통해 투자자들의 평가를 받고 있다. 배터리 시장에 대한 투자자의 기대감과 앞으로 발생할 현금흐름에 대한 기대감이 모두 반영된 결과이다. 이런 점을 고려했을 때 SK온은 이들 회사보다 저평가받았을 수 있다.그럼에도 SK온의 시가총액 규모는 상당히 크다. 올해 SK온의 3분기 누적 매출은 4조7421억원, 영업손실은 7346억원을 기록했다. 올해 예상 매출은 7조원을 넘어설 전망이며, 내년 중 흑자 전환이 유력할 전망이다. SK온은 글로벌 전기차 기업인 포드와 현대차를 상대로 배터리 출하량이 늘고 있고, 누적 수주잔고만 200조원 후반대일 것으로 전망된다.배터리 생산능력 또한 공격적인 설비 투자를 통해 매분기 늘고 있고, 기수주 물량의 매출 전환을 통해 매출 또한 빠르게 늘어날 전망이다. SK온의 기업가치에는 회사가 창출할 미래 실적에 대한 기대감이 반영됐을 것으로 보인다. 현재 경영실적 대비 기업가치가 적절하게 평가됐다는 게 업계의 분위기이다.SK온의 시가총액은 기아(26조9567억원)와 포스코홀딩스(24조9485억원), 카카오(25조3396억원)보다 낮은 수준이다. 하지만 삼성물산(21조9592억원)과 KB금융(21조4262억원), 현대모비스(20조1299억원)보다 높은 수준이다. 포스코케미칼(16조6159억원)과 LG전자(15조8084억원)의 시가총액보다 SK온의 시가총액이 더 높게 평가됐다. LG전자는 세계 1위 가전업체이며, 3분기 누적 매출은 61조6098억원(영업이익 3조4817억원)이다. LG전자의 실적과 기업가치를 고려하면 SK온의 기업가치가 상당히 높게 평가받은 것을 알 수 있다.SK온의 시가총액은 모기업인 SK이노베이션(16조890억원)보다 약 5조9000억원 높게 평가됐다. 향후 SK온이 상장할 경우 SK이노베이션은 기업가치 할인 효과가 상당히 클 것으로 예상된다. SK이노베이션의 주가에는 SK온의 기업가치가 반영됐기 때문이다. SK온은 늦어도 2026년 말까지 주식시장 상장을 약속했다. 남은 기간 동안 배터리 산업에 대한 시장의 높은 기대감이 얼마나 지속될지에 따라 SK온의 기업가치는 달라질 전망이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2022.12.05.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>사실상 대출업인 소액후불결제(BNPL)…네‧카‧토, 건전성 문제 없나</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000035549?sid=101</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>소액후불결제 이용액 계속 느는데...피해 방지 방안 부재"대손 충당금 적립 규제 등 정부 차원 리스크 관리 필요해"     (왼쪽부터) 네이버페이, 카카오페이, 토스 CI [사진 각 사]    네이버파이낸셜·카카오페이·토스를 중심으로 국내 소액후불결제(BNPL) 서비스가 성장을 거듭하면서 업체들의 건전성 관리에도 관심이 쏠린다. 후불결제는 사실상 대출업이나 마찬가지지만 금융당국의 규제를 적용받지 않고 있다. 이에 업체들의 연체율 관리가 부실할 경우 리스크가 커질 수 있다는 우려가 나온다.      5일 업계에 따르면 국내 소액후불결제 선도 업계인 네이버파이낸셜과 카카오페이, 토스 3사의 소액후불결제 이용액은 지난 6월 202억5940만원에서 8월 281억8000만원으로 두 달 만에 39%가 증가했다.      소액후불결제 서비스는 핀테크 사업자가 소비자에게 무이자로 상품 대금을 분할해서 낼 수 있게 해주는 서비스다. 여신전문금융업 라이선스 없이도 고객에게 소액의 신용 한도를 부여해 향후 결제할 수 있게 했다. 다만 신용위험 평가·한도 관리·건전성 유지 등의 별도 기반이 없이 시작된 사업이라 위험성에 대한 우려는 끊이지 않는 상황이다.      최근 글로벌 1위 소액후불결제업체 클라르나의 기업가치가 폭락하며 수익성에 대한 의문도 제기된다. 클라르나는 1년 사이 기업가치가 85% 넘게 하락했으며 올해 상반기 순손실은 5.8억 달러로 전년 동기 대비 3배 이상 확대됐다. 박용대 미래에셋증권 애널리스트는 클라르나의 기업가치 평가 하락이 “금리 인상과 경기침체 우려 등 어려운 매크로 환경과 연체율 상승, 자금 조달 비용 증가 등으로 성장 기대감이 떨어지고 있기 때문”이라고 분석했다.       [사진 게티이미지뱅크]       이에 업계에서는 국내 소액후불결제서비스 업체들의 결제 대금 연체율이 증가하고 현재와 같은 금리 인상 기조가 이어질 경우 서비스 지속성에 대한 위협이 커질 수 있다고 전망한다. 이런 리스크를 대비해 최대 30만원의 후불결제 서비스 이용이 가능한 네이버페이는 후불결제 연체 관리 전담 부서를 개설해 대응하고 있다.    네이버파이낸셜 관계자는 “네이버페이 이용 과정에서 거래 패턴이 이상하다고 판단되면 처음부터 후불 결제 이용 심사를 통과하지 못할 수도 있고 환금성이 있는 귀금속이나 상품권 같은 종류는 후불 결제 이용을 못 하게 돼 있다”며 “부당 행위를 하는 사용자는 이용 정지 같은패널티도 적용하고 있다”고 밝혔다.      이어 “대손충당금을 쌓아 가면서 서비스를 하고 있으며, 후불 결제금을 연체한 사용자한테는 지속적으로 알림을 보내는 등의 시스템을 갖추고 있다”고 말했다.    토스는 후불 결제 금액을 납부하는 납입일 이전에 미리 사용자에게 연체 위험을 고지한다. 자동 납부금이 빠져나가야 하는 계좌에 해당 금액이 없으면 알리는 방식이다.      토스 관계자는 “납부일 전이라든지 연체가 일어난 후에도 사용자한테 알림을 통해 연체 금액을 납부할 수 있도록 하는 시스템을 갖추고 있다”며 “한도가 최대 30만원이지만 연체가 일어난 이용자의 경우 다음 달에 후불 결제할 수 있는 금액을 낮추는 식으로 관리하고 있다”고 밝혔다.      카카오페이는 네이버페이나 토스와 달리 쇼핑이 아닌 후불 교통카드 서비스에만 후불결제 시스템을 적용했다. 결제 한도도 월 최대 15만원이다. 카카오페이 관계자는 “후불 교통카드라 연체가 발생하는 일은 많지 않다”고 말했다.    하지만 빅테크 기업들의 자구책에도 이들이 사실상 소액 대출업을 하는 만큼 정부 차원의 규제가 필요하다고 보는 지적도 나온다.      서지용 상명대 경영학부 교수는 “그동안 혁신금융이라는 명목으로 사실상 대출과 다름없는 서비스를 했는데 관리가 잘 안 됐던 것은 사실”이라며 “유사금융업을 하고 있는 기업들이기에 금융감독원 규정을 적용받는 것이 맞다”고 말했다.      또 서 교수는 “(빅테크사가) 대손충당금 적립을 하게끔 정부가 규제할 필요가 있다”며 “경기가 좋지 않고 금리가 올라가는 상황에선 원리금 상환 능력이 많이 떨어지기 때문에 제도 개편을 통한 정부의 리스크 관리가 필요할 것”이라고 강조했다.      한편 지난 11월 29일 국회 정무위원회 법안심사소위원회에서는 후불결제 서비스에 신용카드와 동일한 여신전문금융업법 기준을 적용하는 규제가 담긴 전자금융거래법(전금법) 일부 개정안이 논의됐다. 해당 개정안에 대해서 전자금융거래업계는 과도한 제약이라고 반발하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2022.12.06.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>당정, 내년 2월부터 빅테크 간편결제 수수료 공시키로</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005381684?sid=101</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>서민 취약계층 금융부담 완화 대책상위 10개사 결제규모 작년에만 106조영세 온라인가맹점에 10%안팎 수수료공시 통해 수수료 자율인하 유도 기대[이데일리 이미나 기자][이데일리 서대웅 기자] 당정은 온라인 영세가맹점에 10% 안팎 수준으로 책정되는 빅테크 간편결제 수수료를 내년 2월부터 6개월마다 공시하기로 했다.국민의힘과 금융위원회, 금융감독원은 6일 국회에서 ‘서민 취약계층 금융부담 완화대책 당정 협의회’를 열고 이 같은 계획을 내놨다. 당정은 소상공인이 부담하는 수수료를 항목별로 구분해 투명하게 관리하고 경쟁을 촉진해 민간 자율로 적정 수수료율을 책정하도록 유도할 필요가 있다는데 뜻을 모았다.공시 대상은 월평균 간편결제 규모가 1000억원 이상인 상위 10개사다. 네이버페이(법인명 네이버파이낸셜), 쿠페이(쿠팡페이), 카카오페이, 스마일페이(G마켓), SK페이(11번가), 배민페이(우아한형제들), 페이코(NHN페이코), SSG페이(SSG닷컴), 토스페이(비바리퍼블리카), L페이(롯데멤버스) 등이 대상이다.이들 업체는 간편결제수수료를 결제수수료와 기타수수료를 나눠 공시해야 한다. 결제수수료는 카드수수료, 결제업무 수수료, 마진 등을 모두 포함한 결제서비스 관련 수수료다. 일반관리 비용, 시스템 구축 비용, 위험관리 비용 등 원가는 공개하지 않는다.기타수수료는 결제수수료를 제외한 수수료로, 이 역시 원가는 공개하지 않는다. 기타수수료 원가엔 호스팅사 지급, 이커머스 입점, 프로모션, 영업대행, 주문서 생성, 판매·배송 관리, 고객센터 운영, 매출분석 서비스, 리뷰 서비스 등 비용이 포함된다.당국은 연내 가이드라인을 확정하고 내년 2~3월 중 최초 공시한 이후 반기별로 공시하도록 할 계획이다. 첫 공시자료에 대해선 공시 적정성과 정확성을 담보하기 위해 회계법인 확인을 받도록 할 방침이다.당정이 빅테크 간편결제 수수료 공시에 나선 것은 간편결제 규모가 커지고 있는 가운데 온라인 소상공인의 수수료 부담이 가중되고 있다고 판단했기 때문이다. 종합쇼핑몰에서 영세가맹점은 총 8~12% 수준의 수수료를 부담하고 있다.상위 10개 업체의 지난해 간편결제 거래 규모가 총 106조원인 점을 감안하면, 소상공인들이 연간 부담하는 수수료는 10조원 안팎 수준으로 분석된다.하지만 빅테크들은 온라인 가맹점과 계약 체결 시 수수료를 종류별로 구분하지 않아 ‘깜깜이 수수료’라는 지적이 많았다. 대출받을 때를 예로 들면 기준금리(지표금리), 가산금리, 우대금리를 별도로 안내해 금리 상승 명목을 대략적이나마 알 수 있도록 한 장치가 전혀 없는 것이다.영세가맹점이 부담하고 있는 수수료(8~12%) 가운데 결제수수료가 1~3% 수준이고 나머지 7~11%가 기타수수료 명목으로 부과되고 있다.수수료를 결제수수료와 기타수수료로 구분 공시하면 자율 경쟁을 통해 수수료가 낮아질 것으로 당정은 기대하고 있다.앞서 금감원은 ‘전자금융업자 수수료 구분관리 및 공시 가이드라인’ 행정지도 사전예고했으며 오는 30일 시행할 계획이다. 행정지도에 따르면 우선 선불 충전금 서비스(선불전자 지급수단 발행업), 온라인에서 카드사와 가맹점주를 연결해주는 서비스(전자지급결제대행업) 등을 제공하는 전자금융업자는 결제 규모와 관계없이 12월30일부터 수수료를 결제수수료와 기타수수료로 구분해 받고 관리해야 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2022.12.01.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>토스뱅크, ‘크리스마스 선물 상자’ 이벤트 실시</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002770095?sid=101</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>최대 18만원 상당 혜택…2023명에 5만원 선물 지원금토스뱅크가 현대백화점그룹 멤버십과 함께 이벤트를 진행한다고 밝혔다. 토스뱅크 제공    토스뱅크는 현대백화점그룹 멤버십 'H.Point'와 함께 '크리스마스 선물 상자' 이벤트를 진행한다고 1일 밝혔다. 오는 24일까지 이어지는 이번 이벤트는 고객이 '토스뱅크 모으기'에 매일 돈을 입금하면 하루에 하나씩, 24일 동안 총 24개의 선물 상자를 받을 수 있다. '모으기'에서 '크리스마스 선물 상자'를 만들고 매일 최소 1000원 이상 저금하는 고객에게 현대백화점그룹의 다양한 할인 쿠폰 등 최대 18만원 상당의 혜택을 제공한다. 혜택은 전국 현대백화점 16개 지점, 현대아울렛 8개 지점을 비롯해 온라인쇼핑몰인 Hmall 등 현대백화점그룹 계열사에서 사용할 수 있는 H.Point 및 할인쿠폰이다. 이 가운데에는 유명 스포츠 브랜드, 프리미엄 화장품 브랜드는 물론 문화, 여행, 식품 등 고객의 니즈를 고려한 혜택들이 포함될 예정이다. 아울러 해당 이벤트 참여해 24개의 모든 선물 상자를 연 고객 2023명을 추첨해 25일 5만원의 선물 지원금을 지급한다.토스뱅크는 이번 이벤트를 기획하며 중도 참여 고객도 배려했다. 전체 이벤트 기간(12/1~24) 중 14일까지 '크리스마스 선물 상자'에 참여할 경우, 지난 일자에 부여된 선물을 동일하게 받을 수 있다. 고객들은 지정된 날에, 매일 모을 수 있도록 설정한 금액만 이체하면 지난 날짜의 상자를 클릭해 선물을 획득할 수 있다. 자동이체에 실패한 고객 또한 같은 방법으로 선물을 받을 수 있다.'토스뱅크 모으기'는 만기조건이나 한도 제한 없이 금리혜택을 받을 수 있다. 고객들은 토스뱅크 통장의 잔액을 금고와 같은 보관 공간에 나누어 관리할 뿐, 원할 땐 언제든 돈을 넣고 뺄 수 있고 기간이나 한도 조건 없이 동일하게 연 2.3%(세전) 금리 혜택을 받을 수 있다.토스뱅크 관계자는 "연말을 맞아 저축과 소비라는 '금융생활'의 새롭고 즐거운 경험을 제공하기 위해 크리스마스 선물과 같은 느낌으로 이벤트를 선보이게 됐다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2022.12.01.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>얇아지는 내 지갑…경제에 질문 많다면 읽어볼까</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004824591?sid=103</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>[[서평] 경제의 질문들]/사진제공=북스톤GDP, 인플레이션, 이자율, 환율…경제용어와 이론을 알려주는 저작은 무수히 많다. 그 사이에서 경쟁력이라면 얼마나 알기 쉽게, 친절하게 말하느냐일 것이다. 전문가가 아니라 일반인과 학생이 독자라면 더 그렇다.저자 김경곤은 한국국방연구원 재정분석연구실 연구위원. 미국 콜로라도대학교에서 경제학 박사학위를 받고 이 대학 학부에서 거시경제학을 가르쳤다. 그는 "어려운 경제학 개념을 알기 쉽게 설명해준다"는 강의평가를 받았다고 한다.저자는 한국에 돌아와서는 2020년부터 객원교수로 경제학 강의도 하고있다. 신간 '경제의 질문들'은 그런 강의를 글로 옮겨놓은 듯하다. 그는 '토스'의 콘텐츠플랫폼 '토스피드'에서 '매일 뉴스에 나오던 그 단어'라는 제목으로 시리즈를 연재했고 이를 보완해 책으로 엮었다. 책은 뉴스에서 매일 접하지만 정작 내 지갑에 어떤 영향을 주는지 아리송했던 개념들을 정리해준다. 이를테면 명목이자율과는 다른 실질이자율은 '치킨'을 소재로 설명한다. 현재 치킨 값이 2만원이면, 100만원은 '50 치킨'이다. 1년 뒤 물가가 오르면 원금에 이자까지 합해도 100만원은 50치킨에 못 미친다. 이밖에 재정정책, 통화정책을 설명하고 정치와 호황, 중앙은행의 역할 관계도 다룬다. 저자는 "공포는 무지에서 온다"는 화두를 들었다. 경제학, 이론, 용어들에 관심은 많지만 경제학 수업을 한 번도 듣지 않은 이들을 핵심독자로 잡았다.◇경제의 질문들- 돈, 경제, 세상의 흐름을 알고 싶을 때/김경곤/북스톤/1만6000원</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2022.12.12.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>인터넷은행, 파킹통장 금리인상 경쟁</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004786344?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>토스뱅크, 최고금리 年 4%로케이뱅크는 기본금리 年 3%인터넷전문은행 토스뱅크와 케이뱅크가 하루만 맡겨도 쏠쏠한 이자를 받을 수 있는 수시입출식 파킹통장의 금리를 일제히 올리기로 했다. 토스뱅크는 최고 금리를 연 4%, 케이뱅크는 기본 금리를 연 3%로 인상한다. 금융당국의 수신금리 경쟁 자제령에 따라 한국은행 기준금리 인상에도 한동안 잠잠했던 인터넷은행들이 파킹통장으로 물밑 경쟁에 나선 것이다.토스뱅크는 수시입출식 예금인 ‘토스뱅크 통장’의 금리를 5000만원 초과분에 한해 연 4%로 올린다고 12일 발표했다. 5000만원 이하 금액에는 기존과 똑같이 연 2.3% 금리가 적용된다. 인상된 금리는 13일부터 적용된다. 토스뱅크는 정기적금인 ‘키워봐요 적금’ 금리도 13일부터 0.5%포인트 오른 연 4.5%를 적용하기로 했다.이번 인상에 따라 토스뱅크 통장은 5000만원 이상 목돈을 예치할수록 더 높은 금리 혜택을 누릴 수 있게 됐다. 가령 1억원을 넣어두면 5000만원까지 연 2.3%, 나머지 5000만원에는 연 4% 금리가 적용돼 실질 금리는 연 3.15%가 된다. 2억원을 예치할 경우 나머지 1억5000만원에 대해 연 4% 금리를 받을 수 있어 실질 금리는 연 3.58%로 더 올라간다.케이뱅크도 이날부터 파킹통장인 ‘플러스박스’의 금리를 기존 연 2.7%에서 연 3%로 인상했다. 기본 금리는 인터넷은행 3사 파킹통장 가운데 가장 높다. 케이뱅크는 내년 1월부터 매달 한 번 지급하던 플러스박스 이자를 소비자가 원하면 매일 받을 수 있는 ‘지금 이자받기’ 서비스도 시작한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2022.12.02.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>[단독]토스, ‘토스 USA’ 설립…인재 영입 목적</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005054701?sid=101</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>비바리퍼블리카(토스)가 미국 현지 법인을 설립하며 미국에 첫발을 내디뎠다. 현재는 우수 인재 영입이 목적이지만 장기적으로 글로벌 진출의 구심점 역할을 할 것으로 기대된다.2일 금융권에 따르면 토스는 지난 10월 4일 5만 달러(약 6500만원)를 들여 미국 시애틀에 해외 자회사 ‘토스 USA’를 설립했다. 이어 지난달 24일 5만 달러를 추가로 출자해 규모를 키웠다. 토스 고위관계자는 매일경제에 “미국에서 일하며 한국 본사와 협업할 인재들을 위해 현지에 자회사를 만들었다”며 “토스의 목표는 지구적인 영향력을 가진 글로벌 기업으로 국내, 해외를 막론하고 유능한 팀원들을 영입하며 성장할 계획”이라고 말했다.최근 경기침체와 긴축 여파로 트위터, 메타, 아마존 등 미국 빅테크 기업들을 중심으로 잇따라 수 만명 규모의 정리해고가 일어나고 있다. 이들 중 유능한 인력을 적극 포섭한다는 구상이다. 가족이나 언어 문제로 한국에 오기 어려운 사람도 현지 오피스를 통해서 채용이 가능하기 때문이다. 토스 본사 직원들이 미국에 가서 업무를 보기에도 용이하다.투자 빙하기에도 불구하고 지난 8월 시리즈G 라운드 투자유치를 통해 5300억원의 실탄을 확보한 토스는 최근 아마존 부사장 출신 인사 등을 C레벨 임원으로 영입하며 과감하게 확장에 나서고 있다. 하대웅 토스 최고제품책임자는 미국 아마존에서 최고제품책임자(부사장)를 지내다 왔고, 김규하 토스 최고사업책임자는 디지털 업무 솔루션 기업 서비스나우의 한국대표를 역임했다. 앞서 6월부터는 아마존 익스플로러 사업부에서 헤드 오브 파이낸스를 지낸 김주연 씨가 재무 계획 및 분석(FP&amp;A) 팀 리더로 있다.향후 토스 USA의 기능에 대해서 토스는 “정해진 게 아무 것도 없다”며 조심스러운 입장이다. 토스 고위관계자는 “토스 USA는 초기 단계로 현재로서는 인력 채용을 위한 목적이 전부”라며 “그 외 어떠한 계획이나 포부를 밝히기에는 매우 이른 상황”이라고 했다.다만 토스의 전략과 위상을 고려할 때 토스 USA는 중장기적으로 토스 글로벌 사업의 구심점 역할을 할 수 있다. 핀테크 업계 교류, 투자유치 등을 비롯해 북미 결제 시장 진출의 교두보 등으로 활용하는 식이다. 이승건 토스 대표는 그간 공·사석을 막론하고 여러 차례 “국내와 해외 모두에서 토스로 결제할 수 있도록 하는 게 목표”라고 밝힌 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2022.12.10.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>암울한 경제 흐름 속 내 ‘금융지능’ 높여줄 교양서-경제의 질문들</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003323832?sid=103</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>경제의 질문들-돈, 경제, 세상의 흐름을 알고 싶을 때/김경곤/북스톤/1만6000원뉴스 경제면에 좋은 소식이 올라온 게 언제였던가? 2025년까지 불황이 계속될 거라는 둥, 2008년 금융위기가 재현될 거라는 둥 우리나라는 물론 전 세계가 코로나19 경제충격의 여파를 겪는 중이다. 이렇게 경제가 어려울수록 경제 공부는 필수다. 내 돈을 지키려면, 나아가 돈을 모으려면 재테크 지식을 넘어 경제를 제대로 이해해야 한다.특히 거시경제에 대한 이해가 필수다.경제는 어떻게 성장하며, 인플레이션은 왜 발생하고, 경기는 왜 호황과 불황을 반복하는지 등과 같이 한 국가의 경제를 전체적인 시각에서 바라보는 관점을 갖추게 하는 것이 거시경제학이다.개인의 경제활동이 국가의 정책에서 자유로울 수 없으므로, 나의 자산을 키우고 관리하기 위해서는 거시경제학의 관점이 반드시 필요하다.문제는, 어렵다는 것이다.김경곤 한국국방연구원 재정분석연구실 연구위원은 신간 ‘경제의 질문들’에서 매일 뉴스에 오르내리지만, 내 삶에 어떤 영향을 주는지 아리송한 거시경제학의 주요 개념을 일반인의 눈높이에 맞춰 설명했다.김 위원은 미국 콜로라도대학교에서 경제학 박사학위를 받고 동대학 학부에서 거시경제학을 가르쳤다. 콜로라도대학교에서 그의 수업은 “어려운 경제학 개념을 알기 쉽게 설명해준다”는 평과 함께 늘 강의 평가에서 높은 점수를 받았다.‘경제의 질문들’은 김 위원이 한국으로 귀국 후 ‘토스’ 콘텐츠플랫폼 ‘토스피드’에 연재한 ‘매일 뉴스에 나오던 그 단어’ 시리즈를 보완해 엮은 책이다. GDP, 인플레이션, 통화정책, 재정정책, 환율 등 내 삶에 어떤 영향을 주는지는 조금 모호한 그 개념들이 알기 쉽게 정리돼 있다.이 책과 함께라면 거시경제학이라고 해서 어렵거나 머리 아플 거라 지레 겁먹을 필요 없다. 아무리 암울한 경제 뉴스를 접하더라도 필요 이상 두려워하지 않고 지혜롭게 대응할 힘이 생길 것이다.김경곤 한국국방연구원 재정분석연구실 연구위원저자소개 김경곤한국국방연구원 재정분석연구실 연구위원 및 한국외국어대학교 LD학부 객원교수. 주로 거시경제, 국제금융, 국방예산에 대한 연구를 하고 있다. 고려대학교 경제학과를 졸업하고 KAIST에서 경영공학 석사, 콜로라도대학교에서 경제학 박사학위를 받았다. 미국에서 학부생들에게 중급 거시경제학을 7학기 동안 가르쳤으며, 한국에서는 2020년부터 현재까지 경제학 강의를 해오고 있다. 콜로라도대학교에서 그의 수업은 “어려운 경제학 개념을 알기 쉽게 설명해준다”는 평과 함께 늘 강의 평가에서 높은 점수를 받았다. 경제학을 막연히 어려워하던 학생들이 그의 수업을 듣고 경제에 흥미를 갖게 됐다는 말을 최고의 보람으로 삼는다. 그때 느꼈던 보람을 다시 기대하며 이 책을 썼다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2022.12.10.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>"점술이 아니라 점술시장 믿어"…아무도 주목 안 한 시장에 뛰어든 이유</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003244985?sid=105</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>Editor's Note 아무도 주목하지 않는 점술 시장에 뛰어들어, 빠르게 성장하고 있는 스타트업이 있습니다. 역술인과 소비자를 잇는 ‘점술 상담 중개 플랫폼’ 천명입니다.이 회사는 2020년 창업 후 분기 평균 거래액이 2배 이상 늘고 있습니다. 현재 월 이용자는 45만 명 수준입니다. 지난 4월에는 토스·당근마켓 초기 투자로 유명한 알토스벤처스에서 50억 원 규모의 시리즈A 투자를 유치했죠. 천명이 점술 시장에 주목한 건 시장은 큰 데 딱히 선점한 곳이 없었기 때문입니다. 거기다 서비스에 불만을 가진 소비자가 많았죠. “실력 있는 역술인을 입점시켜 소비자의 페인 포인트(Pain  Point, 불편을 느끼는 지점)를 해결하면, 빠르게 유니콘이 될 수 있을 것”이라는 게, 유현재·전재현 공동대표의 생각이었다고 합니다. 물론 아직 넘어야 할 산이 많습니다. 점술 산업에 대한 사람들의 편견과 선입견이죠. 하지만 두 대표는 ‘점술을 믿느냐’는 질문에 “점술이 아니라 점술 시장을 믿는다”고 말했습니다. 직접 만나 자세한 얘기를 들어봤습니다.    ※ 이 기사는 ‘성장의 경험을 나누는 콘텐트 구독 서비스’ 폴인(fol:in)의 ‘선을 넘는 기획자들’ 3화 중 일부입니다.      천명앤컴퍼니 전재현(좌), 유현재 공동대표. ⓒ폴인, 최지훈      증권사 리포트 ‘없는’ 시장 찾다    Q : 아무도 주목하지 않은 시장에 진출했습니다. 왜 점술이었나요?     유현재: 이전에 창업했다가 시원하게 망했어요. 대학생들이 발표 자료로 사용한 PPT를 공유하는 플랫폼이었는데요. 아무리 열심히 해도 슬라이드 셰어·크몽같은 덩치 큰 플랫폼을 이길 수 없었죠. 그때 생각했어요.        빠르게 1등할 수 있는, 1등 하면 유니콘이 될 수 있는 시장을 찾자.        그래서 증권사 리포트가 '없는' 분야를 뒤졌어요. 그게 점술 상담 시장이었죠.      일단 빠르게 1등 할 수 있는 시장이었어요. 경쟁사가 없거든요. 아무도 뛰어들지 않았고, 앞으로도 그럴 것 같고요. 점술 상담 시장은 파레토 구조예요. 실력 있는 역술인 30%가 시장 전체 매출의 70%를 만들죠. 잘하는 선생님 30%만 모셔오면 시장을 선점할 수 있다고 생각했어요. 가능성이 보였죠.      전재현: 1등 하면 유니콘이 될 수 있을 만큼 시장 규모도 커요. 우리나라 점집은 편의점만큼 많거든요. 네이버와 카카오 맵에 등록된 점술 집·철학관이 1만 2천여 곳인데요. 통계에 따르면 역술인 72%가 사업자 등록을 안 했어요. 역산하면 전국에 4만 2천여 명의 역술인이 있다는 거죠. 이 숫자에 1인당 매출 평균을 곱하니 1조 4천억 원 규모라는 추정치가 나왔어요. 그래서 내린 결론이 이거예요.      우리 플랫폼에 잘하는 선생님 30%를 입점시키자. 그렇게 시장을 선점하면, 유니콘이 될 수 있다.       "실력 있는 역술인 30%를 입점시키면 유니콘이 될 수 있다"고 말하는 전재현 대표. ⓒ폴인, 최지훈     Q : 시장 규모와 가능성만 본 건가요?     유현재: 시장의 페인 포인트도 확실했어요. 점술은 인류의 유구한 역사잖아요. 그런데 수천 년간 음지에 있다 보니 드러나지 않은 문제가 산적해 있었죠. 소비자뿐 아니라 역술인에게도요.      우선 소비자는 '서비스 퀄리티'를 보장받을 수 없어요. 심각하게는 사기 문제가 있죠. '네 남편이 큰 사고를 당할 거다, 액운을 피하려면 당장 굿을 하라'며 거금을 요구하는 경우가 비일비재하듯요. 제 어머니도 당한 적이 있어요. 저를 서울대에 보내겠다고 3000만 원을 송금했는데 역술인이 잠적해버렸거든요.      만족스럽지 못한 상담을 받는 경우도 많아요. A/S도 잘 못 받고요. '부정 탈까 봐' 항의를 잘 안 하거든요. 점술인의 능력을 신뢰할 수 있는 인증체계도 없죠.      전재현: 역술인도 힘든 점이 있어요. 아무리 잘나가는, 소위 '용하다'는 선생님도 1년 후에 잘 될 거라는 확신을 갖기 힘들어요. 마땅한 홍보 채널도 없고, 오직 입소문에만 의존하는 시장이니까요. 단골손님도 확보하기 어려워요. 주로 인생의 중대한 결정을 내릴 때 점집을 찾기 때문에 한 번에 여러 곳을 비교하는 고객이 많거든요.        그러다 보니 유명세도 오래가지 않아요. 2015년 JTBC 프로그램 '이영돈 PD가 간다'에 출연해 유명해진 점집 두 곳이 있는데요. 이영돈 PD가 점집 100곳을 대상으로 '세 번의 테스트'를 했는데 그 두 곳만 통과했어요. 방송 직후 2년 치 예약이 밀렸죠. 그런데도 지금은 손님 발길이 뚝 끊겼어요. 역술인에게 '지속 가능성'에 대한 갈증이 있을 수밖에 없는 이유죠.     유현재 대표는 "점술 상담 시장의 페인 포인트도 확실하다"고 말했다. ⓒ폴인, 최지훈     Q : 페인 포인트를 어떻게 해결했나요.     전재현: 서비스 퀄리티를 높이기 위해서는 '신뢰할 수 있는', '실력 있는 역술인'을 찾는 게 중요했어요. '실력 있고 믿을 만 하다'는 게 직접 점을 보지 않고는 알 수 없잖아요. 처음에는 둘이 직접 점을 보러 다녔어요. 방문 목적을 밝히지 않고요. 상담을 받아보고는 그 자리에서 영입 여부를 결정했죠. 처음에는 플랫폼 이용 수수료율도 그 자리에서 논의했어요. 입점시키기 위해 첫 한두 달은 수수료를 안 받기도 했고요.      한번은 이런 일도 있어요. 저희 사주를 보더니 '사업하면 대박 나겠다'며 '얼마나 잘 될지 궁금해서라도 입점하겠다'는 분도 있었죠. 반대 경우도 있고요(웃음).      유현재: 지금은 직접 찾아다니기보다 100명의 '소비자 검증단'을 운영해요. 저희 플랫폼에는 현재 1100여 명의 역술인이 입점해있는데요. 역술인이 입점 신청을 하면 3명의 소비자 검증단을 꾸려 무작위로 보내요. 이들이 모두 만족해야 입점할 수 있고요. 그런데 '용하다'는 게 객관적인 지표가 아니잖아요. 그래서 만족의 기준을 '지인에게 추천할 의향이 있는가'로 잡았어요. '용하다'고 느껴야만 지인에게 추천하니까요.      상담에 만족하지 못하면 A/S를 해줘요. 무료로 다른 역술인의 상담을 받을 수 있죠. 상담 후에는 평점과 리뷰를 남길 수 있도록 했어요. 부정 탈까 봐 솔직한 평가를 꺼리는 문제는 역술인이 평가 내용을 볼 수 없도록 만들어 해결했죠.       천명은 상담 서비스 만족의 기준을 '지인에게 추천할 의향이 있는가'로 잡았다. ⓒ폴인, 최지훈       역술인과는 상생할 수 있는 지점을 찾기 위해 노력해요. 천명의 주 비즈니스 모델은 결국 '플랫폼 서비스 이용(중개) 수수료'니까요. 시장을 발로 뛰며 그들이 합리적으로 받아들일 수 있을 만한 수수료율을 책정해나가요. 계속 업데이트하면서요.      실력 좋은 선생님과는 소속사처럼 전속 계약도 맺어요. 매장 인테리어도 바꾸고 어메니티·다과·명함까지 제공하죠. 말하자면 점술 계의 '미슐랭' '블루리본'이랄까요.          점술 산업에 대한 편견을 극복하기까지    Q : 두 분은 점술을 믿으시나요?     전재현: 저는 어릴 때부터 미션스쿨을 다녔어요. 그래서인지 어릴 때부터 종교와 철학에 관심이 많았어요. '점술을 믿냐'고 하면, 맹신하지는 않지만 보이지 않는 존재에 대한 믿음은 있다고 해야 할까요.      저희 둘 궁합은 안 봤어요. 둘이 보는 게 어색하기도 하고, 안 좋은 소리 들을까 봐 걱정됐어요. 당사자들은 웬만하면 결혼 전에 궁합 안 보잖아요. 그런 거 아닐까요(웃음).      유현재: 저는 '무신론자에 가까운 불가지론자'예요. 인식할 수 있는 범주에는 신이 없지만, 저의 인지 범위 밖에는 신이 '있을 수도' 있다. 그렇게 생각하고 있습니다.       "점술이 아닌 점술 시장을 믿는다"고 말하는 유현재·전재현 공동대표. ⓒ폴인, 최지훈       저희가 점술을 믿는지 안 믿는지는 그리 중요하지 않아요. 시장의 어두운 부분을 정화하고 혁신해 유니콘이 되겠다는 미션은 종교적 신념과 무관하니까요. 점술이 아닌 점술 시장을 믿는 거죠. 점술 상담만이 가진 '대체 불가한 가치'를 믿고요.      Q : 어떤 가치요?     유현재: 미래에 대한 고민을 해결해줄 수 있는 건 점술 상담밖에 없어요. 심리 상담도 특정 분야의 컨설팅도 친한 친구도 해결해 줄 수 없는 내밀한 문제들이 있잖아요.        저희 사례를 들어볼게요. 지난 4월 알토스벤처스에서 첫 투자를 받았는데요. 투자 유치까지 정말 힘들었어요. 5개월 동안 20번 넘게 줄줄이 거절당했거든요. 거절 사유의 99%가 '팀도 지표도 전망도 좋은데… 미안'이었어요. 편견의 벽 앞에 서니 정말 답답하더라고요. 둘이 술도 많이 먹었어요(웃음). '이러다가 3개월 뒤에 망하면 어떡하지?' 생각하니 잠도 안 오더라고요.      그때 우연히 유튜브에서 타로점을 봤어요. 5개 카드 중 하나를 고르면 결과 풀이를 해주는 거였는데요. 저에게 '다음 주 뜻밖의 큰 행운이 찾아온다'는 거예요. 공교롭게도 그다음 주가 알토스벤처스 첫 IR이었어요. 그래서인지 그 한마디가 그렇게 힘이 되더라고요. 친구나 가족에게 털어놓아도 풀리지 않던 답답함이 조금 가셨고요. 그래서 더 이 악물고 준비할 수 있었어요. 결국 첫 투자를 받았고요.    Q : 알토스벤처스가 투자한 이유는 뭘까요?     (후략)    더 많은 콘텐트를 보고 싶다면          평소 금기시 되는 영역을 콘텐츠 혹은 서비스로 기획해 새로운 트렌드를 만든 사람들이 있습니다. 이들은 어떻게 ‘선 넘는’ 상상을 비즈니스로 연결했을까요? 영감을 얻는 방법과 아이디어를 구체화하는 과정, 고객들의 호응을 얻은 노하우를 소개합니다.    지금 '폴인'에서 확인해 보세요</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2022.12.15.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>빅테크 대적해 카드사 뭉쳤다…'오픈페이' 첫발 뗐다</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004829595?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>KB국민카드의 'KB페이' 앱에 하나카드를 등록한 화면(사진 왼쪽)과 하나카드의 '원큐페이' 앱에 KB국민카드를 등록한 모습(사진 오른쪽)/사진=박광범 기자네이버페이와 카카오페이 등 빅테크(대형IT기업)의 간편결제 서비스에 대응하기 위한 카드사들의 공동 간편결제 서비스 '오픈페이'가 첫발을 뗐다.15일 카드업계에 따르면 KB국민카드와 하나카드는 이날부터 오픈페이 시범서비스에 들어갔다. 정식 서비스에 앞서 카드사 간 결제 시스템 연동 등이 제대로 작동하는지 점검하는 일종의 베타테스트 성격을 띤다.오픈페이는 은행권의 오픈뱅킹과 유사한 개념이다. 카드사 앱(애플리케이션) 하나만 설치하면 여기에 다른 카드사 카드를 등록해 간편결제 때 사용할 수 있다. 예컨대 KB국민카드의 'KB 페이'앱에 하나카드에서 발급한 카드를 등록해 사용하는 식이다.KB국민·하나카드에 이어 신한카드가 오는 22일 오픈페이를 출시할 예정이다. 나머지 카드사들도 순차적으로 서비스를 개시한다. 각 카드사는 마지막 테스트 과정을 거쳐 서비스 출시 일정을 최종 조율 중이다. 롯데카드는 내년 2월, 우리카드는 내년 1분기 중 서비스를 시작한다는 목표다. 현대카드와 BC카드, NH농협카드도 내부 조율을 거쳐 향후 출시 시기를 확정할 예정이다.카드사들이 '결제 동맹'을 맺은 건 가파르게 성장하고 있는 간편결제 시장에서 빅테크 점유율이 갈수록 높아지고 있기 때문이다.한국은행에 따르면 올해 상반기 모바일기기 등을 통한 결제는 하루 평균 1조3000원으로, 전년 동기 대비 12.6% 늘었다. 이중 카드 기반 간편결제 서비스를 이용하는 비중은 45.1%에 달했다. 1년 전(41.4%)보다 비중이 4.1%P(포인트) 커졌다.특히 카드 기반 간편결제 서비스 중 네이버페이와 카카오페이, 토스 등 핀테크 기업이 제공하는 서비스를 이용한 비중은 66%에 달해 카드사(34%)를 압도했다. 이 비중은 지난해 상반기 63%, 지난해 하반기 65%에서 더 확대됐다.다만 오픈페이는 도입 초기 '반쪽'짜리 서비스로 운영될 것으로 보인다. 카드사들이 동시에 서비스를 출시하지 못하면서다. 실제 다음주 신한카드가 오픈페이를 시작하더라도 한동안은 신한카드, KB국민카드, 하나카드 고객만 오픈페이 서비스를 누릴 수 있다.여기에 당초 오픈페이 참여를 망설였던 현대카드와 우리카드의 참여를 이끌어내긴 했지만, 삼성카드는 여전히 시장 상황을 고려해 검토 중이다. 그룹 핵심인 삼성전자 갤럭시 스마트폰의 '삼성페이'가 있는 삼성카드는 현재 삼성 금융계열사 통합 앱 '모니모'에 집중하고 있는 모양새다.한 카드사 관계자는 "오픈페이가 출시되면 카드사들의 앱 서비스가 확대되고, 간편결제 시장에서의 경쟁력도 높아질 것"이라면서도 "다만 기존 삼성페이나 빅테크 앱을 이용하는 소비자들을 오픈페이로 끌어들일 만한 경쟁력을 보여줄 수 있느냐가 오픈페이 성공의 키가 될 것"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2022.12.15.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>“유니콘 아닌 낙타 같은 스타트업이 뜬다”</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005060813?sid=101</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>라자로 플루언트벤처스 파트너“한국 스타트업 생태계에 변곡점”“현장 문제 해결하는 기업이 주목받아” 라자로 플루언트벤처스 파트너“실리콘밸리는 실리콘밸리이고, 서울은 서울이죠. 이미 많은 성공을 거둔 스타트업들이 나온 한국에서 더 많은 뛰어난 스타트업들이 나올 거라고 저는 생각합니다.”알렉산드르 라자로 플루언트벤처스 파트너는 최근 매일경제신문과 가진 인터뷰에서 이렇게 말했다. 그는 코로나 사태가 한창이던 2020년에 자신의 저서 ‘스타트업웨이브’ 등을 통해 “실리콘밸리를 중심으로 한 유니콘의 시대는 끝났다”라는 주장을 펼쳤던 인물. 대신 그는 전 세계 각지 현장에서 문제들을 해결하며 끈기 있게 버티는 ‘낙타’와 같은 스타트업들이 더 주목받을 것이라고 주장했었다. 이런 생각을 바탕으로 그는 기업가치 1조원 이상의 전 세계 스타트업 7곳에 투자하기도 했다.2년이 지난 지금 그는 인터뷰를 통해 ‘유니콘보다 낙타’와 같은 스타트업이 앞으로도 더욱 주목받을 것이라고 강조했다. 사막과 같이 열악한 현장에서 물 없이 버텨가면서 자신만의 창의적 방법으로 문제들을 해결해 나가며 진화하는 기업들이 바로 그런 ‘낙타’들이다. 그는 ‘낙타’의 사례들로 핀테크 기업들 중에서는 브라질의 ‘누뱅크’, 터키의 ‘파파라’, 멕시코의 ‘쿠세키’, 한국의 ‘토스’ 같은 곳들을 꼽았다. 모두 인터넷 모바일 금융기업들이지만 각 나라의 상황에 맞게 현장의 문제들을 해결해 나가며 각자의 방식으로 발전해 나가고 있는 곳들이다.그는 ‘실리콘밸리’와 같은 공간에서 전 세계 모두를 호령하는 기업이 탄생했던 과거와 같은 성장 이야기가 더 이상 유효하지 않다고 말했다. 대신 현장의 독특한 문제들을 풀면서 자신만의 성장 스토리를 써 나가는 기업들이 더 등장할 것이라고 했다. 특히 현재 등장한 모든 IT 기술과 글로벌 인재 들을 총동원해 뛰어난 방식으로 문제를 푸는 기업들이 더 많이 나올 것이라고 전망했다. 이를 위해서는 최근 등장하고 있는 인공지능 클라우드 기술과 코로나 사태 이후 전 세계 인재들과 함께 원격으로 일하기 좋아진 환경 등을 활용하는 것이 중요할 것이라고 그는 전했다. 라자로 파트너는 이런 전략들을 잘 채택해 나가고 있는 스타트업들이 한국에서 이미 많이 등장하고 있다며 더 많은 스타트업들이 성장하길 기대한다고 말했다.그는 이런 생태계를 발전시켜 나가기 위한 정부의 역할을 묻자 이렇게 답했다. “하향식 발전 전략은 위험하다고 생각합니다. 대신 현장에서 문제들을 풀고 있는 기업들의 성장을 장려하는 생태계를 계속 키워나가는 것이 중요하다고 봅니다. 이미 한국은 선순환으로 진입하는 변곡점을 지났습니다.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2022.12.05.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>닭날개부터 자동차까지 내렸다...인플레 정점 지났나</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005187170?sid=104</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>서비스 인플레 둔화가 관건[이미지출처=연합뉴스]닭날개부터 자동차, 아파트 임대료에 이르기까지 물가 상승률 둔화세가 뚜렷해지고 있다. 지난해 글로벌 공급망 붕괴 여파로 1년여간 이어진 고물가가 억눌리기 시작했지만, 임금 인상 여파로 서비스 물가 상승 흐름이 굳어지면서 추세적 하락으로 접어들기까지는 시간이 더 필요할 전망이다.4일(현지시간) 워싱턴 포스트(WP)에 따르면 계절적 수요 감소 속 공급량이 늘어나면서 올 초 사상 최고치를 찍었던 닭고기 가격이 지난 5월 대비 최근 20%까지 떨어졌다.  미 중고차 가격 동향을 추적하는 만하임 지수에 따르면 지난달 중고차 도매가격은 올 1월 대비 15% 하락했다. 방 2개짜리 아파트의 전국 평균 임대료 상승률은 8.1%로 지난해 4월(14.6%) 대비 크게 둔화됐다. 안테모스 조지아데스 점퍼 최고경영자(CEO)는 "부동산 임대 시장이 빠르게 식고 있다"며 "내년에는 가격 하락폭이 더 커질 것"이라고 전망했다.  물가 상승세가 정점을 지나 둔화되고 있다고 볼 수 있는 지표들도 속속 발표되고 있다. 미 연방준비제도(Fed·연준)이 '가장 정확한 물가 지표'로 삼고 있는 근원 개인소비지출(PCE) 지수는 전년 대비 5% 올라 9월(5.2%)보다 상승폭이 작아졌다. 지난달 10일 발표된 미국의 10월 소비자물가지수(CPI) 상승률도 올 1월 이후 최저치인 7.7%로 둔화됐다. 변동성이 큰 식품·에너지를 제외한 근원 CPI는 글로벌 공급망 혼란이 정점에 달했던 올 2월 12.3% 대비 10월 5.1%로 떨어졌다.물가 상승 동력의 한 축이었던 운임이 떨어진 것도 물가 향방에 영향을 줬다. 온라인 화물운송 가격 서비스업체인 프레이토스에 따르면 1FEU(40피트 길이 컨테이너 1개)당 중국발 미 서부행 해상 운임은 1935달러로, 정점을 찍었던 지난해 9월 2만586달러 대비 90% 이상 급감했다.장기간 이어진 글로벌 공급망 혼란 속 비정상적으로 쌓여있는 재고를 원자재 비용·운임 하락을 기회로 시장에 대거 풀면서 상품 가격 하락세는 당분간 이어질 전망이다. 금융 리서치 회사 TS롬바드의 수석 이코노미스트 스티븐 블리츠는 "최악의 인플레이션은 지났다"며 "인플레이션이 어느 지점에서 안정화되느냐가 관건"이라고 말했다. 전문가들은 다만 서비스 물가 상승률의 둔화에는 상당 시간이 필요할 것으로 보고 있다. 제조업과 달리 서비스업에서 높은 임금상승률이 지속되고 있기 때문이다. 캐시 보스탄식 네이션와이드 수석 경제학자는 "상품 가격 하락세는 당분간 지속될 것으로 예상되지만, 서비스 인플레이션의 속도 둔화를 확인되기까지는 인내가 필요할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2022.12.06.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>한화손보, '모바일 전자증명서 제출 서비스' 오픈</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000313286?sid=101</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>[한화손해보험이 모바일 전자증명성 제출 서비스를 오픈했다.(자료 : 한화손해보험)]한화손해보험이 '모바일 전자증명서 제출 서비스'를 오픈했습니다.한화손보는 행정안전부의 정부 전자문서지갑을 연계해 '모바일 전자증명서 제출 서비스' 시스템을 구축하고, 고객이 보험업무에 필요한 종이 민원 증명서를 디지털 기반의 모바일 전자증명서로 대체 제출할 수 있는 서비스를 시작한다고 오늘(6일) 밝혔습니다.전자문서지갑은 행정·공공기관에서 발급하는 종이 민원 증명서를 암호화된 전자문서 형태로 발급받아 보관할 수 있는 클라우드 기반의 개인 저장소로, '정부24'와 같은 공공 앱은 물론, 민간 앱인 네이버·카카오·페이코·토스 등에서도 만들어 사용할 수 있습니다.이번 서비스 오픈으로 앞으로는 주민등록등본이나 가족관계증명서와 같은 민원 증명서 제출이 필요할 경우, 모바일앱에서 전자문서지갑을 통해 바로 한화손보로 전송을 요청하면 됩니다. 행정기관 방문, 서류 발급, 보험사 제출 등과 같은 번거로운 과정이 디지털화되고, 문서출력도 줄어드는 ESG(환경·사회·지배구조) 차원의 장점이 생겼다는 설명입니다.한화손보는 이 서비스를 현재 의료수급권자 할인신청, 지정대리청구인 지정과 같은 장기보험계약 변경업무에 적용하고 있으며, 향후 장기보험업무 전반 외에도 일반·자동차보험 관련 업무까지 확대할 계획입니다.한화손보 관계자는 "모바일을 연계한 디지털 트렌드 변화에 선제적으로 대응하고자 이번 서비스를 개발했다"며 "앞으로도 디지털 기반의 계약관리 서비스를 다양화해 고객 편익에 앞장설 것"이라고 말했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2022.12.08.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>[데스크가만났습니다]최지은 토스플레이스 대표 “이제 결제 단말기도 '아이폰 생태계'처럼”</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003064658?sid=101</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>최지은 토스플레이스 대표온라인 금융 플랫폼으로 출발한 토스가 단말기 제조업 자회사 토스플레이스를 통해 '오프라인' 영역에서도 비상을 준비하고 있다. 그 중심에 최지은 토스플레이스 대표가 있다.대형 컨설팅 기업 등 내로라하는 대기업을 다니다 토스로 이직한 이유에 대해 그는 이렇게 말했다. “움직이고 싶고, 살아있는 기업을 다니고 싶었다” 갈증이 있었다. 추상적인 자료바탕의 설명이 아닌 현장에서 뛰어다니고 싶은 사람이었다.토스플레이스는 자체 결제단말기 '터미널·프론트'를 통해 시장을 공격적으로 개척 중이다. 특히 파격적 단말기 보급 정책이 경쟁사들을 긴장하게 만들고 있다. 토스는 이 단말기를 단순 결제 용도로만 한정하지 않는다. 단말기 위에서 작동할 수 있는 가맹점주 대상 다양한 서비스를 준비하고 있고, 이를 위한 인프라 구축 차원에서 과감한 투자를 단행하고 있다.토스플레이스라는 회사는 '제조업'으로 분류되긴 하지만 전통적 의미의 제조업과는 차이가 크다. 오프라인 가맹점 대상의 기업고객(B2B) 서비스 산업의 영역으로 토스가 영역을 확장하고 있다고 보는 것이 적합한 해석이다.최 대표는 “토스플레이스는 아이폰 이용자들이 '앱'을 유료로 구입하는 것처럼 가맹점 사장님들이 돈을 주고 구매할 수 있는 킬러 콘텐츠를 갖추는 협업자가 되고 싶다”며 “ 기꺼이 지갑을 열만큼 완성도 높고 가치 있는 콘텐츠를 개발하는 것이 우리의 최우선 목표”라고 밝혔다.직접 그를 만나봤다.대담=길재식 디지털금융부 부장-토스플레이스의 창립 배경이 궁금하다.▲간편송금으로 시작한 토스는 고객이 가진 금융의 불편을 해소한다는 철학을 중시한다. 토스가 등장하면서 금융에 굉장히 많은 변화가 일어났다고 생각한다. 토스플레이스는 토스가 그동안 해왔던 모바일 환경에서의 금융혁신을 오프라인까지 확장하려는 시도다.대부분은 지금 온라인 시장만 보고 있는데, 금융은 온라인·오프라인 어느 한곳이 아닌 금융의 맥락에서 함께 고민해야 하는 영역이다. 오프라인은 사실 더 큰 규모의 시장이고 약간은 등한시된 측면이 있었다고 본다. 온라인 결제 시장이 커져서 150조~200조원 규모라고 하는데 오프라인 시장은 500조원 이상이다. 이 부분에 대한 고려 없이는 금융의 맥락이 포괄적으로 커버할 수 없다.500조원이라는 결제 규모 뒤에는 수백만 자영업자들이 있다. 자세히 들여다보면 폐업률도 높고 신체적으로도, 정신적으로도 궁지에 몰려 있는 사례들이 많다. 온라인에서 문제를 해결했던 것처럼 오프라인에서도 이러한 문제를 해결하고자 했다.-토스플레이스의 사업모델을 간단히 설명한다면.▲한 마디로 표현하면 토스플레이스는 B2B 서비스 회사다. 오프라인 매장의 결제 단말기 및 사장(가맹점주)과 접점을 기반으로 다양한 서비스를 제공할 예정이다.현재까지의 결제 단말기는 오직 '결제'만을 위한 기기였다. 이 때문에 사실상 무료에 가까운 정책으로 뿌려졌다. 디맨드(수요)가 없으니까 서플라이(공급)도 의미가 없다. 토스플레이스는 '어떤 콘텐츠가 탑재됐으면 좋겠다' 혹은 '어떤 서비스가 탑재됐으면 좋겠다'라고 하는 디맨드를 만들어낼 수 있었으면 한다. 이런 시장의 변화를 만드는 시작점이 되고자 한다.현재 시범 서비스(필드 테스트) 단계로, 내년 상반기 정식 론칭 이후 단말기 보급에 주력할 계획이다. 단말기가 시장에 정착되는 단계가 되면 이를 활용한 서비스를 선보일 수 있다. 매장 사장의 매장관리 솔루션부터 매장 마케팅 솔루션 등을 고려 중이다.아이폰과 같은 스마트폰 디바이스에 비유할 수 있다. 토스플레이스는 우선 단말기 보급에 힘쓰면서 이와 동시에 앱스토어의 애플리케이션(앱)처럼 다양한 서비스를 개발하고 제공하게 될 것이다. 단말기를 예의주시했던 이유도 이 때문이다. 하드웨어가 아니라 그 안의 서비스와 콘텐츠가 더 중요한 경쟁력이다. 다양한 서비스를 토스가 직간접적으로 탑재해서 제공하고, 시중에 나와 있는 훌륭한 서비스는 플랫폼화해 얹을 수도 있다. 이와 같은 측면에서 좋은 창구이자 그릇이 될 수 있다고 생각한다.-토스는 미래사업으로 개인신용평가(CB) 사업 등을 준비 중이다. 기존 밴(VAN), 결제지급대행사(PG) 등과 차별화 포인트는 무엇이고, 어떤 미래 사업을 준비 중인지.▲엄연히 말하면 CB 사업은 토스에서 준비 중인 사업으로, 토스플레이스와는 별개다. 또한 토스플레이스는 단말기 제조와 솔루션 사업을 하는 제조사로 밴, PG사와는 업태와 비즈니스가 다르다고 볼 수 있다.오프라인 매장 사장의 가장 큰 페인포인트(Pain Point)는 돈과 고객, 직원(채용)이라고 생각한다. 당장 우리가 직접 제공할 수 있는 요소보다는 다른 서비스업자를 활용할 수 있는 방법들이 있다.예를 들어 수많은 회원을 확보한 토스 앱이 있기 때문에 고객을 모아주는 역할에서 도움을 줄 수 있다. 또 결제 단말기를 통해 토스뱅크 상품으로 바로 연결되는 창구를 열어 줄 수도 있다. 은행을 가지 않고도 신청할 수 있는 신용대출, 부동산담보대출 혹은 매출에 기반한 대출 상품 등을 고려할 수 있다. 이는 토스플레이스가 매장 단말기를 통해 실시간 데이터를 확보하는 것이 가능하기 때문이다.토스뱅크의 경우 더 창의적으로 고안할 수 있는 모델이 많다. 마이너스통장과 신용카드 정산계좌, 대출, 법인카드가 다 하나로 연결된 계좌도 구현할 수 있을 것으로 본다.토스뱅크 입장에서는 신용카드 정산이 되니 수신 계좌에 잔액이 쌓이는 효과가 있고, 가맹점 입장에서는 한 계좌에서 모든 작업이 이뤄지기 때문에 관리가 굉장히 편해진다. 여기에 개인사업자 카드를 연결하면 어떤 것이 매장에서 발생하는 지출인지 혹은 사장의 개인적인 지출인지 구분, 이를 통한 신용분석도 가능하다.물론 아직 구체적인 사업제휴 모델이 만들어진 것은 아니다. 매장 사장과 지속적인 인터뷰(고객의 목소리)를 통해 구체적인 서비스 요구를 파악하고 제공해 나갈 예정이다.-애플페이의 국내 출시에 대한 시장 관심이 높다. 단말기와 애플페이 연계를 준비 중인지.▲애플페이와 연계는 내년 토스플레이스의 본격적인 사업 이후 점진적으로 검토할 수 있는 문제라고 생각한다.현재 애플페이뿐만 아니라 접촉·비접촉 어떤 결제수단이든 토스플레이스 단말기에서 이용 가능하도록 기술적 준비는 이미 되어 있다. 다만 특별히 특정 결제 수단 도입을 위해 현재 별도로 협의나 준비 중인 사항은 없다.사업을 막 시작하는 단계에서 애플페이 인증을 준비하기엔, 해결해야 할 다른 근원적인 문제들이 산재해 있다. 또 결제 수단의 확산을 위해서는 다양한 이해관계자들과의 논의가 협의가 필요한 부분이다. 따라서 토스플레이스의 의지만으로 결정되는 부분이 아니라고 생각한다.-신용카드 가맹점과 협력사업도 진행 중인데 상황이 어떤지.▲신용카드 가맹점이 SPC와 같은 유통 가맹점을 의미한다고 가정하고 말하자면, 현재 진행하고 있는 필드 테스트 역시 이들과 같은 협업관계의 가맹점 협력을 통해 순조롭게 진행 중이다. 시범서비스 단계부터 실제 내년 사업까지 가맹점사와의 협업은 필수적인 부분이 될 것이다.현재 토스플레이스는 필드테스트 과정에서 수십년간 쌓아온 업계 노하우를 단시간에 학습하고 있다. 이렇다보니 실제 현장에서는 예상치 못한 다양한 문제도 목도하고 있다. 가장 중요한 점은 안전이라고 생각하고, 이 때문에 충분한 필드테스트를 실시하려고 한다. 모든 결제신을 경험해 보고, 완전 무결한 상태로 론칭하는 것이 현재 가장 중요한 목표다. 가맹점사와의 협력도 이와 같은 지점에 집중하고 있다.-대표이사로서 토스플레이스를 어떤 기업으로 육성하고 싶은지.▲컨설팅 기업에 오래 재직하다보면 생기는 갈증이 있다. 아무리 열심히 일을 해도 프로젝트가 끝나고 나면 결과를 전달해 주고 떠나는 사람이라는 것이다. 또한 대부분 작업이 이론에 기반하다보니 실제 정말로 이론대로 맞아 떨어지는지 실증에 대한 욕구와 갈증이 있었다. 그래서 당시 스타트업이었던 토스플레이스에 합류하게 됐다.토스플레이스의 미션 중에는 '언제 어디서나 만날 수 있는 토스' 'B2B 플랫폼의 완성을 통해 사장님의 성공이 시작되는 곳으로 만든다'와 같은 문구 들이 있다. 언제 어디서나 발견할 수 있어야 하므로 정량적으로 100만개 가맹점을 달성하고 싶다. 이를 통해서 사업자가 생각할 수 있는 모든 서비스를 한 곳에서 발견할 수 있는 환경을 만들고 싶다. 사장의 성공 가능성을 더 높여주고, 실패 가능성은 낮춰주는 그런 기업이 되고 싶다.이와 더불어 토스가 공급자 위주로 돌아가고 있던 금융씬에 새로운 바람이 됐으면 한다. 스타트업과 핀테크 업체들이 잘 성장하고 경쟁해 고객 편의성을 도모하는데 앞장섰듯이, 신용카드 등장이후로 20년간 정체되어 있던 오프라인 결제 및 가맹점 사업 씬에서 새로운 바람 같은 존재가 되고 싶다.-간편결제 등 다양한 결제 플랫폼이 도입되고 있다. 결제 시장의 미래와 향후 흐름을 전망한다면.▲이용자의 주요 결제 수단으로 자리 잡기 위해서는 필수적인 요건이 몇개 있다고 생각한다. 어디에서나 쓸 수 있는 범용성, 무엇보다 나에게 편리한 수단일 것, 그리고 결제로 인해 나에게 돌아오는 혜택이다.간편결제에서 중요한 것은 '마찰없는 경험(frictionless experience)이다. 지갑에서 카드를 꺼내는 순간부터 포인트 적립까지 그 일련의 모든 과정을 가장 편하고 쉽게 해줄 수 있는 서비스가 시장 지배적 위치에 서게 될 것이라고 생각한다.이를 오프라인으로 한정한다면 결국 플라스틱 신용카드 및 삼성페이를 능가하는 편의성과 혜택을 가져다 줄 수 있어야 의미있는 간편결제 도구로서 선택 받을 것으로 본다.○최지은 토스플레이스 대표는…2019년 토스에 비즈니스전략 리드로 합류한 최지은 토스플레이스 대표는 미국 조지타운대에서 국제경영과 회계학을 전공했다. 2005년 JP모건, 2010년 LB인베스트먼트 등 컨설팅 펌과 사모펀드 투자은행에서 기업금융 관련 업무를 경험했다. 토스 합류 이후 LG유플러스의 PG사업 부문 인수에 관여했다.정리=</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2022.12.06.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>니콘내콘, ‘토스페이’ 간편결제 도입.. 결제 인프라 확장</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003947559?sid=101</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>스타트업 더블엔씨(대표 박진희)가 기프티콘 거래 플랫폼 니콘내콘의 간편 결제 인프라 확장을 위해 토스페이와 연동을 완료하고 간편결제 서비스를 시작했다고 6일 밝혔다.더블엔씨는 스마트폰 간편결제 서비스 이용이 급증하는 가운데, 니콘내콘 유저들이 빠르고 편리하게 이용할 수 있는 결제 환경을 제공하기 위해 대표적 간편결제 서비스인 토스페이를 도입했다. 이로써 니콘내콘에서는 토스페이를 포함해 선불 충전 후 사용할 수 있는 니콘머니와 카드 일반 결제, 니콘내콘 전용 간편결제 서비스 니콘페이까지 총 4가지 결제 서비스를 이용할 수 있게 되었다.토스 모바일 애플리케이션(앱)을 쓰고 있는 니콘내콘 유저라면 누구나 간단한 인증만으로도 간편하게 토스페이 결제가 가능하다. 니콘내콘 내 원하는 상품을 고른 후 결제방식에서 토스페이를 선택, 결제 비밀번호를 입력하면 된다.더블엔씨는 이번 간편결제 연동을 통해 니콘내콘 서비스의 안전성과 신뢰도 증진은 물론 다양한 결제 수단을 제공함으로써 고객 편의성을 극대화해 나갈 전망이다.니콘내콘은 서비스 오픈을 기념해 12월 31일까지 토스페이 생애 첫 결제 고객을 대상으로 이벤트를 진행한다. 니콘내콘에서 토스페이로 생애 첫 결제 시 결제금액의 100%를 최대 3천원까지 캐시백을 제공할 예정이다. 이벤트 관련 상세 내용은 니콘내콘 모바일 앱 결제화면을 통해 확인할 수 있다.더블엔씨 경영지원팀 구수완 매니저는 "커져가는 간편결제 시장의 성장 속도에 발맞춰 니콘내콘 고객들이 보다 쉽고 편리하게 서비스를 이용할 수 있도록 간편결제 서비스를 도입했다"며 "토스페이 외에도 앞으로 네이버페이, 카카오페이 등까지 서비스를 확장, 고객 결제 편의성을 강화해 나갈 계획"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2022.12.07.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>페이코, 신규 서명키 적용된 앱 업데이트 완료</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011579551?sid=101</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 남정현 기자 = NHN페이코는 신규 서명키가 적용된 페이코 앱의 업데이트를 완료했다고 7일 밝혔다. 페이코는 이날 보도자료를 통해 이같이 밝히며 "페이코는 보안 전문업체와 협력해 스토어에 등록된 정식앱 외에 기존 서명키로 제작된 모든 앱을 악성앱으로 탐지하고 차단하는 방안까지 추가적으로 검토하고 있다"고 덧붙였다. 앞서 NHN페이코의 '서명키' 일부가 유출, 페이코 고객 휴대폰에 피싱앱 등이 설치됐을 가능성이 제기됐다. 페이코 측은 내용을 인지하고 유출 경위를 파악 중이며 피해 내용은 보고되지 않았다고 밝혔다.악성 앱들은 '피싱' 앱으로 활용, 고객 정보를 가로챈다. 전화 송수신 내역이나 문자 수·발신 내역 등을 통해 지인들에게 피싱 문자를 전송하는 식이다. 휴대폰 내 메모장이나 사진첩에 저장해 둔 주민등록증, 통장 사진, 비밀번호를 가져갈 수도 있다. 심한 경우엔 해커 마음대로 휴대폰을 원격조종할 수도 있다.다만 페이코는 악성앱이 고객의 휴대폰에 심어졌을 가능성에 대해, 현재 비정상적 경로를 통한 강제 설치 외에 앱스토어 등을 통한 정상적인 페이코앱 다운로드를 통해선 문제가 없다는 입장이다. 페이코는 "피싱문자 내 다운로드 링크 등 비정상적 경로를 통해 설치된 경우 발생할 수 있는 문제"라며 "스토어를 통해 정상적으로 페이코 앱을 다운받는 경우에는 문제가 없는 상황"이라고 해명했다.구글 '서명키'는 앱 개발사들이 플레이스토어를 통해 앱을 등록·배포할 때 특정 개발사 앱이라는 점을 증명하는 역할을 하는 도구다. 페이코 관계자는 "'서명키'는 페이코 고객의 개인정보와는 관계가 없다"며 "현재 페이코쪽으로 접수된 피해 사례도 확인된 바 없다"고 강조했다. 페이코는 간편결제 서비스업체로, PASS·카카오·네이버·토스 등과 함께 국내의 대표적인 민간인증서 사업자기도 하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2022.12.06.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>다올투자증권 '1세대 VC' 다올인베스트먼트 매각 추진</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006504433?sid=101</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>"중장기적 유동성 확보 차원"(다올투자증권 제공)(서울=뉴스1) 이기림 기자 = 다올투자증권이 벤처캐피털(VC) 계열사인 다올인베스트먼트(전 KTB네트워크)를 매각한다.6일 금융투자업계에 따르면 다올투자증권은 다올인베스트먼트 매각을 위해 삼일PwC를 주관사로 선정하고 인수 후보자들을 상대로 인수 의사를 살피고 있다.다올투자증권은 보유하고 있는 다올인베스트먼트의 지분 52%에 대해 2000억원 이상 수준에서 매각을 희망하고 있다.다올인베스트먼트는 1981년 정부가 설립한 한국기술개발(KTB)이 전신인 국내 1세대 VC다. 우아한형제들(배달의민족), 비바리퍼블리카(토스) 등 스타트업에 투자한 것으로 알려져 있다.다올투자증권 관계자는 "다올인베스트먼트 매각은 중장기적으로 유동성을 확보하기 위함"이라고 설명했다.최근 다올투자증권은 당장 유동성 위기를 겪는 것은 아니지만 업황이 좋아지기까지 상당 기간이 걸릴 것으로 예상한다며 조직 및 사업 개편에 나서고 있다.다올투자증권은 태국법인인 '다올 타일랜드' 매각을 추진 중이고, 임직원들의 희망퇴직 신청도 받았다. 수요가 적은 시스템에 드는 비용 등을 줄이기 위해 웹트레이딩서비스(WTS)도 내년부터 종료한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2022.12.13.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>“매출 40% 쏟은 토스 쌍둥이 데이터센터…디도스 공격 철벽방어”</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005386497?sid=105</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>이형석 토스 테크놀로지 헤드 인터뷰데이터센터 이중화로 365일 24시 운영한 쪽 장애나도 다른 쪽에서 토스 서비스“세계 최고 안정성으로 편리한 금융 최선“[이데일리 임유경 기자] “‘핀테크가 금융회사처럼 안전할까?’ 이런 불안감을 극복하지 못하면 성장하기 어렵다고 봤습니다. 토스가 서비스 출시 3년 차에 전년도 매출의 40%를 투입해 데이터센터 이중화를 갖춘 이유입니다.”이형석 비바리퍼블리카(이하 토스) 테크놀로지 헤드는 지난 5일 서울 역삼동 본사에서 이데일리와 만나 토스가 사업 초창기에 데이터센터 이중화를 결정한 배경에 대해 이같이 설명했다. 토스는 지난 2018년부터 주센터와 재난복구(DR)센터로 데이터센터 이중화해 운영하고 있다. 두 센터가 동시에 운영되는 액티브-액티브 구조를 이때부터 갖췄다. 이 헤드는 “이를 위해 전년도 매출액(약 200억원)의 40%에 해당하는 78억을 투입했다”고 했다.데이터센터 이중화는 지난 10월 발생한 카카오 장애가 장기화 된 원인으로 꼽히며 그 중요성이 부각됐다. 데이터센터를 이중화하는 방법은 여러가지다. DR센터를 평소에 운영하지 않다가 메인 센터에 장애가 생겼을 때만 가동하는 방법이 있고, 주센터와 DR센터를 평상시에도 함께 운영하는 방식이 있다. 후자를 액티브-액티브 방식이라 부른다. 두 센터가 모두 활성화돼 있다는 의미다.이형석 토스 테크놀로지 헤드. (사진=토스)이 헤드에 따르면 토스는 주센터와 DR센터의 인프라를 동일한 용량으로 준비해 놓고, 양쪽을 모두 사용하고 있다. 두 센터 모두 데이터를 100% 가지고 있고, 애플리케이션도 작동하고 있어 트래픽을 실시간 처리할 수 있는 상태다. 평상시에는 각 센터가 트래픽을 50대 50으로 나눠 처리하다가, 한쪽에 문제가 생기면 다른 쪽으로 트래픽을 완전히 옮겨 중단 없이 서비스를 운영할 수 있는 구조다. 이런 구조 덕분에 “재해나 사이버공격으로 인한 장애뿐 아니라 시스템증설 작업으로 서비스 점검이 필요할 때 트래픽을 한쪽으로 완전히 몰아 버릴 수 있고, 이용자는 아무 영향도 받지 않고 서비스를 계속 이용할 수 있다”고 이 헤드는 설명했다.액티브-액티브 방식으로 데이터센터를 이중화하려면 상당한 비용이 들어갈 수밖에 없다. 완전히 동일한 쌍둥이 데이터센터를 운영해야 하기 때문이다. 이 헤드는 “원래 필요한 인프라보다 항상 2배를 더 가지고 있어야 한다”며 “평상시에는 한 센터가 가용량의 20%도 쓰지 않는 상태다”고 소개했다.투자는 많이 필요하지만, 운영 안정성 측면에서 효과는 확실하다. 실제 올해 상반기 분산서비스거부(DDoS·디도스) 공격이 발생했을 때도 큰 장애 없이 서비스를 유지할 수 있었다. 공격 당시 서비스 응답이 지연되는 영향을 받았는데, 단 4분 만에 정상화시켰다.토스증권과 토스뱅크는 토스가 전면 장애가 나는 상황에도 정상 작동할 수 있도록 별도의 시스템을 구축했다. 이 헤드는 “토스증권의 모바일트레이딩시스템(MTS)은 멈추면 절대 안 되는 크리티컬한 시스템이기 때문에, 별도의 인터넷데이터센터(IDC)를 갖췄고 토스 앱이 전면 장애가 나도 문제 없이 쓸 수 있도록 시스템을 설계했다. 토스뱅크도 마찬가지”라고 설명했다.그는 “토스는 ‘국민들이 모든 금융 생활을 토스 안에서 다 영위할 수 있는 서비스를 만들자’는 비전을 갖고 있기 때문에, 세계 최고 수준의 안정성을 확보하기 위해 노력하고 있다”며 “원천적으로 장애를 막을 순 없지만 장애의 영향도를 줄이고 사용자들이 불편함을 느끼지 못하게 하는 데 최선을 다할 것”이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2022.12.07.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>인뱅 3사, 중저신용대출 연말까지 확대…대출 받으려면</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011579052?sid=101</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>기사내용 요약신용점수 하위 50% 차주 대상 대출내 점수 몰라도 앱에서 금리·한도 확인[서울=뉴시스]이주혜 기자 = 인터넷전문은행 3사가 중저신용대출 확대에 박차를 가하고 있다. 올해 연말까지 중저신용대출 비중 목표치를 달성하기 위해서다. 중저신용자는 인터넷은행 앱으로 간편하게 대출을 받을 수 있다.7일 금융권에 따르면 인터넷은행 3사는 올해 중저신용자 대상 신용대출 비중 목표치에 근접했다. 각 인터넷은행의 중저신용자 대상 신용대출 비중(잔액 기준)은 9월 말 기준 카카오뱅크 23.2%, 케이뱅크 24.7%, 토스뱅크 39.0%다. 중저신용자란 신용평점 하위 50% 차주로 KCB 기준 신용점수 850점 이하인 경우를 말한다. 올해 말까지 카카오뱅크와 케이뱅크가 25%, 토스뱅크는 42%를 채워야 한다. 토스뱅크는 지난달 19일 기준으로 중저신용자 대출 비중이 40.1%를 기록했다. 인터넷은행들은 지난해 목표치 달성에 실패하면서 올해에는 중저신용 대출 확대에 힘써왔다. 중저신용자가 인터넷은행에서 신용대출을 받으려면 각 은행 애플리케이션(앱)에서 버튼 한 번만 누르면 된다. 인터넷은행 앱에서 신용대출 한도·금리를 조회하면 고객의 신용점수와 소득수준 등에 따라 적합한 상품을 추천한다. 일반 차주의 신용대출 과정과 다르지 않다. 카카오뱅크는 중저신용자를 대상으로 중신용대출, 중신용플러스대출 등의 상품을 제공한다. 케이뱅크는 한도를 조회하면 신용대출, 신용대출플러스, 마이너스통장 상품의 금리와 한도를 보여준다. 토스뱅크도 앱 내에서 신용대출 메뉴를 선택하면 된다. 앱에서 대출한도와 금리를 조회하는 것만으로는 신용점수에 영향을 미치지 않는다. 이에 각 인터넷은행별로 조건을 확인·비교한 후 대출을 실행할 수 있다.3분기에 케이뱅크에서 대출을 실행한 중저신용 차주의 평균금리는 연 7.36%로 나타났다. 중저신용 고객에게 실행된 대출의 최저금리는 연 3.80%이다. 카카오뱅크는 지난해 6월부터 중저신용 고객을 대상으로 '첫 달 이자 지원' 이벤트를 간헐적으로 진행하고 있다. 토스뱅크는 상환기간을 연장해 매월 부담하는 원리금을 줄일 수 있는 '매달 내는 돈 낮추기' 서비스를 시행 중이다. 자신의 신용점수는 각 인터넷은행 앱의 신용점수 조회·관리 메뉴에서 확인할 수 있다. 카카오뱅크와 케이뱅크는 앱 내에서, 토스뱅크는 토스 앱에서 볼 수 있다. 다만 본인의 신용점수를 알지 못해도 대출에는 문제가 없다.인터넷은행 관계자는 "고객 스스로 중저신용자인지 인지하고 있지 않아도 은행이 알아서 개인별로 적합한 상품을 추천해준다"며 "인터넷은행들은 대출이 실행되면 내부적으로 차주의 신용점수 등을 파악해 중저신용자 대출 비중을 집계하고 있다"고 설명했다. 인터넷은행들의 중저신용대출 확대 추세는 내년에도 계속될 전망이다. 내년 말까지 목표치는 카카오뱅크 30%, 케이뱅크 32%, 토스뱅크 44%다. 인터넷은행 관계자는 "금융당국에서 중저신용 고객에 대한 포용을 목적으로 인터넷은행 설립을 인가했기 때문에 인터넷은행 3사 모두 중저신용자 포용정책을 확대해야 하는 입장"이라고 설명했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2022.12.12.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>[주간투자동향] 라인스튜디오, 400억 원 규모의 투자 유치</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003467468?sid=105</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>바야흐로 스타트업 시대입니다. 2010년부터 시작한 국내 스타트업 열풍은 지난 10년 동안 급속도로 성장했습니다. 대한민국은 어느새 유니콘 기업 11개를 배출한 세계 5위 스타트업 강국으로 자리매김했는데요. 쿠팡, 우아한형제들, 야놀자, 블루홀 등 경쟁력을 갖춘 스타트업이 우리 실생활 속으로 파고들었고, 지금 이 순간에도 성공을 꿈꾸는 수많은 스타트업이 치열한 경쟁 속에서 도전하고 있습니다. 이에 IT동아가 이러한 국내 스타트업의 현장을 [주간투자동향]으로 정리해 제공합니다.라인스튜디오, 400억 원 규모의 투자 유치라인의 캐주얼 게임 개발사 라인스튜디오(LINE studio)가 국내 사모투자펀드(PEF) 운용사인 프리미어파트너스로부터 400억 원 규모의 투자를 유치했다. 이번 투자는 라인스튜디오가 법인을 설립한 후 첫 외부 투자 유치이다. 라인스튜디오는 투자 유치한 자금을 통해 게임 사업 플랫폼을 확장하고, 해외 시장 진출에 활용할 계획이다.출처: 라인스튜디오라인스튜디오는 라인과 협업해 일본, 대만, 태국, 홍콩 등에서 라인 레인저스, 라인 버블 2 등을 선보였다. 이러한 역량을 바탕으로 북미 및 유럽 지역 캐주얼 게임 시장에 도전해 게임 사업을 확장할 계획이다. 또한, 지난 10여 년 동안 모바일 게임에서 쌓아온 노하우와 기술을 활용해 게임 플랫폼을 다양화하고, 웹 3 사업에 진출해 포트폴리오를 강화한다는 전략이다.라인스튜디오 이정원 대표는 “이번 투자를 통해 글로벌 시장에서 캐주얼 게임의 새로운 지평을 열어갈 계획”이라며, “라인스튜디오는 전 세계 게이머에게 더욱 다양한 플랫폼과 새로운 경험을 제공하며, 글로벌 게임 개발사로서 성장에 매진하려 한다”라고 전했다.웍스메이트, 40억 원 규모의 프리-시리즈A 투자 유치건설인력 중개 플랫폼 ‘가다’를 서비스하는 웍스메이트가 40억 원 규모의 프리-시리즈A 투자를 유치했다. 이번 투자는 IBK기업은행, NHN인베스트먼트, 인포뱅크, 호반건설 CVC인 플랜에이치벤처스, 한국사회투자, 디티앤인베스트먼트, 서울투자파트너스, 서울산업진흥원(SBA) 등이 참여했다.출처: 웍스메이트현재 웍스메이트는 KB국민은행, 하나은행과 함께 건설일용직근로자들의 노임 선지급 시스템을 운영하고 있으며, 이번 투자 유치를 계기로 향후 NHN과 노임 선지급 시스템 협업을 확대할 예정이다.지난 2021년 8월 선보인 가다는 건설근로자 15만 명, 건설 일자리 누적 매칭 22만 건, 누적 임금 지급액 220억 원 이상 등을 기록하며 건설인력시장의 디지털전환을 선도하고 있다.웍스메이트 김세원 대표는 “어려운 투자 시장에도 불구하고 여러 기관으로부터 가다의 성장성과 기술력을 인정받았다”라며, “이번 투자 유치를 통해 건설사와 건설 일용직 근로자들이 함께 상생하고 만족할 수 있도록 서비스를 확대할 계획이다”라고 전했다.이루다마케팅, 35억 원 규모의 투자 유치미디어커머스 기업 브랜드엑스코퍼레이션의 온라인 마케팅 자회사 이루다마케팅이 35억 원 규모의 투자를 유치했다. 이번 투자는 중소 벤처기업 투자 전문사 오엔벤처투자가 조성한 두 곳의 투자조합을 통해 이뤄졌으며, 이루다마케팅의 지분 12%를 취득했다.출처: 이루다마케팅이루다마케팅은 지난 2011년 패션 브랜드를 전문으로 제공하는 퍼포먼스 마케팅 회사로 시작했다. 현재 누적 3,000여 개의 고객사를 보유하고 있다. 모회사에서 운영 중인 젝시믹스, 휘아 브랜드를 비롯해 농심, 매일유업 등의 통합 마케팅을 진행하고 있다. 또한, 메타, 구글, 네이버, 카카오, 토스 등 국내외 40여 개의 공식 대행권을 갖고 있으며, 퍼포먼스 마케팅, 미디어 광고, 통합 마케팅 커뮤니케이션(IMC), 브랜딩 등 마케팅 서비스를 제공하고 있다.이루다마케팅은 최근 3년간 연평균 약 60%의 매출 성장률을 기록했으며, 올해도 전년대비 외형 성장세는 지속될 전망이다. 수익성 측면에서도 3분기 누적 영업이익률 38% 수준을 기록했다. 외부 고객사 유치에 따라 기존 캡티브(Captive, 계열사) 매출 비중은 줄이고, 논캡티브(Non-captive, 비계열사) 매출을 키운 결과다.이루다마케팅 관계자는 “이루다마케팅의 성장 가능성을 인정받아 투자를 유치했다”라며, “기존 사업 강화와 신규 사업을 위한 인력을 보강하고 내재화 등을 통해 미래 성장 동력을 마련할 계획”이라고 말했다.아크로스테크놀로지스, 30억 원 규모의 전략적 투자 유치금융 인공지능 스타트업 아크로스테크놀로지스(이하 아크로스)가 30억 원 규모의 전략적 투자를 유치했다. 이번 투자는 Z홀딩스의 기업주도형 벤처캐피탈(CVC) 제트벤처캐피탈(ZVC)이 단독 참여했다. Z홀딩스는 글로벌 모바일 플랫폼 라인과 야후재팬 등을 자회사로 두고 있다. 누적 투자 유치 자금은 75억 원 규모다.아크로스테크놀로지스 공동창업자, 출처: 아크로스테크놀로지스지난 2021년 1월 설립한 아크로스는 자산운용 역량에 집중해 전 세계 투자자에게 ‘Better Yield &amp; Better Return (더 좋은 금리, 더 좋은 수익)’이라는 가치를 제공하기 위해 금융투자상품을 개발하고 운용 중이다. 최근에는 B2B 고객을 대상으로 아크로스의 인프라를 활용해 금융상품의 설계부터 출시, 운용에 이르기까지의 모든 과정을 손쉽고 빠르게 진행할 수 있도록 PMaaS(Portfolio Management-as-a-Service)를 제공하고 있다.아크로스는 스스로의 역량을 데이터 및 하드웨어 인프라와 인적자원이라고 설명한다. 지난 1910년부터 현재까지 1억 개 이상의 데이터포인트를 담은 10TB 이상의 금융 데이터 인프라를 보유하고 있으며, 14만 개 이상의 컴퓨팅 코어 등 하드웨어 인프라와 직접 구축한 클라우드로 이를 뒷받침하고 있다.현재 아크로스는 머신러닝 기술과 직접 구축한 클라우드 인프라를 바탕으로 아크로스 ETF를 출시해 운용 중이다. 지난 2022년 5월 월지급식 ‘Akros Monthly Payout ETF(티커명 MPAY)’를 뉴욕증권거래소(NYSE)에 상장했으며, 뒤이어 B2B 클라이언트가 아크로스 PMaaS를 통해 ‘KPOP ETF’를 NYSE에 상장한 바 있다.아크로스는 이번 투자를 바탕으로 후속 상품 라인업을 확대하고, 현재 논의 중인 국내외 금융사와 협업해 아크로스 PMaaS를 통한 펀드 출시 및 관련 비즈니스를 확대할 계획이다.아크로스 문효준 대표는 "이번 투자 유치는 아크로스가 글로벌 네트워크를 확보했다는 의미"라며, “기술이 본질적으로 자산운용업을 바꿀 수 있는 부분을 항상 고민하고, 기존의 경계를 허물어 자산운용업의 외연 자체를 확대하고자 한다”라고 포부를 밝혔다.인포플라, 인포뱅크로부터 3억 원 규모의 시드 투자 유치인공지능 기반 IT 운영 관리 솔루션 ‘아이톰스’를 개발하는 인포플라가 인포뱅크로부터 3억 원 규모의 시드 투자를 유치했다.출처: 인포플라지난 2019년 1월 설립한 인포플라는 IT 운영 관리 전문 업체다. 국가 정보자원관리원 등 주요 공공기관에 IT 운영 관리 시범 서비스를 제공했다. 인포플라는 그 동안 현장에서 원하는 요구사항을 파악해 IT 운영 관리 전반 업무를 자동화할 수 있는 아이톰스의 클라우드(SaaS) 버전을 공개할 예정이다.아이톰스는 자체 RPA 알파카에 인공지능 학습과 예측 기능을 붙여 예측형 헬스 체크, 웹 패스워드 자동 업데이트, 비전 인식을 통한 웹서비스 장애 모니터링 자동화 서비스 등을 제공한다. 향후 디지털 소외계층 등에게 디지털 격차를 해소할 수 있는 서비스로 확장해 나갈 예정이다.인포플라는 이번 투자 유치 자금을 서비스 개발 고도화와 성장 가속화를 위한 개발 인력 채용에 활용할 예정이다.인포플라 최인묵 대표는 “이번 투자 유치는 얼어붙은 투자 시장에서 사업성과 성장성을 인정받아 매우 의미 있다”라며, “인공지능 기술을 통해 그동안 불가능했던 IT 운영 자동화 분야를 혁신할 수 있도록 노력하겠다”라고 밝혔다.제클린, 서울대기술지주로부터 투자 유치ESG 스타트업 제클린이 서울대학교기술지주(이하 서울대기술지주)로부터 프리-시리즈A 투자를 유치했다.제클린은 제주 숙박업소 침구 케어 서비스를 운영하던 중 많은 숙박 침구가 온전한 상태로 버려진다는 것을 발견하고, 이를 해결하고자 노력하는 스타트업이다. 조금만 나빠져도 폐기되는 숙박업소의 침구를 재사용할 수 있는 체계를 구축하고 있다.제클린-서울대기술지주 투자 협약 모습, 출처: 제클린지난 2022년 9월, 제클린은 제주의 대형 호텔, 섬유 소재 기업 등과 숙박업계의 친환경 경영 활동 확대와 협력을 위한 업무협약을 맺었다. 섬유 신소재 개발기업 태광산업과 협력해 면 100% 재활용 수건 ‘RE;TOWEL(리타올)’을 출시한 바 있다.이번 투자를 결정한 서울대기술지주 목승환 대표는 “제클린은 숙박 침구의 공급-세탁-케어-재생을 순환 경제 형태로 이끌어낸 스타트업”이라며, “제클린이 지난 5년 동안 제주에서 성장하는 것을 지켜봤다. 향후 전국구와 해외 진출 가능성을 예상해 소셜임팩트 차원의 투자를 결정했다”라고 평가했다.제클린 차승수 대표는 “이번 투자에 만족하지 않고 협력 사업자와 자체 R&amp;D를 바탕으로 버려지는 면제품, 침구, 타월의 재생 제품화에 집중할 계획”이라며, “대형 호텔은 물론 중소형 숙박업소들이 자연스럽게 ESG 경영에 동참할 수 있는 플랫폼을 만들겠다”라고 전했다.브이디컴퍼니, 페이크럭스컴퍼니 지분 100% 인수서빙 로봇 기업 브이디컴퍼니가 클라우드 리테일 테크 기업 페이크럭스컴퍼니의 지분 100%를 인수했다.출처: 브이디컴퍼니페이크럭스컴퍼니는 클라우드 기반의 통합 매장 관리 솔루션을 개발하고 공급하는 기업이다. 1만 개 이상의 매장에 포스, 키오스크, 주문 현황 및 배달 관리 솔루션 등을 제공한다. 가맹점 포스 단말기로 인기 메뉴, 대기 현황 등 실시간 정보를 파악해 마케팅에 활용할 수 있는 특허 솔루션도 보유하고 있다.브이디컴퍼니는 이번 인수를 바탕으로 서빙 로봇과 자동화 솔루션을 공급할 수 있는 고객 인프라 확대와 함께, 외식업 통합 플랫폼 기업으로 사업을 확장할 계획이다. 안내, 서빙, 포스, 오더, 적립, 웨이팅, 배달 등을 한 번에 관리하는 통합 플랫폼을 제공해 매장 자동화를 지원할 예정이다.브이디컴퍼니 함판식 대표이사는 “이번 인수는 브이디컴퍼니가 외식업 통합 플랫폼 기업으로 도약하기 위한 성장전략의 일환이다. 기술력과 고객 인프라를 강화하고, 이를 바탕으로 최적의 서비스를 제공할 것”이라고 말했다.테사, 교보증권으로부터 전략적 투자 유치블루칩 아트테크 플랫폼 테사(TESSA)가 교보증권으로부터 전략적 투자를 유치해 누적 투자금 121억 원 규모를 달성했다. 이번 투자는 교보증권 주도 하에 진행, 테사의 제도권 진입을 앞두고 미래가치와 성장 가능성을 높게 평가해 이뤄졌다. 테사는 디지털 신사업에 나서고 있는 교보생명보험그룹과도 다양한 협력 사업을 도모할 예정이다.출처: 테사앞서 테사는 키움증권으로부터 전략적 투자를 유치한 바 있다. 당시 조각 투자 관련 산업 활성화와 공동 시장 개척을 위한 업무협약(MOU)를 맺고, 안전한 미술품 조각 투자 서비스를 제공할 수 있는 계기를 마련했다.테사는 이번 전략적 투자를 통해 투자자 보호 장치를 강화하고 사업 확장에 돌입할 계획이다. 신규 비즈니스 모델 구상, 희소성 높은 미술 금융상품 기획 등 투자계약증권 산업의 신성장동력을 발굴할 방침이다.테사 김형준 대표는 “이번 투자 유치와 조각 투자 제도권 편입 이슈 등을 통해 고객 거래와 사업 안정성을 모두 확보했다”라며, “향후 관련 법령 준수와 투자자 보호 시스템 강화에 노력하며, 안전한 조각 투자 생태계 조성에 최선을 다하겠다”라고 말했다.동아닷컴 IT 전문 권명관 기자 tornadosn@itdonga.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2022.12.09.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>토스페이먼츠, 월 거래액 3조6000억원 돌파...KG이니시스에 우세 굳혀</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000041747?sid=105</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>토스페이먼츠 사무실.(사진=토스페이먼츠)토스의 페이테크(Paytech) 계열사 토스페이먼츠가 PG(결제대행) 시장의 맹주였던 KG이니시스를 뛰어넘는 거래 실적을 내고 있다. KG이니시스는 2019년 업계 최초 월 거래액 2조원이라는 기록을 쓴 회사다.9일 토스페이먼츠에 따르면 올해 11월 기준 월 거래액 3조6400억원을 기록했다. 2020년 8월 회사 출범 이후 2년여 만에 2배 이상 증가한 성과다. 전년 동기 대비로는 44% 증가한 것으로, 같은 기간 국내 주요 PG 사업자들의 거래액 성장률 대비 높은 수치다.코로나19 영향으로 온라인 결제가 급증한 가운데 토스페이먼츠는 자사만의 특장점을 내세워 사업기회를 발빠르게 확보했다. 토스페이먼츠는 △당일 PG 연동 △쉽고 편리한 결제 경험(UX) △보증보험 무료 가입 혜택 등 영·중소 사업자 맞춤형 정책 △글로벌 수준의 보안 시스템 구축 등 고착화된 PG 업계에서 새로운 변화를 선보이며, 시장점유율을 확대하고 있다.영세·중소 온라인 SME(중소상공인)는 물론 대형 가맹점까지 확보한 토스페이먼츠는 단숨에 업계를 장악했다. KG이니시스의 거래액은 상당분 대형 가맹점에서 창출되는데 이를 상쇄할 수 있게 된 셈이다. 토스페이먼츠 관계자는 "내부 데이터 집계 결과 토스페이먼츠는 2022년 8월 처음으로 월 거래액 기준 업계 1위에 오른 것으로 나타났다"며 "국내 대형 이커머스 가맹점 유치 등을 통해 거래액 규모가 지속적으로 성장하는 추세"라고 설명했다.올해 11월 기준 토스페이먼츠의 가맹점 숫자는 출범 당시와 비교해 25% 증가한 약 10만개에 이르며, 주요 성장 지표인 월간 유입 가맹점 숫자도 2500개로 나타났다. 토스페이먼츠가 올해부터 해외 시장 공략에 본격적으로 나서면서 거래액과 가맹점 규모 모두 성장할 것으로 전망된다. 최근 토스페이먼츠는 피델리티내셔널인포메이션서비스(FIS) 및 앤트그룹과 각각 제휴해 글로벌 가맹점 대상 전자 결제 서비스를 시작했다. 이에 따라 타오바오(중화권 소비자를 대상으로 한 전자상거래 사이트)를 관리하는 KG이니시스에 대응력을 가질 수 있을 것으로 분석된다.출범 이후 영·중소 사업자의 목소리에 귀 기울여 맞춤형 서비스를 꾸준히 선보인 점도 토스페이먼츠가 영·중소 가맹점을 유치하는데 주요한 역할을 했다. 월 정산 한도 1000만원 이하 사업자 4만개 이상이 보증보험 무료 가입 혜택을 받았으며, 통신판매업 신고 지원을 받은 사업자는 1만개 정도 되는 것으로 조사됐다. 실시간 PG 연동 컨설팅 서비스를 받기 위해 토스페이먼츠의 '디스코드' 커뮤니티에 가입한 개발자는 2000명이 넘는 것으로 나타났다.김민표 토스페이먼츠 대표는 "토스페이먼츠는 가맹점의 비즈니스 성장을 돕기 위한 파트너로서 새로운 접근 방식을 통해 시장의 변화를 만들어 나가고 있다"며 "앞으로도 토스페이먼츠는 가맹점이 사업에만 집중할 수 있도록 다양한 솔루션을 선보일 계획"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2022.12.07.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>11월 분야별 앱 설치 수 ‘Top5’는?</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003761916?sid=101</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>뷰티 부문 ‘바비톡’ 신규 / 여행 부문 ‘여기어때’ ‘야놀자’ 변동, ‘아고다’ 신규       11월 기준 설치기기수가 많은 분야별 앱 Top 5를 뽑아봤다. 10월 대비 설치수 증가량이 많은 앱 Top 5는 ▲TMAP ▲KB국민은행 스타뱅킹 ▲카카오 T ▲네이버 지도 ▲카카오뱅크 등으로 나타났다.     빅데이터 전문기업 TDI(티디아이, 대표 이승주)의 분석 플랫폼인 데이터드래곤을 통해 분석한 결과 지난 11월 설치기기수가 많은 앱 Top 5는 ▲네이버 지도 ▲밴드 ▲쿠팡 ▲Instagram ▲당근마켓 등으로 순위 변동은 없었다.     설치기기수는 ▲네이버 지도 2,538만 대 ▲밴드 2,511만 대 ▲쿠팡 2,460만 대 ▲Instagram 2,169만 대 ▲당근마켓 2,051만 대 등이었다.     네이버 지도는 설치수가 19만 대 늘면서 설치수 Top 5 앱 중 증가량도 1위를 차지했다. 쿠팡은 16만 대, Instagram은 14만 대 늘었다.     증가량이 지난달 대비 가장 많았던 앱은 TMAP이었다. TMAP은 10월 설치수 대비 26만 대 늘었다. KB국민은행 스타뱅킹(+23만 대), 카카오 T(+22만 대), 네이버 지도(19만 대), 카카오뱅크(+16만 대) 등이 뒤를 이었다.     이외 카테고리별 합계 1위는 교통 분야로 합계 약 9,166만 대를 기록했다. 각 앱별 설치수는 ▲네이버 지도 ▲카카오 T ▲카카오맵 ▲TMAP ▲코레일톡 순이었다.     2위는 소셜미디어였다. ▲밴드 ▲Instagram ▲Facebook ▲카카오스토리 ▲네이버 카페 순으로 합계는 8,646만 대가량이었다.     3위는 쇼핑이 차지했다. ▲쿠팡 ▲당근마켓 ▲11번가 ▲G마켓 ▲오늘의집 등 5개 앱의 합계는 약 8,095만 대다.     4위는 총 7,814만 대가량인 금융으로 ▲토스 ▲카카오뱅크 ▲페이북/ISP ▲NH스마트뱅킹 ▲KB국민은행 스타뱅킹 순이었다.      5위는 OTT였다. 합계는 약 4,762만 대로 각 앱별 설치기기수는 ▲Netflix ▲wavve ▲seezn ▲티빙 ▲쿠팡플레이 순이었다.     6위는 약 4,089만 대를 기록한 배달이다. 배달 앱에는 ▲배달의민족 ▲배달요기요 ▲쿠팡이츠 ▲배달특급 ▲땡겨요 등이 순위에 올랐다.     7위는 3,335만 대가량이 집계된 홈쇼핑/백화점이다. ▲GS SHOP ▲홈앤쇼핑 ▲CJ온스타일 ▲현대Hmall ▲롯데홈쇼핑 순이었다.     8위는 패션이 차지했다. ▲에이블리 ▲무신사 ▲지그재그 ▲브랜디 ▲퀸잇 등이 순위에 올랐으며 총 2,236만 대가량이었다.     9위는 약 1,920만 대의 부동산이었다. ▲직방 ▲청약홈 ▲호갱노노 ▲다방 ▲네이버 부동산이 순위에 올랐다.     10위는 식음료였다. ▲스타벅스 ▲마켓컬리 ▲이디야멤버스 ▲요리백과 만개의레시피 ▲맥도날드 순이었다. 합계는 약 1,873만 대다.     11위는 합계 1,863만 대가량인 여행이다. ▲여기어때 ▲야놀자 ▲Airbnb ▲Skyscanner ▲아고다 등이 순위에 올랐다.     12위는 증권으로 총 1,581만 대가량이었다. ▲KB증권 'M-able' ▲키움증권 영웅문S ▲삼성증권 mPOP ▲미래에셋증권 m.Stock ▲한국투자증권 등이 Top 5에 들었다.      13위는 총 1,447만 대 집계된 게임이다. ▲Roblox ▲Pokémon GO ▲브롤스타즈 ▲Minecraft ▲무한의 계단 순이었다.     14위는 스포츠로 ▲U+프로야구 ▲U+골프 ▲골프존 ▲스마트스코어 ▲카카오골프예약 등이 상위 5위를 차지했으며, 합계는 약 1,375만 대다.     15위는 ▲캐시워크 ▲스마트홈트 ▲InBody ▲만보기-걸음 ▲만보기-걷기 등의 건강 앱으로 합계 944만 대가량을 기록했다.     16위는 합계 약 368만 대인 뷰티로 ▲화해 ▲카카오헤어샵 ▲뷰티포인트 ▲잼페이스 ▲바비톡 순이었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2022.12.05.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>사장님들, 인터넷은행 대출로 갈아타는 이유는</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005381020?sid=101</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>비금융정보 신용평가 반영…업력 짧아도 유리한 대출 가능비대면 대출 프로세스로 신용대출 심사 기준 한층 수월시중은행 연말 한도소진으로 대출 줄어든것도 일부 영향“개인사업자 대출 경쟁 내년부터 본격 활발해 질 듯”[이데일리 정두리 기자] 서울 강서구 마곡 신도시 한 역세권 상권에서 테이크아웃 커피전문점 장사를 하고 있는 A씨는 아직 업력이 채 1년도 되지 않아 대출이 나올까 걱정했지만, 지난달 카카오뱅크 개인사업자 대출을 받을 수 있어 추가 사업 자금을 융통할 수 있었다. A씨가 받은 대출 금리는 5.69% 였다. A씨는 “시중은행에서는 대출이 어려울 것 같다는 얘기를 들었지만 인터넷은행에서 별도의 우대조건을 통해 좋은 조건으로 대출을 받을 수 있었다”고 했다. 사진=연합뉴스인터넷은행들이 ‘사장님’들의 비금융정보를 신용평가에 반영해 더 유리한 조건으로 대출이 가능한 개인사업자 대출을 잇따라 선보이면서 눈길을 끌고 있다. 시중은행의 개인사업자 대출 잔액이 최근 지속적으로 줄어든 가운데, 인터넷은행이 관련 사업에 뛰어들면서 소상공인을 잡기 위한 은행권 각축전이 치열해질 전망이다.카카오뱅크는 5일 개인사업자 고객 전용 화면 ‘사장님 홈’을 선보였다고 밝혔다. 개인사업자 뱅킹을 이용 중인 고객이라면 개인 홈과 사장님 홈을 전환하면서 개인사업자 통장, 개인사업자 대출 등 사업자산을 개인자산과 구분해 관리할 수 있게 돼 사장님들의 편의가 한층 강화됐다. 카카오뱅크 개인사업자 뱅킹은 출시 한 달 만에 개인사업자 고객수가 13만명을 돌파하며 약 500억원의 공급액을 기록하는 등 인기를 끌고 있다. 사업자의 업력이 짧더라도 신용도·업종·상권·자산 보유 여부 등을 종합적으로 평가해 대출을 지원한 것이 주효했다. 증빙 소득은 적지만, 매출이 꾸준히 나오는 것만으로도 대출을 받을 수 있는 방법도 있다. 카카오뱅크에 따르면 매출액을 통해 대출 상환 능력을 평가한 결과, 증빙 소득 1000만원 이하 사업자의 비중이 전체 대출 받은 사업자 중 32%를 차지했다. 카카오뱅크 관계자는 “매출이 꾸준히 유지되는 음식숙박업 및 미용업 업종 사업자 중 55%는 가점을 받아 보다 많은 한도, 낮은 금리로도 대출을 받을 수 있었다”고 설명했다.이보다 앞서 토스뱅크와 케이뱅크는 올 상반기부터 자영업자 전용 대출 시장에 진출했다. 토스뱅크는 지난 2월 인터넷은행 중 가장 먼저 ‘개인사업자 신용대출’을 출시한 데 이어 5월에는 ‘사장님 마이너스통장’도 선보였다. 토스뱅크는 완전 비대면 대출 프로세스에 부가서류 제출 등 제출하지 않아도 다양한 금융거래정보를 활용한 대안정보를 신용대출 심사 기준에 적극적으로 활용해 대출을 제공해주고 있다. 이에 힘입어 개인사업자 신용대출은 10월 말 1조원을 돌파한 데 이어 11월 말 기준 1조2000억원을 기록했다.케이뱅크도 지난 5월 개인사업자 보증서 대출 ‘사장님 보증서대출’을 출시하고 9월에는 개인사업자 신용대출 상품을 출시했다. 최대 1억원의 대출한도를 제공하는 ‘사장님 신용대출’의 경우 대출금리는 5일 기준 연 5.90~6.99%를 제공해 상단 기준으로는 인터넷은행 가운데 가장 금리가 낮다. 하단의 경우 카카오뱅크가 현재 연 5.795%의 금리를 제공해 최저다. 반면 시중은행의 개인사업자 대출 잔액은 2개월 연속 감소세다. KB국민·신한·우리·하나·NH농협 등 5대 시중은행의 11월 말 개인사업자 대출 잔액은 314조7504억원으로 전달 대비 573억원 감소했다. 10월에도 전달 대비 4602억원 줄어 두달 연속 감소세를 기록했다. 채권 발행이 어려워진 탓에 은행들이 리스크가 높은 개인사업자대출부터 심사를 강화하고 있는 것으로 풀이된다. 은행연합회 공시에 따르면 10월 국내 18개 은행의 평균 신용대출 취급 금리는 최저 5.74% 최대 11.10%로 집계됐다. 시중은행 한 관계자는 “자금시장 경색으로 은행 대출 문턱이 높아진 요인도 있지만, 개인사업자 대출의 경우 연말이 되면 한도소진 등의 이유로 증가폭이 축소하는 경우도 있다”면서 “업종별로 여신 한도를 둬서 리스크를 관리해야 하기 때문”이라고 설명했다. 그러면서 이 관계자는 “연말에 집행하지 못한 대출이 연초에 취급되는 경우도 있다보니 개인사업자 대출 추이는 내년에 본격 경쟁이 활발해 질 듯”이라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2022.12.08.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>FTX 투자받은 토스·컴투스 "나 떨고있니"</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004131525?sid=101</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>비바리퍼블리카에 1500억 상당컴투스에는 토큰 형태로 66억"파산해도 문제없다" 밝혔지만청산과정서 투자금 긴급 회수땐국내 기업으로 불똥 튈 가능성[서울경제] 파산 보호를 신청한 글로벌 암호화폐거래소 FTX가 토스·컴투스 등 국내 기업에도 수천억 원을 투자한 것으로 나타났다. FTX가 자금 회수를 하고 있는 만큼 이들 기업의 지분구조나 자금 상황에 영향을 미칠 것이라는 지적도 나온다.8일 금융권 및 외신 등에 따르면 FTX는 금융 플랫폼인 토스의 운영사 비바리퍼블리카에 1억 1370만 달러(약 1500억 원)를 투자했다. 투자 주체는 FTX 자회사 알라메다벤처스가 운영하는 ‘매클로린인베스트먼트(Maclaurin Investments Ltd)’로 투자 프로젝트 명은 ‘파이오닉(PIONIC)’으로 설정됐다. 투자 시점은 명확하지 않으나 당시 FTX는 토스 기업가치를 99억 3700만 달러(약 13조 원)로 평가했다.국내 게임사 컴투스 역시 자사 블록체인 플랫폼 엑스플라(XLPA·옛 C2X)에 알라메다의 투자를 받았다. 영국 경제지 파이낸셜타임스가 공개한 자료에 따르면 FTX에서 벤처캐피털(VC) 사업을 담당하는 FTX 벤처스는 컴투스(C2X)에 500만 달러(약 66억 원)를 ‘토큰 워런트’ 형태로 투자했다. 토큰 워런트란 주식시장에서의 전환사채(CB)처럼 보유한 지분을 투자회사의 암호화폐로 전환할 수 있는 옵션을 의미한다. 암호화폐 가격이 오르면 손쉽게 차익을 낼 수 있다. 실제로 C2X 프로젝트는 그 시작부터 FTX와 긴밀한 관계를 맺어왔다. 컴투스는 올해 3월 자체 암호화폐 C2X를 발행하고 첫 상장 거래소로 FTX를 택했다. 10월 메인넷을 교체하고 C2X를 ‘엑스플라’로 이름을 바꾼 뒤에도 FTX에서 거래를 진행했다. 이로 인해 컴투스는 최근 FTX의 파산 보호 신청 이후 상당량의 암호화폐가 FTX에 묶여 곤혹을 치르기도 했다.두 회사는 FTX가 파산해도 큰 문제는 없다는 입장이다. 토스 관계자는 “신규 투자자 중에는 FTX가 없는 만큼 구주매출일 수 있다”며 “구주를 통해 시장에서 거래되는 경우에는 회사 측도 즉각 지분 보유 내역 변경 사실을 알 수 없고, 이는 기존 보유자와 신규 보유자 둘 사이의 거래인 만큼 회사와는 상관이 없다”고 말했다. 컴투스 관계자는 “컴투스가 아닌 C2X 재단이 초기 라운드에서 여러 기업과 기관의 투자를 받았다”며 “그중 알라메다의 투자도 있지만 이미 투자가 이뤄진 만큼 큰 문제는 없다”고 설명했다.다만 일각에서는 FTX 사태 여파가 국내에도 본격적인 영향을 끼칠 수 있다는 우려를 제기했다. FTX나 알라메다가 청산 과정에서 급히 투자금 회수에 나설 가능성이 높기 때문이다. 이 경우 이미 투자를 받은 기업은 예상하지 못한 지분구조 변화나 투자금 회수를 겪을 수 있다. VC 업계의 한 관계자는 “알라메다 투자금이 제 가치를 받지 못하고 빠져나갈 경우 기업가치 하락으로 추가 투자 유치에 어려움을 겪을 수 있다”고 말했다.한편 FTX는 현재 본격적인 청산 작업에 나선 상태다. 블룸버그통신 등에 따르면 FTX는 자회사 ‘레저엑스’ 매각에 돌입했다. 레저엑스는 100여 개가 넘는 FTX 계열사 중 ‘알짜 회사’로 꼽히는 파생상품 플랫폼으로 FTX 붕괴의 진원지가 된 알라메다리서치에 이어 두 번째로 많은 현금(약 3억 340만 달러)을 보유했다. FTX가 델라웨어주 파산 법원에 제출한 문서에 따르면 FTX가 무담보 채권자 상위 50명에게 갚아야 할 부채는 31억 달러(약 4조 원)에 달한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2022.12.01.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>韓 구글플레이 올해의 앱에 '디즈니+'</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004128932?sid=105</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>올해의 게임은 '던파 모바일'비대면·여가 앱 모두 강세[서울경제] 구글코리아는 한국 구글플레이 '2022 올해를 빛낸 베스트 앱(애플리케이션)'에 ‘디즈니+'온라인동영상서비스(OTT) ‘디즈니+’가, 베스트 게임에는 ‘던전앤파이터 모바일’이 선정됐다고 11일 밝혔다. 이용자가 직접 투표해서 뽑은 ‘올해를 빛낸 인기 앱’에는 ‘네이버 페이’, 인기 게임에는 ‘블루 아카이브’가 올랐다.━비대면 앱 여전히 인기…거리두기 해제로 여가 앱 수요도 ‘쑥’코로나19 사태가 장기화됨에 따라 비대면·비접촉 서비스들이 여전히 강세를 보였다. 언제 어디서나 전화 진료와 약 배달을 받을 수 있는 닥터나우가 ‘2022 올해를 빛낸 선한 영향력 최우수 앱’으로, 다양한 컨텐츠의 클래스를 수강할 수 있는 CLASS101은 ‘2022 올해를 빛낸 자기계발 최우수 앱’으로 꼽혔다. 또한 지갑 없이 언택트로 결제할 수 있는 네이버페이는 ‘2022 올해를 빛낸 일상생활 최우수 앱’, ‘2022 올해를 빛낸 인기 앱’ 2관왕을 달성했다.동시에 사회적 거리두기 해제로 외부 활동이 서서히 증가하며 여행과 여가 생활을 즐길 수 있는 앱들도 대중의 주목을 받았다. ‘대한항공 My’가 올해를 빛낸 웨어 앱 부문 최우수로, 항공·숙박·렌터카·맛집 등 제주여행에 필요한 모든 정보와 서비스를 제공하는 ‘제주패스’는 올해를 빛낸 숨은 보석 앱 최우수로 선정됐다.콘텐츠 앱들의 약진도 눈에 띈다. 인기 영화, 오리지널 시리즈를 비롯해 다양한 콘텐츠를 갖춘 Disney+가 ‘2022 올해를 빛낸 대상 앱’으로 선정되었으며, 인기 웹툰, 만화, 소설 등을 하나의 플랫폼에서 즐길 수 있는 미스터블루가 ‘2022 올해를 빛낸 엔터테인먼트 최우수 앱’에 이름을 올렸다. 올해 신설된 대화면(큰 화면) 앱 부문에서는 웨이브(Wavve)가 최우수상을 수상했다.━‘던파’ ‘디아블로’ 등 인기 원작 기반 게임 강세게임 부문에서는 이미 인기가 증명된 지식재산권(IP)을 활용한 게임들에 대한 선호가 높았다. 던전앤파이터 모바일이 ‘올해를 빛낸 대상 게임’, 마니아층을 형성하며 오랜 기간 꾸준하게 사랑 받는 Pokemon GO는 장수 최우수 게임, 리니지 W는 경쟁 최우수 게임으로 각각 선정됐다. 블리자드와 넷이즈가 합작해 만든 디아블로 이모탈은 ‘올해를 빛낸 스토리 최우수 게임’ 및 ‘올해를 빛낸 태블릿 최우수 게임’ 2관왕을 달성했다.매력적인 세계관을 갖춘 회사들도 좋은 성과를 보였다. 유명 보컬로이드(가상 아이돌가수)가 진정한 마음을 찾아 떠난다는 내용을 담은 리듬게임 ‘프로젝트 세카이: 컬러풀 스테이지! feat. 하츠네 미쿠’는 캐주얼 최우수 게임, 지하 도시 신도림에 들어가지 못해 지옥에서 강해지는 신도림 with NAVER WEBTOON은 인디 최우수 게임, 거대 학원도시 키보토스에서 끊이지 않는 사건 사고를 해결하는 블루 아카이브는 인기 게임을 각각 수상했다.최윤정 구글플레이 한국 파트너십 총괄은 “팬데믹 장기화와 디지털 전환이 이어지는 환경 속에서 그 어느 때보다 혁신적이고 새로운 앱들이 올해를 빛낸 앱·게임으로 선정됐다”며 “올 한 해 유저들에게 편리함과 즐거운 경험을 안겨 준 훌륭한 앱과 게임을 개발한 개발사들 모두에게 감사드리며, 구글플레이는 개발자와 유저 모두 안전하고 쾌적하게 이용할 수 있는 모바일 환경을 만들어갈 수 있도록 노력하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2022.12.12.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>인터넷은행 "금리 받고, 샤넬 가방도 받으세요"</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/468/0000907737?sid=101</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>사진|케이뱅크[스포츠서울 | 홍성효기자] 인터넷은행 업계가 크리스마스와 연말을 맞아 높은 수신 혜택과 다양한 이벤트를 마련해 눈길을 끈다. 케이뱅크는 파킹통장 플러스박스의 금리를 연 2.7%에서 0.3%p 올려 연 3.0%로 인상했다. 플러스박스는 돈을 보관하고 언제든지 빼서 예적금, 투자 등에 활용할 수 있는 상품이다. 하루만 맡겨도 이자가 적용되고 별도 해지나 재가입 없이 예치금에 인상된 금리가 자동 적용돼 이자를 받을 수 있다.이벤트도 풍성하다. 케이뱅크 앱 홈 화면 우측 상단의 혜택 아이콘을 누르면 다양한 크리스마스 프로모션에 참여할 수 있다. 먼저 ‘출석체크 추첨 이벤트’는 출석체크하고 행운권을 받은 고객 중 총 3500여 명을 추첨해 선물을 증정한다. 샤넬가방(1명), 애플 아이패드 프로(2명), 아이폰14(5명), 스타벅스 모바일 상품권(3500명) 등을 준비했다. 또 이달 31일까지 이벤트 페이지의 ‘크리스마스 선물받기’를 누르면 하루에 행운권 1장을 받을 수 있다. 매일 출석체크 해 행운권을 많이 모을 수록 당첨 확률이 커진다. 당첨 선물은 내년 1월 초에 개별 지급될 예정이다.기분통장을 활용한 ‘산타에게 소원적기 이벤트’도 크리스마스 당일까지 기분통장에 입금하면 참여할 수 있다. 기분통장의 다양한 이모지 중에서 산타 이모지를 선택하고 메시지 란에 소원을 적어 원하는 금액만큼 입금하면 된다. 참여 고객 중 10명을 선정해 고객이 입금한 금액 중 최대금액 100%를 선물로 준다. 하루에 입금할 수 있는 횟수는 제한이 없으며 횟수가 많을수록 당첨 확률은 높아진다. 단 선물로 주는 최대 금액은 100만원이다. 기분통장은 파킹통장인 플러스박스의 한 종류로 연 3.0%의 금리가 적용된다. 사진|토스뱅크토스뱅크도 연말을 맞아 ‘토스뱅크 통장’의 혜택을 한 단계 높인다. 토스뱅크는 13일부터 5000만원 초과 금액에 대해 연 4.0%(세전), 5000만원 이하 금액은 기존과 동일한 연 2.3%(세전) 금리 혜택을 제공한다.  이번 연 4.0%(세전) 금리 혜택이 가입 및 예치기간, 한도금액 등 각종 제약으로부터 자유로운 ‘토스뱅크 통장’과 결합됨에 따라 고객 편의성이 더욱 강화됐다. 고객은 언제 어디서든, 자신이 원하는 때에 돈을 넣고 빼내 쓸 수 있다. 또 ‘지금 이자 받기’ 서비스를 통해 매일 이자를 받을 수 있어 일복리 효과까지 누릴 수 있다.토스뱅크의 정기적금 상품인 ‘키워봐요 적금’ 금리도 0.5%p 인상한다. 적금 만기 시에 고객들은 최대 연 4.5%(세전) 금리 혜택을 누릴 수 있게 됐다. 단 13일부터 적금 신규가입 고객에 한해 인상된 금리 혜택이 적용된다.shhong0820@sportsseoul.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2022.12.05.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>美 월마트 vs 코스트코 ‘가장 저렴한 한끼’ 전쟁…경기침체 서곡?</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003322512?sid=004</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>코스트코 37년간 1.5달러 ‘핫도그 세트’샘스클럽, 1.38달러로 가격 인하 경쟁  35년만에 가격인상 1달러숍, 재인하 고민경기침체 초입에서 고객 지갑열기 전쟁코스트코와 월마트 샘스클럽의 핫도그 세트. 홈페이지 캡쳐 “월마트(샘스클럽)가 ‘핫도그 세트’(핫도그·소다음료)를 1.38달러(약 1780원)로 내린 건 선전포고입니다.”“그래도 코스트코 핫도그 세트(1.5달러·약 1930원)가 소시지도 더 크고 맛있지 않나요.”미국의 양대 창고형 마트인 월마트의 샘스클럽과 코스트코가 ‘가장 저렴한 한끼’ 타이틀을 놓고 전쟁을 시작했다. 두 업체의 대표 메뉴인 핫도그 세트 가격은 사회관계망서비스(SNS) 레딧에서 700여명이 댓글을 달며 공방을 벌였고, 미 언론들도 비교 검증에 나섰다.5일 워싱턴포스트(WP)에 따르면 월마트가 지난달 중순 자사 샘스크럽의 핫도그 세트 가격을 1.5달러에서 1.38달러로 인하하면서 더 싼 가격은 불가능하다는 기존의 선입견을 깼다. 샘스클럽은 “이길 수 없는 새로운 저가”를 홍보문구로 내세웠다.이는 리처드 갈란티 코스트코 최고재무책임자(CFO)가 최근 4분기 실적발표에서 “핫도그 세트 가격은 영원히 1.5달러로 유지될 것”이라고 한 호언장담을 무참하게 깬 도발이다. 지난해 1억 2200만개의 핫도그 세트를 판매했던 코스트코는 손해가 나도 1985년부터 37년간 같은 가격을 유지한 전통을 이어가겠다고 강조했다.지난달 25일(현지시간) 미국 버지니아주 알링턴의 한 의류매장. AP경제매체인 비즈니스인사이더는 “샘스클럽 핫도그는 사우어크라우트, 치즈, 케찹, 머스터드를 포함한 최저가격”이라면서도 “코스트코 핫도그가 소세지의 풍미와 빵 맛이 더 낫다”고 비교 평가했다.두 업체는 또 다른 대표적인 미끼상품인 ‘로티세리 치킨’ 가격으로 치열한 경쟁이 한창이다. 코스트코는 4.99달러(6440원), 샘스클럽은 4.98달러(6430원)다.전년대비 8%나 오른 물가에 위축된 미국 소비자들의 지갑을 열 비법은 사실상 할인 뿐이다. 지난달 28일 전자제품 할인율을 25%로 올린 사이버먼데이 쇼핑액은 총 113억 달러(약 14조 6000억원)로 역대 하루 최대 규모의 매출을 기록했다. 지난해 할인율은 8%였다.1달러 제품을 주로 파는 저가상점 ‘패밀리 달러’도 지난 8월 원재료 가격 상승을 견디지 못하고 35년만에 1.25달러로 가격을 올렸지만, 이후 판매가 저조하자 “경쟁력을 위해 다시 가격을 낮추려 한다”고 CNN이 전했다.지난 6월 미국 시카고의 한 건물에 임차인를 구하는 게시물이 붙어있다. AP이같은 미국 기업들의 할인 경쟁 배후에는 유가와 해상 운송비용의 하락세가 있다. 지난 6월 갤런(3.78L)당 5.26달러까지 치솟았던 소비자 휘발유 가격은 4일(현지시간) 3.672달러로 하락하며 지난해 같은날 가격(3.476달러)에 근접했다. 또 50개주 가운데 17개주에서 이날 휘발유 가격은 1년 전보다 낮아지면서 미국 인플레이션이 정점을 찍고 떨어진다는 진단이 나온다.화물가격 견적업체인 프레이스토스에 따르면 중국에서 미 서부 항구로 컨테이너 한 개를 보내는 비용도 지난해 9월 2만 586달러에서 현재 1935달러로 10분의1 수준으로 되려 떨어졌다.미국 연방준비제도(연준)가 목표로 한 물가안정까지 갈길은 멀지만 긴축기조로 인플레이션이 정점을 지나 오히려 경기침체 시그널이 점점 뚜렷해지는 것으로 분석된다. 월스트리트저널(WSJ)은 “이코노믹스는 내년 미국 경제성장률을 평균 0.2%로 전망했는데, 이는 1989년 이후 3번째로 낮다”며 “지난 10월 WSJ의 설문결과 경제전문가 중 63%가 내년에 미국 경제가 경기후퇴에 빠질 것이라고 예상했다”고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2022.12.08.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>포브스코리아 ‘韓 인기 앱’ 순위에 스타트업 줄줄이 선정</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000860782?sid=101</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>포브스코리아가 한국인이 가장 많이 사용하는 애플리케이션(앱)을 분석한 결과 구글, 메타 서비스에 이어 쿠팡, 당근마켓 등 국내 스타트업 서비스가 다수 선정된 것으로 조사됐다.포브스코리아는 데이터분석기업 TDI와 구글 플레이스토어 등을 기반으로 기기 설치 수, 신규 설치 수, 삭제 수, 활성사용자 수, 평균 실행 횟수, 평균 실행 시간, 평균 총 실행 시간, 평점 등 항목을 분석한 끝에 이 같은 결과가 나왔다고 8일 밝혔다.왼쪽부터 콰트, 윙잇, 피터팬, 퀸잇. /각 사 제공        올해 평가에서 한국인이 가장 많이 사용하는 앱 1위에는 지난해에 이어 유튜브가 올랐고, 2위는 카카오톡, 3위는 인스타그램이었다. 이어 ▲4위 쿠팡 ▲5위 당근마켓 ▲6위 스노어랩 ▲7위 네이버 지도·내비게이션 ▲8위 넷플릭스 ▲9위 티맵 ▲10위 쿠팡플레이였다.부문별 순위에서도 토스, 오늘의집, 배달의민족과 무신사 등 유명 스타트업 앱이 선두를 차지했다. 건강·운동 부문에서는 엔라이즈의 ‘콰트’ 서비스가 4위를 기록했다. 콰트는 5일 운동습관 만들기를 중점으로 나에게 맞는 운동과 가벼운 스트레칭, 근력 및 필라세트 등을 가볍게 시작할 수 있게 해준다. 엔라이즈는 최근 125억원 규모의 시리즈B 투자를 유치했다.식음료(F&amp;B) 부문에서는 푸드 버티컬 커머스 ‘윙잇’이 10위를 달성했다. 윙잇은 데이터 분석과 자체 브랜드를 앞세워 2500여 종의 고품질 간편식을 판매하는 플랫폼이다. 지난 2015년 창업 후 7년여 동안 누적 거래액 800억원을 기록했다. 최근에는 B2B 사업에 진출해 주요 식당과 밀키트 전문점에 납품하며, 소상공인 사업자몰 고객사 300여곳을 돌파했다.부동산 부문에서는 ‘피터팬의 좋은방 구하기(피터팬)’가 10위를 차지했다. 국내 최대 부동산 직거래 커뮤니티로 시작해 앱 버전을 출시했다. 피터팬을 서비스하는 ‘두꺼비세상’은 지난 2013년에 설립해 최근에는 아파트너, 아실 등의 자회사를 갖춰 프롭테크 부문의 강자로 손꼽히고 있다. 이외에도 교육 부문에서는 뤼이드의 인공지능 토익 교육 앱 ‘산타’가, 소셜 부문에서는 오디오 라이브 방송 플랫폼 ‘스푼’이 각각 18위를 차지했고, 쇼핑 부문에서는 40대 패션앱 ‘퀸잇’ 19위에 선정되었다.스타트업 업계 관계자는 “내년에도 실제 소비자에게 얼마나 구체적인 정보를 제공하고 편의성을 높여줄 수 있는지 고도화 여부에 따라 순위가 큰 폭으로 변할 수 있을 것”이라고 전망했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2022.12.06.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>니콘내콘, '토스페이' 간편결제 도입…결제 인프라 확장</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003063821?sid=101</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>토스페이 포함 니콘머니, 일반 카드결제, 니콘페이 등 4가지 결제 서비스 이용 가능네이버페이, 카카오페이 추가 연동 예정…결제 편의성 강화더블엔씨가 기프티콘 거래 플랫폼 니콘내콘의 간편 결제 인프라 확장을 위해 토스페이와 연동을 완료하고 간편결제 서비스를 시작했다고 6일 밝혔다.더블엔씨는 스마트폰 간편결제 서비스 이용이 급증하는 가운데, 니콘내콘 사용자들이 빠르고 편리하게 이용할 수 있는 결제 환경을 제공하기 위해 대표적 간편결제 서비스인 토스페이를 도입했다. 이로써 니콘내콘에서는 토스페이를 포함해 선불 충전 후 사용할 수 있는 니콘머니와 카드 일반 결제, 니콘내콘 전용 간편결제 서비스 니콘페이까지 총 4가지 결제 서비스를 이용할 수 있다.토스 모바일 애플리케이션(앱)을 쓰고 있는 니콘내콘 사용자라면 누구나 간단한 인증만으로도 간편하게 토스페이 결제가 가능하다. 니콘내콘 내 원하는 상품을 고른 후 결제방식에서 토스페이를 선택, 결제 비밀번호를 입력하면 된다.더블엔씨는 이번 간편결제 연동을 통해 니콘내콘 서비스의 안전성과 신뢰도 증진은 물론 다양한 결제 수단을 제공함으로써 고객 편의성을 극대화해 나갈 전망이다.니콘내콘은 서비스 오픈을 기념해 12월 31일까지 토스페이 생애 첫 결제 고객을 대상으로 이벤트를 진행한다. 니콘내콘에서 토스페이로 생애 첫 결제 시 결제금액의 100%를 최대 3천원까지 캐시백을 제공할 예정이다. 이벤트 관련 상세 내용은 니콘내콘 모바일 앱 결제화면을 통해 확인할 수 있다.더블엔씨 경영지원팀 구수완 매니저는 “토스페이 외에도 앞으로 네이버페이, 카카오페이 등까지 서비스를 확장, 고객 결제 편의성을 강화해 나갈 계획”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2022.12.06.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>'페이코' 서명키 유출…고객 폰에 피싱앱 설치 유의해야</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011578198?sid=101</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>기사내용 요약2년 연속 정부 공식 전자서명인증사업자해당 사업자 인증서=구 공인인증서 지위공공기관, 인증수단으로 페이코 활용 중누적다운로드수 1000만…MAU 290만명[서울=뉴시스] 남정현 기자 = 대표적인 공공기관 인증 앱인 NHN페이코의 '서명키' 일부가 유출, 고객 휴대폰에 피싱앱 등이 설치됐을 가능성이 제기된다. 페이코 측은 내용을 인지하고 유출 경위를 파악 중이며 피해 내용은 보고되지 않았다고 밝혔다.5일 금융권 등에 따르면 최근 보안솔루션 기업 에버스핀은 KB국민은행, NH농협은행 등 주요 고객사 30여곳에 '페이코 서명키 유출에 의한 악성앱 제작·유포 주의'라는 공문을 발송했다. 에버스핀은 지난 8월1일부터 11월30일까지 유출된 페이코 서명키를 통해 제작된 악성 앱이 5144건 탐지됐다고 경고했다.구글 '서명키'는 앱 개발사들이 플레이스토어를 통해 앱을 등록·배포할 때 특정 개발사 앱이라는 점을 증명하는 역할을 하는 도구다. 다만 페이코 관계자는 "'서명키'는 페이코 고객의 개인정보와는 관계가 없다"며 "현재 페이코쪽으로 접수된 피해 사례도 확인된 바 없다"고 강조했다.에버스핀은 KB국민은행, NH농협은행, 핀다, 삼성카드, KB국민카드, 현대카드, 롯데카드, 우리카드, NH농협카드, 삼성생명, 한화생명 등 국내 수십 여개 금융사 앱 사용자들을 대상으로 악성 앱 탐지 서비스를 제공하고 있다. 악성 앱들은 '피싱' 앱으로 활용, 고객 정보를 가로챈다. 전화 송수신 내역이나 문자 수·발신 내역 등을 통해 지인들에게 피싱 문자를 전송하는 식이다. 휴대폰 내 메모장이나 사진첩에 저장해 둔 주민등록증, 통장 사진, 비밀번호를 가져갈 수도 있다. 심한 경우엔 해커 마음대로 휴대폰을 원격조종할 수도 있다.페이코는 악성앱이 고객의 휴대폰에 심어졌을 가능성에 대해, 현재 비정상적 경로를 통한 강제 설치 외에 앱스토어 등을 통한 정상적인 페이코앱 다운로드를 통해선 문제가 없다는 입장이다. 페이코는 "피싱문자 내 다운로드 링크 등 비정상적 경로를 통해 설치된 경우 발생할 수 있는 문제"라며 "스토어를 통해 정상적으로 페이코 앱을 다운받는 경우에는 문제가 없는 상황"이라고 해명했다.페이코는 지난 8월 페이코의 서명키가 유출된 것을 인지한 후 장애요인을 비롯한 서비스 영향도 등을 파악하며 서명키 변경 작업을 진행해 왔다. 페이코는 이번주 중 신규 서명키를 활용한 앱 업데이트를 실행한다는 계획이다. 페이코는 "현재 기존 서명키로 제작된 악성앱의 작동을 무효화할 수 있는 방안을 보안 협력업체와 논의 중"이라며 "이른 시일 내에 해결책을 마련해 적용할 계획"이라고 밝혔다.앞서 페이코는 지난해 국내 민간인증서 사업자 최초로 과학기술정보통신부로부터 전자서명인증사업자로 선정, 직접 인증서를 발급할 수 있게 됐다. 전자서명인증사업자가 발급한 인증서는 공동인증서(구 공인인증서)와 동등한 법적 지위가 부여된다. 민간인증서 사업자론 이동통신 3사의 'PASS'를 비롯해 카카오, 네이버, 토스, KB국민은행 등이 있다.이어 페이코는 올해 2년 연속 전자서명인증사업자에 선정됐는데, 당시 보도자료를 통해 "2년 연속 정부 공식 전자서명 인증사업자에 선정됨으로써 페이코 인증서의 수준 높은 보안체계와 기술력, 서비스 운영 역량을 다시 한번 입증하게 됐다"며 "앞으로도 꾸준한 서비스 개선을 통해 더욱 다양한 기관과 국민들이 선택하는 국내 대표 인증 서비스로 발전해 나갈 것"이라고 밝힌 바 있다. 페이코는 2020년 말 '공공분야 전자서명 시범사업자'로 선정됐고, 국세청 홈택스와 정부24 등을 비롯해 국민건강보험, 국민비서, 국민신문고, 개인통관고유번호, 위택스 등 주요 공공서비스엔 페이코 인증서가 적용돼 왔다. 페이코는 구글 플레이스토어 기준 누적다운로드수가 1000만이 넘고 월활성사용자수(MAU)만 290만명에 달한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2022.12.07.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>한화손보, ‘모바일 전자증명서 제출 서비스’ 오픈</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003761732?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>한화손해보험은 행정안전부의 정부 전자문서지갑을 연계해 ‘모바일 전자증명서 제출 서비스’ 시스템을 구축하고, 고객이 보험업무에 필요한 종이 민원 증명서를 디지털 기반의 모바일 전자증명서로 대체 제출할 수 있는 서비스를 시작한다고 6일 밝혔다.      이에 따라 주민등록등본, 가족관계증명서와 같은 민원 증명서 제출이 필요한 고객은 모바일앱에서 전자문서지갑을 통해 바로 한화손보로 전송을 요청하면 된다. 행정기관 방문, 서류발급, 보험사 제출과 같은 번거로운 과정이 디지털화 되고, 문서출력도 줄어드는 ESG(환경·사회·지배구조) 차원의 장점이 생긴 것이다.     한화손보는 이 서비스를 현재 의료수급권자 할인신청, 지정대리청구인 지정과 같은 장기보험계약 변경업무에 적용 중이며, 향후에는 장기보험업무 전반 외에도 일반·자동차보험 관련 업무까지 확대할 계획이다.     한화손보 관계자는 “모바일을 연계한 디지털 트렌드 변화에 선제적으로 대응하고자 이번 서비스를 개발했다”며 “앞으로도 디지털 기반의 계약관리 서비스를 다양화 함으로써 고객 편익에 앞장설 것” 이라고 밝혔다.     전자문서지갑이란 행정, 공공기관에서 발급하는 종이 민원 증명서를 암호화된 전자문서 형태로 발급받아 보관할 수 있는 클라우드 기반의 개인 저장소로 ‘정부24’ 와 같은 공공 앱은 물론, 민간 앱인 ‘네이버, 카카오, 페이코, 토스’ 에서도 만들어 사용할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2022.12.05.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>5대은행 '개인사업자대출' 감소세…빈틈 노리는 인터넷은행</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006499902?sid=101</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>5대은행 개인사업자 대출 2달 연속 감소…"대출 심사 강화""한도 잘 나오는 인뱅"…대안 신용평가모델 덕분ⓒ News1 이지원 디자이너(서울=뉴스1) 한유주 기자 = 5대 시중은행의 개인사업자 대출 잔액이 두달 연속 줄어든 가운데 이제 막 사업에 뛰어든 인터넷은행들이 그 틈을 빠르게 메우고 있다. 비금융정보를 활용한 대안 신용평가 모델이 시중은행의 '높은 벽'에 가로막힌 소상공인·자영업자들을 불러 모으고 있다는 평가가 나온다.5일 금융권에 따르면 5대(KB국민·신한·우리·하나·NH농협) 시중은행의 11월말 개인사업자 대출 잔액은 314조7504억원으로 전달 대비 573억원 감소했다. 개인사업자대출은 10월에도 전달 대비 4602억원 줄어 두달 연속 감소세를 기록했다.  코로나19 이후 빠르게 늘어난 개인사업자대출은 올 9월만 해도 증가세를 이어갔지만 이처럼 분위기가 반전됐다. 자금시장 경색으로 은행 대출 문턱이 높아졌기 때문이다. 채권 발행이 어려워진 탓에 상대적으로 규모가 큰 기업들이 은행문을 두드렸고, 역시 자금난에 시달린 은행들이 리스크가 높은 개인사업자대출부터 심사를 강화한 것이다. 이런 상황에서 올 들어 개인사업자대출 사업을 시작한 인터넷은행 3사는 결과적으로 득을 보고 있다. 토스뱅크는 올 2월 개인사업자 신용대출을 업계 최초로 출시해, 11월말 기준 잔액 약 1조2000억원을 돌파했다. 이어 케이뱅크가 업계 유일하게 담보대출을 출시한 데 이어 신용대출까지 내놨고, 11월에는 카카오뱅크가 신용대출 상품을 출시해 한달만에 약 500억원을 공급했다. 자영업자들이 모이는 인터넷카페에도 인터넷은행들의 개인사업자대출을 문의하는 글들을 쉽게 볼 수 있다. 이용자들이 인터넷은행을 주로 추천하는 이유는 "1금융권인 데다가, 한도가 잘 나와서"다. 애초에 기술력을 통해 '중저신용자'에게 대출 기회를 공급하기 위해 출범한 인터넷은행들은 자체 신용평가 모델로 대출 심사를 한다. 비금융 정보까지 신용평가에 반영하기 때문에 전통적인 신용평가 모델을 사용하는 경우보다 유리한 조건으로 대출을 받을 수 있다는 입소문이 퍼졌다. 케이뱅크는 스마트폰 요금 납부이력, 쇼핑 정보 등을 가명 처리한 데이터를 반영해 신용도를 다각도로 분석하는 신용평가모델을 대출에 적용하고 있다. 케이뱅크에 따르면 이 모델을 사용할 경우 중저신용자의 승인율은 기존 대비 18.3%가량 증가한다. 토스뱅크는 자체 개발한 신용평가 모형을 대출심사에 사용하고 있는데, 매출액이 크지 않더라도 연소득과 매출이 일정해 상환 능력이 인정된다면 단기간에 높은 소득을 올린 사업자보다 높은 신용도를 받을 수 있다. 카카오뱅크도 이동통신3사의 납부정보, 머신러닝 기술을 활용한 자체 신용평가모델을 활용하고 있는데, 개인사업자의 신용도를 다각도로 분석하기 위해 특화 모델을 개발해나갈 계획이다.한 인터넷은행 관계자는 "개인사업자대출은 인터넷은행에는 사업 다각화의 기회기도 하지만 그간 대출을 받기 어려웠던 고객들에게도 실질적인 도움이 될 수 있을 것으로 기대한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2022.12.05.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>[성금내역]스무 살에 임신 후 발달장애 둘째와 아이 넷 돌보는 한소영 씨에 2,129만원 전달</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/088/0000787247?sid=102</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>돌봐줄 사람도 없이 암 진단 받고 폐지더미 속에 누워있는 이상건 씨에 2,663만원 성금발달장애아들과 세 아이들을 돌보고 있는 한소영(가명·36) 씨가 관리비 납부 고지서를 바라보고 있다. 김세연 기자◆스무 살에 임신 후 발달장애 둘째와 아이 넷 돌보는 한소영 씨에 2,129만원 전달스무 살에 임신해 발달장애 둘째 아들 등 아이 넷을 돌보며 생활고에 시달리는 한소영(매일신문 11월 22일 자 10면) 씨에 2천129만7천630원을 전달했습니다.이 성금에는 ▷이신덕 30만원 ▷문심학 15만원 ▷이재일 10만원 ▷곽정수 5만원 ▷라선희 3만3천원 ▷이강준 3만원 ▷이병규 2만5천원 ▷신종욱 2만원 ▷김강현 1만1천원 ▷권오영 1만원 ▷안영숙 1만원 ▷이서영 1만원 ▷이성우 1만원 ▷이현민 1만원 ▷정혜원 1만원 ▷이진기 5천원 ▷이장윤 2천원 ▷'희망지원' 6천630원 ▷'따스한햇살' 5천원이 더해졌습니다. 성금을 보내주신 모든 분들께 진심으로 감사드립니다.올해 초 암진단을 받은 이상건(69) 씨가 돌봐주는 사람 없이 폐지 더미 사이에 누워있다. 김세연 기자.◆돌봐줄 사람도 없이 암 진단 받고 폐지더미 속에 누워있는 이상건 씨에 2,663만원 성금사업 실패와 함께 생활고로 이혼한 뒤 폐지 줍기로 생계를 유지하다가 암 진단을 받은 이상건(매일신문 11월 29일 자 10면) 씨에 62개 단체, 289명의 독자가 2천663만800원을 보내주셨습니다. 성금을 보내 주신 분은 다음과 같습니다.▷건화문화장학재단 200만원 ▷보현회 100만원 ▷㈜대구은행 100만원 ▷피에이치씨큰나무복지재단 100만원 ▷다우약품 50만원 ▷세무법인송정 50만원 ▷스마트치과 50만원 ▷신라공업 50만원 ▷㈜태원전기 50만원 ▷한라하우젠트 50만원 ▷㈜태린(이정훈) 40만원 ▷삼성기공(장태종) 30만원 ▷㈜신행건설(정영화) 30만원 ▷한미병원(신홍관) 30만원 ▷㈜동아티오엘 25만원 ▷㈜백년가게국제의료기 25만원 ▷(재)대백선교문화재단 20만원 ▷금강엘이디제작소(신철범) 20만원 ▷대창공업사 20만원 ▷대흥분쇄기(한미숙) 20만원 ▷법무사김태원 20만원 ▷성서미네랄커피 20만원 ▷경주천마자동차전문학원 10만원 ▷고려실리콘산업 10만원 ▷김영준치과 10만원 ▷동양자동차운전전문학원(최우진) 10만원 ▷세움종합건설(조득환) 10만원 ▷유안(손서윤) 10만원 ▷㈜구마이엔씨(임창길) 10만원 ▷㈜우주배관종합상사(김태룡) 10만원 ▷㈜이구팔육(김창화) 10만원 ▷㈜태광아이엔씨(박태진) 10만원 ▷프루스트(한유미) 10만원 ▷한옥집성서점 10만원 ▷현대블루헨즈 진천점 10만원 ▷건천제일약국 5만원 ▷김남화대흥당약업사 5만원 ▷명ＥＦＣ(권기섭) 5만원 ▷베드로안경원 5만원 ▷봉란옥(이순자) 5만원 ▷봉산교회(김명묵) 5만원 ▷세무사박장덕사무소 5만원 ▷세창산업(강석원) 5만원 ▷수가성식당(최병기) 5만원 ▷우리들한의원(박원경) 5만원 ▷위드앤영수학원(강나원) 5만원 ▷윤상원 회계사 5만원 ▷이전호세무사 5만원 ▷전피부과의원(전의식) 5만원 ▷창성공업사(남정복) 5만원 ▷채성기약국(채성기) 5만원 ▷칠곡한빛치과의원(김형섭) 5만원 ▷흥국시멘트 5만원 ▷국선도풍각수련 3만원 ▷매일신문구미형곡지국(방일철) 3만원 ▷㈜동신통신(김기원) 3만원 ▷청산(우창하) 3만원 ▷대원전설(전홍영) 2만원 ▷서성상회(박형근) 2만원 ▷지오안경마트 2만원 ▷온누리약국(최영석) 1만원 ▷하나회 1만원▷김상태 도경희 각 100만원 ▷이정추 90만원 ▷김진숙 조성택 각 50만원 ▷권승희 30만원 ▷고세경 정인채 진민지 각 20만원 ▷곽용 김미숙 김이영 김인 김지태 박재규 서상하 서선화 성소현 송미림 안지현 오방현 윤선희 이재일 정병훈 조득환 최그림 최창규 한미경 각 10만원 ▷박민철 7만원 ▷강경주 강봉열 김경호 김순영 김순향 김은경 김정순 김정일 김한숙 김해윤 박계순 박용득 박정희 박진숙 박진애 변대석 서정오 신광련 안광헌 안대용 윤순영 이경숙 이동욱 이종하 이창영 이태경 임채숙 전우식 정미라 정세비 지영혜 진국성 차재영 최상수 최종호 하선정 황영숙 각 5만원 ▷고선영 곽병완 곽옥순 권규돈 권영주 김다인 김달빛 김미랑 김미진 김서영 김순애 김신완 김유진 김정훈 김형나 남영희 문광석 문현정 박덕 박민구 백미경 변현택 심은정 안정미 우주화 윤성영 윤정란 윤혜연 이미식 이서연 이석우 이연경 이은옥 이재열 이점숙 이종완 조진우 채희경 최수연 최춘희 하경석 홍은정 각 3만원 ▷김동진 김태욱 김현주 남정민 류휘열 민윤자 박경리 박기영 박성미 박은비 박진휘 반규민 방태표 서숙영 서영선 서은경 안서범 안현준 양수현 유귀녀 윤영선 이경화 이병순 이서현 이운호 이은희 이재민 이한나 이해수 장우석 장지영 정주현 조용인 최혜숙 홍준표 각 2만원 ▷이채하 1만5천원 ▷감태준 강보경 강아름 권오현 기혜련 김균섭 김나리 김덕우 김동준 김민정 김복화 김성옥 김수민 김정희 김지명 김태상 김태천 김해용 김홍은 남연서 남자현 박건우 박경숙 박미오 박애선 박영재 박은숙 박인배 박태용 박홍선 배상영 배정준 백주영 백진규 서혜선 성영아 소준석 손규리 송숙자 어정화 우순화 유명희 윤인주 이미경 이미진 이영수 이운대 이은재 이정미 이정현 임경미 임진영 장문희 장미향 정다빈 정미아 정미희 정영선 정유미 정준홍 정진아 조영식 조진구 지호열 채윤지 최경철 최은정 한정화 한준영 황도건 각 1만원 ▷이현주 7천원 ▷김보현 김인희 배선영 서형덕 신재원 안명호 유수현 유은주 이찬미 이형준 조민경 조정아 각 5천원 ▷김채윤 4천원 ▷권두영 유연경 각 3천원 ▷김서연 이수미 각 2천원 ▷최연준 1천원▷'박명숙(이상건후원)' '이상건씨성금' '주님사랑' '최헌수(힘내세요)' '홍종배베드로' '힘내세요!' '힘내시길' 각 10만원 ▷'elgrace' 6만원 ▷'김다마소' '김덕자아녜스' '김영숙-이상건씨후원' '세실' '우리정원수' '이상건님께' '이상건씨　힘내세요˜' '이상건씨성금으로' '재원수진' '최한태최수진' 각 5만원 ▷'아프지마세요' 3만5천원 ▷'***' 'noname' '건강하세요' '고.박기순.이상건씨' '따뜻한스누피' '이상건님께보태주세요' '이상건님후원' '지원정원' 각 3만원 ▷'ZHAOGUO' '고필훈성금' '김인경이상건님' '류현수.류미리' '매일신문이웃사랑기부' '석희석주' '이상건님께꼭..' '재훈' '해만진주이안' 각 2만원 ▷'김이든-힘내세요' '남미옥 힘내세요' '무명' '부산대김백녕' '소액이라미안합니다' '이상건님 힘내세' '이여주(이상건씨께)' '지현이동환이' '한동엽 기부' '현아' '힘내세요(대구)' '힘내세요이상건!' 각 1만원 ▷'힘내세요(카뱅)' '파이팅' 각 5천원 ▷'작은손길' 3천원 ▷'지성이' '채영이' 각 2천원 ▷'힘내세요(토스)' 1천원 ▷'수중의돈' '티끌모아태산' 각 400원</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2022.12.14.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>결제 많은 당신, 네이버플러스가 딱…관리·통신비는 토스 캐시백이 유리…할인 원한다면 카카오페이가 답</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003324972?sid=101</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>커지는 간편결제 시장… 천차만별 혜택 따져보니애플페이의 국내 진출과 카드사들이 연합한 결제 서비스 오픈페이 출격 등이 예고되면서 간편결제 시장이 소용돌이치고 있다. 이에 기존 시장을 점유하고 있는 네이버파이낸셜, 카카오페이, 토스 등 빅테크 계열 국내 간편결제 3대장 사이에서도 긴장감이 돈다. 고물가·고금리 시대에 소비를 하면서도 한 푼이라도 아낄 방법을 찾으려 ‘손품’을 파는 고객 역시 늘고 있다.14일 한국은행에 따르면 올 상반기 간편결제 이용 실적은 일평균 2317만건, 7232억원 규모로 집계됐다. 지난해 하반기와 비교하면 이용건수는 8.3%, 금액은 10.7% 증가한 수치로 간편결제 이용은 꾸준히 늘어나는 추세다.●네이버 유료 멤버십 최대 5% 적립직장인 김모(26)씨는 올 한 해 네이버페이 포인트로만 80만원을 적립했다. 사용금의 최대 5%를 적립받을 수 있는 네이버플러스를 사용한 덕이다. 김씨처럼 온라인 결제 사용금이 많다면 유료 멤버십에 가입하는 것이 유리하다. 네이버페이 가맹점의 기본 적립률은 1%인데, 월 이용료를 내고 멤버십에 가입하면 최대 5%까지 적립받을 수 있다. 아울러 티빙 등 디지털 콘텐츠 이용권을 받을 수 있고 가족이나 친구 3인까지 무료로 함께 서비스를 이용할 수 있다.●토스, 관리비 등 납부 금액별 캐시백토스도 이용료를 내면 추가 혜택을 주는 토스프라임 서비스를 운영하고 있다. 이날 기준 한 달에 20만원 이하 이용금액에 대해서는 6%가 적립된다. 오는 22일부터는 20만원까지는 4%, 20만원부터 60만원의 금액에 대해서는 1%가 적립된다. 월 최대 적립한도는 1만 2000원으로 1년에 14만 4000원가량을 적립할 수 있는 셈이다. 네이버플러스와 비교해 적립률이 낮고 한도가 있지만, 아파트 관리비나 통신비 등을 납부금액에 대한 캐시백을 받을 수 있다는 것이 장점이다. 별도 멤버십 없이 가맹점 즉시할인을 노리는 것도 방법이다.●카카오페이, 미션 참여형 이벤트 재미카카오페이에는 일정 비율을 정해 둔 포인트 적립이나 멤버십 서비스가 없다. 다만 미션에 성공하면 포인트를 주는 식의 참여형 이벤트로 짭짤한 혜택을 볼 수 있다. 최근 작은 리워드를 모아 큰돈을 만드는 이른바 ‘디지털 폐지줍기’를 하는 MZ세대(20~30대)도 늘고 있다. 결제처에 따라 금액의 10%까지 할인을 해 주거나 ‘원 플러스 원’(1+1) 혜택 등도 제공한다. 최근 카카오페이는 일본·중국·싱가포르 등으로 간편결제처를 넓히고 있어, 해외여행을 떠났을 때 활용할 만하다.이러한 간편결제 서비스를 타 금융상품과 결합해 추가로 돈을 아끼는 방법도 있다. 자주 쓰는 간편결제 서비스에 특화된 상업자 표시 신용카드(PLCC)를 발급받거나, 선불충전금에 연 4% 금리가 적용되는 수시입출금 통장 등을 활용할 수 있다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2022.12.01~2022.12.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.12.01~2022.12.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2022.12.08.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>브랜드엑스코퍼레이션 자회사 이루다마케팅, 35억원 투자유치</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006507095?sid=101</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>기업가치 300억원 인정받아로고.(이루다마케팅제공)(서울=뉴스1) 김진희 기자 = 미디어커머스 기업 브랜드엑스코퍼레이션은 온라인 마케팅 자회사 이루다마케팅이 최근 35억원 규모의 신규 투자를 유치하며 기업가치 300억원을 인정받았다고 8일 밝혔다.이번 투자는 중소벤처기업 투자 전문회사인 오엔벤처투자가 조성한 두 곳의 투자조합을 통해 이뤄졌다. 이루다마케팅의 지분 12%를 취득했다.이루다마케팅은 2011년 패션브랜드를 전문으로 하는 퍼포먼스 마케팅 회사로 시작했다. 높은 소비자 이해도와 브랜드 전략 수립부터 실행까지 한 번에 가능한 마케팅 전문성과 운영 노하우를 바탕으로 현재 누적 3000여 고객사를 보유하고 있다.모회사에서 운영 중인 젝시믹스, 휘아 브랜드를 비롯해 농심, 매일유업 등의 통합마케팅을 진행하며 국내 굴지 기업들의 러브콜을 받고 있다.메타, 구글, 네이버, 카카오, 토스 등 국내외 40여개 매체에 대한 공식 대행권을 갖고 있다. 퍼포먼스 마케팅, 미디어 광고, 통합마케팅커뮤니케이션(IMC), 브랜딩 등 경계없는 마케팅 서비스를 제공하는 디지털 종합 광고대행사로서 입지를 다지고 있다.이루다마케팅은 최근 3년간 연평균 약 60%의 매출 성장률을 기록했으며, 올해도 전년대비 외형 성장세는 지속될 전망이다.수익성 측면에서도 3분기 누적 영업이익률 38% 수준을 달성하며 탄탄한 내실경영을 유지하고 있다. 외부 고객사 유치에 따라 기존 캡티브(계열사) 매출 비중이 줄고 논캡티브(비계열사) 매출이 커진 결과라고 회사 측은 설명했다.내년부터는 B2B 및 오프라인 마케팅(BTL) 등 신규 사업 발굴에 주력하면서 매출 성장세와 함께 영업이익 80억원을 목표로 두고 있다. 자체 콘텐츠 확대를 통해 기업 브랜딩과 시장 내 입지를 공고히 할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2022.12.08.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>재직·장애증명서 등 민원 신청 서류도 ‘전자증명서’로 낸다</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003191575?sid=102</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>서울시가 민원 신청에 필요한 증빙 서류를 모바일 전자증명서로 제출할 수 있도록 자동으로 정보를 추출하는 자체 시스템을 개발했다. 이에 따라 실물 종이 서류 없이 전자증명서(왼쪽)를 해당 기관의 사업명을 검색하거나 QR코드(오른쪽)를 스캔해 제출할 수 있다. 서울시 제공지자체에 신청하는 각종 민원·서비스에 필요한 서류도 종이증명서 대신 전자증명서로 제출할 수 있게 된다.서울시는 구비서류를 종이증명서 대신 스마트폰에 내려받은 모바일 전자증명서로 대체하는 방식을 단계적으로 도입한다고 8일 밝혔다.지금도 모바일 전자증명서를 사용할 수는 있었으나 문서열람번호를 별도로 첨부해야 하고, 자동 등록 형식이 아니라 이미지(PDF 파일)로 제출해 공무원이 내용을 일일이 대조한 후 사실관계를 확인하는 방식이었다.현재 참가자를 모집 중인 건강 관리 프로그램 ‘손목닥터9988’처럼 대상자가 18만명에 달하고, 내년 시행 예정인 ‘기부식품 지원’ ‘장애인주택 특별공급신청’ 등 수만명이 관련 서류를 제출해야 하는 경우 행정력·인력의 한계로 일괄 처리가 어려운 셈이다.이에 서울시는 전자증명서의 정보를 자동으로 추출해 확인하는 자체 관리 시스템을 개발했다. 민원인이 문서열람 번호나 서류 이미지로 제출하지 않아도 전자증명서에서 필요한 내용을 불러오는 것이다. 첫 개발 항목은 ‘고용보험 자격이력 내역서’로 이제 재직증명서 없이 해당 전자증명서를 통해 서울 소재 직장에 다니고 있다는 사실을 확인할 수 있다. 이달 접수를 받는 ‘손목닥터9988’ 사업에 즉시 적용된다.서울시 관계자는 “종이 증명서는 한 번 제출하면 되돌릴 수 없으나, 전자증명서는 제출 후에도 담당 공무원이 열람하기 전에는 시민이 원하면 돌려받을 수 있다”며 “공무원이 열람한 경우 모바일 앱에 따라서는 ‘완료 알림’을 받을 수도 있다”고 설명했다.대상 증명서는 정부24(약 300종), 네이버(62종), 카카오(7종), 신한은행(5종), 토스(64종), 서울지갑(8종) 등 모바일 앱에서 발급받는 전자증명서다. 개인별 전자문서 지갑을 만들어 정부24 회원가입을 마친 뒤 증명서를 발급받아 모바일에 보관하고 각종 모바일 앱에서 공유해 사용하면 된다. 모바일 발급은 바로 제출하면 되지만 컴퓨터를 이용해 정부24에서 발급받는 증명서는 ‘온라인 발급(전자문서지갑)’을 선택해야만 증명서가 저장된다.이혜경 서울시 디지털정책관은 “전자증명서 서비스를 확대해 시민이 필요할 때 언제, 어디서든지 관련 구비서류를 모바일로 즉시 제출해 신속한 행정 처리가 가능하도록 하겠다”라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2022.12.08.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>모바일뱅킹 앱 하나로 주식·채권·금 투자 '한방에'</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011581153?sid=101</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>기사내용 요약토스뱅크, 우량 채권상품 소개하며 완판 행진케이뱅크, 국내외 주식과 귀금속 투자 서비스[서울=뉴시스] 고승민 기자 = 달러화 강세에 국제 금값이 4개월 연속 하락세를 보이고 있는 것으로 알려진 26일 서울 종로구 한국금거래소에서 판매중인 골드바 모습. 최근 금값은 인플레이션 상황에도 지속적인 하락세를 보이고 있다. 이는 지난 2020년 11월 이후 가장 긴 하락세다. 2022.07.26. kkssmm99@newsis.com[서울=뉴시스] 이정필 기자 = 인터넷전문은행들이 모바일뱅킹 앱을 통한 혁신 서비스를 확대하며 기존 은행권과의 차별화 전략을 펴고 있다. 모바일 앱으로 간편하게 국내외 주식과 채권, 금 등에 투자할 수 있는 서비스를 선보이며 경쟁력을 높여나가는 모습이다.8일 금융권과 각사에 따르면 토스뱅크는 경쟁력 있는 제휴사 금융상품을 선별해 소개하는 '목돈 굴리기' 서비스를 운영하고 있다. 지난달부터 주력 소개 상품으로 한국투자증권의 채권 상품 광고를 시작했다.이 서비스는 국고채와 은행채, AA등급 이상의 우량 회사채를 중심으로 취급한다. 11월 말 기준 토스뱅크 광고를 통해 판매된 채권액은 1300억원 규모다.현재까지 17개의 국고채, 은행채, AA등급의 채권을 상품당 100억원 내외 한도로 소개했다. 이 중 15건이 완판되며 인기를 끌고 있다.금리가 6.5%대로 높고 만기도 짧은 상품들의 경우 오픈 2~3시간 만에 완판됐다. 대부분의 상품이 1~2일 내에 한도가 소진됐다.4% 중후반대로 수익률도 상대적으로 낮고 투자기간도 2~4년으로 길지만 안전성이 확고한 국고채권이나 국민주택1종채권 등도 인기를 끌면서 고객의 다양한 수요를 확인했다는 설명이다. 채권 구입을 위해 토스뱅크를 통해 한국투자증권 계좌 개설을 새로 한 고객은 1만2000여명에 달한다.토스뱅크는 수익계산기 기능을 제공해 투자 원금과 기간에 따른 수익 금액을 직관적으로 확인할 수 있도록 했다. SK하이닉스, 삼성카드, GS그룹 등 일반고객에게 친숙한 회사의 채권을 주로 소개해, 처음 접하는 고객의 상품에 대한 심리적 거리감을 줄인 것도 주효했다는 분석이다.케이뱅크는 NH투자증권과 제휴를 통해 국내와 미국 주식거래가 가능한 서비스를 도입했다. 미국주식의 경우 별도의 환전 절차 없이 원화로 투자할 수 있다.주식투자서비스는 케이뱅크에서 개설된 NH투자증권 계좌를 보유한 고객이면 이용 가능하다. 계좌가 없더라도 케이뱅크 앱에서 계좌를 개설한 후 이용할 수 있다.케이뱅크는 금 간편투자 서비스도 운영하고 있다. 한국금거래소와 아이티센그룹이 만든 한국금거래소디지털에셋의 모바일 금 거래 플랫폼 센골드를 통해 이용 가능하다.금과 은, 플래티넘(백금), 팔라듐 등 실제 금속을 디지털 상품화해 소수점 단위로 사고팔 수 있다. 금속은 0.01g 단위로 매매할 수 있고 100g 단위로 실물 인출도 가능하다. 케이뱅크 모바일뱅킹 앱에서 센골드 서비스에 가입하고 이용할 수 있다.플래티넘과 팔라듐은 고가의 장신구에 들어가는 귀금속으로 자동차 배기가스 정화 촉매 원료로도 쓰이는 산업재다. 은의 경우 반도체, 휴대폰 회로, 태양광 집전판 등에 다양하게 사용된다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2022.12.07.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>"정책 접근성 높인다" 소진공, 토스와 협업 약속</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006504734?sid=101</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>토스앱에 소상공인 지원사업 연계하여 협업 시너지 기대(소진공 제공)(서울=뉴스1) 이민주 기자 = 소상공인시장진흥공단은 토스와 협업해 소상공인의 정책 접근성을 높일 것이라고 7일 밝혔다.소진공과 토스 관계자는 이달 2일 세부적인 협업과제 발굴과 실무토론을 위해 토스 본사에서 혁신워크숍을 개최한 바 있다. 워크숍에는 소진공의 새로운 혁신동력인 혁신이끄미 20명과 토스팀 실무 담당자 7명이 함께 참석했다.이들은 토스의 일하는 방식과 혁신적인 조직문화를 공유했으며, 향후 양 기관이 함께 추진할 협업과제를 발굴하고, 구체화하기 위해 토론을 진행했다. 토론과제는 토스앱을 활용한 소상공인 정책자금 취급방안, 온누리상품권 플랫폼 연계방안, 소상공인 원스톱 정부지원 사업 홍보방안, 내년도 출시 예정인 토스 플레이스 단말기와 연계한 온누리상품권 활성화방안 등이다.논의된 과제들은 단기와 장기과제로 구분하고 담당자를 지정해 지속적으로 밀착 관리해 나갈 계획이다. 워크숍에 참여한 소진공 관계자는 "민간기업은 현안문제를 어떻게 도출내고 어떤 방식으로 해결하는지 배울 수 있는 좋은 기회였다"며 "향후 우리의 노력이 소상공인을 위한 서비스 개선으로 이어질 수 있도록 반드시 성과를 만들겠다"고 말했다. 박성효 소진공 이사장은 "공공기관과 우수 민간기업 간 협력으로 과감한 업무 효율화를 이끌어내고 소상공인이 체감할 수 있는 서비스를 구현해 나가겠다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2022.12.11.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>IPO 급랭에 올해 장외시장도 '휘청'…컬리·두나무 70%대 급락</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013635071?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>"내년에도 장외시장 부진 예상…투자자 신중히 접근해야"(CG)[연합뉴스TV 제공]    (서울=연합뉴스) 채새롬 기자 = 증시 불안에 기업공개(IPO) 시장이 얼어붙으면서 올해 들어 비상장 기업들의 가치도 눈에 띄게 떨어졌다.     장외시장 부진은 내년 상반기까지 이어질 것이라는 관측이 나온다.     11일 비상장 주식 거래소인 증권플러스 비상장에 따르면 일반투자자들이 이 플랫폼에서 거래할 수 있는 시가총액 상위 20개 종목 중 올 초부터 현재까지 거래되는 14개 종목의 합산 시가총액은 올해 1월 초 기준 45조8천691억원에서 이달 9일 19조5천73억원으로 57% 줄어들었다.     개별 유니콘(기업가치가 1조원을 넘는 비상장 스타트업)을 보면 기업가치 하락세는 더욱 가파르다.    간편결제 플랫폼 토스를 운영하는 비바리퍼블리카는 전문투자자 종목이어서 통계에 포함되지 않았으나 1주당 가격이 작년 말 14만3천원에서 이달 9일 3만9천700원으로 72.2% 급락했다.     유가증권시장 상장을 앞둔 컬리는 올해 1월 25일 11만5천원에서 이달 9일 3만600원으로 73.4% 떨어졌고, 역시 유가증권시장 상장을 앞둔 케이뱅크는 올해 3월 8일 2만3천400원으로 고점을 찍은 뒤 1만2천원 수준으로 48.7% 내렸다.     야놀자는 작년 말 9만9천원에서 현재 4만8천800원으로 50.7% 하락했고, 현대오일뱅크는 작년 말 7만4천500원에서 3만7천원으로 50.3% 하락했다.    암호화폐거래소 관련 기업의 하락 폭은 더 크다. 업비트 운영사인 두나무는 작년 말 51만원에서 12만6천원으로 75.3%, 빗썸 운영사인 빗썸코리아는 작년 말 60만원에서 9만1천500원으로 84.8% 급락했다.     금융투자협회에서 운영하는 K-OTC(한국장외주식시장) 시총도 올해 2월 46조3천758억원에서 이달 8일 17조7천495억원 수준으로 61.7% 줄어들었다.     2020∼2021년 IPO 시장 흥행으로 비상장 기업들의 몸값도 덩달아 높아졌지만, 올해 들어 주식 시장 침체에 자금 경색이 겹치며 직격탄을 맞은 것이다. 비상장사가 당분간 IPO에 나서기 힘들어진 것도 가치 하락에 영향을 끼쳤다는 해석이 나온다.    올해 들어 현대엔지니어링, SK쉴더스, 원스토어, 라이온하트스튜디오 등 조 단위 '대어'가 증권신고서를 제출했다가 상장을 철회했고, CJ올리브영, SSG닷컴 등은 상장 계획을 연기했다. 11월 이후에도 밀리의서재, 바이오인프라, 자람테크놀로지 등이 코스닥 상장 추진을 철회했다.    황세운 자본시장연구원 연구위원은 "내년 상반기까지는 주식시장이 현재와 같은 하락 흐름을 이어갈 가능성이 높기 때문에 IPO에 나서는 비상장기업이 제한적일 것으로 예상된다"며 "투자자들의 관심도도 떨어지면서 장외시장 부진이 이어질 것"이라고 내다봤다.    이어 "비상장 기업은 투자자들이 기업정보를 확보할 수 있는 경로 자체가 적은 편이기 때문에 정보의 비대칭성도 크다"며 "투자 위험을 신중하게 판단할 필요가 있다"고 덧붙였다.     srchae@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2022.12.07.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>다올인베, 매각 추진에 급등…다올證 하락 전환(종합)</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011580596?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>기사내용 요약다올투자증권, 자회사 다올인베 매각 추진 [서울=뉴시스]다올투자증권 본사 전경[서울=뉴시스] 류병화 기자 = 다올인베스트먼트가 매각된다는 소식에 9% 상승 마감했다. 모회사 다올투자증권은 상승 후 하락 반전해 거래를 마쳤다.7일 한국거래소에 따르면 다올인베스트먼트는 전 거래일 대비 275원(8.94%) 상승한 3350원에 거래를 종료했다.모회사 다올투자증권은 장중 전 거래일보다 17.42% 올랐으나 상승폭을 반납하며 2.73% 하락 마감했다.다올투자증권은 다올인베스트먼트 매각을 위해 삼일PwC를 주관사로 선정하고 인수 후보자들을 상대로 인수 의사를 살피고 있다.다올투자증권은 보유하고 있는 다올인베스트먼트의 지분 52%에 대해 2000억원 이상 파는 조건으로 협의가 진행 중이다.다올투자증권이 벤처캐피털(VC) 자회사를 매물로 내놓는 것은 유동성 위기를 극복하고 시장의 우려를 불식시키기 위해서다.1981년 설립된 다올인베스트먼트의 전신은 KTB네트워크다. 국내에선 '1세대 VC'란 평가를 받고 있다. 배달의민족(우아한형제들)과 토스(비바리퍼블리카) 등 유니콘에 투자하며 인지도를 높였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2022.12.04.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>개미 위해 우량채권 선별해 소개…금·팔라듐 등 간편 투자</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004783279?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>인터넷은행 이색 상품 살펴보니토스뱅크, 年 4%대채권 골라 소개 '완판'케이뱅크, 금 플랫폼은·플래티늄 등 금속소수점 단위로 거래카카오뱅크 26주한정판 적금에 MZ열광쿠폰·경품·포인트 풍성급격한 금리 상승으로 주식 코인 등 위험자산에 몰렸던 자금이 안전자산으로 이동하는 ‘역(逆)머니무브’가 두드러지면서 시중 자금을 붙잡기 위한 금융회사들의 발걸음도 빨라지고 있다. 은행을 넘어 금융 플랫폼 지위를 노리는 인터넷전문은행들은 다양한 금융사와 제휴해 각종 투자 상품을 선보이는가 하면 이색 수신상품 라인업도 확대하고 있다.토스뱅크는 개인투자자 관심이 높은 채권 투자 상품을 선별해 소개하는 서비스로 인기를 끌고 있다. 주식에 비해 안전하면서도 예금보다 기대 수익률을 높일 수 있는 채권은 금리 상승기를 맞아 수요가 급증하고 있지만 개미 투자자들이 접근하기 쉽지 않았다.토스뱅크는 이런 수요를 겨냥해 지난달 9일부터 한국투자증권에서 판매하는 우량 채권을 토스뱅크 플랫폼에서 소개하고 있다. 지난 8월 첫선을 보인 연 4.5%짜리 한국투자증권 발행어음(2000억원 한도)이 나흘 만에 완판되자 채권 상품 라인업을 확대하기로 한 것이다. 토스뱅크에 따르면 서비스 개시 후 3주간 판매된 채권만 1300억원 규모에 달한다. 토스뱅크가 소개한 17개 채권 상품 가운데 15개가 이르면 두 시간, 늦어도 이틀 안에 완판됐다.토스뱅크에서는 안전성이 높은 국고채와 은행채, 신용등급 ‘AA’ 이상 우량 회사채를 주로 소개하고 있다. 4일 현재 토스뱅크에 올라와 있는 한국투자증권 판매 채권은 국고채(2년9개월·세전 수익률 연 4.3%), 기아(1년2개월·연 5.95%) 등이다. 토스뱅크의 ‘목돈 굴리기’ 메뉴에서 찾아볼 수 있다. 토스뱅크 안에서 한국투자증권 계좌를 개설해 상품에 가입하면 된다. 토스뱅크와 연계되지 않은 기존 한국투자증권 계좌로는 가입이 불가능하다.인터넷은행이 제공하는 금 투자 서비스도 눈여겨볼 만하다. 케이뱅크는 모바일 금 거래 플랫폼 ‘센골드’의 금 간편투자 서비스를 운영하고 있다. 센골드는 한국금거래소와 아이티센그룹이 함께 만든 한국금거래소디지털에셋의 금 투자 플랫폼이다.금·은·플래티늄·팔라듐 등 실물 금속을 디지털 상품화해 소수점 단위로 간편하게 사고팔 수 있도록 했다. 금은 0.01g 단위로 매매할 수 있고 100g 단위로 실물 금 인출도 가능하다. ‘킹달러’가 주춤하는 가운데 간편하게 금에 투자할 수 있는 방법을 고민하는 투자자에게 적합하다. 케이뱅크 사용자라면 뱅킹 앱에서 센골드 서비스에 간편하게 가입하고 이용할 수 있다.쏠쏠한 이자와 독특한 혜택을 함께 챙길 수 있는 이색 적금도 인기다. 카카오뱅크는 다양한 업종의 제휴사와 손잡고 ‘한정판’ 26주 파트너 적금을 선보이고 있다. 26주 동안 납입금액을 늘려가면서 납입 성공 기간에 따라 이자뿐 아니라 할인 쿠폰, 경품, 포인트 등 제휴사의 다양한 혜택을 함께 제공하는 방식이다. 2020년 8월 이마트 적금을 처음 출시한 이후 현재까지 275만 계좌가 개설됐다. 카카오뱅크가 가장 최근 선보인 파트너적금은 ‘26주 적금 위드(with) 교촌치킨’이다. 가입 즉시 교촌치킨 1만 포인트를 주는 혜택으로 인기를 끌고 있다. 5일까지 가입할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2022.12.15.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>잠잠했던 파킹통장 금리 꿈틀… “연차수당·성과급 불려 볼까”</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000862345?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>연말을 맞아 남은 연차에 대해 받는 연차수당과 성과급을 어떻게 활용할지 계획을 세우는 직장인들도 늘고 있다. 소비 계획이 없고 마땅한 투자처도 떠오르지 않는다면, 차를 주차하듯 수시로 돈을 넣고 뺄 수 있는 파킹통장(자유 수시입출금 통장)이나 단기 적금 상품을 통해 조금이라도 불려 보는 것도 방법이다.15일 금융업계에 따르면 일부 인터넷전문은행과 저축은행 등은 이달 파킹통장 금리를 상향 조정했다. 인터넷전문은행 토스뱅크는 파킹통장 원조격인 ‘토스뱅크통장’의 최고 금리를 연 4%로 올렸다. 5000만원까지는 이전과 같은 연 2.3%를 적용하되, 5000만원이 넘는 금액은 연 4%를 제공한다. 이에 앞서 케이뱅크는 지난 12일 ‘플러스박스’ 금리를 연 2.7%에서 3%로 0.3%포인트 올렸다.그동안 한국은행이 기준금리를 올리고 시중은행들이 뒤따라 정기예금 금리를 인상하면서 인터넷은행에서는 자금이 빠져나가는 현상이 나타났다. 저금리 시기에 주목받았던 인터넷은행의 파킹통장 금리 매력이 떨어지면서 경쟁력 약화와 자금 이탈 우려가 커졌다는 게 업계의 진단이었다. 그러다 최근 은행들의 금리 인상 속도가 주춤해진 틈을 타 인터넷은행이 다시 반격에 나선 셈이다.그래픽=이은현        지난달까지 금리가 가장 높은 파킹통장은 금리 연 4%의 애큐온저축은행의 ‘머니쪼개기 통장’이었다. 당시만해도 가장 금리가 높았지만 2000만원으로 가입한도가 제한됐다.토스뱅크는 이번에 금리를 올리면서 5000만원 이상의 고가 예치금에 대해 높은 금리를 적용하는 조건을 앞세웠다. 자금 확보에 열을 올리려는 것으로 풀이된다. 만약 소비자가 ‘토스뱅크 통장’에 1억원을 예치하면, 5000만원 이하 금액에 대해서는 기존과 같이 연 2.3% 금리를, 5000만원 초과 금액에 대해서는 연 4.0% 금리가 적용되는 식이다. 이에 따른 이자는 연간 약 74만원(세후)이 된다.최근 은행업계가 예금 금리를 연 5%, 적금 금리를 연 10%대까지 올린 것과 비교하면 현 파킹통장 금리는 상대적으로 낮은 수준이다. 하지만 파킹통장은 돈이 묶이지 않는다는 점이 장점이다.파킹통장은 다른 정기예적금 통장 및 금융상품과 달리 만기가 없어 돈을 언제든지 빼서 예·적금, 투자 등에 활용할 수 있다. 하루만 맡겨도 이자가 적용되고, 별도 해지나 재가입 없이 예치금에 인상된 금리가 자동 적용돼 이자를 받을 수 있다. 상품에 따라 복리로 이자도 챙길 수 있다.이런 특성을 고려해 단기에 쓸 자금이나 비상금은 파킹통장에 예치하고, 중장기로 목돈을 불리려는 목적이라면 고금리 예·적금 상품을 이용할 만 하다는 게 전문가들의 조언이다. 파킹통장도 예금자보호법에 따라 원금과 이자를 합해 1인당 최고 5000만원까지 보호된다. 5000만원을 초과하는 나머지 금액은 보호하지 않는다.내년부터는 만기 1개월짜리 초단기 적금 상품도 출시될 전망이다. 한국은행 금융통화위원회가 최근 ‘금융기관 여수신 이율 등에 관한 규정’ 개정안을 통해, 은행 정기적금 등 수신 상품의 만기를 자율적으로 정할 수 있도록 바꿨기 때문이다. 이에 따라 적금 상품의 최소 만기가 기존 6개월에서 1개월로 축소할 수 있게 된 것이다. 시행일은 내년 4월 1일부터다.만기 1개월짜리 초단기 적금 상품이 나오면 파킹통장과의 금리 경쟁이 더 활발해질 수 있다. 2030대 소비자를 중심으로 돈이 묶이는 장기 납입보다는 단기 납입을 선호하는 경향을 보이는 데다, 고금리 상품을 쫓아 계약과 해지를 반복하는 소비자들도 늘고 있기 때문이다. 금리 인상기에는 상품 만기가 짧을수록 수익률을 높일 수 있다.한국은행이 내년 1월 첫 금융통화위원회 회의에서 기준금리를 0.25%p를 올리면, 앞서 금통위원들의 최종금리 기대 수준으로 제시된 3.5%에 이르게 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2022.12.13.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>소진공, 혁신기업 토스(toss)와 협업 … 국민 체감서비스 높인다</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000877365?sid=101</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>소상공인 지원정책 편리성 높여, 접근성과 효율성 지속적으로 높여갈 것 소상공인시장진흥공단(이사장 박성효)은 토스(대표이사 이승건)와 협업하여 소상공인의 정책 접근성을 높인다. 이를 위해 지난 2일(금), 소진공과 토스 관계자는 세부적인 협업과제 발굴과 실무토론을 위해 토스 본사(서울 강남)에서 혁신워크숍을 개최했다. 이들은 토스의 일하는 방식과 혁신적인 조직문화를 공유하였으며, 향후 양 기관이 함께 추진할 협업과제를 발굴하고, 구체화하기 위해 열띤 토론을 진행하였다. 이날의 토론과제는 ▲토스앱을 활용한 소상공인 정책자금 취급방안, ▲온누리상품권 플랫폼 연계방안, ▲소상공인 원스톱 정부지원 사업 홍보방안, ▲내년도 출시 예정인 토스 플레이스 단말기와 연계한 온누리상품권 활성화방안 등이다. 논의된 과제들은 단기와 장기과제로 구분하고 담당자를 지정하여, 지속적으로 밀착 관리해 나갈 계획이다. 박성효 소진공 이사장은 "공공기관과 우수 민간기업 간 협력으로 과감한 업무 효율화를 이끌어내고, 소상공인이 체감할 수 있는 서비스를 구현해 나갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2022.12.05.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>[단독] 미 국무부 특별보좌관 방한..."한국, 개선 여지 없다면 내년에도 아동탈취 협약 불이행 국가"</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/044/0000241884?sid=004</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>미 국무부 아동 문제 관련 특별보좌관인 미셸 버니어 토스5일 법무부에 따르면 미 국무부의 아동 문제 관련 특별보좌관인 미셸 버니어 토스 (Michelle Bernier-Toth)가 6일 정부 관계자들을 만나 헤이그 국제아동탈취협약에 근거한 국내 아동반환 사건의 집행 현황을 점검하는 시간을 갖는다.법무부 관계자는 “국내 헤이그 아동탈취 협약 관련 사건 처리 장기화에 관해 제도적 개선방안에 대해 의견을 교환할 예정이다”고 밝혔다.헤이그 국제아동탈취협약은 국제결혼이 증가하면서 배우자 한쪽이 다른 한쪽의 동의없이 해외로 불법 이동시킨 16세 미만 아동을 보호하고 신속히 양육권자에게 되돌릴 수 있도록 맺은 국제협약이다. 1980년 10월 만들어져 미국·영국 등 93개국이 가입했고, 한국은 지난 2012년 12월 89번째로 가입해 2013년 협약 이행을 위해 헤이그아동탈취법을 마련해 시행했다.하지만 지난 9월 한국은 미국에 의해 ‘국제적 아동탈취의 민사적 측면에 관한 협약(헤이그 아동탈취 협약)’ 불이행 국가로 지정됐다.미 국무부의 헤이그 아동탈취 협약 이행 관련 연례보고서에 따르면 지난 2020-2021년 사이 미국에서 한국으로 아동이 탈취된 사건은 총 6건으로 절반이 1년 넘게 미해결 상태로 남아있다. 이에 법무부는 “양육권을 가진 미국 부모가 협약에 따라 한국 법원에 아동의 반환을 요구한 뒤 아동반환명령을 받았음에도 아동을 탈취한 부모와 오랜 기간 함께 거주한 아동이 거부의사를 밝히다 보니 집행이 지연되는 사례가 발생하고 있다”고 설명했다.한편 미셸 버니어 토스 특별보좌관은 이날 오전 서울 종로구 소재 주한미국대사관에서 국내 아동 탈취 피해자인 미국인 존 시치(52)와 면담을 갖고 한국 정부에 신속한 개선책 마련을 요구하겠다고 밝혔다.시치에 따르면 버니어 토스 특별보좌관은 면담 중 “만일 정부가 관련 개선 방안을 마련하지 않는다면 내년 4월에 발표될 2022 헤이그 아동탈취 협약 연례보고서에서도 한국이 또다시 협약 불이행 국가로 지정될 가능성이 높다”고 전했다.한편 법무부 관계자는 “아동인도 집행 지연에 대한 미 국무부의 우려에 공감한다”며 “법원과 아동반환 관련 강제집행 절차의 신속성 제고 등 개선방안을 협의해나갈 예정”이라고 말했다.Special adviser on children’s issue to the US State Department, Michelle Bernier-Toth, is currently in South Korea to discuss the issue of cross-over child abduction, officials in Seoul told The Korea Herald.A meeting between Bernier-Toth, who arrived over the weekend, and officials from S. Korea’s Ministry of Justice is to be held Tuesday, a ministry official said, with unresolved cases involving children of Korean-American couples taken to Korea by the Korean parent without the American parent’s consent.The ministry serves as the central authority under the Hague Convention on the Civil Aspects of International Child Abduction.The US State Department recently added Korea to the list of signatory countries that are non-compliant with the multilateral treaty in its annual report on international child abductions last year, released in September, saying “Korean law enforcement authorities failed to enforce (the local court's) return orders in abduction cases.”Out of six international child abduction cases involving American custodial parents between 2020-2021, half of them remained unresolved for more than 12 months, the report said.The HCCAICA, which was signed on Oct. 25 in 1980 by 93 countries, is an international treaty to protect children who have been removed from their country of habitual residence without the consent of the parent who has custody rights. South Korea joined the treaty in 2012 and enacted laws stipulating legal proceedings for the retrieval of abducted children in the same year.On Monday, Bernier-Toth met with John Sichi, a 52-year-old American father whose two children had been taken to Korea by their Korean mother three years ago, at the US Embassy in Seoul.During the meeting, the adviser stressed that Korea will be added to the US State Department’s list of non-compliant countries in its 2022 report scheduled to be published in April next year if the country does not effectively respond to the ongoing delays in the return of abducted children in Korea, Sichi told The Korea Herald.On the issue, the Justice Ministry said “Based largely on humanitarian grounds, Korean enforcement officials find it hard to forcibly separate children from the abducting parent particularly when the child insists on staying with said parent.”“The Justice Ministry is fully aware of the US State Department’s concerns about the country’s lack of enforcement of return orders in abduction cases. We are trying to come up with measures to deal with the unresolved Convention cases in Korea.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2022.12.15.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>“도넛 팔아 번 돈, 어마어마” 조세호 옆 ‘이 남자’ 정체 알고보니</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002078845?sid=105</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>이준범 GFFG 대표지난 5월 GFFG의 프랜차이즈 중 ‘키마스시’를 방문한 방송인 조세호(오른쪽) 씨와 기념촬영을 하고 있는 이준범 대표. [인스타그램 캡처][헤럴드경제=주소현 기자] “조세호와 마주앉은 이 남자, 누구지?”사업 초반에는 너무나 힘들었다. 심지어 폐업신고서까지 작성해놨다. 가게를 반지하로 옮길까 생각도 했다.얼굴만 보면 그를 쉽게 알기 어렵다. 그럼 도넛 브랜드 ‘노티드’는? 도넛시장에서 요즘 가장 핫한 브랜드, 그는 바로 노티드의 이준범 대표다.이젠 노티드 외에도 햄버거 브랜드 ‘다운타우너’ 등 9개의 외식 브랜드를 거느리고 있는 GFFG의 수장이다.대표 주자인 노티드는 서울 압구정동에서 연남동, 성수동 등 최신 유행의 집결지로 세력을 넓히고 백화점에도 속속 입점했다. ‘줄서서 찾는 맛집’이 된 GFFG는 지난해 창업 4년 만에 연매출 700억원을 기록하고 올해는 1000억원을 내다보고 있다. 최근 300억원 규모의 투자를 유치했다.[인스타그램 캡처]그 역시도 사업 초반엔 경영을 포기할 만큼 힘들었던 시기가 있었다. 이 대표는 최근 헤럴드경제와 인터뷰에서 “오픈 초반 1년10개월 정도 고생을 많이 했다. 폐업신고서까지 작성했을 정도”라며 “그 당시 이미 자리를 잡은 가게를 반지하로 옮기는 것도 생각할 정도로 경영난이 있었다”고 전했다.그러나 고생도 잠시, 이 대표 특유의 키치한 감성이 빛을 발했다. 투자를 주도한 건 벤처캐피털(VC) 알토스벤처스다. 쿠팡, 크래프톤, 우아한형재들(배민), 당근마켓, 비바리퍼블리카(토스) 등 유명 스타트업을 발굴한 것으로 잘 알려진 투자사다.GFFG는 기존의 투자포트폴리오와는 다소 동떨어진 식음료(F&amp;B)기업인 데다 300억원이란 투자금액도 F&amp;B업계에서는 놀랄 만한 수준이다. 이에 대해 알토스벤처스 관계자는 “저희도 F&amp;B 분야에 투자한 것은 처음”이라면서 “제일 기대한 부분은 브랜드 콘셉트와 확장성”이라고 설명했다.서울 잠실 롯데월드몰 1층에서 열리는 '노티드' 팝업행사. [롯데백화점 제공]GFFG의 감성엔 미국이 녹아 있다. 이 대표 역시 중·고등학교와 대학교를 모두 미국에서 졸업했다. 이 대표는 첫 브랜드였던 ‘오베이(다운타우너 전신)’를 시작할 때도 미국 생활의 감각을 살리려고 노력했다.GFFG 브랜드는 도넛, 햄버거뿐 아니라 피자(클랩피자), 브런치 메뉴(리틀넥) 등이 있다. 모두 ‘아메리칸 감성’이다. 일식이나 중식도 미국식으로 해석해 브랜드를 선보였고, 유일한 한식 브랜드인 ‘호족반’ 역시 퓨전 한식으로 구성했다.그가 생각하는 브랜드 정체성은 ‘1980~1990년대 올드스쿨 힙합 무드’ ‘서울 속의 작은 뉴욕’ 등이다. 한국에서 경험하는 미국 감성으로, 이를 발판삼아 역으로 미국 본토를 겨냥했다. 미국에 가장 먼저 해외 법인을 설립했다. 투자 유치 이후엔 태국, 홍콩, 싱가포르, 일본 등 아시아 지역에서도 협업 제안이 쇄도하는 중이라고 이 대표는 전했다.또 하나, 이 대표가 중시하는 공간은 바로 압구정이다. GFFG의 브랜드들은 압구정 일대에서 출발하는 경우가 많은데 이 역시 이 대표의 사업 전략이다.“압구정 로데오는 홍대, 강남 등과 같이 젊음의 상징이자 해외 거주 경험이 많은 젊은 세대를 중심으로 서양 문화가 빨리 전파되는 지역 중 하나입니다. 미국식 외식문화를 표방하는 GFFG의 정체성과 잘 맞닿는 요소이기도 합니다.”그는 “압구정 로데오가 지속적으로 젊은 세대를 이끄는 역할을 한 것처럼 GFFG 역시 소비자들에게 새로운 경험과 영감을 선사하기 위해 최선을 다할 것”이라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2022.12.07.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>소진공, 혁신기업 토스(toss)와 협업</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/656/0000036671?sid=101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>소상공인시장진흥공단은 지난 2일 토스 본사에 방문해 혁신워크숍을 개최했다. 사진=소상공인시장진흥공단 제공소상공인시장진흥공단(소진공)은 소상공인의 정책 접근성을 높이기 위해 토스(toss, 종합금융 플랫폼)와 협업한다고 7일 밝혔다. 소진공과 토스는 최근 혁신워크숍을 열고 토스의 일하는 방식과 조직문화, 향후 양 기관이 추진할 협업과제 등에 대해 논의했다. 두 기관은 △토스앱을 활용한 소상공인 정책자금 취급방안 △온누리상품권 플랫폼 연계방안 △소상공인 원스톱 정부지원 사업 홍보방안 △내년도 출시 예정인 토스 플레이스 단말기와 연계한 온누리상품권 활성화방안 등에 협력키로 했다. 양 기관은 논의 과제들을 단기와 장기과제로 구분하고, 담당자를 지정해 지속적으로 밀착 관리해 나갈 계획이다. 박성효 소진공 이사장은 "공공기관과 우수 민간기업 간 협력으로 과감한 업무 효율화를 이끌어내고, 소상공인이 체감할 수 있는 서비스를 구현해 나갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2022.12.06.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>[fn마켓워치]다올인베스트먼트 매물로</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004938505?sid=101</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스] 다올인베스트먼트가 인수·합병(M&amp;A) 시장에 매물로 나온 것으로 확인됐다. 레고랜드 사태로 시작된 부동산 프로젝트파이낸싱(PF) 자금 경색이 유동성 위기로 번지자 '알짜' 자회사 매각에 나선 것이다.   6일 투자은행(IB) 업계에 따르면 다올투자증권은 최근 다올인베스트먼트 매각주관사에 삼일PwC를 선정했다. 또 다올투자증권은 태국 법인 매각자문사에도 삼일PwC를 선정했다.   다올인베스트먼트 매각 대상은 다올투자증권의 보유 지분 52%다. 2000억원대에서 거래가 예상된다.   다올인베스트먼트의 전신은 KTB네트워크다. 1981년 설립됐다. 배달의민족(우아한형제들)과 토스(비바리퍼블리카) 등 유니콘(기업가치 1조원 이상 비상장사)에 투자한 바 있다.   다올금융그룹은 현재 다올투자증권, 다올인베스트먼트, 다올저축은행, 다올자산운용 등을 보유하고 있다.   다올투자증권은 KDB산업은행 등으로부터 증권사 보증 PF-ABCP(자산유동화기업어음) 자금 지원 대상 증권사다. 자금 지원 대가로 구조조정 및 비상장주식 매각을 통한 재무구조 개선 등을 주문받은 것으로 알려졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2022.12.09.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>정태영 현대카드 부회장, 애플페이 독점 선택 통할까</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011584331?sid=101</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>기사내용 요약현대카드, 애플과 1년간 서비스 독점 계약현대카드 통해서만 애플페이 이용 가능해NFC단말기 필요하지만 보급률 2% 불과해현대카드 "단말기 교체 보조금 지원하겠다"금융당국 "리베이트로 여신법 저촉 가능성""예상보다 국내 도입 파급력 크지 않을수도"[서울=뉴시스]정태영 현대카드 부회장(사진=현대카드 제공)2022.07.11 photo@newsis.com *재판매 및 DB 금지[서울=뉴시스] 남정현 기자 = 금융감독원이 애플페이 서비스 약관 심사를 끝내며 내년 초 아이폰 사용자들이 애플페이 서비스를 이용할 수 있을 것이란 전망이 나온다. 국내에선 현대카드를 통해서만 이 서비스를 이용할 수 있을 것으로 예상되는데 이로써 국내 카드업계, 나아가 간편결제 시장에 생길 지각변동에 귀추가 주목된다.8일 금융당국 등에 따르면 아이폰을 통해 쓸 수 있는 애플의 간편결제 서비스인 '애플페이'의 국내 도입과 관련한 금융당국의 약관심사가 사흘 전 완료됐다. 이에 따라 이르면 올해 말, 늦어도 내년 초엔 국내에서도 애플페이를 쓸 수 있을 것이란 기대감 섞인 전망이 나온다.현대카드와 애플은 1년간 애플페이의 국내 배타적사용권을 담은 계약을 맺은 것으로 알려졌다. 애플페이의 국내 도입을 위해 애플은 연초부터 여러 카드사와 접촉했고, 현대카드가 가장 전향적인 태도를 보여 현대카드가 낙점된 것으로 알려진다. 특히 막대한 비용을 수반하는 애플페이의 국내 도입인 만큼 승부사인 정태영 현대카드 부회장의 결단이 강하게 작용한 것으로 전해진다.애플페이는 삼성페이와 같은 간편결제 서비스의 일종으로, 신용·체크카드를 휴대폰 앱에 저장해 실물카드의 휴대 없이도 결제를 가능하게 한 서비스다. 2014년 출시돼 현재 약 70여국에서 서비스 중인데, 지난해 기준 결제규모 면에서 전 세계 2위의 엄청난 영향력을 행사하고 있다. 시장에선 글로벌 대표 신용카드·결제 브랜드인 VISA(비자)를 넘어 곧 1위로 올라설 수 있다는 가능성이 제기된다.현대카드, 애플페이 손에 넣으며 무엇을 얻나국내 금융업계는 코로나19로 인한 디지털화 가속화와 함께 네이버·카카오·토스로 대표되는 온라인플랫폼사(빅테크)의 금융업 진출로, 플랫폼의 가입자와 MAU(월간활성이용자)가 향후 해당 금융사의 영향력을 결정지을 정도로 중요해졌다고 판단하고 있다.카드업계의 경우 은행권과 달리 오프라인 중심의 영업체계를 갖추고 있지 않은 만큼 플랫폼 사업에 가장 사활을 걸고 있다. 업계 1~3위인 신한·KB국민·삼성카드가 그간 분리됐던 앱을 '신한플레이', 'KB페이', '모니모' 등으로 통합하고 계열사와의 협업을 통해 '원앱' 추진에 한창인 가운데 금융계열사가 부족한 현대카드는 이러한 흐름에서 밀려난 상태다.현대카드는 특정 브랜드 할인·혜택에 특화된 PLCC(사업자전용카드)를 국내에서 처음으로 내놓고, '슈퍼콘서트' 등을 포함한 문화마케팅의 선두주자로 혁신에 가장 앞선다는 평가를 받지만 현재 업계에선 만년 4위로 굳어지는 형국이다. 특히 올 2분기엔 당기순이익이 롯데카드에 밀리기까지 했다.일각에선 이러한 상황을 타계하기 위해 현대카드가 위험을 감수하더라도 애플페이의 국내 사업자 자리를 꿰찼다는 해석이 나온다. 수년간 글로벌 결제시장에서 축적한 애플의 노하우와 30% 수준의 국내 아이폰 보급률, 자사의 차별화된 상품과 애플 서비스의 시너지 등을 통해 고착화된 카드업계 내 입지에 변화를 가져올 수 있겠단 기대가 반영됐을 것으로 보인다.일례로 현대카드는 애플페이 독점 서비스를 통해 1년간 관련 카드 12만5000매 계약을 달생하겠다는 목표를 갖고 있는 것으로 알려졌다.김재우 삼성증권 연구원은 "애플페이의 가파른 성장세는 여전히 진행형인데 애플월릿을 비롯해 BNPL 등 다양한 서비스와의 연계를 통해 사용자 효용을 높이고 있기 때문"이라며 "애플페이의 국내 시장 진출이 카드·결제 시장의 구도를 변화시킬 수 있다는 기대가 일각에선 제기된다"고 말했다.이어 "간편결제 서비스 시장의 주도권은 삼성페이로 대변되는 휴대폰 제조사에서, 코로나19를 거치며 카카오페이나 네이버페이 등 전자금융업자로 빠르게 넘어왔다"며 "애플페이가 현대카드와의 협업을 통해 파격적인 방법으로 시장 점유율 확대를 꾀할 수 있고 이는 지금까지의 시장 구도에 변화를 가져올 수 있다"고 강조했다.[서울=뉴시스]여의도 현대카드 사옥 3관에 위치했던 현대캐피탈 본사 전경(사진=현대캐피탈 제공)2022.09.07 photo@newsis.com *재판매 및 DB 금지애플페이, 국내서도 흥행할 수 있을까…NFC단말기 보급이 관건하지만 금융당국에서 약관 수리 결정이 났다고 해서 당장 애플페이의 서비스가 가능한 것은 아니다. 애플페이의 흥행은 현재 2%에 불과한 근거리무선통신(NFC) 방식의 카드결제 단말기(NFC단말기)의 보급에 달려있다고 해도 과언이 아니다. 그만큼 시장에선 NFC단말기의 보급 가능성에 따라 애플페이의 성공 가능성을 달리 평가하고 있다. 국내 카드결제 단말기 대부분은 마그네틱 보안전송(MTS) 방식을 쓰는데 반해, 애플페이는 NFC단말기와 호환한다. 현재 국내에서 NFC단말기를 통해 결제가 가능한 가맹점 수는 약 6~7만개 수준으로 알려졌다. 국내 신용카드 가맹점 수는 280만개에 이르는데, NFC 단말기 보급률이 2% 수준에 불과한 것이다. 여기에 애플페이는 NFC 중에서도 유로페이·마스터·비자 3대 글로벌 신용카드사가 만든 EMV 국제결제표준만 지원한다. 카드업계는 NFC단말기를 가진 가맹점 중 EMV 지원이 가능한 곳의 수는 더 적을 것으로 보고 있다.현대카드는 최근 결제대행사를 통해 쿠팡, 배달의민족, 무신사 등에서 결제테스트를 완료한 것으로 확인됐다. 오프라인 결제망 구축에 시간이 지연되고 있는 상황에서, 관심이 식기 전 온라인 서비스 오픈 먼저 서두르고 있는 것 아니냐는 분석이다. 하지만 한국은행에 따르면 간편결제 서비스에 연동되는 신용카드의 오프라인 이용률은 지난해 기준 전체에서 82%인데 반해 온라인은 이보다 적은 65.7%에 불과했다. 체크카드는 오프라인 54.1%, 온라인 29.0%으로 차이가 더 벌어졌다. 아직 애플페이가 국내에서 성공을 거두기 위해서 15~20만원 수준의 NFC 방식 단말기가 얼마나 빠르고 넓게 보급이 확산되느냐가 관건으로 꼽히는 이유다. 이에 현대카드는 애플 측에 NFC 단말기의 보급 확대를 위한 전방위적 지원을 약속했으며 법에 저촉되지 않도록 가맹점에 단말기 교체 비용의 60%를 프로모션으로 지원하는 방안을 계획했던 것으로 전해졌다.단순히 대당 15~20만원 수준의 NFC단말기를 280만 가맹점에 보급하는 비용을 가정하면 4200~5600억원이 소요된다. 여기에 대형 프랜차이즈나 마트 등 규모가 큰 가맹점의 경우 결제 단말기 2대 이상 설치돼야 하는 등 실질적으로 NFC단말기 설치 비용은 이를 훨씬 상회할 가능성이 존재한다.금융당국은 국내 애플페이의 배타적사용권을 가진 현대카드가 자사의 서비스만을 위한 NFC 단말기 보급에 보조금(리베이트)을 지급한다면 여전법 위반이 될 수 있는 만큼, 금융당국은 현재 해당 법 위반 가능성을 들여다보고 있다. 금융당국 관계자는 "현재 검토 중인 이슈들에 대해 현대카드 등에 보완과 자료제출 등을 요구하고 답변을 듣는 과정에서 여러 피드백을 주고 받으며 시간이 좀 더 소요될 수 있다"고 말했다.여전법 제24조의2 3항은 '신용카드업자와 부가통신업자는 대형가맹점(연매출 3억원 초과)이 자기와 거래하도록 대형가맹점 및 특수관계인에게 부당하게 보상금 등을 제공해서는 안 된다'고 규정하고 있다. 또 여전법 제18조의3은 '신용카드와 관련한 거래를 이유로 부당하게 보상금, 사례금 등 명칭 또는 방식 여하를 불문하고 대가를 요구하거나 받는 행위'를 금지하고 있다. *재판매 및 DB 금지당초 현대카드는 대형 가맹점 위주로 애플페이 오프라인 서비스를 시작할 계획이었지만 단말기 설치 비용 부담 문제가 해결되지 않아 그 보급이 지지부진한 상황이다. 현대카드로선 NFC단말기 결제망을 형성하지 못해, 결과적으로 서비스 출범부터 반쪽짜리 출발이라는 평가를 받을까 고심이 깊어질 수 밖에 없다.현재 NFC단말기를 갖춰 애플페이가 사용가능한 대형 가맹사는 전국 편의점(CU·GS25·이마트24·미니스톱·세븐일레븐)을 비롯해 롯데백화점, 홈플러스 맥도날드, 스타벅스, 파리바게트, 교보문고, 롯데하이마트, 이케아 등이다.이에 반해 규모 면에서 더 큰 이마트24를 제외한 이마트 계열사, 신세계백화점, 던킨도너츠·베스킨라빈스·파리크라상 등 파리바게트를 제외한 SPC계열사, 뚜레주르·올리브영·CGV 등 CJ계열사, KFC, 버거킹, 롯데마트·롯데시네마·롯데월드 등 롯데계열사, 다이소 등은 NFC단말기를 갖추고 있지 않거나 기술적인 문제로 서비스가 당장 어려운 상황이다.  현대카드 측은 타 카드사들도 이번에 도입될 NFC결제 인프라를 차후 이용하게 될 만큼 공공적인 측면에서 보조금 지급이 타당하다는 입장을 강조하고 있는 것으로 알려졌다. 실제로 그간 애플은 애플페이의 국내 진출을 위해 여러 카드사와 꾸준히 접촉해 왔지만, 낮은 NFC 단말기 보급률로 인한 비용적인 한계로 도입이 지연돼 왔다."카드사 간 시장구도 변화 제한적일 수도"상황이 이렇다 보니 애플페이 한국 상륙이 알려진 가을보다 업계의 긴장은 다소 누그러진 상황이다. NFC단말기 문제를 차치하더라도 카카오페이와 쿠팡페이가 이미 2969만명, 2453만명 이상 이용자를 확보했고 삼성페이도 2000만명 이상의 충성 고객을 가진 상황에서 현대카드가 없는 이용자들이 애플페이로 플랫폼을 옮길 유인이 예상보다 크지 않을 수 있다는 관측도 나온다. 한 카드업계 관계자는 "현대카드가 애플페이와 관련해 PLCC카드를 내놓을 것으로 알려졌는데, 애플페이 사용을 위해 이 카드로 갈아타는 고객이 몇이나 될 지는 미지수"라며 "서비스 차별화가 확실해야 할 것"이라고 말했다. 이에 애플페이가 도입되더라도 카드업계의 시장구도 변화는 미미할 것이란 분석이 나오기도 했다. 현재 국내 아이폰 사용자 수는 1132만명으로 추산된다. 김재우 삼성증권 연구원은 연구보고서를 통해 이들 중 50%가 애플페이를 사용한다고 가정하고 월 평균 결제 규모를 20만원으로 가정해 연간 사용액을 13조6000억원을 추산했다.이는 지난해 국내 카드 총 결제액 1006조원의 1.4% 수준인데, 그는 현대카드가 단기적으로 해당 결제를 모두 담당한다고 가정해도 시장점유율의 증가 폭은 1.7%포인트에 불과하다는 결론을 제시했다.그러면서도 김재우 삼성증권 연구원은 "다만 애플페이의 국내 금융 플랫폼 산업 진출에 대한 영향을 논하기엔 시기상조"라고 덧붙였다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2022.12.09.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>“정보 유출·보이스피싱 막아라”… 보안 강화 나서는 핀테크 업계</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000861235?sid=101</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>토스, 오류 잡아내면 보상금 지원하는 버그 바운티 등 실시… 자문위원회도 설립  카카오페이, 정보보호책임자 뽑고 사이버 보안 관제센터 출범        핀테크 업체들이 보이스피싱, 고객 정보 유출 등 각종 금융 범죄를 예방하기 위한 보안 역량 강화에 나서고 있다. 인터넷, 모바일 금융 이용자들이 빠르게 증가하는 상황에서 보안에 허점을 노출할 경우 자칫 대형 금융 사고로 이어져 회사 전체가 흔들릴 수 있다는 인식이 확산됐기 때문이다.그래픽=이은현        9일 금융감독원과 경찰청 등에 따르면 지난 5년간 시중은행을 중심으로 발생한 해킹 등 금융 사고는 총 210건, 사고 금액은 1982억원에 달했다. 지난해 보이스피싱 피해 금액은 7744억원으로 전년 대비 11% 증가했다.토스는 최근 외부 전문가 3인으로 구성된 ‘데이터 보호 준법 자문위원회’를 출범했다. 위원회는 고객 데이터에 대한 처리가 법령을 준수하고 있는지 확인하고 감시한다. 또 안전한 데이터 관리 체계를 구축하기 위한 자문 역할을 맡게 된다. 토스는 수시로 위원회의 의견을 취합하고 업무에 반영한 결과를 홈페이지에 공개할 계획이다.토스는 올해 ‘버그 바운티(Bug Bounty)’를 진행하기도 했다. 버그 바운티란 서비스 내 보안 취약점을 찾아낸 참가자에게 보상을 지원하는 제도를 뜻한다. 신고 대상은 토스 애플리케이션 내 주요 서비스와 계열사 공식 홈페이지 등이다. 토스는 참가 신청자가 발견한 결함에 대해 검증·평가를 거쳐 건당 최대 3000만원의 포상금을 지급하기로 했다.토스는 올해 처음으로 ‘버그 바운티(Bug Bounty)’를 진행하기도 했다. 버그바운티란 서비스 내 보안 취약점을 찾아낸 참가자에게 보상을 지원하는 제도를 뜻한다. 신고 대상은 토스 애플리케이션 내 주요 서비스와 계열사 공식 홈페이지 등이다. /토스 제공        카카오페이는 지난 8일 김희재 정보보호최고책임자(CISO)를 선임하며 사용자 보호를 강화하겠다고 밝혔다. 또 기존에 보안 관제 전담 인력들이 수행해오던 365일 24시간 관제 업무를 더욱 체계적으로 수행할 수 있도록 ‘사이버 보안 관제센터’도 구축했다.카카오페이는 금융보안원의 정보보호 관리 체계 인증인 ISMS-P를 획득했다. 또 ISO-27001(국제정보보호인증), PCI-DSS(지불카드산업정보보안표준) 등 주요 보안 인증도 모두 받은 상태다.카카오페이 관계자는 “지난해 10월부터 내부 임직원들의 정보 보안 인식을 강화하기 위해 캠페인을 진행하고 있다”며 “매달 정보 보안 점검의 날도 운영하여 임직원들의 보안 인식 강화에 신경을 쓰고 있다”고 말했다.대출 비교 전문 플랫폼인 핀다 정보 보안업체와 협업 등을 통해 자체 보안 관리 능력을 키우고 있다.핀다는 지난 6일 안랩으로부터 보안 클라우드 관리 서비스인 ‘안랩 클라우드’를 제공받았다. 금융 준법 경영(컴플라이언스) 준수 목표를 달성하고, 대출 비교 서비스 사용자들이 안심하고 개인 정보 등을 제공할 수 있도록 정보 보안을 강화하겠다는 목적에서다.핀다는 고객이 서비스를 이용하는 과정에서 발생할 수 있는 악성 앱을 원천 차단하는 프로그램인 ‘페이크 파인더 솔루션’도 도입했다.자체 정보 보안 역량을 강화하려는 노력은 핀테크 업계 전반으로 확산되고 있다. 한국핀테크산업협회는 지난 7일 ‘정보보안담당자 협의회’를 출범하면서 업계 전체가 정보 보안 노하우와 시스템 발전 방안 등을 공유할 계획이라고 밝혔다.토스 관계자는 “정보 유출과 같은 금융 사고가 발생할 경우 회사의 경영 전반이 위협을 받는 사태로 이어질 수 있어 사전 예방이 무엇보다 중요하다”며 “금융 회사는 특히 고객 신뢰가 중요하기 때문에 많은 핀테크 업체들이 정보 보안에 대한 투자를 확대할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2022.12.12.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>인터넷은행만 예금 금리 계속 올리는 까닭</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003192418?sid=101</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>금융당국의 경쟁 자제 요청 뒤 시중은행 예적금 금리 하락과 대조수신 잔액 금리 따라 출렁…토스뱅크, 안정성 위해 ‘뭉칫돈’ 유혹내년 IPO 앞둔 케이뱅크는 파킹통장 금리 더 인상 ‘몸집 불리기’금융당국이 시중은행에 자금 조달 경쟁을 자제하라고 주문한 뒤 정기예금 금리가 하락 전환했지만 인터넷전문은행 간에는 수신금리 인상 경쟁이 여전히 이어지고 있다. 인터넷은행의 경쟁이 금융소비자들에겐 높은 금리 혜택을 누릴 기회가 될 것으로 보인다.인터넷은행 케이뱅크는 12일 파킹통장(수시입출금통장)인 ‘플러스박스’ 금리를 연 2.7%에서 3.0%로 올린다고 밝혔다. 케이뱅크는 지난달 27일 정기예금 금리를 연 5%로 올린 데 이어 약 3주 만에 또다시 수신 상품 금리를 인상했다.케이뱅크는 또 이달 말까지 정기예금에 3000만원 이상 입금한 1만명 중에서 다음달 말까지 예금을 해지하지 않는 고객에게 커피 교환권을 증정하는 이벤트를 벌인다. 뭉칫돈을 끌어들여 수신 잔액을 늘리겠다는 뜻으로 해석된다.토스뱅크도 수시입출금통장인 ‘토스뱅크 통장’ 금리를 지난 10월 초 이후 약 두 달 만에 올린다.종전까지 토스뱅크는 최대 1억원에 대해 연 2.3% 금리를 제공했다. 13일부터는 5000만원 이하에 대해 연 2.3%, 5000만원 초과 금액에 대해선 연 4% 금리를 적용한다. 이 역시 고액 가입자를 유인해 수신 잔액을 불리려는 움직임으로 풀이된다. 아울러 토스뱅크는 적금 상품 금리도 종전 연 4.0%에서 4.5%로 인상하기로 했다.인터넷은행의 이 같은 흐름은 수신금리 인상을 사실상 중단한 주요 시중은행과 대조적이다. 지난달 중순 금융당국이 2금융권의 유동성 위기를 막고자 은행권에 ‘자금 조달 경쟁을 자제하라’고 주문한 후 주요 시중은행의 정기예금 금리는 하락 전환했다.이날 현재 은행연합회의 예금상품 금리 비교에 따르면 KB국민·신한·하나·우리·NH농협은행의 주요 정기예금 금리는 연 4.45~4.93%로, 불과 5일 전인 지난 7일(연 4.48~4.95%)보다 하락했다. 한 달 전만 해도 5대 은행 중 일부에서 연 5%대 상품을 제공했지만 지금은 자취를 감췄다.이들 은행의 정기예금 금리가 하락한 것은 최근 은행채 단기물 등 시장금리가 내린 영향도 있으나, 당국의 압력도 작용하고 있다.이 같은 분위기 속에서도 인터넷은행이 금리 인상을 멈추지 않는 것은 금리의 오르내림에 따른 수신 잔액의 변동 폭이 주요 시중은행보다 크기 때문으로 보인다.금리를 올리면 조금이라도 더 높은 금리를 원하는 ‘금리 노마드족’이 몰리고, 금리 인상을 지체하면 자금이 빠르게 빠져나간다. 한 인터넷은행은 수신금리를 적극적으로 올리지 않았던 지난 10월 수신 잔액이 전달보다 약 1조5700억원가량 감소하기도 했다.내년 기업공개(IPO)가 예정된 케이뱅크의 경우 몸집을 불리기 위해 공격적으로 금리를 올린다는 해석도 있다. 예금금리를 올려 수신 잔액을 키우고, 각종 이벤트를 벌여 월간활성사용자 수(MAU)를 늘려야 기업가치를 높게 평가받을 수 있다고 판단한 것으로 보인다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2022.12.12.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>내년 네이버·쿠팡·카카오 간편결제 수수료 공시된다</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013636018?sid=101</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>간편결제 상위 10개사 대상·내년 2~3월 공시 추진네이버페이[연합뉴스TV 캡처]    (서울=연합뉴스) 심재훈 임수정 기자 = 금융당국이 소상공인의 수수료 부담을 덜어주기 위해 내년에 네이버파이낸셜 등 빅테크의 온라인 간편 결제 수수료 공시를 추진한다.    12일 금융권에 따르면 금융감독원은 지난 6일 국민의힘과 당정협의에서 대형 빅테크의 결제 수수료를 공시하는 내용의 '빅테크 등 간편결제 수수료 투명성 제고 방안'을 보고했다.    이는 빅테크가 소상공인의 온라인 가맹점과 서비스 제공 계약을 체결할 때 종류별로 수수료를 구분하지 않고 통합 계약을 하고 있어 수수료가 합리적으로 매겨지고 있는지 알 수 없다는 지적이 많기 때문이다.    성일종 국민의힘 정책위의장은 당정협의 후 브리핑에서 소상공인의 금융 부담 완화를 위해서는 온라인 간편결제 수수료의 투명성을 높이기 위해 '공시 제도'를 도입, 수수료 인하를 유도하기로 했다고 밝힌 바 있다.    이에 따라 금감원은 소상공인이 부담하는 수수료를 항목별로 구분해 투명하게 관리하도록 하고 경쟁을 촉진해 민간 자율로 적정 수수료율을 책정하도록 유도한다는 방침이다.    이를 위해 먼저 온라인 간편 결제 수수료 부분에 대해서는 회계 법인의 확인을 받아 공시할 예정이다. 이를 위해 가이드라인도 만들 계획이다.간편 결제 수수료 공시 대상 업체[자료=금융감독원]    공시 대상은 간편 결제 규모 월평균 1천억원 이상인 상위 10개사로 네이버파이낸셜(서비스명 네이버페이), 쿠팡페이(쿠페이), 카카오페이(카카오페이), G마켓(스마일페이), 11번가(에스케이페이) 등이다.    이밖에 우아한형제들(배민페이), 엔에치엔페이코(페이코), 에스에스지닷컴(에스에스지페이), 비바리퍼블리카(토스페이), 롯데멤버스(엘페이)도 포함된다.    연내 가이드라인을 확정한 뒤 내년 2~3월 중에 최초 공시한 뒤 반기마다 재공시할 방침이다.    금융당국 관계자는 "최초 공시 자료에 대해서는 공시자료의 적정성 및 정확성을 담보하기 위해 회계법인의 확인을 받도록 할 계획"이라고 말했다.    president21@yna.co.kr sj9974@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2022.12.12.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>토스뱅크통장, 5000만원 이상 예금에 금리 4.0% 적용</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003065121?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>토스뱅크(대표 홍민택)가 '토스뱅크 통장'의 혜택을 한 단계 높인다. 5000만원 이상 고액 자금을 예치할수록 전체 금리가 더욱 올라가는 혜택을 제공한다.토스뱅크는 이달 13일부터 5000만원 초과 금액에 대하여 연 4.0%(세전), 5000만원 이하 금액은 기존과 동일한 연 2.3%(세전) 금리 혜택을 제공한다고 12일 밝혔다.가령 '토스뱅크 통장'에 1억원을 예치한 A 고객의 실제 적용 금리는 연 3.15%(세전)가 적용된다. 연간 약 74만원(세후)의 이자 수익을 추가로 받을 수 있게 됐다. 2억원을 예치한 B 고객의 실제 적용 금리는 연 3.58%(세전) 혜택을 누리게 됐다.이는 5000만원 이하 금액에 대해서는 기존과 같이 연 2.3%(세전) 금리가, 5000만원 초과 금액에 대해서는 제한없이 연 4.0%(세전) 금리가 적용됐기 때문이다.이를 통해 '토스뱅크 통장' 하나로 수시입출금 통장의 기능과 예금상품 수준의 고금리 혜택까지 함께 누릴 수 있게 됐다. 카드 결제대금, 자동납부 금액 등 소액의 생활비부터 차량구입, 전세보증금, 주택구매자금 등 금액이 큰 목돈까지 하나의 수시입출금통장으로 모든 자금을 편리하게 관리할 수 있다.토스뱅크 관계자는 “글로벌 금리 인상 영향으로 시중자금이 은행 예적금 상품으로 급격히 이동하는 추세이나 복잡한 우대조건을 충족해야만 혜택을 누릴 수 있어 불편함이 크다”며 “고객들이 예금상품에서 기대하는 고금리와 수시입출금통장의 편리함을 담아 '토스뱅크 통장' 혜택을 한 단계 높였다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2022.12.13.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>김주현 금융위원장 “여신전문금융업, 영업구조 재정비·리스크 관리해야”</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002077756?sid=101</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>“영업전략 더 기민하게 조정해야”백혜련(맨 앞줄 왼쪽에서 세 번째) 국회 정무위원장, 김주현 금융위원장, 정완규 여신금융협회장 등 포럼에 참여한 주요 내빈이 함께 기념촬영을 하고 있다.[여신금융협회 제공][헤럴드경제=홍승희 기자] 김주현 금융위원장이 카드·캐피털·신금융사를 향해 “여신전문금융업의 영업구조를 재정비하고 리스크 관리의 기틀을 마련하는 등 내실을 기해야 한다”고 권고했다.김 위원장은 13일 여신금융협회가 은행회관에서 개최한 여신금융포럼에서 “최근 경제상황을 보면 아직도 추가 금리인상 예상, 부동산시장 침체 우려, 취약차주 부실 우려 등 금융시장 환경 전반에 대한 우려가 높은 상황”이라며 이같이 말했다.그는 “그동안 여신전문금융업은 신용카드사, 리스·할부금융사, 신기술금융사별로 각기 다른 사업 모델을 기반으로 실물부문과 연계된 물품, 시설 등에 대한 결제 및 민간 자금공급 기능을 수행함으로써 실물경제와 금융산업 발전에 중요한 역할을 담당해왔다”며 “여신전문금융회사는 다른 금융회사들보다 실물경제와 더 밀접히 맞닿아 있기 때문에 산업구조 변화, 경제·금융환경 변동 등에 따라 영업전략을 특히 더 기민하게 조정할 수밖에 없다고 생각한다”고 언급했다.이날 발제를 맡은 유창우 비자 코리아 전무는 “고물가, 고금리, 고환율의 ‘3고(高) 경제 상황’으로 인해 여신금융사의 성장성, 유동성, 건전성에 어려움이 예상된다”며 “특히 고금리에 따른 조달 비용 상승으로 카드사 수익성의 악화가 예상된다”고 설명했다.지난해 6월 기준 카드사의 자금 조달 구조에서 회사채(여전채)가 차지하는 비중이 65%에 달하는데, AA+ 등급 카드채 3년물 금리가 지난 달 기준 6.1%까지 상승압박을 받으며 자금 조달에 어려움을 겪고 있다는 것이다.유 전무는 “거시 경제 변동으로 인한 소비 위축으로 카드 이용액 증가율이 악화하고, 또 가맹점 수수료율 인하 압력을 받으며 수익원에 악영향을 받을 것”이라며 “쿠팡·네이버·카카오·토스 등 대규모 빅테크사가 사업을 지속 확대 중”이라고 설명했다.이어 “카드사는 금융 생태계의 변화에 적응하여 ‘비즈니스 트랜스포메이션’을 통해 중장기적으로 지속 성장 전략을 마련하는 것이 필요하다”며 “고물가, 고금리, 고환율, 각종 규제, 핀테크플랫폼 시장 침투 지속 등 카드사 실적에 부정적 요소들이 다수인 것은 사실이나 단기적 변화동인에 집중한 단기적 해결책 보다, 지속될 변화에 집중하는 것이 필요하다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2022.12.08.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>무려 '10전11기'…한국 스타트업 이끄는 '연쇄' 창업가들 [긱스]</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004785056?sid=105</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>성공해도, 실패해도 창업 이어가 '아자르' 신화, 안상일 11번 창업토스 이승건 대표는 '8전 9기'손대는 사업마다 성공하기도장병규·노정석 등 '미다스의 손'벤처 투자자로 변신해 후배 양성권도균·류중희 등 AC 설립김동신, 실리콘밸리서 맹활약이 기사는 프리미엄 스타트업 미디어 플랫폼 한경 긱스에 게재된 기사입니다.국내 벤처업계에 '노정석'(비팩토리 대표)이란 이름은 꽤 알려져 있다. 창업의 정석, 미다스의 손, 스타트업 마스터 등 화려한 수식어도 따라붙는다. 그중에서도 그와 가장 잘 어울리는 말은 '연쇄 창업가'다. 창업만 일곱 번을 했고, 대부분 성공했다. 국내 스타트업 중에 처음으로 구글이 사들인 태터앤컴퍼니(블로그 개발업체), 글로벌 모바일 광고회사 탭조이가 인수한 파이브락스(게임 이용자 분석 업체) 등을 그가 세웠다. 2020년 일곱 번째 창업 아이템으로 택한 건 의외로 ‘화장품’이었다. "뷰티업계의 테슬라가 되겠다"는 그는 인공지능(AI)으로 화장품도 혁신할 수 있다고 믿는다. 국내 스타트업계에는 노 대표 같은 연쇄 창업가들이 적지 않다. 손대는 사업마다 '대박'을 터뜨리는 인물도 있고, 수많은 실패를 겪은 뒤 마침내 성공 가도에 오르는 사람도 있다. 성공한 창업자가 투자자로 변신해 '선순환 생태계'를 만들어가기도 한다. 한경 긱스(Geeks)가 국내 스타트업계를 이끌어온 대표적 연쇄 창업가들을 살펴봤다. '7전8기형' 창업자들안상일 하이퍼커넥트 대표동영상 앱 '아자르'로 대박을 터뜨린 안상일 하이퍼커넥트 대표는 이른바 '오뚝이형' 연쇄 창업가다. 그는 '7전8기'가 아니라 무려 '10전11기'였다. 김밥집, 옷가게, 검색엔진, 사진 스튜디오 등등 업종도 가리지 않았다. 서울대 창업동아리 회장 출신이기도 한 그는 대학생 시절인 2002년 정보기술(IT) 컨설팅 관련 회사를 세웠다가 투자 실패로 큰 손실을 봤다. 하지만 2007년 창업동아리 친구들과 인터넷 검색업체 레비서치를 다시 창업했다. 미국 샌프란시스코에 법인도 세우며 사업을 확대해 나갔다. 그러나 2008년 닥친 글로벌 금융위기로 사업을 또다시 접어야만 했다. 그는 10번에 이르는 쓰라린 실패 뒤 2014년 하이퍼커넥트를 세웠다. 알고리즘을 기반으로 한 맞춤형 영상 채팅 앱 아자르는 글로벌 시장에서 큰 인기를 끌었고, 지난해 초 세계 최대 데이팅 앱 ‘틴더’를 운영하는 미국 매치그룹이 하이퍼커넥트를 2조원에 사들였다. 박현호 크몽 대표박현호 크몽 대표 역시 ‘10전11기’를 겪었다. 프리랜서 마켓 플랫폼 크몽으로 주목받고 있는 박 대표는 대학생 시절 온라인 쇼핑몰, PC방 관리 프로그램 등을 개발했다. 전자기기 쇼핑몰인 라밤바도 세웠다. 성장하던 사업은 '닷컴버블'이 터지며 와르르 무너졌다.그러다 2011년 크몽의 초기 모델을 선보인다. 5000원에 다른 사람의 재능을 사고파는 방식으로 서비스를 하다가 캐리커처 그려주기, 연애 상담, 직장 상사 욕해주기 등 '말랑말랑'한 요소를 넣으며 입소문이 나기 시작했고, 지금의 크몽으로 자리 잡았다.이승건 비바리퍼블리카 대표이승건 비바리퍼블리카(토스) 대표는 ‘8전9기’로 유니콘 기업(기업가치 1조원 이상 비상장사) 신화를 썼다. 이 대표는 2011년 스마트폰 초음파통신을 이용해 오프라인 만남을 기록하는 SNS 울라블라를 내놨다. 지인 관계를 인증하는 서비스 수요가 있을 것으로 판단했다. 하지만 페이스북이 비슷한 기능이 내놓으면서 사업을 접어야 했다.2013년에는 모바일 투표 앱 다보트를 출시했다. 이마저도 카카오가 비슷한 기능을 카카오톡에 추가하면서 또다시 사업을 접었다. 이후 100개가 넘는 아이템 가운데 팀원 투표와 프로토타입(시제품) 개발 등을 통해 복잡한 인터넷쇼핑 결제 문제를 해결하기로 했다. 그래서 나온 서비스가 지금의 '토스'다.전주훈 삼분의일 대표전주훈 삼분의일 대표도 여러 차례 창업에 실패했다. 침대 매트리스 시장을 혁신하고 있는 삼분의일을 창업하게 된 계기도 “사업이 어려울 때 불면증에 시달리면서 수면의 중요성을 깨달았기 때문”이라고 말한다.전 대표는 잇단 레스토랑사업 실패에 이어 2015년 가사도우미 플랫폼 홈클을 내놨으나 수익성 악화와 법률문제 등으로 사업을 접어야만 했다. '가성비' 좋은 매트리스 업체 삼분의일로 재기에 성공한 그는 최근 글로벌 화학회사 다우와 제품 공동개발 협약을 맺는 등 사업을 빠르게 확장하고 있다. 박성민 골라라 대표박성민 골라라 대표는 창업만 아홉 번을 했다. 2005년부터 인테리어 시공사, 분양 대행사 등 다양한 분야에 도전했지만 번번이 실패했다. 신용불량자로 전락해 한동안 공사 현장을 전전하며 일용직 노동자로 생계를 꾸려나가기도 했다. 결국 여덟 번째 사업인 인테리어 중개 플랫폼 집닥을 성공시켰고, 지금은 동대문을 세계와 연결하겠다는 포부로 글로벌 패션 도매마켓 골라라를 운영하고 있다. 잇따라 성공 가도 달리기도장병규 크래프톤 의장‘미다스의 손’을 가진 창업자들도 적지 않다. 장병규 크래프톤 의장이 대표적이다. 1세대 벤처 사업가 출신인 장 의장은 1997년 네오위즈를 설립했다. 2005년에는 검색엔진 업체 첫눈을 공동 창업한 뒤 네이버에 매각하는 데 성공했고, 2007년 크래프톤의 전신인 블루홀스튜디오를 설립했다. 크래프톤이 대형 게임사로 성장해 지난해 코스피에 상장했다. 장 의장은 산업계의 소프트웨어(SW) 인력 구인난 문제를 해소함과 동시에 청년 고용 창출에 기여하기 위해 카이스트 ‘SW사관학교 정글’과 '크래프톤 정글'에 적극 참여하고 있다.이한주 베스핀글로벌 대표클라우드 컨설팅 기업 베스핀글로벌의 이한주 대표 역시 손대는 사업마다 성공 가도를 달리고 있다. 이 대표는 1983년 아버지인 이해민 전 삼성전자 대표를 따라 미국으로 떠났다. 이후 1998년 웹 호스팅 업체 호스트웨이를 창업해 인터넷 서비스 업계에 첫발을 들였다. 이 대표는 인터넷 성장 흐름을 타고 2014년 호스트웨이를 미국 사모펀드에 5억달러를 받고 매각했다. 국내로 돌아와 스타트업을 돕는 액셀러레이터(AC) 스파크랩을 공동 창업했고, 베스핀글로벌을 세워 클라우드 시장의 혁신을 꾀하고 있다. 안동현 그린랩스 대표데이터 농업 스타트업 그린랩스는 금융·IT 전문가들이 모여 2017년 설립된 회사다. 신상훈 대표는 뱅크오브아메리카(BoA)와 메릴린치에서 펀드매니저로 일했고, 데이팅 서비스 앱 ‘아만다’ 운영사 넥스트매치를 창업했다. 안동현·최성우 대표는 소셜커머스 업체 쿠차를 설립했다. 안 대표는 피키캐스트 대표도 역임했다. 지난해 매출 1000억원가량을 기록한 그린랩스는 올해 다섯 배 늘어난 5000억원의 매출을 올릴 것으로 예상한다.   이관우 버즈빌 대표AI 기반 리워드 광고 플랫폼 기업 버즈빌의 이관우 대표는 네 번의 창업을 통해 엑시트(투자금 회수)도 여러 번 경험한 베테랑이다. 이토프(모바일 코드 솔루션), 포스트윙(저작권 관리 솔루션 개발업체), 데일리픽(맛집 전문 소셜커머스) 등을 창업해 네이버, 티몬 등 국내 IT 대기업에 잇따라 매각했다. 투자자로 변신해 후배 양성도권도균 프라이머 대표'한국 스타트업의 대부'로 불리는 권도균 프라이머 대표는 지금껏 5개 회사를 세웠다. 그는 1990년대 후반 결제업체 이니시스와 보안회사 이니텍을 설립해 모두 코스닥에 상장시켰다. 엑시트에 성공한 그는 후배 양성에 본격적으로 나선다.권 대표가 2010년 설립한 프라이머는 국내 최초 스타트업 액셀러레이터로 불린다. 스타일쉐어, 아이디어스, 번개장터, 라엘, 세탁특공대 등 200곳이 넘는 스타트업이 그의 손을 거쳐 빛을 봤다. 권 대표는 "인생에 한 번은 무조건 창업하라"고 말한다.류중희 퓨처플레이 대표류중희 퓨처플레이 대표는 창업으로 수백억원 규모의 자금을 확보한 뒤 창업 전도사로 벤처판에 복귀했다. 류 대표는 얼굴인식 기술 회사인 올라웍스를 2006년 세운 뒤 인텔에 3100만달러에 판 경험이 있다. 회사 매각 후 젊은 인재들의 기술 창업을 돕기 위해 2013년 퓨처플레이를 설립했다. 록앤올 공동창업자인 박종환(왼쪽부터), 신명진, 김원태 대표. 임대철 한경디지털랩 기자내비게이션 서비스 '김기사'로 유명한 록앤올의 신명진·박종환·김원태 공동 창업자 역시 후배 양성에 힘쓰고 있다. 이들은 회사를 카카오에 매각한 뒤 2018년 액셀러레이터 김기사랩을 설립했다. 지난 4년 동안 투자한 스타트업이 40개가 넘는다. 핀테크 스타트업 빅쏠 등 일부 기업은 벌써 다른 기업에 인수되기도 했다. 연쇄 창업은 실리콘밸리 문화연쇄 창업은 실리콘밸리를 키운 힘이기도 하다. 국내 벤처업계에서 활약하다가 실리콘밸리에서 창업하는 사례도 잇따라 나오고 있다.김동신 센드버드 대표김동신 센드버드 대표는 기업용 채팅 플랫폼으로 유니콘 기업을 키웠다. 그는 서울대 컴퓨터공학과를 졸업한 뒤 엔씨소프트에서 근무하다가 2007년 게임업체 파프리카랩을 창업했다. 이후 2012년 일본 게임사인 그리에 파프리카랩을 매각하고, 2013년 센드버드를 실리콘밸리에서 세웠다.처음 사업 아이템은 육아 정보 커뮤니티 운영이었다. 시행착오 끝에 지금의 사업 모델인 메시징 플랫폼으로 전환했다. 김 대표는 대학 재학 시절 e스포츠 게임단 ‘삼성 칸’에서 프로게이머로 활동하기도 했다.이창수 올거나이즈 대표이창수 올거나이즈 대표는 노정석 대표와 함께 파이브락스를 공동 창업한 인물이다. 올거나이즈는 이 대표가 2017년 실리콘밸리에서 창업한 자연어 이해 AI 솔루션 스타트업이다. AI봇 ‘알리’와 인지 검색 솔루션 등을 운영하고 있다.이주환 스윗 대표실리콘밸리에서 기업용 온라인 협업툴 소프트웨어로 주목받고 있는 이주환 스윗테크놀로지 대표도 2015년 에듀테크 스타트업에 도전해 실패를 맛본 경험이 있다. 이후 2017년 스윗을 창업했다. 그는 슬랙을 오랜 기간 사용하면서 느낀 부족함을 바탕으로 서비스를 개발하기 시작했다. 2018년 말 첫 베타 버전을 선보였고, 2019년 3월 정식 버전을 출시한 뒤 빠르게 회사를 키워왔다.하정우 베어로보틱스 대표하정우 베어로보틱스 대표는 한때 순두붓집 사장님이었다. 인텔을 거쳐 2011년부터 구글에서 소프트웨어 엔지니어로 일했던 그는 2016년 "사람들에게 맛있는 음식을 해주고 싶다"는 생각에 실리콘밸리에서 순두붓집을 차린다. 하지만 하 대표는 식당 일이 너무 고되다는 것을 깨닫고, 서빙 같은 힘든 일을 대신 해주는 로봇을 개발해야겠다고 생각하게 된다. 2017년 서빙 로봇 스타트업 베어로보틱스를 창업한 배경이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2022.12.07.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>"귀여운건 못참지" 펭수부터 최고심까지…캐릭터에 빠진 카드사</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006504596?sid=101</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>미래 고객 MZ 공략에 적극…빅테크로 이탈 방지"체크카드에서 신용카드로 넘어가는 선순환 기대"신한카드 핏(Fit) 최고심 에디션 카드'(왼쪽)와 KB국민카드 펭수 노리 체크카드(오른쪽).(서울=뉴스1) 김정은 기자 = 카드업계가 인기 캐릭터와 협업한 체크카드를 속속 내놓으며 MZ세대 공략에 나서고 있다. 체크카드는 당장의 수익성은 낮지만 젊은 고객층이 신용카드로 넘어가는 효과를 노린다는 전략이다. 또 빅테크에 익숙한 MZ세대 이탈을 방지하기 위한 목적도 있다.7일 업계에 따르면 지난달 28일 신한카드는 일러스트레이터 '최고심'과 협업해 '신한카드 핏(Fit) 최고심 에디션 카드'를 출시했다. 카드 플레이트에는 '짱이 쓰는 카드', '이 세상 행운 다 내꼬' 등 재기발랄한 문구가 담겼다. 최고심은 SNS를 중심으로 젊은 층에 큰 인기를 얻고 있다. 최고심 공식 인스타그램 계정 팔로워는 28만명을 훌쩍 넘는다.신한카드는 지난 6월엔 '잔망루피'를 모델로 한 '신한카드 온(On) 체크 잔망루피 에디션'을 선보이며 호평을 얻은 바 있다. 전날 기준 이 카드는 14만좌가 판매됐다.KB국민카드가 지난 2020년 선보인 '펭수 노리 체크카드'는 1년 만에 40만좌 이상 발급했다. 지난해 말 기준으로는 약 60만좌를 돌파했다. 이 카드는 당초 올해 2월 발급 종료 예정이었는데 인기에 힘입어 내년 2월까지 발급 기한이 연장됐다.우리카드는 지난 9월 '다이노탱' 캐릭터와 협업해 'NU오하쳌(오늘하루체크) 카드'를 출시했다. NU오하쳌은 지난달 신용카드 플랫폼 카드고릴라가 집계한 체크카드 인기순위 4위에 오르기도 했다. NH농협카드가 카카오프렌즈 캐릭터와 협업해 지난 2019년 11월 출시한 '라이언치즈'와 어피치스윗' 체크카드는 3년 만에 200만좌를 넘어섰다. 카드사들이 꾸준히 캐릭터 체크카드를 출시하는 이유는 신규 회원 창출은 물론, 이들의 미래고객인 MZ세대 회원 기반을 확대하기 위해서다. 당장은 큰 이익을 얻지 못하더라도 체크카드 고객이 향후 자사의 신용카드를 이용할 수 있도록 접점을 넓혀간다는 전략이다. 체크카드는 단순히 결제수수료에만 의존하기 때문에 현금 서비스나 카드론을 제공하는 신용카드보다 수익성이 떨어진다.또 인기 캐릭터와의 협업으로 주목도를 높여 토스·카카오페이 등 빅테크에 익숙한 젊은 고객층을 붙잡으려는 목적도 있다.카드사 관계자는 "전반적으로 업계가 MZ 세대 특화 마케팅이라든가 상품 라인업을 강화하는 추세"라며 "향후 체크카드 고객이 신용카드로 넘어오는 일종의 선순환을 기대하고 MZ세대 마케팅을 진행하고 있다"고 말했다.카드사의 적극적인 마케팅에 시장도 반응하고 있다. 올해 사회적 거리두기 완화 등 일상 회복에 따른 보복소비 심리와 맞물려 체크카드 이용이 크게 늘어난 것으로 나타났다. 여신금융협회에 따르면 올해 3분기 국내 체크카드 발급수는 1억1718만매로, 지난 1분기 대비 1185만매 가량이 늘었다. 이용 금액도 같은 기간 7조1507억원 증가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2022.12.01.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>'공룡' 네이버도 본격 참전…대출비교 플랫폼 경쟁↑</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005185671?sid=101</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>네이버, 사업자대출 이어 개인신용대출 비교·추천 개시토스·카카오페이·핀다 3강 구도 변동 전망‘공룡’ 네이버가 개인 대출비교 시장에 본격 참전한다. 압도적인 플랫폼 역량을 갖춘 만큼 토스,카카오페이, 핀다 등으로 이뤄진 시장 경쟁구도가 크게 바뀔 수 있다는 전망이 나온다.1일 업계에 따르면 네이버파이낸셜은 지난달 29일 ‘네이버페이 신용대출 비교’ 서비스를 출시했다. 네이버 전자증명서로 소득 증빙 서류를 간편히 제출하고 실제 심사 결과와 가까운 금리와 한도를 확인, 금융사별 조건을 비교할 수 있게 됐다.이미 우리은행, 하나은행, 전북은행을 포함한 7개 은행과 저축은행, 캐피탈, 카드사 등 제2금융권 및  온라인투자연계(P2P) 금융업까지 총 50개 금융사가 입점했다. 연내에는 SC제일은행도 추가될 예정이다.지난 10월말 국내 최초로 은행을 포함한 전(全) 업권의 사업자 신용대출 상품을 비교할 수 있는 ‘네이버페이 사업자 대출비교’를 출시한 데 이어 한 달 만에 개인 대상 신용대출 비교 서비스를 내놓은 것이다. 가파르게 성장하는 대출 비교 시장에 하루라도 빨리 뛰어들기 위해 올해 들어 네이버 측에서도 상당히 속도를 냈다는 후문이다. 김한규 더불어민주당 의원실에 따르면 토스·카카오페이·핀다의 금융상품 중개건수는 2020년 17만2842건에서 지난해 80만9687건으로 1년 새 368.5% 급증했다. 올해 들어서도 상반기에만 71만2454건을 중개했다.압도적인 플랫폼 지배력을 가진 네이버가 참전하면서 본격적인 대출 비교 시장에 지각 변동이 일어날 것이라는 전망이 나온다. 그간 국내 대출비교 서비스는 사실상 토스와 카카오페이, 핀다 간의 3파전이었다. 윤창현 국민의힘 의원실이 금융감독원으로부터 제출받은 상위 10대 저축은행 신용대출 현황’ 자료에 따르면 토스의 시장 점유율이 48.8%로 가장 높았다. 이어 카카오페이(23.2%)와 핀다(16.9%) 순이었다.향후 시중은행과의 제휴 확대가 관건이다. 보다 고신용자들을 안정적으로 불러모을 수 있고 대출상품 추천 적확도도 높일 수 있기 때문이다. 현재 카카오페이와 토스가 신한·우리·하나은행과 제휴를 맺었으며 핀다는 하나은행과만 제휴했다. 네이버는 우리·하나은행이 입점한 상태로 시작한다. 다만 시중은행들은 대출비교 플랫폼들과 손잡는 것을 다소 주저하고 있다. 여신주도권을 플랫폼에 뺏길 수 있다는 우려에서다. KB국민은행과 NH농협은행이 자체 플랫폼 경쟁력 강화를 위해 어떠한 대출 비교서비스에도 자사 상품을 제공하지 않고 있는 것도 같은 맥락에서다.한편 현재 신용대출 위주인 대출비교 시장이 주택담보대출까지도 아우르는 방향으로 커지고 있는 만큼 경쟁은 더욱 치열해질 전망이다. 현재 토스는 신용·사업자·주택담보대출, 카카오페이는 신용·전세대출, 핀다는 신용·사업자·주담대·전세대출 상품을 취급하고 있다. 주담대 비교 서비스가 특화된 담비 등도 있지만 아직 주담대 상품 비교는 상대적으로 ‘블루오션’인 셈이다. 네이버파이낸셜 관계자는 “아직 구체적인 계획은 안 잡혔지만 향후 주담대 영역도 전략적 고려사항이 될 수 있다”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2022.12.05.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>美 워크데이 3Q 매출·이익 동반성장, 구독매출도 증가세</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004825413?sid=105</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>인사·재무관리를 위한 기업용 클라우드 앱을 공급하는 워크데이가 올해에 이어 내년에도 20% 이상 매출 성장세를 이어갈 것이라는 전망을 내놨다.워크데이는 올해 10월31일로 마무리된 2023년 회계연도 3분기 실적을 발표하며 3분기 매출이 16억달러(약 2조710억원), 영업이익이 3억1420만달러(약 4067억원)를 기록했다고 밝혔다. 전체 매출 중 89%에 이르는 14억3000만달러(약 1조8521억원)가 구독매출이었다. 영업활동 현금흐름은 4억870만달러(약 5292억원)로 지난해 같은 기간 대비 6% 가량 늘었다.워크데이는 내년 1월까지 남은 1개 분기를 더한 2023 회계연도 전체 구독매출이 최소 55억5500만달러(약 7조1948억원)에서 최대 55억5700만달러(약 7조1963억원)에 이를 것으로 예상했다. 워크데이는 국내에서도 활동을 넓혀 가고 있다. 현재 삼성전자, SK그룹 등 계열사들을 비롯해 토스, 동화그룹 등 기업들이 워크데이 솔루션을 활용 중이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2022.12.01.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>토스뱅크 3분기 순손실 476억…적자폭 다소 줄었지만 앱 설치는 후퇴</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003759965?sid=105</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>인터넷 전문은행 토스뱅크가 3분기 순손실을 공개했다.     30일 토스뱅크 3분기 순손실은 476억원으로 적자 폭은 전 분기 589억원 보다 113억원 감소했다. 작년 10월 창사 이래 처음으로 3분기 충당금 적립 전 이익은 185억원으로 흑자를 기록했다.       3분기 누적 순손실은 1719억원으로 이중 충당금 전입액은 약 80%(1334억원)를 차지했다.     토스뱅크 3분기 말 고객 수는 476만명을 달성한 가운데 빅데이터 전문기업 TDI(티디아이, 대표 이승주)의 분석 플랫폼 데이터드래곤을 통해 전년동월대비 3분기 앱 설치 수 및 설치 수 대비 MAU(월 사용자 수)를 비교 분석했다.     토스뱅크 앱 설치 수는 작년 토스뱅크 3분기 ▲7월 1,746만 7,000대 ▲8월 1,755만 4,000대 ▲9월 1,813만 4,000대로 집계됐다. 올해 3분기 토스뱅크 앱 설치 수는 ▲7월 1,953만 2,000대 ▲8월 1,951만 9,000대 ▲9월 1,950만 2,000대로 전년동월대비 증가했다.      작년 3분기는 지속적으로 앱 설치수가 증가한 반면 올해 3분기는 하락했다.      토스뱅크 설치 수 대비 MAU의 경우 작년 3분기 ▲7월 58.60% ▲8월 62.23% ▲9월 65.06% 지속적으로 증가했으나 올해 3분기 ▲7월 58.80% ▲8월 59.03% ▲9월 59.13%로 전년동월대비 높지 않았지만 다시 증가하고 있다.     한편 토스뱅크 9월 말 여신 잔액은 전 분기(4조 3,000억원)보다 약 66% 상승한 7조 1,0000억원으로 수신 잔액은 23조 1445억원이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2022.12.06.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>'기프티콘 거래' 니콘내콘, 토스페이로 결제…연동 완료</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011578182?sid=101</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 더블엔씨는 기프티콘 거래 플랫폼 니콘내콘의 간편 결제 인프라 확장을 위해 토스페이와 연동을 완료했다고 6일 밝혔다. (이미지=더블엔씨 제공) 2022.12.06. photo@newsis.com[서울=뉴시스] 배민욱 기자 = 더블엔씨는 기프티콘 거래 플랫폼 니콘내콘의 간편 결제 인프라 확장을 위해 토스페이와 연동을 완료했다고 6일 밝혔다.니콘내콘에서는 토스페이를 포함해 선불 충전 후 사용할 수 있는 니콘머니와 카드 일반 결제, 니콘내콘 전용 간편결제 서비스 니콘페이까지 총 4가지 결제 서비스를 이용할 수 있다. 토스 모바일 앱을 쓰고 있는 니콘내콘 이용자라면 누구나 간단한 인증만으로도 간편하게 토스페이 결제가 가능하다. 니콘내콘 내 원하는 상품을 고른 후 결제방식에서 토스페이를 선택, 결제 비밀번호를 입력하면 된다.니콘내콘은 서비스 오픈을 기념해 31일까지 토스페이 생애 첫 결제 고객을 대상으로 이벤트를 진행한다. 니콘내콘에서 토스페이로 생애 첫 결제 시 결제금액의 100%를 최대 3000원까지 캐시백을 제공할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2022.12.12.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>"우체국·새마을금고서도 개인정보 노출 사실 등록할 수 있다"</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004786245?sid=101</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>서울 여의도 금융감독원 전경. /한경DB내년부터 우체국이나 새마을금고 영업점에서도 개인정보 노출 사실을 등록할 수 있게 된다. 시골지역 주민의 금융사고 예방 효과가 한층 높아질 것으로 기대된다.금융감독원은 12일 우정사업본부, 새마을금고중앙회 등과 ‘개인정보노출자 사고예방시스템 연계기관 확대’를 위한 업무협약(MOU)을 맺었다. 신분증을 잃어버렸거나 피싱을 당해 주민등록번호 등 개인정보가 유출된 경우 개인정보노출자 등록을 할 수 있다.개인정보노출자로 등록된 사람 명의로 대출이나 계좌 개설 등 금융거래를 할 경우 금융사는 본인확인 절차를 강화해야 한다. 상세 주소나 계좌번호, 결제 계좌, 결제일 등 세부정보를 추가로 확인하고 신분 대조를 철저히 하는 식이다.현재 은행 등 전국 금융사 지점 1만1416곳을 직접 방문하거나 인터넷(금감원 홈페이지)을 통해 개인정보노출자 등록 및 해제를 할 수 있다. 내년 1분기부턴 전국 우체국 지점 3373곳과 새마을금고 3260곳이 추가되며 개인정보노출 사실을 등록할 수 있는 영업점이 1만8049곳으로 확대되게 됐다.금감원에 따르면 개인정보노출자 사고예방시스템 접수건 중 약 35%가 오프라인을 통해 개인정보 유출 사실이 등록되고 있다. 이복현 금감원장은 “전국적 지점망을 갖춘 우체국과 새마을금고에서도 개인정보 노출 사실을 등록할 수 있게돼 금융사 지점이 적은 지역 주민의 금융사고 예방에 기여할 것으로 기대된다”고 밝혔다.금감원은 이날 네이버페이와 카카오페이, 토스 등 주요 간편결제 서비스 업체에도 개인정보 노출 사실이 실시간 전파되도록 하는 내용의 기관간 업무협약도 체결했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2022.12.04.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>디지털·글로벌 금융 발빠른 혁신 이끄는 노련한 실무형 CEO</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005055058?sid=101</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>ＪＢ금융지주 김기홍 회장민관학 두루 섭렵한 강소금융 리더김기홍 JB금융지주 회장은 '실무형 최고경영자(CEO)'다. 리스크 관리 전문가에 학계는 물론 민관 경력까지 갖춘 혁신형 리더, 전쟁으로 치면 실전형 장수다. 그룹 전반의 일거수일투족을 줄줄이 꿰고 있고, 실무자가 놓친 숫자까지 잡아낼 정도로 보고서를 정독한다. 다른 금융사 수장들이 비결을 물으면 "아직 작은 회사라서 할 수 있다"고 답하지만, 그만큼 많은 시간을 할애하고 애정을 쏟기에 가능한 일이다.김 회장은 2019년 3월 취임 때 '작지만 강한 강소 금융그룹'을 만들겠다고 선언했고, 그 약속을 지켰다. JB금융지주는 지방금융지주 중 규모가 작은 편이지만, 김 회장 취임 후 수익률 최강자로 올라섰다. 다른 지방금융지주가 실적 부진을 면치 못했던 올 3분기에도 JB금융의 누적당기순이익은 전년 동기 대비 20.8% 증가한 4871억원을 기록했다. 매분기 사상 최대 실적이다.김 회장은 올해 초 연임에 성공하며 2025년까지 JB금융을 이끌게 됐다. '김기홍 리더십'이 본격적으로 제 색깔을 내기 시작한 것도 이때부터다. 김 회장은 임직원들에게 "첫 임기에는 사업포트폴리오를 수익성 중심으로 재편해 그룹 체질을 바꾸고 자본력을 높이는 일에 집중했다면, 두 번째 임기에는 질적 성장을 이어 가면서 JB금융만의 색깔을 만들어내는 차별화 전략에 역점을 두고 있다"고 설명했다.JB금융의 '체질 개선'은 수치로도 드러난다. 주요 재무지표가 모두 상승세다. 2018년 마이너스였던 성장률은 김 회장 취임 이후 반전됐고 2020년에는 12.3%를 기록했다. 2018년까지는 지배지분 자기자본순이익률(ROE)이 한 자릿수에 머물렀지만 꾸준히 상승해 올해 3분기에는 15.2%를 기록했다. 총자산순이익률(ROA)도 올 3분기 1.14%로, 수익성 수치가 국내 금융지주 중 가장 높은 수준이다. 지속적인 비용 절감 덕분에 경영 효율성 지표인 영업이익경비율(CIR)은 역대 최저치인 37.6%를 기록했다. 주요 자산건전성 지표도 안정적인 수준이다. 투자자 평가도 좋은 편이다. 배당 성향은 20%를 넘어섰고, 올해는 첫 중간배당을 실시했다. 보통주자본비율은 올 3분기 전년 동기 대비 0.95%포인트 개선된 11.43%다. 향후 주주 환원 정책을 강화하고 사업 다각화를 추진하는 기반을 다진 것이다. 김 회장은 최근 경영전략회의에서 "수익 다각화를 위해 비은행 사업을 확장해야 한다. 진정한 강소 금융그룹으로 거듭나기 위해 꼭 필요하다"면서 "그룹 비은행 사업 비중을 확대해 보다 균형 잡힌 사업 포트폴리오를 구성하기 위해 국내외 인수·합병(M&amp;A) 매물을 두루 살피라"고 강조한 것으로 알려졌다.해외 시장에도 선제적으로 진출했다. 2016년 캄보디아 프놈펜상업은행(PPCBank)을 인수했고, 지방금융지주 최초로 해외에 종합금융 사업을 거느린 그룹사가 됐다. 현재 JB금융은 전북은행, 광주은행, JB우리캐피탈, JB자산운용 등 4개의 국내 계열사와 캄보디아 프놈펜상업은행, 미얀마 소액금융회사, 베트남 증권사, 캄보디아 자산운용사(JB PPAM) 등 4개의 해외 손자회사를 거느리고 있다.JB금융 관계자는 "캄보디아 프놈펜상업은행은 올 3분기 당기순이익이 229억원으로 전년 동기 대비 67.2% 성장했다. 베트남 증권사는 회사채 발행 주관 및 인수 등 투자은행(IB) 업무를 중심으로 비즈니스 기반을 확대 중"이라고 설명했다. 내년 하반기에는 주식 브로커리지와 마진론 사업 개시를 목표로 시스템 개발도 진행하고 있다. 민첩한 '속도경영'도 강점이다. 매달 그룹 최고경영진이 참여하는 그룹 경영협의회에서는 외부 시장 환경 변화에 따른 영향을 분석하고, 선제적으로 대응할 사안에는 바로 의사 결정을 한다. 최근 부동산 관련 대출의 위험성이 높아졌지만 JB금융의 은행 계열사는 선제적인 관리로 리스크를 줄였다는 게 회사 측 설명이다. JB금융 관계자는 "부동산 프로젝트파이낸싱(PF)의 경우 전북은행과 광주은행의 브리지론 취급은 매우 제한적이고, 부동산 PF 보증서 취급 비중은 각각 70%, 76%로 전체 은행권에서 가장 높다"고 말했다.디지털 혁신 속도도 업권 중 가장 빠르다는 평가다. JB금융은 금융그룹 최초로 지주에 그룹 통합 빅데이터 플랫폼 '데이터 허브'를 구축했다. 데이터 허브를 통해 JB금융 계열사들은 고객의 금융 정보와 행동 패턴을 통합적으로 분석해 디지털 전략을 수립한다. 토스, 네이버 파이낸셜 등 플랫폼 기업과도 적극 협업하고 있다. ▷김기홍 회장은… 1957년 서울에서 태어나 미국 배럿대 경영학과를 졸업하고, 미주리대 경영학 학사, 조지아대 경영학 박사 학위를 취득했다. 보험개발원 연구조정실장, 금융감독원 부원장보, 충북대 국제경영학과 교수, KB국민은행 수석부행장 등을 역임했다. JB자산운용 대표를 거쳐 2019년 JB금융지주 회장으로 취임했다. 올해 초 연임에 성공해 2025년까지 JB금융을 이끌게 됐다. 2020년부터 매경이코노미 '대한민국 100대 CEO'에 3년 연속 선정됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2022.12.06.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>중저신용자에 자영업자 대출 늘린 인뱅3사…건전성 우려 커진다</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006502210?sid=101</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>카카오뱅크·케이뱅크·토스뱅크, 자영업자 대출 늘리며 기업 여신 진출 포석올 2분기 개입사업자대출 차주 부실 위험 지표 0.56%…전분기比 0.11%p 상승2022.11.7/뉴스1 ⓒ News1 박지혜 기자(서울=뉴스1) 김정은 기자 = 인터넷전문은행들이 중저신용자를 넘어 자영업자 대출에도 손을 뻗는 가운데 건전성 리스크도 점차 커지고 있다. 개인사업자 특성상 대출을 2개 이상 보유하고 있는 '다중채무자'가 많은 만큼 잠재 부실이 커질 것이라는 우려가 제기된다.5일 금융권에 따르면 카카오뱅크의 '개인사업자 뱅킹' 서비스는 출시 한 달 만에 개인사업자 고객 13만 명을 끌어모았고, 개인사업자 신용대출은 약 500억원의 공급액을 기록했다. 지난 2월 인터넷은행 중 가장 먼저 개인사업자 신용대출에 뛰어든 토스뱅크의 11월 말 기준 개인사업자 대출 잔액은 약 1조2000억원이다.반면 5대 은행(KB국민·신한·우리·하나·NH농협)은 개인사업자에 대한 대출 문턱을 높이고 있다. 지난달 말 기준 이들 은행 개인사업자 대출 잔액은 314조7504억원으로, 지난 9월보다 5175억원 감소했다. 대형 은행이 개인사업자 대출을 소극적으로 취급하고 있는 틈을 타 대출 성장률을 키우겠다는 게 인터넷 은행들의 의도다.자영업자 대출을 시작으로 궁극적으로는 기업 여신에 진출하겠단 포석이지만, 상대적으로 금융 이력이 부족한 자영업자 대출 규모를 키우면서 건전성에 대한 우려가 커지고 있다. 내수 경기에 민감한 자영업자들은 금리 상승으로 가계 소비 여력까지 위축될 경우 부실화 가능성이 커진다. 이미 자영업자들이 코로나19 팬데믹 이후 대출을 늘려왔단 점도 이들의 부실 위험을 높이는 요인이다.실제 개인사업자대출 보유 차주의 부실 위험 지표는 상승하고 있다. 나이스평가정보에 따르면 지난 2분기 말 최초부실 발생률은 전기 대비 0.11%포인트(p) 상승한 0.56%를 기록했다. 최초부실 발생률이란 신규로 장기 연체(90일 이상 연체)에 진입한 대출에 대한 연체율을 대출액으로 가중평균한 수치다.자영업자 중 상당수는 3개 이상 금융회사에서 대출받은 다중채무자다. 통상 자영업자들은 은행에서 개인사업자 대출과 신용대출을 받은 후 다른 금융회사에서 추가로 자금을 끌어온다. 금리상승기에 접어들면서 자영업자들이 '뇌관'으로 지목받는 이유다. 나이스평가정보에 따르면 전체 자영업자 중 다중채무자는 올 상반기 기준 29.41%다.이미 인터넷 은행들은 중저신용 대출 공급 목표치를 맞추기 위해 올 한해 공격적으로 중저신용자를 유치했는데, 여기에 자영업자 대출까지 늘어나면서 리스크는 한층 커졌다.중저신용자를 중심으로 대출 규모를 확대하면서 인터넷은행들의 건전성 지표도 다소 부실해지고 있다. 메리츠증권에 따르면 지난 3분기 시중은행의 대손비용률은 0.21%였는데, 인터넷은행 3사의 대손 비용률은 1.84%였다. 대손비용률은 총대출 대비 충당금 비중을 나타낸다. 대손비용률이 낮을수록 자산건전성이 좋다고 평가할 수 있다.연체율도 증가세다. 인터넷은행 중 가장 공격적으로 중저신용자 대출을 늘리고 있는 케이뱅크는 지난 3분기 연체율은 0.67%로 가장 높았다. 지난해 말과 비교하면 0.26%p 증가했다. 카카오뱅크의 연체율은 올 3분기 기준 0.36%로, 지난해 말 대비 0.14%p 올랐다. 올해 1월부터 대출을 재개한 토스뱅크의 3분기 연체율 역시 전 분기 대비 0.15%p 확대한 0.30%를 기록했다.인터넷은행들은 자체 신용평가 모델(CSS)을 고도화하며 리스크 관리 역량을 키워나갈 방침이다. 한 업계 관계자는 "국내 가계 대출 연체율은 올 초부터 이어진 기준금리 상승 등 가계 채무 부담 증가로 증가 추세를 보이고 있다"며 "인터넷은행들은 자체 CSS를 계속해서 개선해 건전한 중저신용고객을 발굴하는 한편, 현재의 보수적인 충당금 적립 기조 등을 유지하며 건전성 관리에 힘쓸 것으로 보인다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2022.12.12.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>오늘의집, 삼성전자와 가전제품 특가 진행</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003065093?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>오늘의집은 원데이 특가 코너 오늘의딜을 통해 삼성전자의 인기 가전제품을 특별 할인가에 판매한다고 12일 밝혔다.오늘의집은 삼성전자와 함께 12일 하루동안 '삼성전자x오늘의딜'을 열고 삼성전자 인기 가전제품 TOP100을 선별해 최대 60% 할인한 가격에 판매한다. 비스포크 냉장고 코타화이트, 김치플러스 스탠드형 김치냉장고, 비스포크 그랑데 AI 세탁기·건조기 등을 할인된 가격에 구매 가능하다.일부 상품은 빠른가전배송 서비스를 통해 구매한 다음날 받아 볼 수도 있다. 오늘의집에서 오전 11시까지 주문 및 결제를 완료하면 TV, 세탁기, 무선청소기, 빌트인 정수기 등 인기 상품이 다음날 배송된다. 고객 필요에 따라 주문일 기준 4주 이내에 원하는 설치일을 지정할 수도 있다.특정 카드 결제사를 통할 경우 추가 할인혜택도 제공된다. 삼성카드, BC카드로 결제할 경우 6만원 한도 내에서 최대 5% 추가 할인이 적용되고, 카카오페이, 네이버페이, 페이코, 토스페이 등 간편결제를 이용 시에도 제휴사에 따라 할인 및 추가 적립 혜택을 제공한다.오늘의집은 오늘의딜 외에도 '2022 연말감사제'의 일환으로 25일까지 2주간 '삼성전자 브랜드위크'를 진행한다. 고객은 거실, 주방, 드레스룸, 취미룸 등 공간별로 오늘의집이 추천하는 삼성 가전 제품을 특별 혜택가에 구매할 수 있다.정운영 오늘의집 커머스 본부장은 “고객에게 차별화된 혜택을 선사하고자 삼성전자 인기 제품을 원데이 초특가로 구매할 수 있는 오늘의딜 기획전을 마련했다"며 “앞으로도 오늘의집은 고객이 최고의 구매 경험으로 만족할 수 있도록 다양한 기획전을 지속적으로 선보여 가겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2022.12.06.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>알짜 VC 다올인베스트먼트, 시장에 나왔다… 우리금융·유진그룹 등 관심</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003244079?sid=101</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>다올금융그룹이 계열사인 다올인베스트먼트(전 KTB네트워크)를 인수합병(M&amp;A) 시장에 매물로 내놨다.      지난 9월 27일 오후 서울 여의도 일대, 증권가 모습. 연합뉴스           6일 투자은행(IB) 업계에 따르면 다올금융그룹은 다올인베스트먼트 매각을 위해 국내 금융사 등 잠재 인수 후보자를 상대로 매각 의사를 타진하고 있다. 다올인베스트먼트는 지분 52.0%를 보유한 다올투자증권이 최대주주다.      부동산 프로젝트파이낸싱(PF) 자금 경색으로 인해 그룹 차원에서 유동성 위기가 번져나가자 ‘알짜’ 자회사를 팔기로 한 것으로 해석된다. 희망 매각가는 2000억원 이상 수준으로 알려졌다.       IB업계 관계자는 “다올투자증권이 최근 국내 금융기관 등을 상대로 긴급 자금 조달을 하고 있는데, 유동성 확보를 위해 고심 끝에 다올인베스트먼트를 팔기로 결정했다”고 말했다.      우리금융지주, 유진금융그룹, 신영증권 등 국내 금융회사 및 국내 대기업 등이 인수 후보로 거론된다. 알짜 VC가 매물로 나와 관심이 많다. 우리금융은 1순위 인수 후보로 꼽힌다. 우리금융은 지난해 말 23년 만에 완전 민영화를 성사시킨 뒤 비금융 포트폴리오 부문 강화하기 위해 다방면의 M&amp;A를 검토해왔다. 다올인베스트먼트에 대해선 2년 전인 2020년 인수를 추진한 바 있다.      유진그룹도 인수에 관심을 보이고 있다. 유진그룹은 지난해 다올그룹에 다올저축은행(전 유진저축은행)을 1580억원에 매각하면서 인연을 맺은 바 있다.       국내 대기업이 인수전에 뛰어들지도 주목된다. 국내 대기업들은 최근 벤처 자회사 CVC를 설립해 벤처 부문을 강화하는 추세에 있다.      올해 창립 40주년을 맞은 다올인베스트먼트는 국내 벤처업계에서 탄탄한 입지를 갖춘 1세대 VC다. 국내외 1200여 개 벤처기업에 2조원 이상을 투자했다. IPO에 성공한 기업만도 약 300여 개다.최근 대표적인 투자 성공 사례로는 배달의민족(우아한형제들)과 토스(비바리퍼블리카) 등이 꼽힌다.       올해는 실적이 부진했다. 올해 3분기 누적 매출 2169억원, 영업이익 32억 기록했다. 작년 매출 1043억원, 영업이익 774억원과 비교하면 매출은 크게 늘은 반면 영업이익은 크게 줄었다. 올 3분기만 보면 매출 38억원, 영업손실 11억원을 기록, 적자 전환했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2022.12.13.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>11월 금융앱 톱5, 전월比 설치수 평균 12.8만↑</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003763814?sid=101</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>11월 금융 앱 톱5의 설치 수가 전월 대비 모두 증가한 것으로 나타났다.      빅데이터 전문기업 TDI(티디아이, 대표 이승주)가 자사의 플랫폼 데이터드래곤을 통해 안드로이드 사용자가 설치한 금융 앱을 분석했다.     은행·결제·자금 관리 등을 포함한 모든 금융 앱 가운데 11월 기준 설치 수가 가장 많은 앱은 ▲토스(1,951만 대) ▲카카오뱅크(1,714만 대) ▲페이북/ISP(1,509만 대) ▲NH스마트뱅킹(1,323만 대) ▲KB국민은행 스타뱅킹(1,317만 대) 순이다.     10월의 설치 수 톱5는 ▲토스(1,947만 대) ▲카카오뱅크(1,698만 대) ▲페이북/ISP(1,502만 대) ▲NH스마트뱅킹(1,309만 대) ▲KB국민은행 스타뱅킹(1,294만 대)으로 11월에도 순위 변동이 없으며 설치 수만 모두 늘었다.       전월과 비교한 11월 Top5의 설치 수 증감률은 ▲토스 0.2% ▲카카오뱅크 0.9% ▲페이북/ISP 0.5% ▲NH스마트뱅킹 1.1% ▲KB국민은행 스타뱅킹 1.8%다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2022.12.07.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>‘토스로 보내지 말라’던 그 사람, 알고보니 사기꾼…15만건 피해 막아</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000035800?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>포털 간편결제로 위장한 범죄 사이트 웹 스크래핑으로 파악     토스, 사기 예방활동으로 반년간 송금 피해 15만건 방지. [사진 토스]    비바리퍼블리카(토스)가 중고거래 사기 등에서 사용자를 보호하기 위한 활동을 진행해 최근 6개월 동안 약 15만건의 송금 피해를 막았다고 7일 밝혔다.      토스의 이상거래탐지시스템(FDS)팀 사용자의 기기 정보, 접속 위치, 환경, 평상시 거래 패턴 등을 머신러닝 기술을 통해 분석하여 의심스러운 송금을 차단하고 있다.      웹 스크래핑 기술로 포털사이트 간편결제 페이지로 위장한 범죄 사이트에 기재된 계좌번호를 수집하고 있으며, 이용자 신고로 수집된 계좌번호, 경찰청 사이버안전지킴이, 더치트에 등록된 계좌번호도 송금 과정에서 자동으로 확인한다.    토스는 송금 피해에 선제적으로 대응하면서 지난 6개월 동안 이용자 5만1500여 명, 금액으로는 약 160억 원을 보호했다고 설명했다.    이광현 토스 FDS 담당자는 “새로운 사기 기법을 연구하며 해외 범죄 조직이 운영하는 피싱 사이트의 계좌번호를 수집하는 등 사용자의 피해를 예방하고 있다”며 “앞으로도 토스의 모든 송금이 안전할 수 있도록 적극적인 고객 보호 정책을 펼칠 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2022.12.06.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>다올인베 매물로 나왔다</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005056232?sid=101</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>다올투자증권 지분 52%매각주관사는 삼일PwCKTB네트워크가 전신다올투자증권이 벤처캐피털(VC) 계열사 '다올인베스트먼트' 매각을 추진한다. 6일 투자은행(IB) 업계에 따르면 다올투자증권은 최근 다올인베스트먼트를 매각하기 위해 삼일PwC를 주관사로 선정했다. 별도 입찰 절차 없이 인수후보군들을 개별적으로 접촉하고 있다. 이번 거래 대상은 다올투자증권이 보유한 회사 지분 52%다. 이날 종가 기준 다올인베스트먼트의 시가총액은 3075억원이었다. 다올투자증권 지분율을 감안하면 거래 가격은 2000억원대에서 책정될 가능성이 높다. 거래에 정통한 한 관계자는 "대형 증권사들과 일부 금융지주들이 인수 타당성을 검토하고 있다"고 분위기를 전했다.다올투자증권이 VC 자회사를 매물로 내놓은 건 유동성 위기를 극복하기 위해서다. 다올투자증권은 자기자본 중형급 증권사 중에서 부동산PF 비중이 높은 편으로 평가받아왔다. 유동성이 여의치 않게 되자 자회사 매각으로 자금을 급히 수혈하게 된 것이다.현재 다올투자증권은 태국 법인의 매각 작업도 병행하고 있다. 삼일PwC가 VC 자회사와 증권 태국 법인의 자문을 모두 맡아 매각 작업을 진행하고 있다. 다올금융그룹 안팎에선 두 자회사를 매각해 최대 4000억원 안팎의 실탄을 확보하길 희망하는 모양새다. IB업계에선 거래가 진전되려면 매각 측 가격 눈높이가 낮아져야 한다고 보고 있다. 다올인베스트먼트는 지난해 12월 16일에 상장됐으며 공모가는 5800원, 코스닥 입성 첫날 종가는 5350원이었다. 현재 주가는 1년 전 대비 40% 이상 낮은 상태다.다올인베스트먼트의 전신은 KTB네트워크다. 1981년 설립돼 국내에선 '1세대 VC'란 평가를 받고 있다. 배달의민족(우아한형제들)과 토스(비바리퍼블리카) 등 유니콘에 투자하며 인지도를 높였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2022.12.07.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>[ESG리포트] 카페24, 플랫폼 이용료 무료·사장님 금융지원으로 협력업체와 상생</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000860362?sid=101</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>클릭 몇 번이면 누구나 무료로 온라인 쇼핑몰 구축할 수 있어“아이디어 있으면 창업 진입 장벽 느끼지 않아야” 기업 철학 반영금융권과 함께 예비·초보 사업자 금융 지원에도 나서카페24 창업센터 동대문점에서 열린 창업 관련 토크콘서트의 모습. /카페24 제공        전자상거래 플랫폼 카페24는 사업자에게 플랫폼 이용료를 무료로 제공하고 있다. 카페24 플랫폼에 가입한 뒤, 클릭 몇 번이면 누구나 직접 소비자에게 물건을 판매하는 D2C(Direct to Consumer·소비자 직접 판매) 쇼핑몰을 구축할 수 있다.예비 사업자나 초보 사업자에게 국내외 마켓 플레이스로 판로 확장을 하도록 돕는 ‘카페24 마켓플러스’ 서비스도 무료로 제공한다. 이를 통해 사업자들은 네이버 스마트 스토어나 쿠팡 등 원하는 시장에서 무료로 상품 판매를 시작할 수 있다.글로벌 진출을 원하는 사업자는 미국 아마존, 일본 라쿠텐, 동남아시아 쇼피 등 해외 온라인 시장에 진출할 수도 있다. 상품 등록·재고 관리·통계 분석 등 사업 운영에 필요한 전 영역을 하나의 관리자 화면에서 다룰 수 있다.이 같은 결정에는 카페24가 누구나 아이디어만 있다면 창업에 대한 진입 장벽을 느끼지 않도록 한다는 기업 철학이 반영됐다.에디봇 템플릿을 활용해 상품 상세페이지를 구성 중인 모습. /카페24 제공        카페24에 따르면 자사 플랫폼을 통해 쇼핑몰을 구축한 사업자들의 총 거래액(GMV)은 올해 1월~9월 누적 기준 10조2000억원을 돌파했다. 전년 동기 대비 12.28% 증가한 수치다. 총 거래액은 2019년 9조2000억원에서 2020년 10조9000억원, 지난해 12조6000억원으로 계속 늘어나는 추세다.중·소상공인들과 상생을 위한 인공지능(AI) 서비스를 무료로 제공한다. 카페24 플랫폼에서 온라인 사업자는 AI 기반 콘텐츠 제작 서비스 ‘카페24 에디봇(Edibot)’을 통해 상품 상세 페이지를 만들 수 있다. 온라인 사업자가 상세 페이지에 활용할 사진을 업로드하면 AI가 상품 컷·모델 컷 등 이미지를 자동으로 분류하고, 상품 색상표도 만들어준다.카페24는 에디봇 무료 템플릿 75종을 제공 중이며, 각종 커머스 콘텐츠에 활용할 수 있는 폰트 20종을 직접 개발해 ‘오픈 폰트 라이선스’를 무료로 제공 중이다.카페24 폰트 홈페이지의 모습./카페24 제공        이와 함께 중소상공인이 금융 분야에서 겪는 어려움을 해결하기 위해 온라인 사업자를 위한 금융 서비스도 진행한다. 지난해 국내 전자상거래 플랫폼 최초로 제1금융권 은행인 KB국민은행과 함께 자사 플랫폼 기반 온라인 사업자를 위한 무담보 금융 서비스 ‘매출 더하기론’을 선보였다. 이를 통해 오프라인 매장 같은 담보가 없는 온라인 사업자도 제1금융권 은행의 금융 서비스를 이용할 수 있게 됐다.올해 8월부터는 토스, 웰컴저축은행과 손잡고 비대면 금융 서비스 2종을 출시했다. ‘토스뱅크 사장님 대출’은 대출 신청부터 실행 단계까지 전부 비대면으로 진행할 수 있다. ‘웰컴저축은행 쇼핑몰판매자론은 최대 신용등급 7등급에 해당하는 저신용자도 이용할 수 있어 초기 창업자나 신파일러(금융 이력이 부족한 사람)에게 도움이 된다.초기 창업자의 조기 안착과 빠른 성장을 돕는 카페24 창업센터도 구축했다. 카페24 창업센터는 온라인 쇼핑몰 창업을 위한 다양한 인프라를 지원하는 비즈니스 센터다. 사업 규모별 사무 공간은 물론, 온오프라인 교육, 1:1 컨설팅, 스튜디오, 택배 서비스 등 온라인 사업에 특화한 전문 서비스를 제공한다.현재 전국 지점 수는 86곳, 누적 입주 창업자는 2만 명 이상에 달한다.아울러 카페24는 지난 5일 온라인 사업자가 라이브 커머스(라방) 시장에 진출할 수 있는 ‘유튜브 쇼핑’ 연동 서비스를 출시했다. 이를 활용하면 유튜브 플랫폼과 D2C 쇼핑몰을 연동하는 방식으로, 라이브 스트리밍 방송 중 판매하고자 하는 제품을 글로벌 시청자에게 노출할 수 있다.지난 9월에는 틱톡과 카페24 플랫폼을 연동하기도 했다. 이를 통해 온라인 사업자는 소비자의 틱톡 피드에 광고 콘텐츠를 노출해 상품을 판매할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2022.12.10.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>인뱅 3사, 올해 ‘중·저신용대출 목표치’ 달성 초읽기…부실률 관리는 빨간불?</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000035999?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>인뱅 3파 중·저신용 대출 비중 공급 목표 달성 임박부실률도 높아져…저신용자 관리 시스템 필요성 커져     카카오뱅크, 케이뱅크, 토스뱅크 CI [사진 각 사]    인터넷전문은행 카카오뱅크·케이뱅크·토스뱅크가 올해 중·저신용자 신용대출비중 목표치 달성에 성공할 것으로 보인다. 하지만 할당 목표를 달성하는 만큼 고정이하여신 비율도 커지고 있어 리스크 관리가 필요하다는 지적이다.      지난달 25일 은행연합회의 공시에 따르면 카카오뱅크·케이뱅크·토스뱅크는 지난해 5월 금감원에 제출한 중·저신용자 신용대출 비중 확대 목표치에 매우 근접했다.           ━          목표 달성 앞둔 인뱅 3사…리스크 관리는?      인터넷전문은행들이 중·저신용자 대상 신용 공급 목표를 정한 것은 포용금융에 기여한다는 당초 도입취지가 불투명해졌다는 금융당국의 평가 때문이다. 금융당국은 2023년까지 매년 연 단위 계획을 수립하되 2024년 이후에도 실적 등을 재점검해 계획 수립을 검토하겠다고 밝힌 바 있다.      지난 9월 말 기준 카카오뱅크는 올해 공급 목표였던 25%를 앞둔 24%의 중·저신용 대출 비중을 기록했다. 케이뱅크는 올해 공급 목표 25%를 0.3%포인트 앞둔 24.7%, 토스뱅크는 올해 목표 비중 42%까지 얼마 남지 않은 40.1%를 달성했다. 연말까지는 공급 목표를 충분히 달성할 수 있을 전망이다.     다만 인터넷전문은행들이 목표 수치 달성에만 집중한 나머지 부실채권 및 중·저신용자의 신용도 관리에는 소홀하다는 지적이 나온다. 중·저신용자는 고신용자에 비해 대내외 금융 리스크에 노출될 가능성이 높은 편이다.    올해 9월 기준, 인터넷전문은행들의 고정이하여신 비율은 39%로 신한·우리·SC·하나·씨티·국민을 포함한 6개 시중은행 평균 고정이하여신 비율인 21%보다 약 2배 정도 높다. 고정이하여신은 금융기관의 대출금 중 연체 기간이 3개월 이상인 부실채권을 말한다. 고정이하여신 비율이 커지면 은행의 자산 건전성이 취약한 상태로 볼 수 있다.      고정이하여신비율의 변동 폭도 시중은행 대비 크다. 인터넷전문은행들의 고정이하여신 비율은 올해 9월 기준 지난해 동기 대비 13%포인트 상승했지만 같은 기간 시중은행의 평균 고정이하여신 비율은 5%포인트 떨어졌다.        [게티이미지뱅크]      내년에도 인터넷전문은행들은 신용자 리스크 관리에 더 신경을 써야할 것으로 보인다. 카카오뱅크는 내년도 중·저신용자 신용대출 비중 목표를 전체 신용대출의 30%로 잡고 있고, 케이뱅크의 경우 32%, 토스뱅크는 44%로 설정했다. 전반적으로 대출 비중 목표치를 더 높게 잡은 만큼 그에 맞는 신용도 관리가 필요할 것으로 보인다.    금융업계 관계자는 “채무 상환이 어려워지면 부실률 확대로 이어지기에 인터넷전문은행들이 중·저신용 대출자의 신용도 관리에도 적극적으로 나서야 한다”고 말했다.      카카오뱅크·케이뱅크·토스뱅크도 자체 신용평가모델의 고도화를 통해 상환 능력 평가를 강화하고 있다는 설명이다. 또한 대손충당금도 늘리며 위험에 대비하고 있다고 전했다. 현재 세 인터넷전문은행의 대손충당금 적립률은 시중은행보다 높은 수준이다. 다만 중·저신용자의 신용도 관리를 돕는 시스템은 부족한 상황이라 대비가 필요하다 지적이다.      중·저신용자 신용대출 비중만으로 중·저신용자 포용 정책을 판단하기는 어렵다는 평가도 나온다. 한 업계 관계자는 “단순히 중·저신용자 신용대출 비중 목표 달성에만 집중하는 것보다는 공급 액수를 늘리게 하는 것이 효율적”이라고 말했다.      한편 인터넷전문은행과 마찬가지로 온라인투자연계금융업(P2P)이나 대출비교 플랫폼 핀테크 기업도 중·저신용자의 이용 비중이 높아 안정적인 리스크 관리가 필요하다.      P2P업계 선두주자인 피플펀드는 동종업계 내에서도 안정적인 연체율을 보인다. 중·저신용자 고객 대상 비은행권 시장에서 지난해 저축은행 평균 연체율이 3.4%였던 것에 비해 피플펀드는 0.93%의 연체율을 기록했다.     피플펀드 관계자는 “자체 신용평가 모델이 실시간으로 데이터를 수집하는 시스템을 갖추고 있다”며 “11개의 메인 모델과 챌린저 모델을 동시에 활용하는 인공지능(AI) 기술로 중·저신용자를 다방면으로 평가해 리스크를 관리한다”고 밝혔다.      직접 대출 상품을 판매하지는 않지만 금융사 62곳과 제휴를 맺고 있는 대출비교 플랫폼 핀다의 경우 신용점수 700점대 이하 이용자가 전체 누적 이용자의 80% 이상이다. 보다 안정적인 리스크 관리가 필요한 상황이다. 이와 관련 핀다 관계자는 “적절한 대출 상품을 중개하는 것뿐 아니라 연체 방지 알림 서비스, 대환대출 가능성 진단 등의 대출관리 서비스를 통해 중·저신용자들이 부실차주가 되지 않도록 관리한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2022.12.07.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>[특징주] 매물로 나온 다올인베, 9% 상승 마감…다올證 2.7%↓</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000188999?sid=101</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>다올證, 장중 17.42% 뛰었지만 상승분 반납7일 다올투자증권은 전일보다 2.73%(90원) 하락한 3210원에 마쳤다. 이날 장 초반 17.42% 오른 3875원까지 치솟았으나 차익 실현 매물이 쏟아지며 상승분을 반납했다. /다올투자증권 제공다올투자증권이 벤처캐피털(VC) 자회사 다올인베스트먼트를 매각한다는 소식 이후 두 종목 주가 방향이 엇갈린 채 마쳤다.7일 다올투자증권은 전일보다 2.73%(90원) 하락한 3210원에 마쳤다. 이날 장 초반 17.42% 오른 3875원까지 치솟았으나 차익 실현 매물이 쏟아지며 상승분을 반납했다.코스닥 종목인 다올인베스트먼트는 전날보다 8.94%(275원) 상승한 3350원에 마쳤다. 다올인베스트먼트도 장중 26% 급등하는 등 크게 뛰었다.다올인베스트먼트는 1981년 설립된 국내 1세대 벤처캐피털(VC)로, 비바리퍼블리카(토스)와 우아한형제들(배달의 민족) 등 스타트업에 투자한 이력이 있다.IB(투자은행) 업계에 따르면 다올투자증권은 삼일PwC를 주관사로 선정하고 국내 금융사 등에 다올인베스트먼트 인수 의사를 살피고 있다. 다올투자증권은 보유 중인 다올인베스트먼트의 지분 전량(52%)에 대해 2000억 원 이상 수준의 매각을 희망하는 것으로 알려졌다.다올투자증권은 중장기적 유동성 확보 차원에서 매각에 나서고 있다. 최근 부동산 프로젝트파이낸싱(PF) 채무불이행 사태로 PF 자금시장이 경색되고 중소형사를 위주로 유동성 위기가 커지고 있는 상황이다.앞서 다올투자증권은 유동성 확보를 위해 태국법인 '다올 타일랜드' 매각에도 나선 바 있다. 매각 희망가는 1000억 원 수준으로 거론되고 있다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2022.12.01.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>위메프, 빅테크 DNA 도입… 차세대 커머스 플랫폼 도약 박차</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000873981?sid=101</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>이진호(왼쪽) 위메프 CTO와 김동민 위메프 CPO./사진=위메프 위메프가 S급 인재 영입에 이어 구글과 전방위 협력에 나서는 등 커머스 플랫폼 도약을 위한 빅테크 DNA 도입에 속도를 내고 있다. 1일 업계에 따르면 위메프는 최근 커머스 플랫폼 전환을 위한 '메타쇼핑' 비전 선언 1년을 맞아 빅테크 기업의 성공 DNA를 접목하기 위해 적극적으로 나서고 있다. 올해 8월 CTO(최고기술책임자) 직책을 신설해 애플 출신 이진호 박사를 영입한 것이 시작이다. 이 CTO는 애플 본사에서 웹 검색 엔진 '스포트라이트(Spotlight)'를 개발하고 미국 메타커머스 '비컴닷컴'에서 테크 리더를 수행했다. 위메프 관계자는 "17년 간 실리콘밸리에서 커리어를 쌓은 이 CTO의 경험과 역량은 위메프 개발 문화에 큰 영향을 줄 것"이라며 "AI·ML 전문가인 이 CTO 합류는 23만개 쇼핑몰, 총 7억개 상품에서 추출한 데이터를 활용하는 '메타쇼핑' 기술 고도화에 기여할 수 있다"고 설명했다.  최근 합류한 김동민 CPO는 삼성전자와 외국계 증권사 CLSA, 토스(비바리퍼블리카)를 거쳐 토스증권의 창립 멤버이자 이사회 보드 멤버로 활동했다. 토스증권에서는 초보 투자자 대상 신규 서비스 전략을 기획해 론칭 6개월 만에 이용자 400만명을 확보하는 등 PO(Product Owner) 전문가로 활약했다.구글과의 협력도 위메프의 성공 DNA 구축에 힘이 될 전망이다. 위메프는 구글 유튜브와 '라이브쇼핑 파트너십'을 체결한 데 이어 지난달 11일에는 클라우드 협약도 체결했다. 위메프는 유튜브와 클라우드에 이어 콘텐츠·플랫폼·검색기술 등 다양한 분야로 구글과의 협업을 확대해 나갈 계획이다. 위메프 관계자는 "책임자급 외부 인재 영입과 빅테크 기업인 구글과의 협업 등을 통해 테크와 서비스 고도화에 집중할 것"이라며 "이를 기반으로 사용자 관점에서 경쟁력 있는 커머스 플랫폼으로 거듭날 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2022.12.06.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>인터넷은행 부실채권 잔액 3분기 만에 60% 넘게 증가</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002617945?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>올해 중저신용자 대출 비중 빠르게 늘린 영향위에서부터 카카오뱅크, 케이뱅크, 토스뱅크 로고. 각 사 제공.올해 중저신용자 대출 비중을 빠르게 늘린 인터넷전문은행들의 고정이하여신 규모가 지난해에 견줘 크게 늘어난 것으로 나타났다. 고정이하여신은 연체 기간이 3개월 이상인 부실 채권으로, 전체 대출 대비 고정이하여신 비중은 은행의 건전성을 가늠하는 핵심 지표로 쓰인다.5일 금융감독원 공시 등에 따르면 올 3분기 기준 인터넷은행 3사의 고정이하여신 잔액은 1721억원으로 전년 말(963억원) 대비 78.7% 증가했다. 지난해 10월 출범해 그해 4분기까지 고정이하여신 잔액이 집계되지 않았던 토스뱅크를 제외하면 증가율은 전년 대비 61.6%다.카카오뱅크의 3분기 고정이하여신 잔액은 809억원으로 지난해 말(582억원) 대비 39% 늘었다. 케이뱅크의 경우 지난해 말 381억원이던 고정이하여신 잔액이 올해 3분기 747억원으로 96% 증가해 연말까지 전년 대비 2배 이상 증가할 것이 확실시된다. 토스뱅크의 경우 3분기 고정이하여신 잔액은 165억원 수준으로 나타났다. 이 같은 증가세는 지난 2020년 말 대비 지난해 말 고정이하여신 잔액 증가율과 비교하면 더 두드러진다. 카카오뱅크의 지난해 말 기준 고정이하여신 잔액(582억원)은 전년 말(502억원) 대비 15% 증가했고, 케이뱅크의 지난해 말 여신 잔액(381억원)은 2020년 말(315억원) 대비 20% 증가했다. 올해의 경우 3분기만에 전년도 증가율을 훌쩍 넘는 속도로 고정이하여신 잔액이 불어난 것이다.전체 여신에서 고정이하여신이 차지하는 비중을 나타내는 고정이하여신 비율도 증가 추세다. 카카오뱅크의 3분기 고정이하여신 비율은 0.29%로 전년 말(0.22%) 대비 0.07%포인트 높아졌고, 케이뱅크도 올 3분기 고정이하여신 비율이 0.76%로 전년 말(0.54%)보다 0.22%포인트 올랐다. 토스뱅크의 3분기 고정이하여신비율은 0.23% 수준이다.인터넷은행들의 고정이하여신 잔액이 크게 늘어난 건 올해 들어 3사가 연말까지 내건 중저신용자(신용평점 하위 50% 차주) 대출 비중 목표치를 달성하기 위해 중저신용자 대출을 빠르게 늘려온 영향으로 풀이된다. 카카오뱅크와 케이뱅크는 올해 말까지 각각 25%, 토스뱅크는 42%를 목표로 3분기까지 이 비중을 각각 23.2%, 24.7%, 39%까지 늘렸다. 지난해 말 대비 각각 6.2%포인트, 8.1%포인트, 15.1%포인트 늘었다.한 인터넷은행 관계자는 “경기가 안 좋고 금리가 폭등하는 상황에선 중저신용자가 받는 충격이 고신용자보다 높을 수 밖에 없다“며 “중저신용자 대출 비중이 높은 인터넷은행의 고정이하여신 규모가 늘어나는 건 불가피한 측면이 있지만 이에 대비해 대손충당금을 쌓고 신용평가모형을 고도화하는 등 리스크 관리를 하고 있다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2022.12.06.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>다올투자증권, 태국법인 이어 다올인베스트먼트 매각 추진</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005188232?sid=101</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>지분 52% 전량…매각가 2000억원 이상다올투자증권이 벤처캐피탈(VC) 자회사 다올인베스트먼트(전 KTB네트워크) 매각을 추진한다.6일 업계에 따르면 다올투자증권은 다올인베스트먼트 매각을 위해 국내 금융사들과 접촉해 의사를 타진하고 있다. 다올투자증권이 보유한 다올인베스트먼트 지분 52% 전량을 매각하는 조건이다. 매각가는 2000억원 이상으로 전해졌다    앞서 다올투자증권은 유동성 확보를 위해 태국법인 '다올 타일랜드' 매각에 나섰고, 임직원을 대상으로 희망퇴직 신청도 받았다.    올해로 설립 40주년을 맞은 다올인베스트먼트는 국내 1세대 벤처캐피털(VC)이다. 올 초 코스닥 시장에 상장했고 비바리퍼블리카(토스), 우아한형제들(배달의 민족) 등 스타트업에 투자했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2022.12.01.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>구글플레이 올해의 앱은 디즈니+·게임은 던전앤파이터</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013615442?sid=105</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>이용자 인기 1위는 '네이버페이'…일상생활 최우수 앱에도 선정돼 2관왕"팬데믹 속 비대면 앱, 거리두기 완화에 야외 활동 앱 인기"구글플레이 올해의 베스트 앱[구글플레이 제공. 재판매 및 DB 금지](서울=연합뉴스) 이정현 기자 = 구글플레이는 '2022 올해를 빛낸 베스트 앱(애플리케이션)'에 디즈니플러스가, 베스트 게임에 '던전앤파이터 모바일'이 선정됐다고 1일 밝혔다.    이용자가 직접 투표해서 뽑은 '2022 올해를 빛낸 인기 앱'에는 네이버페이가, 인기 게임에는 거대학원도시 키보토스에서 사건·사고를 해결하는 내용의 '블루 아카이브'가 선정됐다.    구글플레이는 매년 연말  다양한 부문에서 유저들에게 사랑받은 앱과 게임들을 선정한다. 올해는 장기화한 팬데믹 시대를 반영한 비대면·비접촉 서비스들과 사회적 거리두기 해제로 외부 활동이 늘며 여행과 여가를 즐기는 데 도움을 주는 앱들이 동시에 사랑받았다고 구글플레이는 설명했다.    언제 어디서나 전화 진료와 약 배달을 받을 수 있는 '닥터나우'가 '2022 올해를 빛낸 선한 영향력 최우수 앱'으로, 시간과 장소 제약 없이 다양한 콘텐츠의 클래스를 수강할 수 있는 CLASS(클래스)101은 '2022 올해를 빛낸 자기 계발 최우수 앱'으로 꼽혔다.     또한 지갑 없이 언택트로 결제할 수 있는 네이버페이는 '2022 올해를 빛낸 일상생활 최우수 앱', '2022 올해를 빛낸 인기 앱' 2관왕을 달성했다.    코로나 블루를 이겨내기 위해 야외 활동이 많아지면서 '대한항공 My'가 올해를 빛낸 웨어 앱 부문 최우수로, '제주패스'가 올해를 빛낸 숨은 보석 앱 최우수로 선정됐다.    모바일로 편하게 즐길 수 있는 콘텐츠 플랫폼 앱들도 주목받았다.    베스트 앱으로 뽑힌 디즈니플러스 외에 인기 웹툰, 만화, 소설 등을 하나의 플랫폼에서 즐길 수 있는 미스터블루가 '2022 올해를 빛낸 엔터테인먼트 최우수 앱'에 이름을 올렸다. 더 큰 화면을 선호하는 트렌드에 따라 신설된 대화면 앱 부문에서는 웨이브가 최우수상을 받았다.구글플레이 올해의 베스트 게임[구글 제공. 재판매 및 DB 금지]    게임 분야에서는 탄탄한 세계관으로 무장한 콘텐츠들이 사랑받았다.    진정한 마음을 찾아 나가는 내용의 '세카이: 컬러풀 스테이지! feat. 하츠네 미쿠'는 '올해를 빛낸 캐주얼 최우수 게임'으로, 지하 도시 신도림에 들어가지 못해 지옥에서 강해지는 '신도림 위드 네이버웹툰'은 '올해를 빛낸 인디 최우수 게임'으로 선정됐다.     최윤정 구글플레이 한국 파트너십 총괄은 "팬데믹 장기화와 디지털 전환이 이어지는 환경 속에서 그 어느 때보다 혁신적이고 새로운 앱들이 올해를 빛낸 앱·게임으로 선정됐다"고 말했다.    lisa@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2022.12.07.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>'정보보호' 강자 토스…600개 기업 중 투자액 비중 1위</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003064239?sid=101</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>올해 600여개 기업이 참여한 '정보보호 공시'에서 금융 플랫폼 토스가 두각을 나타냈다. '정보기술(IT) 투자예산 대비 정보보호 투자 비중' 지표에서 1위를 차지했다.7일 과학기술정보통신부와 한국인터넷진흥원(KISA) 주관으로 운영되는 '정보보호 공시제도'에 따르면 지난해 토스는 IT 투자액 총 522억원 중 90억원을 정보보호 분야에 투자했다. 총 IT 투자액 중 정보보호 분야 비중은 17.3%를 기록했다. 7개 금융사 평균은 10.4% 수준으로 집계됐다.토스의 계열사도 좋은 성적을 거뒀다. 토스증권은 '회사 매출액 대비 정보보호 부문 투자 비중'에서 26.6%로 1위를, 토스페이먼츠는 '전체 인력 대비 정보기술 부문 인력 비중'에서 96.8%로 1위를 각각 차지했다.정보보호 공시는 기업의 정보보호 관련 현황을 공개하는 제도다. 공시 항목은 정보보호와 관련한 △투자현황 △인력현황 △인증, 평가, 점검 사항 △서비스 이용자 관련 활동 현황 등 네 가지로 나뉜다.올해 600여개 기업이 의무공시 대상으로 지정됐다. 금융회사와 전자금융업자는 의무공시 대상은 아니지만 올해 7개 회사가 자율공시에 참여했다.이번 공시에 따르면 토스·네이버·카카오 등 플랫폼 기업 7개사(네카라배당토야)가 타 업종에 비해 정보보호에 많은 투자를 집행한 것으로 나타났다. 이들 기업의 정보보호 관련 투자 금액 평균은 지난해 기준 170억원으로, 전체 평균 33억원 대비 5배 이상 높았다.플랫폼 7개사의 정보 관련 투자 규모 역시 타 업종 보다 컸다. 이들의 평균 정보기술 부문 투자액은 3217억원으로, 정보통신업 평균 1014억원, 금융업 평균 1058억원 대비 3배 이상 많았다.한편 토스는 국내 금융사 중 유일하게 대규모 화이트해커팀을 운영하는 등 관련 분야에 집중 투자하고 있다.이 팀이 개발한 '악성앱 탐지' 기능은, 토스 애플리케이션(앱) 내에 탑재돼 매일 600여명의 보이스피싱 피해를 막고 있다. 최근 외부 전문가가 참여하는 '데이터보호 준법 자문위원회'를 출범하는 등 데이터 이용 및 보호에 대한 투명성 제고를 위해 다방면으로 노력 중이다.토스 관계자는 “국민 3분의 1이 이용하는 금융 플랫폼으로 성장하는 과정에서 정보보호 중요성을 사업 초기부터 인식하고 과감한 투자를 집행해 왔다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2022.12.06.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>[ICT시사용어]모바일 전자고지</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003063934?sid=105</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>모바일 전자고지는 우편함을 통해 받아보던 종이고지서와 청구서를 공인전자문서중계자를 통해 개인 명의의 스마트폰으로 받아볼 수 있는 서비스다. 애플리케이션으로 국가기관이나 민간기업이 발행한 전자문서를 받을 수 있다. 스마트폰으로 간편하게 수취·열람할 수 있어 편의성이 높고, 우편 고지물 오배송이나 분실을 예방한다는 점에서 개인정보 유출 방지 효과가 있다.과학기술정보통신부로부터 공인전자문서중계자로 인증받은 곳은 △카카오뱅크 △신한카드 △우정사업본부 △KB국민은행 △LG유플러스 △토스 △SK텔레콤 △페이코 △네이버 △KT △카카오페이 △아이앤텍 △포스토피아 △더존비즈온 등 14개사다. 공인전자문서중계자를 통하여 유통된 전자문서는 전자문서 및 전자거래 기본법에 근거, 유통사실에 대한 법적 효력이 보장된다.모바일 전자고지 확산으로 행정·공공기관은 주소불명·배달오류 등 고지서 미수신으로 인한 민원 해소와 행정력 낭비를 방지할 수 있을 것으로 기대된다. 통지업무 비용 절감과 출력물 감소에 따른 사회적 비용과 탄소배출 절감도 이뤄진다. 모바일 전자고지 이용자는 통지서 수취와 관리 편의성이 향상된다. 우편 고지 오배송과 분실로 인한 벌금·과태료 부가의 위험성이 줄고 개인정보 유출 우려성도 낮아진다.전자고지 서비스를 도입한 기관은 2022년 12월 기준 정부 부처 8개, 지자체 287개, 공공기관·분야 49개, 민간기관·기업 153개다. 정부는 모바일 전자고지 서비스 이용자의 편의 제고를 목표로 이용자 선택권을 강화하고, 중계자 간 시스템 연계를 위한 표준 연계체계 마련을 추진하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2022.12.14.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>"은행 파킹통장에 밀린다"…매력 떨어진 증권사 CMA</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000716703?sid=101</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>CMA 잔고 59조원대…연초 대비 15%↓증권사가 한국은행의 기준금리 인상에 발맞춰 종합자산관리계좌(CMA) 이자를 높였다.하지만 CMA와 비슷한 은행 수시입출금통장(파킹통장)보다 매력도가 떨어져 시중 자금을 끌어들이지 못하는 모습이다. 은행 파킹통장보다 이자 수준이 낮고, 변동금리가 바로 적용되지도 않기 때문이다. 또한 예금자 보호가 안 되는 점도 매력도가 떨어지는 요인으로 지목된다. 금융투자업계에 따르면 증권사들은 한국은행 기준금리 인상에 발맞춰 일제히 CMA 금리를 올렸다. 사진은 서울 여의도 증권가. [사진=정소희 기자]14일 금융투자업계에 따르면 한국은행이 지난달 기준금리를 3.25%로 인상하면서 증권사들도 일제히 CMA 금리를 올렸다. 현재 미래에셋증권의 'CMA RP 네이버통장'의 수익률은 연 3.30%다. SK증권(3.25%), IBK투자증권(3.15%), 현대차증권(3.15%), 한국투자증권(3.0%), 유안타증권(3.0%), 신영증권(3.0%) 등도 3%대의 금리 수준을 보이고 있다. 이어 하나증권(2.90%), KB증권(2.85%), 신한투자증권(2.85%) 등도 2%대 후반을 나타내고 있다. 파킹통장으로 유명한 토스뱅크(2.3%)를 상회하는 수준이다.CMA는 증권사가 고객으로부터 받은 자금을 단기금융상품에 투자하고, 여기에서 발생한 수익을 고객에게 지급한다. 운용 대상에 따라 환매조건부채권(RP)형, 머니마켓펀드(MMF)형, 발행어음형 등으로 구분된다. CMA는 입출금이 자유롭고, 하루만 맡겨도 이자를 지급해 은행의 파킹통장과 유사한 성격을 지녔다.이처럼 증권사 CMA 이자율이 3%대에 달할 만큼 높아졌지만, 시중 자금 유입은 시원찮은 모습이다. 오히려 연초 이후 지속적으로 자금이 감소하는 추세를 보이고 있다. 실제 금융투자협회에 따르면 CMA 잔고는 지난 9일 기준 58조9천726억원으로, 올해 초(69조1천867억원)와 비교하면 14.76% 감소했다.RP형과 MMF형은 각각 24조6천333억원, 2조4천441억원으로 집계됐는데, 연초 대비 27.58%, 22.78% 줄어든 수준이다. 상대적으로 고금리를 제시해 시중 자금을 끌어모았던 발행어음형은 같은 기간 7조5천366억원에서 11조8천746억원으로 57.56%나 증가했다. 하지만 지난달까지만 해도 12조원대를 나타냈던 잔고는 최근 11조원대로 소폭 감소하며 자금 유입이 주춤하는 모양새다.우선 은행업계의 정기예금 금리가 높은 수준을 나타내면서 시중 자금을 빨아들이고 있는 점이 결정적인 영향으로 보인다. 시중은행 정기예금 금리가 4%대 후반이며, 저축은행은 5%대 중반 수준을 나타내고 있다.특히 인터넷전문은행들이 공격적으로 파킹통장 금리를 높이고 있는 점도 영향을 준 것으로 해석된다. 토스뱅크는 최근 5천만원 초과 금액에 대해 연 4% 금리를 제시했고, 케이뱅크도 파킹통장 금리를 2.7%에서 3.0%로 높였다. 이는 증권사 CMA와 유사한 수준이다.하지만 CMA와 은행 파킹통장의 차이는 변동금리 적용 시점에 있다. CMA MMW는 매일 정산이 진행되지만, 기간(1~30일)이 있는 RP형은 변동금리가 바로 적용되지 않는다. 고객이 계좌에 자금을 넣은 이후 금리가 오르면, 고객이 직접 자금을 인출한 이후 다시 입금해야 적용받을 수 있는 등의 번거로움이 따른다. 그렇지 않을 경우 해당 기간이 지난 이후에 변동금리가 적용된다.또한 증권사 CMA는 예금자 보호 대상이 아니라는 점도 고객들의 이목을 끌지 못하는 이유 중 하나로 지목된다. 은행 정기예금은 5천만원까지 예금자보호를 받을 수 있다.금융투자업계 관계자는 "CMA RP(1~30일) 금리가 연 3%일 때 돈을 넣고, 일주일이 지난 상태에서 CMA 금리가 인상돼 3.25%로 바뀌었다면, 30일을 채우기 전까지는 기존의 3% 금리가 적용된다"며 "변동된 금리를 바로 적용받고 싶다면, 고객이 직접 돈을 인출해서 다시 계좌에 넣어야 한다"고 설명했다.이어 "CMA는 예금자 보호 대상이 아니지만, 원금 손실 가능성은 희박하다"며 "MMW의 경우 계좌 자금을 한국증권금융에 예치하는데, 증권금융의 신용등급은 AAA를 자랑한다"고 말했다. 이어 "RP형도 증권사들이 우량한 금융투자상품만 편입하기 때문에 원금 손실 가능성은 크지 않다"고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2022.12.02.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>인뱅 3사, 중저신용 대출 늘려 호실적…건전성 관리는?</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003322047?sid=101</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>카카오뱅크·케이뱅크 3분기 최대 실적토스뱅크 연체율 6개월 만에 0.26%P↑“부실은 한꺼번에 온다” 우려 목소리토스뱅크시중은행의 가계대출 감소세 속 인터넷전문은행이 중저신용자를 중심으로 높은 대출 성장률을 기록하면서 몸집을 키우고 있다. 막내 격인 토스뱅크를 포함해 카카오뱅크, 케이뱅크 인터넷전문은행 3사 모두 호실적을 거뒀지만 높아지는 연체율에 따른 리스크 관리가 과제로 떠오르고 있다.2일 금융권에 따르면 카카오뱅크와 케이뱅크의 3분기 당기순이익은 각각 787억원, 256억원으로 나란히 3분기 최대 실적을 경신했다. 카카오뱅크의 당기순이익은 1년 전 같은 기간과 비교해 51.4% 높아졌고, 케이뱅크는 같은 기간 52.5% 올랐다. 토스뱅크는 3분기 476억원의 당기순손실을 기록했는데 직전 분기와 비교하면 적자폭이 113억원 축소됐다. 특히 충당금적립전이익은 3분기 185억원 흑자로 지난해 10월 출범 이후 약 1년여 만에 첫 흑자 전환에 성공했다.이런 인터넷전문은행 호실적의 이유는 대출 증가세를 바탕으로 한 이자이익 때문이다. 시중은행은 올 들어 지속적인 가계대출 감소를 겪고 있지만, 인터넷전문은행의 가계대출 잔액은 꾸준히 증가하고 있다. 카카오뱅크의 3분기 이자이익은 2470억원으로 1년 사이 51.8% 늘었다. 케이뱅크의 이자이익은 1년 사이 82.5%나 불어 1008억원을 기록했다. 토스뱅크는 902억원의 이자이익을 올려 케이뱅크를 맹추격했다.고금리 환경 속 대출 규모가 늘어난 만큼, 인터넷전문은행의 건전성에 대한 우려도 나온다.조아해 메리츠증권 연구원은 “인터넷전문은행 3사는 일반은행과 비교해 높은 순이자마진(NIM) 개선세가 이어지고 있으나 중저신용자 대상 신용대출 비중 상승에 따른 건전성 관리 역량 능력 증명이 필요한 국면”이라고 지적했다.인터넷전문은행들은 리스크 관리 차원에서 신용평가모델을 고도화하겠다는 계획을 내세우고 있으나 신용평가의 구체적인 기준은 외부 공개 사안이 아닌 터라 깜깜이에 그친다. 이를 제외한 별도의 건전성 강화 대책도 마땅치 않다. 특히 토스뱅크는 중저신용자 비중이 3분기 기준 39%에 달하고 최근에는 1금융권 중 최초로 40%까지 넘어섰다. 현재는 영업 초기이지만 금리 인상기 차주의 부담이 가중되는 상황에서 앞으로 연체율 등 건전성 지표가 악화될 가능성이 있다. 실제 토스뱅크의 경우 연체율이 1분기 0.04%에서 6개월 만에 0.3%로 0.26% 포인트 뛰었다.같은 기간 카카오뱅크의 연체율이 0.26%에서 0.36%로 0.1% 포인트 증가했고, 케이뱅크의 연체율이 0.48%에서 0.67%로 0.19% 포인트 증가한 것과 비교하면 토스뱅크의 연체율 증가세가 가파르다. 토스뱅크가 담보부 대출이 아닌 신용대출만을 취급한다는 점도 리스크다.이 같은 상황임에도 인터넷전문은행들은 개인사업자 대출 등 기업여신으로 진출하며 사업을 넓히고 있다. 코로나19로 피해를 본 소상공인·자영업자 대상 만기 연장·상환 유예 조치가 종료되면 계획대로 대출을 갚지 못하는 차주들이 대거 등장할 가능성이 있다.금융권 관계자는 “과거 금융 위기 상황을 돌이켜 봤을 때 부실은 점진적으로 오지 않고 한꺼번에 덮친다”며 “금융사들의 위기 대응 능력 확충이 중요한 이유”라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2022.12.02.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>1금융인데 신용대출 평균금리 11% 돌파… 이게 실화냐</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002073399?sid=101</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>10월 취급된 금리 보니 5.74~11.1%한동안 계속 오를 것으로 전망서울 시내 한 은행의 대출 금리 홍보물.[연합][헤럴드경제=김성훈 기자] 기준금리가 빠른 속도로 상승하면서 은행 신용대출 평균금리 상단이 11%를 돌파했다.2일 은행연합회에 따르면, 10월 중 국내 18개 은행에서 취급된 신용대출 중 서민금융을 제외한 평균 금리는 5.74%~11.10%로 집계됐다.평균금리가 가장 높은 곳은 전북은행으로 11.10%다. 전북은행 평균금리는 9월 9.72%였지만 한 달 새 1.38%포인트(p) 상승했다.전북은행은 신용점수 900점 이상의 고신용자에게도 8~9%의 금리를 적용했다. 951~1000점 차주는 8.29%, 901~950점 차주는 9.00%였다. 5~6%를 적용한 다른 은행 대비 높은 편이다.전북은행 외에도 대구은행, 광주은행이 각각 8.84%, 8.41%로 높은 편이었다. 인터넷은행인 토스뱅크의 평균금리도 8.16%로 나타났다.신용대출금리는 더 오를 것으로 전망된다. 금리 산출의 근거가 되는 코픽스(자금조달비용지수)가 계속 오르고 있기 때문이다. 은행연합회가 지난달 15일 발표한 10월 신규취급액기준 코픽스는 3.98%로 공시 이후 최고치를 기록했는데, 이달 15일 발표되는 11월 코픽스는 기준금리 인상을 반영해 4%대가 될 가능성이 높다.기준금리 인상 속도가 다소 늦춰질 것이라는 기대가 높아지고 있지만, 당분간 인하를 기대하기는 어렵다는 점에서 고금리는 내년에도 계속 이어질 것으로 전망된다.정부는 궁여지책으로 은행에 예금금리 경쟁을 하지 말라고 권고하고 있다. 예금금리가 상승하면 코픽스가 오르고 대출금리 인상으로 이어지기 때문이다. 이에 지난달 시중은행들이 5%대 1년 만기 정기예금을 잇따라 출시했지만, 금리를 다시 내렸다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2022.12.02.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>‘밥그릇 싸움’만 남은 보험 비교·추천…소비자는 뒷전으로[이코노 EYE]</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000035438?sid=101</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>8월 규제 허용 후 석달간 서비스 개시 못한 상황빅테크-보험업계 이견 커 향후 일정도 미지수당국 '소비자 편의성' 취지 고려돼야     [게티이미지뱅크]    지난 8월 금융당국이 규제를 풀어준 온라인 플랫폼 보험 비교·추천 서비스가 산으로 가는 분위기입니다. 빅테크·핀테크와 보험업계간 이견이 커 연말에도 서비스 출범은 어려워 보입니다. 특히 업계는 수수료 논의까지는 가지도 못한 체 자동차보험 서비스 포함 여부를 두고 여전히 평행선을 달리는 것으로 알려졌습니다.      금융당국도 자동차보험을 비교·추천에서 제외할 경우 자칫 빅테크사들이 서비스 참여 포기를 할 수도 있어 고민이 많은 눈치입니다. 또 그러면서 기존 보험업계의 목소리도 들어야 해 난감한 상황으로 보입니다. 당국이 이 규제를 풀어준 궁극적인 취지는 금융소비자들에게 보험가입 시 여러 선택권을 주겠다는 거였지만 취지와 달리 지금은 양 업계의 ‘밥그릇 싸움’만 남은 느낌입니다.          ━          이견차로 답보…당국 취지 되살리길       지난 8월23일 금융위원회는 ‘제2차 금융규제혁신회의’를 열어 빅테크·핀테크 업체들이 예금·보험·온라인투자연계금융업(P2P) 등 다양한 금융상품을 비교·추천하는 서비스를 시범운영할 수 있도록 허용하는 ‘플랫폼 금융서비스 활성화 방안’을 심의했습니다.      보험 비교·추천 서비스는 쉽게말해 금융소비자들이 네이버나 카카오 같은 포털이나 핀테크 업체들, 또 금융사들이 운영하는 플랫폼 등에서 여러회사 상품을 비교할 수 있도록 해주는 제도입니다.      현재 금융소비자들은 보험 상품에 가입할 때 보험설계사의 설명을 듣거나 혹은 온라인 상에서 상품 약관만을 보고 가입을 결정합니다. 여러 회사 간 상품을 비교하고 가입하는 것은 어려운 상황이죠. 보험 비교·추천은 바로 이 서비스를 소비자들이 흔히 찾는 대형 포털에서 할 수 있도록 해주겠다는 겁니다.     하지만 취급 상품을 두고 업권 간 이견이 너무 큽니다. 금융당국은 종신, 변액, 외화보험 등 상품구조가 복잡하거나 고액계약 등 불완전판매 우려가 있는 상품은 비교·추천 대상에서 제외할 것이라고 밝혔습니다.         한국보험대리점협회와 보험대리점 업계, 보험영업인노조연대가 지난 8월 22일 용산 대통령실 앞에서 결의대회를 열고 ″네이버, 카카오, 토스 등 온라인 플랫폼의 보험대리점업 진출 허용을 결사반대한다″고 외치고 있다. [연합뉴스]       보험 비교추천 서비스에 자동차보험을 포함하느냐의 여부를 두고 빅테크와 보험업계간 이견이 큰 상황이다. [연합뉴스]    빅테크·핀테크사들은 일부 상품 제외를 수용한다는 입장이지만 자동차보험은 포함시켜 주기를 기대했죠. 하지만 보험업계는 설계사들의 밥줄인 자동차보험도 플랫폼에 문을 열어주는 것을 반대하고 있습니다. 빅테크·핀테크사들은 이럴거면 보험 비교·추천 서비스를 진행할 이유가 없다며 허탈감을 표출하고 있습니다.    업계 간 수수료 이견도 문제입니다. 플랫폼에서 비교·추천 후 소비자가 A회사 상품을 선택해 가입하면 보험사가 해당 플랫폼회사에 수수료로 얼마를 줘야 하냐는 것이죠. 빅테크사들은 구체적인 수수료 수치를 말하고 있지 않습니다. 업계에서는 과거 포털사들의 광고 배너 클릭당 수수료 비율이 약 10~11%로 책정된 만큼 이 정도 수준을 원하지 않겠냐는 얘기가 돌았습니다.      반면 보험업계는 현재 다이렉트(온라인) 채널 보험 판매의 경우 중간 사업비가 매우 적은 상태인데 포털에게 10%나 되는 수수료를 줄 수는 없다는 입장입니다. 보험업계 측은 업권간 간담회에서 수수료로 최대 2%를 주장한 것으로 알려졌습니다. 양 측이 원하는 수수료간 차이가 매우 클 가능성이 높습니다. 즉 앞으로 양 측의 논의가 진행돼도 수수료 부문에서 쉽게 합의를 이루기는 쉽지 않아 보입니다.      이러다 보니 금융당국의 고심도 깊어지고 있습니다. 당국은 10월 말~11월 초 빅테크·핀테크와 보험업권 목소리를 들은 후 한달 동안 보험 비교·추천과 관련된 별다른 입장을 내지 않았습니다.     보험 비교·추천 서비스는 네이버나 카카오, 토스 등 수천만명의 가입자를 보유한 빅테크사들이 참여하면 그 효과가 극대화될 가능성이 높습니다. 즉 이들이 참여하지 않으면 반쪽짜리 서비스가 될 수 있다는 얘기입니다. 보험업계 목소리를 듣다 자동차보험을 서비스에서 제외하면 일부 빅테크사들이 이탈할 가능성이 있습니다. 수수료 문제도 매듭지어야 하기 때문에 당국으로서는 조심스럽게 이 문제에 접근할 수밖에 없는 분위기입니다.        당초 보험 비교·추천 서비스는 이르면 10월부터 시작될 예정이었습니다. 하지만 업계 간 이견이 커 이제는 내년 상반기에도 어려울 수 있다는 얘기가 나옵니다. 이 서비스를 기다려온 소비자들에게는 실망스런 소식입니다.      보험은 상품 특성상 금융상품 중 민원이 가장 많습니다. 지난해 금융감독원에 접수된 금융민원 60%는 보험이었습니다. 당장은 아니지만 시간이 갈수록 보험 비교·추천서비스에 탑재되는 상품이 많아지고 가입자를 위한 서비스도 확충되면 민원도 줄어들 수 있습니다.    지금 이 시간에도 보험 비교 및 가입에 애를 먹는 금융소비자들에게 보험 비교·추천은 꼭 필요한 서비스입니다. 금융당국의 취지가 퇴색되지 않게 업계간 이견이 좁혀져 하루빨리 이 서비스를 만나볼 수 있길 기대합니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2022.12.15.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>메기 아닌 미꾸라지? 인터넷뱅크 건전성 악화</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003734669?sid=101</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>몸집만 커지고, 잇단 전산사고까지							2017년 첫선을 보인 이후 은행권의 디지털 혁신을 촉진하는 ‘메기’ 역할을 할 것으로 주목을 받았던 인터넷전문은행들에 대해 우려의 목소리가 나오고 있다. 공격적 예금·대출 영업으로 단기간 몸집은 불렸지만, 덩달아 건전성 지표가 악화되고 있기 때문이다. 최근엔 케이뱅크 등에서 잇따라 전산 사고가 발생해 고객 불안이 커지기도 했다. 메기가 아니라 덩치만 큰 미꾸라지라는 말까지 나온다. 한 은행 관계자는 “외형적 성장에 집중했던 인터넷은행들이 리스크 관리를 어떻게 해나가는지가 앞으로의 성패를 가를 것으로 보인다”고 했다.   나빠지는 건전성 지표들							14일 각 사의 경영공시자료 등에 따르면 올 3분기 카카오뱅크의 고정이하여신(3개월 이상 연체된 채권) 잔액은 809억원으로 작년 말(582억원)에 비해 40% 증가했다. 같은 기간 케이뱅크의 고정이하여신 잔액은 381억원에서 747억원으로 2배 가까이 늘었고, 작년 10월 출범한 토스뱅크는 누적 165억원의 부실채권을 보유한 것으로 집계됐다.인터넷은행 3사의 고정이하여신 ‘비율’도 작년 말 평균 0.26%에서 올해 3분기 말에는 0.43%로 악화됐다. 같은 기간 4대 시중은행(KB국민·신한·하나·우리)의 고정이하여신 비율이 0.23%에서 0.20%로 개선된 것과 대조적이다.시중은행에 비해 중금리 대출(신용평점 하위 50% 차주에 대한 대출) 비중이 높은 인터넷은행 특성상 언체율이 높게 나타날 수밖에 없는 불가피한 사정이 있기는 하지만, 대출 부실이 증가하는 것은 좋지 않은 신호여서 금융 당국도 예의 주시하고 있다.중금리 대출이 ‘독’될까							올해는 케이뱅크·카카오뱅크·토스뱅크 등 인터넷은행 3사 모두 당국과 약속한 중·저신용자 대출 목표치를 맞출 수 있을 것으로 보인다. 토스뱅크의 목표치는 42%인데 지난달 이미 40% 선을 넘겼다. 케이뱅크와 카카오뱅크도 올 3분기 기준 각각 24.7%와 23.2%로, 목표치인 25%에 근접했다. 은행과 2금융권 사이의 금리 절벽을 해소하는 ‘포용금융’ 역할을 하기 시작한 것으로, 인터넷은행 출범 5년 만의 성과로 평가된다.다만 급격히 늘린 중금리 대출이 부메랑으로 돌아올 수 있다는 지적도 나온다. 특히 올해 인터넷은행 3사가 일제히 뛰어든 개인사업자 대출이 이런 우려를 낳고 있다. 개인사업자들의 경우 다중채무자가 많기 때문에 잠재적 부실 가능성이 높다.지난 2월 출시된 토스뱅크의 사장님대출 잔액은 9개월 만에 1조2000억원을 넘겼고, 카카오뱅크는 지난달 초 개인사업자 대출을 선보여 한 달 만에 500억원을 취급했다. 지난 5월부터 나온 케이뱅크의 개인사업자 대출 역시 업계 최저 금리를 앞세워 규모를 늘리고 있다.반면 시중은행들은 리스크 관리를 위해 개인사업자 대출 문턱을 높이고 있다. KB국민·신한·하나·우리·농협 등 5대 은행 개인사업자 대출은 지난 10월에 4602억원, 11월에 573억원가량 줄었다. 시중은행 관계자는 “고물가에 소비를 줄이겠다는 국민들이 늘어나는 등 자영업자 영업 환경이 악화될 것으로 예상돼 개인사업자 대출 심사를 깐깐하게 하고 있다”며 “반대 전략을 쓰고 있는 인터넷은행들이 건전성 관리를 잘해나갈지 지켜봐야 한다”고 말했다.인터넷은행들은 “과도한 우려”라며 일축하고 있다. 비금융 정보까지 고려한 대안신용평가모형을 통해 정교하게 신용도를 평가해 대출을 내주고 있는 데다 대손충당금도 최대 900% 이상 보수적으로 쌓고 있다는 것이다.인터넷전문인데 전산 사고 빈발							반복되는 전산장애로 인터넷은행의 거래 안정성이 의심받고 있는 것도 문제다. 케이뱅크의 경우 지난달 17일 오후 8시30분부터 약 7시간 동안 시스템 장애로 앱 접속이 제대로 되지 않는 전산장애가 발생했다. 금융감독원이 윤창현 국민의힘 의원에게 제출한 자료에 따르면 국내 은행 중 2020년부터 지난 8월까지 전산장애가 가장 많이 발생한 은행은 케이뱅크다. 해당 기간 총 34건의 전산장애가 발생했다. 카카오뱅크 역시 신한은행(32건)에 이어 전산장애 발생 건수 3위(27건)였다. 이에 대해 케이뱅크 측은 “타기관에 의한 영향이나 일시적인 장애까지 모두 포함된 수치”라며 “고객들의 금전적 피해는 전혀 없었다”고 설명했다.케이뱅크나 카카오뱅크의 전산장애 건수는 증권·보험 등 다른 금융업권에 비해서도 많은 편이다. 같은 기간 NH투자증권(22건)이나 신한투자증권(17건) 등의 전산장애는 인터넷전문은행보다 적었다. 토스뱅크에서도 올 들어 지난 8월까지 국내 은행 중에 가장 많은 11건의 전산장애가 발생했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2022.12.07.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>다올투자증권, ‘1세대 VC’ 다올인베 매각 추진…장 초반 주가 급등 후 강보합</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000078728?sid=101</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>(다올투자증권 제공)다올투자증권이 벤처캐피털(VC) 자회사 다올인베스트먼트를 매각한다는 소식에 급등하고 있다.7일 오후 1시 40분 기준 다올투자증권은 전 거래일 대비 1.21% 오른 3340원에 거래되고 있다. 장 초반 17.42% 오른 3875원까지 치솟았으나 차익 실현 매물이 쏟아지며 상승분을 대거 반납했다. 같은 시각 코스닥 종목인 다올인베스트먼트는 전날보다 10.24% 오른 3390원에 거래 중이다. 다올인베스트먼트도 장중 한때 26% 급등했지만 오후 들어 10%대 상승세를 유지하고 있다.투자은행(IB) 업계에 따르면 다올투자증권은 삼일PwC를 주관사로 선정하고 국내 금융사 등 인수 후보자를 대상으로 다올인베스트먼트 인수 의사를 살피고 있다. 다올투자증권은 보유하고 있는 다올인베스트먼트의 지분 전량(52%)에 대해 2000억원 이상 수준에서 매각을 희망하고 있는 것으로 알려졌다.다올투자증권은 중장기적 유동성을 확보하기 위해 다올인베스트먼트 매각을 추진하고 있다. 부동산 프로젝트파이낸싱(PF) 채무불이행 사태로 PF 자금 시장이 경색되고, 이로 인해 유동성이 부족해지자 핵심 자회사를 매각하는 것으로 풀이된다. 다올인베스트먼트는 1981년 설립된 국내 1세대 VC로, 비바리퍼블리카(토스), 우아한형제들(배달의 민족) 등 스타트업에 투자하며 인지도를 높였다.이 밖에도 다올투자증권은 유동성 확보를 위해 태국법인 ‘다올 타일랜드’ 매각에 나섰다. 매각 희망가는 1000억원 수준으로 거론되고 있다. 계열사 매각과 별개로 임직원을 대상으로 한 희망퇴직 신청도 받았다. 2013년 이후 9년 만이다. 수요가 적은 서비스에 드는 비용을 줄이기 위해 웹트레이딩서비스(WTS)도 내년부터 종료한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2022.12.13.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>22세 새내기 지휘자, 프랑스 명문 악단 이끈다</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004786986?sid=104</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>툴루즈 카피톨 2000년생 음악감독 선임핀란드 출신 타르모 펠토코스키프랑스의 명문악단인 툴루즈 카피톨 국립 오케스트라가 22세 젊은 지휘자를 신임 음악감독으로 선임했다. 러시아 출신 지휘자가 급히 사임하며 떨어진 위상을 끌어올리겠다는 선택으로 풀이된다.13일(현지시간) 프랑스 르 피가로 등 외신에 따르면 툴루즈 카피톨 국립오케스트라는 신임 음악감독으로 2000년생 타르모 펠토코스키를 선임했다. 지난 3월 사임한 투간 소키예프 전 음악감독을 대체할 예정이다. 펠토코스키는 2024년 9월 취임해 2029년 8월까지 툴루즈 카피톨을 이끌 예정이다.핀란드 출신인 펠토코스키 지휘자는 나이에 걸맞지 않은 이력을 갖추고 있다. 22세에 불과하지만, 독일의 명문악단 도이치 캄머 필하모닉의 수석 객원 지휘자로 활약했고, 라트비아 국립 심포니 오케스트라의 예술감독 겸 음악감독을 맡고 있다.지난 8월에는 고국 핀란드의 유라조키 벨 칸토 페스티벌에서 리하르트 바그너의 오페라 '니벨룽겐의 반지' 4부작을 모두 지휘하기도 했다. 그의 활약을 눈여겨 본 네덜란드 대표 악단인 9월 로테르담 필하모닉의 수석 객원 지휘자로 임명되기도 했다.펠토코스키는 지휘 강국인 핀란드에서 실력을 쌓았다. 14세 때 '거장 지휘자들의 스승'이라 불리는 요르마 파놀라에게 지휘를 배웠다. 이후 시벨리우스 음악원에 입학해 사카리 오라모, 유카 페카 사라스테, 에사 페카 살로넨 등 명 지휘자들에게 지휘 교육을 받았다.툴루즈 카피톨 국립오케스트라는 1960년 창단해 1981년 국립 단체 지위를 획득했으며 현재 125명의 연주자가 활동 중이다. 프랑스 출신 거장 지휘자 미셸 플라송이 1968년부터 2003년까지 35년 동안 이 악단을 이끌면서 음악적 기반을 구축했다. 특히 프랑스 레퍼토리에 강점이 있다는 평가를 받았다.러시아 출신 신예 지휘자 소키예프가 2005년 툴루즈에 합류한 뒤 레퍼토리가 확장됐다. 구스타프 말러, 안톤 부르크너 등 20세기 교향곡 레퍼토리를 비롯해 이고르 스트라빈스키, 세르게이 프로코피예프 등 러시아 레퍼토리에도 강점을 보였다.하지만 세계 클래식계가 지난 2월 러시아의 우크라이나 침공 이후 소키예프의 위상이 추락했다. 블라디미르 푸틴 러시아 대통령의 대(對) 우크라이나 정책을 지지해 온 예술가들의 공연을 잇달아 취소하며 ‘예술 연대’에 나섰기 때문이다.소키예프는 지난 3월 성명을 내고 “모든 직책에서 사임하겠다”고 밝혔다. 그는 “내가 사랑하는 러시아와 프랑스 음악가 사이에서 (하나를 선택하라는) 어려운 결정을 강요받아 그만두기로 했다”고 표명했다.러시아 출신 지휘자들이 몰락하며 펠코토스키가 덕을 봤다는 해석이 나온다. 발레리 게르기예프가 사임하며 로테르담 오케스트라에 생긴 빈자리를 펠토토스키가 낚아챘다. 소키예프로 인해 이미지가 깎인 툴루즈 카피톨 오케스트라도 전화위복을 위해 새로 떠오르는 신예 지휘자를 선택했다는 설명이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2022.12.06.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>금리상승 여파에 국내은행 자본비율 3개월 전보다 하락</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/079/0003714564?sid=101</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>금리상승에 따른 채권평가 손실환율 상승으로 위험가중자산 증가금감원, 경제여건 악화 대비 손실흡수능력 확충 유도달러화와 원화, 엔화 지폐. 연합뉴스신한, 하나, 국민, 우리은행 등 은행지주회사와 씨티, 산업, 기업, 카카오 등 비지주은행들의 9월 말 BIS기준 자본비율이 하락했다. 금융감독원은 9월 말 기준 국내은행의 BIS기준 보통주자본비율, 기본자본비율, 총자본비율, 단순기본자본비율이 각각 12.26%, 13.51%, 14.84%, 6.09%로 집계됐다고 6일 밝혔다.보통주자본비율, 기본자본비율, 총자본비율, 단순기본자본비율 모두 규제비율을 넘어섰지만, 3개월 전인 올해 6월과 비교하면 각각 0.45%p, 0.44%p, 0.46%p, 0.15%p 하락했다.이는 국내은행들의 순이익 시현과 증자 등에도 불구하고 금리상승에 따른 채권평가손실로 인해 자본 증가폭은 제한된 반면, 기업대출이 증가하고 환율상승 등으로 위험가중자산도 크게 늘면서 자산증가율(+4.5%)이 자본 증가율(1.4%)을 상회했기 때문이라고 금감원은 분석했다.금감원은 9월 말 현재 모든 국내은행이 규제비율(자본보전완충자본 및D-SIB추가자본 포함)을 상회했다고 밝혔다.다만 토스뱅크의 경우 내년까지는 바젤Ⅰ 적용으로 완충자본 및 단순기본자본비율 규제가 적용되지 않는다.한편 위험가중자산이 감소하거나 상대적으로 보통주자본이 크게 증가한 4개 은행(BNK·JB·씨티·수협)은 전분기말 대비 보통주자본비율이 상승했다.위험가중자산 증가율이 보통주자본 증가율을 상회한 12개 은행(신한, 하나, KB, DGB, 농협, 우리, SC, 산업, 기업, 수출입, 케이, 카카오)은 보통주자본비율이 하락했다.금감원 관계자는 "올해 9월 말 국내은행의 자본비율 하락은 금리상승이 지속되는 데다, 3분기 중 환율 상승으로 위험가중자산이 큰 폭으로 증가했기 때문"이라며 "다만 현재까지 국내은행의 자본비율은 규제비율을 상회하는 등 양호한 수준을 유지하고 있다"고 설명했다.금감원은 향후 시장 변동성이 확대되고 대내외 경제여건이 악화될 가능성에 대비해 은행들의 손실흡수능력 확충을 유도하고 자본비율 현황에 대한 모니터링도 한층 강화한다는 방침이다.※CBS노컷뉴스는 여러분의 제보로 함께 세상을 바꿉니다. 각종 비리와 부당대우, 사건사고와 미담 등 모든 얘깃거리를 알려주세요.이메일 : jebo@cbs.co.kr카카오톡 : @노컷뉴스사이트 : https://url.kr/b71afn</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
